--- a/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
+++ b/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\테크윙프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\md\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E28635-B768-4C79-9E65-3830EEF61AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24314CF-B335-4F10-91BD-554A673BFB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,59 +351,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>663389</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>71714</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>79971</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="170" name="직선 화살표 연결선 169">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA791B0E-39B0-4955-9091-C7F986D8E5A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1335742" y="38171714"/>
-          <a:ext cx="2725270" cy="232375"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>489857</xdr:colOff>
       <xdr:row>121</xdr:row>
@@ -2254,15 +2201,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>385483</xdr:colOff>
+      <xdr:colOff>387387</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>98615</xdr:rowOff>
+      <xdr:rowOff>94805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>368674</xdr:colOff>
+      <xdr:colOff>428624</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>194763</xdr:rowOff>
+      <xdr:rowOff>196668</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2277,8 +2224,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3747248" y="7046262"/>
-          <a:ext cx="2000250" cy="544383"/>
+          <a:off x="3721137" y="6886130"/>
+          <a:ext cx="2041487" cy="540013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3457,16 +3404,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>21010</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>200150</xdr:rowOff>
+      <xdr:rowOff>205865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>655863</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>12807</xdr:rowOff>
+      <xdr:colOff>659674</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>5922</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3481,8 +3428,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1365716" y="23060150"/>
-          <a:ext cx="5341323" cy="485010"/>
+          <a:off x="3981450" y="22551515"/>
+          <a:ext cx="2678974" cy="238207"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3510,123 +3457,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>653141</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>112651</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19322</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>144670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>635020</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>137671</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="직사각형 112">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE9C5B3F-FAE4-4F90-9F8F-0E26759C55A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1997847" y="23196769"/>
-          <a:ext cx="1326585" cy="473255"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>WinFORM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>에</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 제품 정보</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 전송</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>32657</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>62755</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>14535</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>87774</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666045</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>177309</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3641,8 +3481,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="705010" y="24043343"/>
-          <a:ext cx="1326584" cy="473255"/>
+          <a:off x="3353072" y="22928470"/>
+          <a:ext cx="1313473" cy="470789"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5147,15 +4987,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>394447</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>152403</xdr:rowOff>
+      <xdr:colOff>398257</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>30483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>668176</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>3368</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1426</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>108143</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5170,8 +5010,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4428565" y="39821227"/>
-          <a:ext cx="4980199" cy="75082"/>
+          <a:off x="4398757" y="37054158"/>
+          <a:ext cx="4937169" cy="77660"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5200,15 +5040,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>157860</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>223422</xdr:rowOff>
+      <xdr:colOff>163575</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>107217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>133367</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>169919</xdr:rowOff>
+      <xdr:colOff>129557</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>63239</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5223,8 +5063,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4191978" y="39444010"/>
-          <a:ext cx="1992565" cy="842968"/>
+          <a:off x="4164075" y="36692742"/>
+          <a:ext cx="1966232" cy="832322"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6073,16 +5913,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>343573</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>105449</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>8966</xdr:rowOff>
+      <xdr:rowOff>12776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>412153</xdr:colOff>
+      <xdr:colOff>116206</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>50204</xdr:rowOff>
+      <xdr:rowOff>57824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6097,8 +5937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1688279" y="8973672"/>
-          <a:ext cx="1413286" cy="265356"/>
+          <a:off x="2105699" y="8775776"/>
+          <a:ext cx="677507" cy="264123"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6134,7 +5974,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>CMD=DRAW_CAN</a:t>
+            <a:t>CMD=IS</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -6270,16 +6110,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>352537</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>59167</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>179299</xdr:rowOff>
+      <xdr:rowOff>169774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>421117</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>220538</xdr:rowOff>
+      <xdr:rowOff>212918</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6294,8 +6134,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1697243" y="15643417"/>
-          <a:ext cx="1413286" cy="265356"/>
+          <a:off x="2059417" y="15285949"/>
+          <a:ext cx="817133" cy="262219"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6331,7 +6171,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>CMD=BELT_RUN</a:t>
+            <a:t>CMD=RUN</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -6468,13 +6308,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>343573</xdr:colOff>
+      <xdr:colOff>600748</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>152403</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>412153</xdr:colOff>
+      <xdr:colOff>310515</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>193641</xdr:rowOff>
     </xdr:to>
@@ -6491,8 +6331,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1688279" y="19874756"/>
-          <a:ext cx="1413286" cy="265356"/>
+          <a:off x="1934248" y="19431003"/>
+          <a:ext cx="1043267" cy="260313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6528,7 +6368,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>CMD=REMOVE_CAN</a:t>
+            <a:t>CMD=REMOVE</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -6858,15 +6698,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>15129</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:colOff>47514</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6881,8 +6721,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3361766" y="36531176"/>
-          <a:ext cx="1359834" cy="387948"/>
+          <a:off x="3362326" y="38168580"/>
+          <a:ext cx="1352438" cy="396240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6931,15 +6771,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>618566</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>215150</xdr:rowOff>
+      <xdr:colOff>645236</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>47510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>654904</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>17926</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22444</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>82696</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6954,8 +6794,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1290919" y="36746326"/>
-          <a:ext cx="2053397" cy="251012"/>
+          <a:off x="1311986" y="38385635"/>
+          <a:ext cx="2044208" cy="254261"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6983,87 +6823,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>352539</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12214</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>161364</xdr:rowOff>
+      <xdr:rowOff>10307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>421119</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>202602</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="166" name="TextBox 165">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACADA57A-2CDE-4802-A51B-C009CAF02BFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1697245" y="36692540"/>
-          <a:ext cx="1413286" cy="265356"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>CMD=CAN_STATE</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>17929</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>17927</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>672160</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>42946</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>658825</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>39136</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7078,8 +6847,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="690282" y="37221456"/>
-          <a:ext cx="1326584" cy="473255"/>
+          <a:off x="3345964" y="35719532"/>
+          <a:ext cx="1313361" cy="466979"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7149,15 +6918,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>363743</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>163270</xdr:rowOff>
+      <xdr:colOff>531383</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>104215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>222212</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>215265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7172,8 +6941,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1697243" y="36956984"/>
-          <a:ext cx="1858719" cy="639551"/>
+          <a:off x="1864883" y="38223265"/>
+          <a:ext cx="1173592" cy="549200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7431,16 +7200,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>663388</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>71717</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>448</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>174587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>6163</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>11429</xdr:rowOff>
+      <xdr:colOff>8068</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>118109</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7455,8 +7224,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3352800" y="48705246"/>
-          <a:ext cx="1359834" cy="387948"/>
+          <a:off x="3334198" y="48371087"/>
+          <a:ext cx="1341120" cy="381672"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7506,14 +7275,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>62749</xdr:rowOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>163714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645938</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>89643</xdr:rowOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>198228</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7528,8 +7297,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1281953" y="48920396"/>
-          <a:ext cx="2053397" cy="251012"/>
+          <a:off x="1276350" y="48579289"/>
+          <a:ext cx="2036588" cy="253589"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7559,14 +7328,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>343573</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>8963</xdr:rowOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>115643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>412153</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>50201</xdr:rowOff>
+      <xdr:colOff>410248</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>158786</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7581,8 +7350,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1688279" y="48866610"/>
-          <a:ext cx="1413286" cy="265356"/>
+          <a:off x="1677073" y="48531218"/>
+          <a:ext cx="1400175" cy="262218"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8036,16 +7805,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>17930</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>16025</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>672161</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>25020</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>660731</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>63120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8060,8 +7829,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="690283" y="49530000"/>
-          <a:ext cx="1326584" cy="473255"/>
+          <a:off x="3349775" y="47373540"/>
+          <a:ext cx="1311456" cy="447930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8212,6 +7981,421 @@
             <a:t>pi 2 client = control_client</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5959</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>1252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="직선 화살표 연결선 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5690645-8C9D-4C39-A4B5-E9433F91819B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1339459" y="23661352"/>
+          <a:ext cx="2661041" cy="236873"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD3ED4AD-AB18-484C-A080-82F0DB285505}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11525250" y="37067490"/>
+          <a:ext cx="3977640" cy="834390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>QR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>코드 값 받고 서버의 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>에 제품 정보 조회</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>윈폼에 데이터를 보내고 화면에 표시한다</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="TextBox 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3631E9B2-7391-47CF-9A34-6688F97636EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="23583900"/>
+          <a:ext cx="1809750" cy="306705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>WinForm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>에 제품 정보 전송</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="타원 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F38F02-2B7C-452D-90DA-91CAEBDD7B54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="41367075"/>
+          <a:ext cx="9648825" cy="4533900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="화살표: 오른쪽 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7761BAD7-725D-4D3D-8F3A-6671F69CB862}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9458325" y="40890825"/>
+          <a:ext cx="2914650" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A3B5A5C-CECD-4C5A-B41C-F9A0804E1815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13049250" y="40528875"/>
+          <a:ext cx="2590800" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>오후에 수정 </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8485,8 +8669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U62" sqref="U62"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
+++ b/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\md\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24314CF-B335-4F10-91BD-554A673BFB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A494D8DB-F3E0-4B26-9CE4-95D7BAD45BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1341,7 +1341,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>PI_ONE_STATE=START     </a:t>
+            <a:t>&lt;PI_ONE_STATE=START&gt;     </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
@@ -1368,9 +1368,34 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
             <a:t>PI_ONE_STATE=FAIL</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1488,7 +1513,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>PI_TWO_STATE=START     </a:t>
+            <a:t>&lt;PI_TWO_STATE=START &gt;    </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
@@ -1516,7 +1541,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>PI_TWO_STATE=FAIL</a:t>
+            <a:t>&lt;PI_TWO_STATE=FAIL&gt;</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1818,16 +1843,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>8965</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>460450</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>53790</xdr:rowOff>
+      <xdr:rowOff>91890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>429857</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>90675</xdr:rowOff>
+      <xdr:rowOff>136395</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1842,8 +1867,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6060141" y="11707908"/>
-          <a:ext cx="420892" cy="261002"/>
+          <a:off x="5794450" y="11483790"/>
+          <a:ext cx="634925" cy="263580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1879,7 +1904,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>ACK</a:t>
+            <a:t>&lt;ACK&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2380,7 +2405,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>SENSOR_STATE=ON     </a:t>
+            <a:t>&lt;SENSOR_STATE=ON&gt;     </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
@@ -2408,7 +2433,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>SENSOR_STATE=OFF</a:t>
+            <a:t>&lt;SENSOR_STATE=OFF&gt;</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2953,11 +2978,11 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>LINE_STATE</a:t>
+            <a:t>&lt;LINE_STATE</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>=RUNNING</a:t>
+            <a:t>=RUNNING&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
         </a:p>
@@ -3072,11 +3097,11 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>LINE_STATE</a:t>
+            <a:t>&lt;LINE_STATE</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>=PASSING</a:t>
+            <a:t>=PASSING&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
         </a:p>
@@ -3184,14 +3209,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>235819</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>203802</xdr:rowOff>
+      <xdr:rowOff>207612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>455503</xdr:colOff>
+      <xdr:colOff>455504</xdr:colOff>
       <xdr:row>102</xdr:row>
       <xdr:rowOff>189282</xdr:rowOff>
     </xdr:to>
@@ -3208,8 +3233,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4269937" y="22391449"/>
-          <a:ext cx="2236742" cy="657833"/>
+          <a:off x="3800476" y="21896037"/>
+          <a:ext cx="2655778" cy="638895"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3245,7 +3270,15 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>QRCODE=1234567890</a:t>
+            <a:t>&lt;QRCODE=1234567890|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
+            <a:t>이미지 데이터</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4011,15 +4044,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>642258</xdr:colOff>
+      <xdr:colOff>361951</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>23057</xdr:rowOff>
+      <xdr:rowOff>19247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>403252</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>52991</xdr:rowOff>
+      <xdr:rowOff>56801</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4034,8 +4067,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8710493" y="27813645"/>
-          <a:ext cx="433347" cy="254052"/>
+          <a:off x="8362951" y="27184547"/>
+          <a:ext cx="590549" cy="256629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4071,7 +4104,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>ACK</a:t>
+            <a:t>&lt;ACK&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -4286,15 +4319,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>628631</xdr:colOff>
+      <xdr:colOff>533381</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>102456</xdr:rowOff>
+      <xdr:rowOff>9111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>544765</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>193610</xdr:rowOff>
+      <xdr:colOff>455230</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4309,8 +4342,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6679807" y="30582456"/>
-          <a:ext cx="2605546" cy="763507"/>
+          <a:off x="6534131" y="29803311"/>
+          <a:ext cx="2588849" cy="869094"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4387,11 +4420,11 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>LINE_STATE</a:t>
+            <a:t>&lt;LINE_STATE</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>=STOP</a:t>
+            <a:t>=STOP&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4849,11 +4882,11 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>LINE_STATE</a:t>
+            <a:t>&lt;LINE_STATE</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>=WORKING</a:t>
+            <a:t>=WORKING&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
         </a:p>
@@ -4917,15 +4950,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>402773</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>174172</xdr:rowOff>
+      <xdr:colOff>383723</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>612931</xdr:colOff>
+      <xdr:colOff>593881</xdr:colOff>
       <xdr:row>161</xdr:row>
-      <xdr:rowOff>126580</xdr:rowOff>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4940,8 +4973,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7151916" y="34790743"/>
-          <a:ext cx="2234901" cy="387837"/>
+          <a:off x="7051223" y="35092822"/>
+          <a:ext cx="2210408" cy="313508"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4977,7 +5010,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>QRCODE=1234567890</a:t>
+            <a:t>&lt;QRCODE=1234567890&gt;</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5264,7 +5297,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>로봇 동작 하여 제품 분류 진행</a:t>
+            <a:t>기계 동작 하여 제품 분류 진행</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
@@ -5353,7 +5386,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>윈폼 화면에서 로봇 동작 분류 그림 표시 한다</a:t>
+            <a:t>윈폼 화면에서 기계 동작 분류 그림 표시 한다</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
@@ -5498,11 +5531,11 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>LINE_STATE</a:t>
+            <a:t>&lt;LINE_STATE</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>=COMPLETE</a:t>
+            <a:t>=COMPLETE&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
         </a:p>
@@ -8199,202 +8232,6 @@
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
             <a:t>에 제품 정보 전송</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="타원 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F38F02-2B7C-452D-90DA-91CAEBDD7B54}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1314450" y="41367075"/>
-          <a:ext cx="9648825" cy="4533900"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="화살표: 오른쪽 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7761BAD7-725D-4D3D-8F3A-6671F69CB862}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9458325" y="40890825"/>
-          <a:ext cx="2914650" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="TextBox 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A3B5A5C-CECD-4C5A-B41C-F9A0804E1815}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13049250" y="40528875"/>
-          <a:ext cx="2590800" cy="1343025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>오후에 수정 </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8669,8 +8506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M216" sqref="M216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
+++ b/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\md\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A494D8DB-F3E0-4B26-9CE4-95D7BAD45BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B903C2E2-1A61-4F30-91C7-1A74D5ADFF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3869,15 +3869,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>359228</xdr:colOff>
+      <xdr:colOff>363038</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>44829</xdr:rowOff>
+      <xdr:rowOff>46734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>334735</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>153686</xdr:rowOff>
+      <xdr:colOff>332830</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3892,8 +3892,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4393346" y="26938947"/>
-          <a:ext cx="1992565" cy="557092"/>
+          <a:off x="4363538" y="26335734"/>
+          <a:ext cx="1970042" cy="715266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3940,6 +3940,35 @@
             <a:t>PI.2</a:t>
           </a:r>
           <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 분류 정보 전송 </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CMD=CLASSIFY_LEFT</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -3949,23 +3978,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>제품 검사 촬영 시작</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
+            <a:t>  OR</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
@@ -3978,8 +3992,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>CMD=CAPTURE_START</a:t>
-          </a:r>
+            <a:t>CMD=CLASSIFY_RIGHT</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="ko-KR" altLang="ko-KR">
             <a:effectLst/>
           </a:endParaRPr>
@@ -4115,15 +4140,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>87086</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>192746</xdr:rowOff>
+      <xdr:colOff>92801</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>59396</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>46265</xdr:colOff>
+      <xdr:colOff>50075</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>169614</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4138,8 +4163,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11517086" y="27086864"/>
-          <a:ext cx="3320944" cy="873338"/>
+          <a:off x="11427551" y="26567471"/>
+          <a:ext cx="3291024" cy="643549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4175,34 +4200,38 @@
         <a:p>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>제품이 중간 위치에 왔기때문에</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>마지막 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>양품</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>or </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>불량품에 대한 정보를 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
             <a:t>PI2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>에게</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> 픽시 캠</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t> 촬영 준비 할 수 있도록 명령 전송 한다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>.</a:t>
+            <a:t>에게 전송한다</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>PI2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>는 정보를 전송받고  분류 공정을 미리 움직인다</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -8233,6 +8262,66 @@
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
             <a:t>에 제품 정보 전송</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B42A3D93-900D-4625-BFEC-EBF5F862DDF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="28933140"/>
+          <a:ext cx="10991850" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8506,8 +8595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M216" sqref="M216"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J145" sqref="J145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
+++ b/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\md\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B903C2E2-1A61-4F30-91C7-1A74D5ADFF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D1E60B-2AED-41BF-95CA-ACF2003AB89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로토콜 흐름도" sheetId="1" r:id="rId1"/>
@@ -353,14 +353,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>77486</xdr:rowOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>132908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>660682</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>55714</xdr:rowOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>111137</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -375,8 +375,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5196328" y="27195721"/>
-          <a:ext cx="4204942" cy="202346"/>
+          <a:off x="5144984" y="29615381"/>
+          <a:ext cx="4160934" cy="199901"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -406,14 +406,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>32657</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>80686</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>39128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>5662</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>56159</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>14601</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -428,8 +428,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4066775" y="18458333"/>
-          <a:ext cx="5351828" cy="647826"/>
+          <a:off x="4022766" y="19768001"/>
+          <a:ext cx="5293151" cy="640491"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -458,15 +458,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>44822</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>8968</xdr:rowOff>
+      <xdr:colOff>3258</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>22831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>21564</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>215410</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>645019</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>7600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -481,8 +481,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4078940" y="7853086"/>
-          <a:ext cx="5355565" cy="654677"/>
+          <a:off x="3993367" y="8668067"/>
+          <a:ext cx="5296888" cy="649788"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -512,14 +512,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>664029</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>165851</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>13453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>637033</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>147728</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>217003</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -534,8 +534,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4025794" y="14509380"/>
-          <a:ext cx="5351827" cy="654230"/>
+          <a:off x="3989120" y="15752217"/>
+          <a:ext cx="5293149" cy="646895"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -565,14 +565,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>198508</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>46110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>26897</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>27758</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>97033</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -587,8 +587,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5836025" y="13869684"/>
-          <a:ext cx="3603813" cy="277486"/>
+          <a:off x="5777346" y="15119855"/>
+          <a:ext cx="3559806" cy="272596"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -618,14 +618,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>35859</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>152402</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>5</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>660954</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>27150</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>96425</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -640,8 +640,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4069977" y="11806520"/>
-          <a:ext cx="2642153" cy="322983"/>
+          <a:off x="4025968" y="12857023"/>
+          <a:ext cx="2620150" cy="318093"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1706,14 +1706,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>576944</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>40985</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>110260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>154884</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>2486</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1728,8 +1728,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3938709" y="10798632"/>
-          <a:ext cx="1992566" cy="562134"/>
+          <a:off x="3902035" y="11858915"/>
+          <a:ext cx="1970561" cy="557244"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1792,14 +1792,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>566058</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>117184</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>186460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>26895</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>185870</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>33473</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1814,8 +1814,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5944882" y="11098949"/>
-          <a:ext cx="805542" cy="68686"/>
+          <a:off x="5886203" y="12156787"/>
+          <a:ext cx="790874" cy="68686"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1845,14 +1845,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>460450</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>91890</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>136395</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>205671</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1867,8 +1867,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5794450" y="11483790"/>
-          <a:ext cx="634925" cy="263580"/>
+          <a:off x="5780595" y="12796511"/>
+          <a:ext cx="633194" cy="266178"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1914,16 +1914,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>672352</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>217261</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7334</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>64863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>20125</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>152405</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>7</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1938,8 +1938,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10757646" y="13440202"/>
-          <a:ext cx="692479" cy="2848674"/>
+          <a:off x="10647625" y="14695263"/>
+          <a:ext cx="677809" cy="2816889"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -1977,14 +1977,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>102978</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>46401</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>115676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>168293</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>52512</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>121786</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1999,8 +1999,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11532978" y="14389930"/>
-          <a:ext cx="2754727" cy="1126700"/>
+          <a:off x="11408287" y="15632767"/>
+          <a:ext cx="2725388" cy="1114474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2149,14 +2149,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>100536</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>169811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>356508</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>218007</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>65609</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2171,8 +2171,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4415118" y="13547595"/>
-          <a:ext cx="1992566" cy="565706"/>
+          <a:off x="4371109" y="14800211"/>
+          <a:ext cx="1970563" cy="560816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2227,14 +2227,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>387387</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>94805</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>108669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>196668</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>210531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2249,8 +2249,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3721137" y="6886130"/>
-          <a:ext cx="2041487" cy="540013"/>
+          <a:off x="3712478" y="7867214"/>
+          <a:ext cx="2036291" cy="545208"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2304,15 +2304,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>206189</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>35862</xdr:rowOff>
+      <xdr:colOff>164625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>49725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>15689</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>72323</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>639143</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>86186</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2327,8 +2327,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6929718" y="7655862"/>
-          <a:ext cx="1826559" cy="708814"/>
+          <a:off x="6814807" y="8473289"/>
+          <a:ext cx="1804554" cy="701479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2443,15 +2443,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>385481</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>206192</xdr:rowOff>
+      <xdr:colOff>343917</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>220056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>627530</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>35442</xdr:rowOff>
+      <xdr:colOff>585966</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>49305</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2466,8 +2466,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5764305" y="7153839"/>
-          <a:ext cx="3603813" cy="277485"/>
+          <a:off x="5664062" y="7978601"/>
+          <a:ext cx="3567140" cy="272595"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2495,16 +2495,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152402</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>623454</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>166266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>20126</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>643580</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85581</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2519,8 +2519,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10757647" y="7100049"/>
-          <a:ext cx="692479" cy="2160493"/>
+          <a:off x="10598727" y="7924811"/>
+          <a:ext cx="685144" cy="2136043"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2557,15 +2557,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>125505</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>17932</xdr:rowOff>
+      <xdr:colOff>83941</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>31795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>87965</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>35861</xdr:rowOff>
+      <xdr:colOff>46401</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>49724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2580,8 +2580,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11555505" y="7862050"/>
-          <a:ext cx="3324225" cy="690282"/>
+          <a:off x="11389250" y="8677031"/>
+          <a:ext cx="3287551" cy="682948"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2720,16 +2720,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>672352</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>80686</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7334</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>149961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>22687</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>177668</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>25271</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2744,8 +2744,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10757646" y="10838333"/>
-          <a:ext cx="695041" cy="1217570"/>
+          <a:off x="10647625" y="11898616"/>
+          <a:ext cx="680371" cy="1205346"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2783,14 +2783,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>85689</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>176847</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>24450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>151004</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>144190</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>213466</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2805,8 +2805,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11515689" y="11158612"/>
-          <a:ext cx="2754727" cy="639696"/>
+          <a:off x="11390998" y="12216450"/>
+          <a:ext cx="2725388" cy="632361"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2902,14 +2902,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>424542</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>182502</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>30104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>235883</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>223420</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>71022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2924,8 +2924,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7148071" y="14526031"/>
-          <a:ext cx="1828400" cy="265036"/>
+          <a:off x="7074724" y="15768868"/>
+          <a:ext cx="1806395" cy="262590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2994,14 +2994,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>391885</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>146000</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>104442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>203226</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>150404</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>108846</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3016,8 +3016,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7115414" y="18299529"/>
-          <a:ext cx="1828400" cy="676757"/>
+          <a:off x="7042067" y="19611642"/>
+          <a:ext cx="1806395" cy="669422"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3113,14 +3113,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>139594</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>89651</xdr:rowOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>48093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>89248</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>22048</xdr:rowOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>202163</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3135,8 +3135,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11569594" y="18691416"/>
-          <a:ext cx="3311419" cy="1052985"/>
+          <a:off x="11444903" y="19998638"/>
+          <a:ext cx="3274745" cy="1040761"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3211,14 +3211,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>207612</xdr:rowOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>221472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>455504</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>189282</xdr:rowOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>203142</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3233,8 +3233,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3800476" y="21896037"/>
-          <a:ext cx="2655778" cy="638895"/>
+          <a:off x="3791817" y="24383799"/>
+          <a:ext cx="2648851" cy="646688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3337,14 +3337,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>2690</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>182495</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>196354</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>638528</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>182879</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>196738</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3359,8 +3359,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6726219" y="22146024"/>
-          <a:ext cx="1308191" cy="672737"/>
+          <a:off x="6652872" y="24137009"/>
+          <a:ext cx="1300856" cy="665402"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3439,14 +3439,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>205865</xdr:rowOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>219725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>659674</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>5922</xdr:rowOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>19782</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3461,8 +3461,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3981450" y="22551515"/>
-          <a:ext cx="2678974" cy="238207"/>
+          <a:off x="3972791" y="25047070"/>
+          <a:ext cx="2672047" cy="243403"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3492,14 +3492,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19322</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>144670</xdr:rowOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>158530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>666045</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>177309</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1027</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>191169</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3514,8 +3514,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3353072" y="22928470"/>
-          <a:ext cx="1313473" cy="470789"/>
+          <a:off x="3344413" y="25429221"/>
+          <a:ext cx="1311741" cy="475984"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3586,14 +3586,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>192741</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>113339</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>127198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>142395</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>143435</xdr:rowOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>157294</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3608,8 +3608,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11622741" y="22749221"/>
-          <a:ext cx="3311419" cy="926567"/>
+          <a:off x="11498050" y="24732871"/>
+          <a:ext cx="3274745" cy="916787"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3870,14 +3870,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>363038</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>46734</xdr:rowOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>102156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>332830</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>160197</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3892,8 +3892,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4363538" y="26335734"/>
-          <a:ext cx="1970042" cy="715266"/>
+          <a:off x="4353147" y="29362956"/>
+          <a:ext cx="1964847" cy="723059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4017,14 +4017,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>87086</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>88372</xdr:rowOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>143794</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>642657</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>169550</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>3300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4039,8 +4039,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4121204" y="27878960"/>
-          <a:ext cx="5262041" cy="529414"/>
+          <a:off x="4077195" y="30291285"/>
+          <a:ext cx="5210698" cy="524524"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4070,14 +4070,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>19247</xdr:rowOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>74669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>56801</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>112223</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4092,8 +4092,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8362951" y="27184547"/>
-          <a:ext cx="590549" cy="256629"/>
+          <a:off x="8342169" y="30222160"/>
+          <a:ext cx="588817" cy="259227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4141,14 +4141,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>92801</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>59396</xdr:rowOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>114818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>50075</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>101142</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4163,8 +4163,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11427551" y="26567471"/>
-          <a:ext cx="3291024" cy="643549"/>
+          <a:off x="11398110" y="29597291"/>
+          <a:ext cx="3282365" cy="651342"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4243,14 +4243,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>32657</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>49294</xdr:rowOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>90857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>642257</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>87988</xdr:rowOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>129551</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4265,8 +4265,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4066775" y="31649882"/>
-          <a:ext cx="5316070" cy="262812"/>
+          <a:off x="4022766" y="35336821"/>
+          <a:ext cx="5264727" cy="260366"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4296,14 +4296,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>33553</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>139677</xdr:rowOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>181240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>638094</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>40296</xdr:rowOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>81859</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4318,8 +4318,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4067671" y="30843795"/>
-          <a:ext cx="5311011" cy="348854"/>
+          <a:off x="4023662" y="34540513"/>
+          <a:ext cx="5259668" cy="343964"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4349,14 +4349,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>533381</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>9111</xdr:rowOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>50674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>455230</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>43468</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4371,8 +4371,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6534131" y="29803311"/>
-          <a:ext cx="2588849" cy="869094"/>
+          <a:off x="6518545" y="34188274"/>
+          <a:ext cx="2581921" cy="879485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4453,9 +4453,285 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>=STOP&gt;</a:t>
-          </a:r>
-        </a:p>
+            <a:t>=CLASSIFYING&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>240412</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>176692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2228</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>16222</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="TextBox 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C507EA-C450-4EED-A7A9-E75DF90F0B67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4230521" y="35200983"/>
+          <a:ext cx="426834" cy="282875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>ACK</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>88366</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>175684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>45304</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>166254</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="TextBox 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30150DC-AA1B-4593-9DAF-48595311CED7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11393675" y="35421648"/>
+          <a:ext cx="3282029" cy="877261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>서버는 윈폼에 명령을 전송한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>윈폼에 마지막 공정에 도달한 모습을 보여준다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63059</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>33962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2581</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>175074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="직선 화살표 연결선 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F35799C-F5F7-4937-8959-C48F93034384}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4053168" y="41043417"/>
+          <a:ext cx="5259668" cy="362784"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>103929</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>151385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590183</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="TextBox 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11AA207B-891F-4679-98B0-1A3A536DB0DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419129" y="40939167"/>
+          <a:ext cx="1816290" cy="292754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
@@ -4475,89 +4751,14 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>&lt;LINE_STATE</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>( *</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
-            <a:t>센서 감지되면 자동으로 컨베이어 정지 시킨다 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>)</a:t>
+            <a:t>=WORKING&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>240412</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>135129</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>667246</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>196331</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="TextBox 127">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C507EA-C450-4EED-A7A9-E75DF90F0B67}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4274530" y="31511600"/>
-          <a:ext cx="426834" cy="285319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>ACK</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4566,22 +4767,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>231768</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>60225</xdr:rowOff>
+      <xdr:colOff>279877</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>99301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>337936</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>95156</xdr:rowOff>
+      <xdr:colOff>395570</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>124259</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="직사각형 128">
+        <xdr:cNvPr id="137" name="직사각형 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7320161E-E29C-4887-A237-DEF5F21A8B75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0EC5F4-C8B6-4ABB-9028-D14E3F70F398}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4589,8 +4790,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8300003" y="32557284"/>
-          <a:ext cx="2123227" cy="931401"/>
+          <a:off x="8260095" y="41330428"/>
+          <a:ext cx="2110748" cy="911649"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4629,687 +4830,6 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>컨베이어 정지 후 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>QRCODE </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>촬영</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>88366</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>189539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>45304</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>170331</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="TextBox 129">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30150DC-AA1B-4593-9DAF-48595311CED7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11518366" y="31566010"/>
-          <a:ext cx="3318703" cy="1325497"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>마지막 센서 감지되면 별도의 서버 명령 필요</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> 없이</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>PI </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>에서 컨베이어 정지 시키고</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>, QR </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>촬영 진행 한다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>서버는 윈폼에 명령을 전송한다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>윈폼에 마지막 공정에 도달한 모습을 보여준다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63059</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>33965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>667600</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>175076</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="직선 화살표 연결선 130">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F35799C-F5F7-4937-8959-C48F93034384}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4097177" y="43288671"/>
-          <a:ext cx="5311011" cy="365229"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>103929</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>151387</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590183</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>796</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="TextBox 131">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11AA207B-891F-4679-98B0-1A3A536DB0DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7499811" y="43181975"/>
-          <a:ext cx="1830960" cy="297645"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>&lt;LINE_STATE</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>=WORKING&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>128805</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>658970</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>45801</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="133" name="직선 화살표 연결선 132">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55566154-B099-46DC-B97B-AE03A20F1AEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4103915" y="34963091"/>
-          <a:ext cx="5328941" cy="352424"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>383723</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>593881</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>135255</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="TextBox 133">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4E5F85-E298-4074-9C52-0986129815A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7051223" y="35092822"/>
-          <a:ext cx="2210408" cy="313508"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>&lt;QRCODE=1234567890&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>398257</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>30483</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1426</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>108143</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="135" name="직선 화살표 연결선 134">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59054811-5944-495E-A1E9-C8ACA2B43977}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4398757" y="37054158"/>
-          <a:ext cx="4937169" cy="77660"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>163575</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>107217</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>129557</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>63239</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="TextBox 135">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEB2A0D-3635-4D6C-A746-7A2745875F1F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4164075" y="36692742"/>
-          <a:ext cx="1966232" cy="832322"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>해당 제품 불량 정보 전송</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>CMD=PRODUCT_PASS</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>또는</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>CMD=PRODUCT_FAIL</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>279877</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>99303</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>395570</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>124261</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="직사각형 136">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0EC5F4-C8B6-4ABB-9028-D14E3F70F398}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8348112" y="43578127"/>
-          <a:ext cx="2132752" cy="921428"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
             <a:t>서버로 부터 받은 정보를 가지고</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
@@ -5345,14 +4865,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>77479</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>8959</xdr:rowOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>8957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>36658</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>203542</xdr:rowOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>203540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5367,8 +4887,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11507479" y="43936018"/>
-          <a:ext cx="3320944" cy="866936"/>
+          <a:off x="11382788" y="41683430"/>
+          <a:ext cx="3284270" cy="859601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5851,14 +5371,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>663388</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>71720</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>6163</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>11432</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>25295</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5873,8 +5393,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3352800" y="8812308"/>
-          <a:ext cx="1359834" cy="387948"/>
+          <a:off x="3323461" y="9617510"/>
+          <a:ext cx="1337829" cy="383058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5924,14 +5444,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>62752</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645938</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>103509</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5946,8 +5466,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1281953" y="9027458"/>
-          <a:ext cx="2053397" cy="251012"/>
+          <a:off x="1274618" y="9830215"/>
+          <a:ext cx="2031393" cy="248567"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5977,14 +5497,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>105449</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>12776</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>26639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>116206</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>57824</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>71687</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5999,8 +5519,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2105699" y="8775776"/>
-          <a:ext cx="677507" cy="264123"/>
+          <a:off x="2100504" y="9780239"/>
+          <a:ext cx="675775" cy="266721"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6046,16 +5566,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>672352</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>17935</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7334</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>87209</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>15127</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>181766</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>29368</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6070,8 +5590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3361764" y="15482053"/>
-          <a:ext cx="1359834" cy="387948"/>
+          <a:off x="3332425" y="16712664"/>
+          <a:ext cx="1337829" cy="385504"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6121,14 +5641,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>618564</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>8968</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>78243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>654902</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>35862</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>105137</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6143,8 +5663,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1290917" y="15697203"/>
-          <a:ext cx="2053397" cy="251012"/>
+          <a:off x="1283582" y="16925370"/>
+          <a:ext cx="2031393" cy="248567"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6174,14 +5694,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>59167</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>169774</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>17376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>212918</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>60520</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6196,8 +5716,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2059417" y="15285949"/>
-          <a:ext cx="817133" cy="262219"/>
+          <a:off x="2054222" y="16864503"/>
+          <a:ext cx="815401" cy="264817"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6245,14 +5765,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>663388</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>215157</xdr:rowOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>173599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>6163</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>154869</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>113311</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6267,8 +5787,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3352800" y="19713392"/>
-          <a:ext cx="1359834" cy="387948"/>
+          <a:off x="3323461" y="21010835"/>
+          <a:ext cx="1337829" cy="383058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6318,14 +5838,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>206189</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>164631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645938</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>8966</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>189080</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6340,8 +5860,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1281953" y="19928542"/>
-          <a:ext cx="2053397" cy="251012"/>
+          <a:off x="1274618" y="21223540"/>
+          <a:ext cx="2031393" cy="246122"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6371,14 +5891,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>600748</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>152403</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>110845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>310515</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>193641</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>152083</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6393,8 +5913,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1934248" y="19431003"/>
-          <a:ext cx="1043267" cy="260313"/>
+          <a:off x="1930784" y="21169754"/>
+          <a:ext cx="1039804" cy="262911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6442,14 +5962,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>89651</xdr:rowOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>48092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>29091</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>44827</xdr:rowOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>3269</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6464,8 +5984,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10766612" y="17794945"/>
-          <a:ext cx="692479" cy="2644588"/>
+          <a:off x="10649256" y="19111947"/>
+          <a:ext cx="685144" cy="2615249"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -6503,14 +6023,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>53789</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>67648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>20126</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>53788</xdr:rowOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>67647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6525,8 +6045,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10757647" y="22017318"/>
-          <a:ext cx="692479" cy="2465294"/>
+          <a:off x="10640291" y="24008303"/>
+          <a:ext cx="685144" cy="2438399"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -6562,16 +6082,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>672352</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>134472</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7334</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>176035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>15127</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>74185</xdr:rowOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>115748</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6586,8 +6106,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3361764" y="31959178"/>
-          <a:ext cx="1359834" cy="387948"/>
+          <a:off x="3332425" y="35643671"/>
+          <a:ext cx="1337829" cy="383059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6637,14 +6157,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>618564</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>125504</xdr:rowOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>167067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>654902</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>193962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6659,8 +6179,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1290917" y="32174328"/>
-          <a:ext cx="2053397" cy="251012"/>
+          <a:off x="1283582" y="35856376"/>
+          <a:ext cx="2031393" cy="248568"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6690,14 +6210,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>352537</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>113281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>421117</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>112957</xdr:rowOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>154520</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6712,8 +6232,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1697243" y="32120542"/>
-          <a:ext cx="1413286" cy="265356"/>
+          <a:off x="1682573" y="35802590"/>
+          <a:ext cx="1398617" cy="262912"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6759,23 +6279,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>663388</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>47514</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>6163</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>172794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="직사각형 163">
+        <xdr:cNvPr id="172" name="직사각형 171">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51037745-ED3D-47C2-B730-71A5719263AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04ED1BC9-2E39-4EA6-BFF7-BB5837838C6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6783,8 +6303,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3362326" y="38168580"/>
-          <a:ext cx="1352438" cy="396240"/>
+          <a:off x="3323461" y="42791800"/>
+          <a:ext cx="1337829" cy="385503"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6833,321 +6353,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>645236</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>47510</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>22444</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>82696</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="165" name="직선 화살표 연결선 164">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E088FF-0650-4EDF-8376-053AF583A8C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1311986" y="38385635"/>
-          <a:ext cx="2044208" cy="254261"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12214</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>10307</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>658825</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>39136</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="직사각형 167">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D0C70C6-501F-4049-934B-B4E9B43EAA67}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3345964" y="35719532"/>
-          <a:ext cx="1313361" cy="466979"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>에 제품 정보</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 조회</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>531383</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>104215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>215265</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="169" name="TextBox 168">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2B155C-A319-4627-9284-117A40EE5D50}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1864883" y="38223265"/>
-          <a:ext cx="1173592" cy="549200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>CMD=PASS </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>또는</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>CMD=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>FAIL</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>663388</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>8966</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>6163</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>172796</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="172" name="직사각형 171">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04ED1BC9-2E39-4EA6-BFF7-BB5837838C6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3352800" y="45056613"/>
-          <a:ext cx="1359834" cy="387948"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>윈폼에 정보 전송</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>224116</xdr:rowOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>2441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645938</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>26893</xdr:rowOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>26891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7162,8 +6376,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1281953" y="45271763"/>
-          <a:ext cx="2053397" cy="251012"/>
+          <a:off x="1274618" y="43006950"/>
+          <a:ext cx="2031393" cy="246123"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7193,14 +6407,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>343573</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>170330</xdr:rowOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>170328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>412153</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>211568</xdr:rowOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>211566</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7215,8 +6429,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1688279" y="45217977"/>
-          <a:ext cx="1413286" cy="265356"/>
+          <a:off x="1673609" y="42953164"/>
+          <a:ext cx="1398617" cy="262911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7564,14 +6778,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>17935</xdr:rowOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>73357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>20127</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>215157</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>48907</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7586,8 +6800,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10757648" y="26463817"/>
-          <a:ext cx="692479" cy="1990164"/>
+          <a:off x="10640292" y="28890812"/>
+          <a:ext cx="685144" cy="1970604"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -7625,14 +6839,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>26895</xdr:rowOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>68458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>20126</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>53790</xdr:rowOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>95353</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7647,8 +6861,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10757647" y="30506895"/>
-          <a:ext cx="692479" cy="3164542"/>
+          <a:off x="10640291" y="34206058"/>
+          <a:ext cx="685144" cy="3130313"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -7686,75 +6900,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>35852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>20126</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>17930</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="181" name="오른쪽 중괄호 180">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0EAE60-5DF2-4B64-B4AA-79AF5AB21134}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10757647" y="35760212"/>
-          <a:ext cx="692479" cy="4823012"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 8333"/>
-            <a:gd name="adj2" fmla="val 53448"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>35854</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>20126</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>35854</xdr:rowOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>35852</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7769,8 +6922,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10757647" y="43066442"/>
-          <a:ext cx="692479" cy="2465294"/>
+          <a:off x="10640291" y="40823634"/>
+          <a:ext cx="685144" cy="2438400"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -8052,14 +7205,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5959</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>1252</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>15112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>32909</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8074,8 +7227,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1339459" y="23661352"/>
-          <a:ext cx="2661041" cy="236873"/>
+          <a:off x="1335995" y="26172494"/>
+          <a:ext cx="2654114" cy="239470"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8103,23 +7256,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>156735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>25289</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="TextBox 12">
+        <xdr:cNvPr id="114" name="TextBox 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD3ED4AD-AB18-484C-A080-82F0DB285505}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3631E9B2-7391-47CF-9A34-6688F97636EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8127,8 +7280,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11525250" y="37067490"/>
-          <a:ext cx="3977640" cy="834390"/>
+          <a:off x="1834861" y="26092444"/>
+          <a:ext cx="1804555" cy="311900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8164,164 +7317,12 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>QR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>코드 값 받고 서버의 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>에 제품 정보 조회</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>윈폼에 데이터를 보내고 화면에 표시한다</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="TextBox 113">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3631E9B2-7391-47CF-9A34-6688F97636EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1838325" y="23583900"/>
-          <a:ext cx="1809750" cy="306705"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
             <a:t>WinForm</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
             <a:t>에 제품 정보 전송</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="직사각형 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B42A3D93-900D-4625-BFEC-EBF5F862DDF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="495300" y="28933140"/>
-          <a:ext cx="10991850" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8595,8 +7596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J145" sqref="J145"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
+++ b/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\md\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D1E60B-2AED-41BF-95CA-ACF2003AB89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6117F170-0D8C-4F49-951C-6D178459CEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2497,14 +2497,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>623454</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>166266</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>643580</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>85581</xdr:rowOff>
+      <xdr:rowOff>85582</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2519,8 +2519,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10598727" y="7924811"/>
-          <a:ext cx="685144" cy="2136043"/>
+          <a:off x="10708748" y="7001436"/>
+          <a:ext cx="692479" cy="3169440"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -4542,7 +4542,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>45304</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>166254</xdr:rowOff>
+      <xdr:rowOff>215154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4557,8 +4557,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11393675" y="35421648"/>
-          <a:ext cx="3282029" cy="877261"/>
+          <a:off x="11518366" y="35810390"/>
+          <a:ext cx="3318703" cy="935940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4613,7 +4613,6 @@
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
             <a:t>.</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7323,6 +7322,149 @@
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
             <a:t>에 제품 정보 전송</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>555812</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>484094</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="타원 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3501479-8929-4399-AA77-633D34210179}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228165" y="23119976"/>
+          <a:ext cx="9341223" cy="9574306"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251012</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>555812</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>215152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF40DC3C-4409-4373-AA56-51BFE3C8A9CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6302188" y="4679576"/>
+          <a:ext cx="2321859" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>파이마다 상태 다르게 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7596,8 +7738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S51" sqref="S51"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M211" sqref="M211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
+++ b/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\md\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6117F170-0D8C-4F49-951C-6D178459CEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A21D03D-A7CB-44AC-B85A-12307CEF1EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -962,7 +962,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>CMD=START</a:t>
+            <a:t>&lt;CMD=START&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1780,7 +1780,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>CMD=CAPTURE_START</a:t>
+            <a:t>&lt;CMD=CAPTURE_START&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2215,7 +2215,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>CMD=BELT_START</a:t>
+            <a:t>&lt;CMD=BELT_START&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -3966,7 +3966,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>CMD=CLASSIFY_LEFT</a:t>
+            <a:t>&lt;CMD=CLASSIFY_LEFT&gt;</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
@@ -3992,7 +3992,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>CMD=CLASSIFY_RIGHT</a:t>
+            <a:t>&lt;CMD=CLASSIFY_RIGHT&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
             <a:solidFill>
@@ -4469,7 +4469,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2228</xdr:colOff>
+      <xdr:colOff>268941</xdr:colOff>
       <xdr:row>160</xdr:row>
       <xdr:rowOff>16222</xdr:rowOff>
     </xdr:to>
@@ -4486,8 +4486,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4230521" y="35200983"/>
-          <a:ext cx="426834" cy="282875"/>
+          <a:off x="4274530" y="35587280"/>
+          <a:ext cx="700882" cy="287766"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4523,7 +4523,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>ACK</a:t>
+            <a:t>&lt;ACK&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5358,7 +5358,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>CMD=READY</a:t>
+            <a:t>&lt;CMD=READY&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5494,16 +5494,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>105449</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>589542</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>26639</xdr:rowOff>
+      <xdr:rowOff>44568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>116206</xdr:colOff>
+      <xdr:colOff>233081</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>71687</xdr:rowOff>
+      <xdr:rowOff>98612</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5518,8 +5518,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2100504" y="9780239"/>
-          <a:ext cx="675775" cy="266721"/>
+          <a:off x="1934248" y="9905744"/>
+          <a:ext cx="988245" cy="278162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5555,7 +5555,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>CMD=IS</a:t>
+            <a:t>&lt;CMD=IS&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5694,13 +5694,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>59167</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>17376</xdr:rowOff>
+      <xdr:rowOff>17375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>60520</xdr:rowOff>
+      <xdr:rowOff>71716</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5715,8 +5715,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2054222" y="16864503"/>
-          <a:ext cx="815401" cy="264817"/>
+          <a:off x="2076226" y="17050316"/>
+          <a:ext cx="1070386" cy="278459"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5752,7 +5752,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>CMD=RUN</a:t>
+            <a:t>&lt;CMD=RUN&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5891,13 +5891,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>600748</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>110845</xdr:rowOff>
+      <xdr:rowOff>110844</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>310515</xdr:colOff>
+      <xdr:colOff>618564</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>152083</xdr:rowOff>
+      <xdr:rowOff>197223</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5912,8 +5912,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1930784" y="21169754"/>
-          <a:ext cx="1039804" cy="262911"/>
+          <a:off x="1945454" y="21402020"/>
+          <a:ext cx="1362522" cy="310497"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5949,7 +5949,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>CMD=REMOVE</a:t>
+            <a:t>&lt;CMD=REMOVE&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -6268,7 +6268,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>CMD=LAST</a:t>
+            <a:t>&lt;CMD=LAST&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -6465,7 +6465,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>CMD=CLASSIFY</a:t>
+            <a:t>&lt;CMD=CLASSIFY&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -6662,7 +6662,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>CMD=FINISH</a:t>
+            <a:t>&lt;CMD=FINISH&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -7738,8 +7738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M211" sqref="M211"/>
+    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I224" sqref="I224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
+++ b/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\md\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A21D03D-A7CB-44AC-B85A-12307CEF1EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDAE03F-7C0A-43B1-BA6C-C04B121DA2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,6 +351,59 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>343917</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>220056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>585966</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>49305</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="직선 화살표 연결선 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36167BB-F67F-40DB-9770-311D81C7A5E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5664062" y="7978601"/>
+          <a:ext cx="3567140" cy="272595"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>489857</xdr:colOff>
       <xdr:row>133</xdr:row>
@@ -1044,7 +1097,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>CMD=REQUEST_START</a:t>
+            <a:t>&lt;CMD=REQUEST_START&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2232,7 +2285,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
+      <xdr:colOff>618564</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>210531</xdr:rowOff>
     </xdr:to>
@@ -2249,8 +2302,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3712478" y="7867214"/>
-          <a:ext cx="2036291" cy="545208"/>
+          <a:off x="3749152" y="7952787"/>
+          <a:ext cx="2248236" cy="550097"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2293,7 +2346,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>CMD=REQUEST_SENSOR_STATE</a:t>
+            <a:t>&lt;CMD=REQUEST_SENSOR_STATE&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2438,59 +2491,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>343917</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>220056</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>585966</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>49305</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="직선 화살표 연결선 96">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36167BB-F67F-40DB-9770-311D81C7A5E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5664062" y="7978601"/>
-          <a:ext cx="3567140" cy="272595"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -7738,8 +7738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I224" sqref="I224"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G250" sqref="G250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
+++ b/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\md\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\japgo\Google 드라이브\업무 문서\스마트 팩토리 멘토링\2021 멘토링\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDAE03F-7C0A-43B1-BA6C-C04B121DA2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D970E42F-40E0-41C7-950C-DEAA295D7D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로토콜 흐름도" sheetId="1" r:id="rId1"/>
@@ -3210,9 +3210,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>221472</xdr:rowOff>
+      <xdr:colOff>538655</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>157654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -3233,8 +3233,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3791817" y="24383799"/>
-          <a:ext cx="2648851" cy="646688"/>
+          <a:off x="3954517" y="22859999"/>
+          <a:ext cx="2649539" cy="886315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3269,17 +3269,73 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>&lt;QRCODE=1234567890|</a:t>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
+            <a:t>&lt;QRCODE=1234567890|QUALITY=PASS|</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="800"/>
             <a:t>이미지 데이터</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800"/>
             <a:t>&gt;</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;QRCODE=1234567890|QUALITY=FAIL|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이미지 데이터</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800"/>
         </a:p>
         <a:p>
           <a:r>
@@ -3966,7 +4022,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&lt;CMD=CLASSIFY_LEFT&gt;</a:t>
+            <a:t>&lt;CMD=CLASSIFY_LEFT &gt;</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
@@ -7738,18 +7794,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G250" sqref="G250"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -7775,7 +7831,7 @@
       <c r="O4" s="19"/>
       <c r="P4" s="20"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -7793,7 +7849,7 @@
       <c r="O5" s="22"/>
       <c r="P5" s="23"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
@@ -7806,7 +7862,7 @@
       <c r="N6" s="6"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="D7" s="2"/>
@@ -7817,7 +7873,7 @@
       <c r="N7" s="5"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="D8" s="2"/>
@@ -7829,7 +7885,7 @@
       <c r="N8" s="5"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
@@ -7840,7 +7896,7 @@
       <c r="N9" s="5"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
@@ -7851,7 +7907,7 @@
       <c r="N10" s="5"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
@@ -7862,7 +7918,7 @@
       <c r="N11" s="5"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="D12" s="2"/>
       <c r="E12" s="4"/>
@@ -7873,7 +7929,7 @@
       <c r="N12" s="5"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
@@ -7884,7 +7940,7 @@
       <c r="N13" s="5"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
@@ -7895,7 +7951,7 @@
       <c r="N14" s="5"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="D15" s="2"/>
       <c r="E15" s="4"/>
@@ -7906,7 +7962,7 @@
       <c r="N15" s="5"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
@@ -7917,7 +7973,7 @@
       <c r="N16" s="5"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
@@ -7928,7 +7984,7 @@
       <c r="N17" s="5"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="D18" s="2"/>
       <c r="E18" s="4"/>
@@ -7939,7 +7995,7 @@
       <c r="N18" s="5"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="D19" s="2"/>
       <c r="E19" s="4"/>
@@ -7950,7 +8006,7 @@
       <c r="N19" s="5"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
@@ -7961,7 +8017,7 @@
       <c r="N20" s="5"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="D21" s="2"/>
       <c r="E21" s="4"/>
@@ -7972,7 +8028,7 @@
       <c r="N21" s="5"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
@@ -7983,7 +8039,7 @@
       <c r="N22" s="5"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="D23" s="2"/>
       <c r="E23" s="4"/>
@@ -7994,7 +8050,7 @@
       <c r="N23" s="5"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="D24" s="2"/>
       <c r="E24" s="4"/>
@@ -8005,7 +8061,7 @@
       <c r="N24" s="5"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
@@ -8016,7 +8072,7 @@
       <c r="N25" s="5"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="D26" s="2"/>
       <c r="E26" s="4"/>
@@ -8027,7 +8083,7 @@
       <c r="N26" s="5"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="D27" s="2"/>
       <c r="E27" s="4"/>
@@ -8038,7 +8094,7 @@
       <c r="N27" s="5"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
       <c r="D28" s="2"/>
       <c r="E28" s="4"/>
@@ -8049,7 +8105,7 @@
       <c r="N28" s="5"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="D29" s="2"/>
       <c r="E29" s="4"/>
@@ -8060,7 +8116,7 @@
       <c r="N29" s="5"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="D30" s="2"/>
       <c r="E30" s="4"/>
@@ -8071,7 +8127,7 @@
       <c r="N30" s="5"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="D31" s="2"/>
       <c r="E31" s="4"/>
@@ -8082,7 +8138,7 @@
       <c r="N31" s="5"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="D32" s="2"/>
       <c r="E32" s="4"/>
@@ -8093,7 +8149,7 @@
       <c r="N32" s="5"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="D33" s="2"/>
       <c r="E33" s="4"/>
@@ -8104,7 +8160,7 @@
       <c r="N33" s="5"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
       <c r="D34" s="2"/>
       <c r="E34" s="4"/>
@@ -8115,7 +8171,7 @@
       <c r="N34" s="5"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
       <c r="D35" s="2"/>
       <c r="E35" s="4"/>
@@ -8126,7 +8182,7 @@
       <c r="N35" s="5"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
       <c r="D36" s="2"/>
       <c r="E36" s="4"/>
@@ -8137,7 +8193,7 @@
       <c r="N36" s="5"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
       <c r="D37" s="2"/>
       <c r="E37" s="4"/>
@@ -8148,7 +8204,7 @@
       <c r="N37" s="5"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="5"/>
       <c r="D38" s="2"/>
       <c r="E38" s="4"/>
@@ -8159,7 +8215,7 @@
       <c r="N38" s="5"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
       <c r="D39" s="2"/>
       <c r="E39" s="4"/>
@@ -8170,7 +8226,7 @@
       <c r="N39" s="5"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="5"/>
       <c r="D40" s="2"/>
       <c r="E40" s="4"/>
@@ -8181,7 +8237,7 @@
       <c r="N40" s="5"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="5"/>
       <c r="D41" s="2"/>
       <c r="E41" s="4"/>
@@ -8192,7 +8248,7 @@
       <c r="N41" s="5"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
       <c r="D42" s="2"/>
       <c r="E42" s="4"/>
@@ -8203,7 +8259,7 @@
       <c r="N42" s="5"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
       <c r="D43" s="2"/>
       <c r="E43" s="4"/>
@@ -8214,7 +8270,7 @@
       <c r="N43" s="5"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
       <c r="D44" s="2"/>
       <c r="E44" s="4"/>
@@ -8225,7 +8281,7 @@
       <c r="N44" s="5"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
       <c r="D45" s="2"/>
       <c r="E45" s="4"/>
@@ -8236,7 +8292,7 @@
       <c r="N45" s="5"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B46" s="5"/>
       <c r="D46" s="2"/>
       <c r="E46" s="4"/>
@@ -8247,7 +8303,7 @@
       <c r="N46" s="5"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" s="5"/>
       <c r="D47" s="2"/>
       <c r="E47" s="4"/>
@@ -8258,7 +8314,7 @@
       <c r="N47" s="5"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
       <c r="D48" s="2"/>
       <c r="E48" s="4"/>
@@ -8269,7 +8325,7 @@
       <c r="N48" s="5"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" s="5"/>
       <c r="D49" s="2"/>
       <c r="E49" s="4"/>
@@ -8280,7 +8336,7 @@
       <c r="N49" s="5"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="5"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4"/>
@@ -8291,7 +8347,7 @@
       <c r="N50" s="5"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="5"/>
       <c r="D51" s="2"/>
       <c r="E51" s="4"/>
@@ -8302,7 +8358,7 @@
       <c r="N51" s="5"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="5"/>
       <c r="D52" s="2"/>
       <c r="F52" s="5"/>
@@ -8312,7 +8368,7 @@
       <c r="N52" s="5"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="D53" s="2"/>
       <c r="F53" s="5"/>
@@ -8322,7 +8378,7 @@
       <c r="N53" s="5"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="5"/>
       <c r="D54" s="2"/>
       <c r="F54" s="5"/>
@@ -8332,7 +8388,7 @@
       <c r="N54" s="5"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="5"/>
       <c r="D55" s="2"/>
       <c r="F55" s="5"/>
@@ -8342,7 +8398,7 @@
       <c r="N55" s="5"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
       <c r="D56" s="2"/>
       <c r="F56" s="5"/>
@@ -8352,7 +8408,7 @@
       <c r="N56" s="5"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
       <c r="D57" s="2"/>
       <c r="F57" s="5"/>
@@ -8362,7 +8418,7 @@
       <c r="N57" s="5"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="5"/>
       <c r="D58" s="2"/>
       <c r="F58" s="5"/>
@@ -8372,7 +8428,7 @@
       <c r="N58" s="5"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B59" s="5"/>
       <c r="D59" s="2"/>
       <c r="F59" s="5"/>
@@ -8382,7 +8438,7 @@
       <c r="N59" s="5"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B60" s="5"/>
       <c r="D60" s="2"/>
       <c r="F60" s="5"/>
@@ -8392,7 +8448,7 @@
       <c r="N60" s="5"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B61" s="5"/>
       <c r="D61" s="2"/>
       <c r="F61" s="5"/>
@@ -8402,7 +8458,7 @@
       <c r="N61" s="5"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" s="5"/>
       <c r="D62" s="2"/>
       <c r="F62" s="5"/>
@@ -8412,27 +8468,25 @@
       <c r="N62" s="5"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" s="5"/>
       <c r="D63" s="2"/>
       <c r="F63" s="5"/>
       <c r="H63" s="2"/>
       <c r="J63" s="5"/>
       <c r="L63" s="2"/>
-      <c r="N63" s="5"/>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" s="5"/>
       <c r="D64" s="2"/>
       <c r="F64" s="5"/>
       <c r="H64" s="2"/>
       <c r="J64" s="5"/>
       <c r="L64" s="2"/>
-      <c r="N64" s="5"/>
       <c r="P64" s="2"/>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B65" s="5"/>
       <c r="D65" s="2"/>
       <c r="F65" s="5"/>
@@ -8442,7 +8496,7 @@
       <c r="N65" s="5"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B66" s="5"/>
       <c r="D66" s="2"/>
       <c r="F66" s="5"/>
@@ -8452,7 +8506,7 @@
       <c r="N66" s="5"/>
       <c r="P66" s="2"/>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B67" s="5"/>
       <c r="D67" s="2"/>
       <c r="F67" s="5"/>
@@ -8462,7 +8516,7 @@
       <c r="N67" s="5"/>
       <c r="P67" s="2"/>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B68" s="5"/>
       <c r="D68" s="2"/>
       <c r="F68" s="5"/>
@@ -8472,7 +8526,7 @@
       <c r="N68" s="5"/>
       <c r="P68" s="2"/>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
       <c r="D69" s="2"/>
       <c r="F69" s="5"/>
@@ -8482,7 +8536,7 @@
       <c r="N69" s="5"/>
       <c r="P69" s="2"/>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B70" s="5"/>
       <c r="D70" s="2"/>
       <c r="F70" s="5"/>
@@ -8492,7 +8546,7 @@
       <c r="N70" s="5"/>
       <c r="P70" s="2"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B71" s="5"/>
       <c r="D71" s="2"/>
       <c r="F71" s="5"/>
@@ -8502,7 +8556,7 @@
       <c r="N71" s="5"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B72" s="5"/>
       <c r="D72" s="2"/>
       <c r="F72" s="5"/>
@@ -8512,7 +8566,7 @@
       <c r="N72" s="5"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B73" s="5"/>
       <c r="D73" s="2"/>
       <c r="F73" s="5"/>
@@ -8522,7 +8576,7 @@
       <c r="N73" s="5"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B74" s="5"/>
       <c r="D74" s="2"/>
       <c r="F74" s="5"/>
@@ -8532,7 +8586,7 @@
       <c r="N74" s="5"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B75" s="5"/>
       <c r="D75" s="2"/>
       <c r="F75" s="5"/>
@@ -8542,7 +8596,7 @@
       <c r="N75" s="5"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B76" s="5"/>
       <c r="D76" s="2"/>
       <c r="F76" s="5"/>
@@ -8552,7 +8606,7 @@
       <c r="N76" s="5"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B77" s="5"/>
       <c r="D77" s="2"/>
       <c r="F77" s="5"/>
@@ -8562,7 +8616,7 @@
       <c r="N77" s="5"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" s="5"/>
       <c r="D78" s="2"/>
       <c r="F78" s="5"/>
@@ -8572,7 +8626,7 @@
       <c r="N78" s="5"/>
       <c r="P78" s="2"/>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B79" s="5"/>
       <c r="D79" s="2"/>
       <c r="F79" s="5"/>
@@ -8582,7 +8636,7 @@
       <c r="N79" s="5"/>
       <c r="P79" s="2"/>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" s="5"/>
       <c r="D80" s="2"/>
       <c r="F80" s="5"/>
@@ -8592,7 +8646,7 @@
       <c r="N80" s="5"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
       <c r="D81" s="2"/>
       <c r="F81" s="5"/>
@@ -8602,7 +8656,7 @@
       <c r="N81" s="5"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="D82" s="2"/>
       <c r="F82" s="5"/>
@@ -8612,7 +8666,7 @@
       <c r="N82" s="5"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B83" s="5"/>
       <c r="D83" s="2"/>
       <c r="F83" s="5"/>
@@ -8622,7 +8676,7 @@
       <c r="N83" s="5"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B84" s="5"/>
       <c r="D84" s="2"/>
       <c r="F84" s="5"/>
@@ -8632,7 +8686,7 @@
       <c r="N84" s="5"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
       <c r="D85" s="2"/>
       <c r="F85" s="5"/>
@@ -8642,7 +8696,7 @@
       <c r="N85" s="5"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B86" s="5"/>
       <c r="D86" s="2"/>
       <c r="F86" s="5"/>
@@ -8652,7 +8706,7 @@
       <c r="N86" s="5"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B87" s="5"/>
       <c r="D87" s="2"/>
       <c r="F87" s="5"/>
@@ -8662,7 +8716,7 @@
       <c r="N87" s="5"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B88" s="5"/>
       <c r="D88" s="2"/>
       <c r="F88" s="5"/>
@@ -8672,7 +8726,7 @@
       <c r="N88" s="5"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B89" s="5"/>
       <c r="D89" s="2"/>
       <c r="F89" s="5"/>
@@ -8682,7 +8736,7 @@
       <c r="N89" s="5"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
       <c r="D90" s="2"/>
       <c r="F90" s="5"/>
@@ -8692,7 +8746,7 @@
       <c r="N90" s="5"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B91" s="5"/>
       <c r="D91" s="2"/>
       <c r="F91" s="5"/>
@@ -8702,7 +8756,7 @@
       <c r="N91" s="5"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B92" s="5"/>
       <c r="D92" s="2"/>
       <c r="F92" s="5"/>
@@ -8712,7 +8766,7 @@
       <c r="N92" s="5"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
       <c r="D93" s="2"/>
       <c r="F93" s="5"/>
@@ -8722,7 +8776,7 @@
       <c r="N93" s="5"/>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B94" s="5"/>
       <c r="D94" s="2"/>
       <c r="F94" s="5"/>
@@ -8732,7 +8786,7 @@
       <c r="N94" s="5"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
       <c r="D95" s="2"/>
       <c r="F95" s="5"/>
@@ -8742,7 +8796,7 @@
       <c r="N95" s="5"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B96" s="5"/>
       <c r="D96" s="2"/>
       <c r="F96" s="5"/>
@@ -8752,7 +8806,7 @@
       <c r="N96" s="5"/>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="4"/>
@@ -8770,7 +8824,7 @@
       <c r="O97" s="4"/>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="4"/>
@@ -8786,7 +8840,7 @@
       <c r="O98" s="10"/>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
       <c r="D99" s="2"/>
       <c r="F99" s="5"/>
@@ -8798,7 +8852,7 @@
       <c r="N99" s="5"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
       <c r="D100" s="2"/>
       <c r="F100" s="5"/>
@@ -8810,7 +8864,7 @@
       <c r="N100" s="5"/>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
       <c r="D101" s="2"/>
       <c r="F101" s="5"/>
@@ -8822,7 +8876,7 @@
       <c r="N101" s="5"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
       <c r="D102" s="2"/>
       <c r="F102" s="5"/>
@@ -8834,7 +8888,7 @@
       <c r="N102" s="5"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
       <c r="D103" s="2"/>
       <c r="F103" s="5"/>
@@ -8846,7 +8900,7 @@
       <c r="N103" s="5"/>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B104" s="5"/>
       <c r="D104" s="2"/>
       <c r="F104" s="5"/>
@@ -8858,7 +8912,7 @@
       <c r="N104" s="5"/>
       <c r="P104" s="2"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B105" s="5"/>
       <c r="D105" s="2"/>
       <c r="F105" s="5"/>
@@ -8870,7 +8924,7 @@
       <c r="N105" s="5"/>
       <c r="P105" s="2"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B106" s="5"/>
       <c r="D106" s="2"/>
       <c r="F106" s="5"/>
@@ -8881,7 +8935,7 @@
       <c r="N106" s="5"/>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B107" s="5"/>
       <c r="D107" s="2"/>
       <c r="F107" s="5"/>
@@ -8891,7 +8945,7 @@
       <c r="N107" s="5"/>
       <c r="P107" s="2"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B108" s="5"/>
       <c r="D108" s="2"/>
       <c r="F108" s="5"/>
@@ -8901,7 +8955,7 @@
       <c r="N108" s="5"/>
       <c r="P108" s="2"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
       <c r="D109" s="2"/>
       <c r="F109" s="5"/>
@@ -8911,7 +8965,7 @@
       <c r="N109" s="5"/>
       <c r="P109" s="2"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B110" s="5"/>
       <c r="D110" s="2"/>
       <c r="F110" s="5"/>
@@ -8921,7 +8975,7 @@
       <c r="N110" s="5"/>
       <c r="P110" s="2"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B111" s="5"/>
       <c r="D111" s="2"/>
       <c r="F111" s="5"/>
@@ -8931,7 +8985,7 @@
       <c r="N111" s="5"/>
       <c r="P111" s="2"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B112" s="5"/>
       <c r="D112" s="2"/>
       <c r="F112" s="5"/>
@@ -8941,7 +8995,7 @@
       <c r="N112" s="5"/>
       <c r="P112" s="2"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B113" s="5"/>
       <c r="D113" s="2"/>
       <c r="F113" s="5"/>
@@ -8951,7 +9005,7 @@
       <c r="N113" s="5"/>
       <c r="P113" s="2"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B114" s="5"/>
       <c r="D114" s="2"/>
       <c r="F114" s="5"/>
@@ -8961,7 +9015,7 @@
       <c r="N114" s="5"/>
       <c r="P114" s="2"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B115" s="5"/>
       <c r="D115" s="2"/>
       <c r="F115" s="5"/>
@@ -8971,7 +9025,7 @@
       <c r="N115" s="5"/>
       <c r="P115" s="2"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B116" s="5"/>
       <c r="D116" s="2"/>
       <c r="F116" s="5"/>
@@ -8981,7 +9035,7 @@
       <c r="N116" s="5"/>
       <c r="P116" s="2"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B117" s="5"/>
       <c r="D117" s="2"/>
       <c r="F117" s="5"/>
@@ -8991,7 +9045,7 @@
       <c r="N117" s="5"/>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B118" s="5"/>
       <c r="D118" s="2"/>
       <c r="F118" s="5"/>
@@ -9001,7 +9055,7 @@
       <c r="N118" s="5"/>
       <c r="P118" s="2"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B119" s="5"/>
       <c r="D119" s="2"/>
       <c r="F119" s="5"/>
@@ -9011,7 +9065,7 @@
       <c r="N119" s="5"/>
       <c r="P119" s="2"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B120" s="5"/>
       <c r="D120" s="2"/>
       <c r="F120" s="5"/>
@@ -9021,7 +9075,7 @@
       <c r="N120" s="5"/>
       <c r="P120" s="2"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B121" s="5"/>
       <c r="D121" s="2"/>
       <c r="F121" s="5"/>
@@ -9031,7 +9085,7 @@
       <c r="N121" s="5"/>
       <c r="P121" s="2"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
       <c r="D122" s="2"/>
       <c r="F122" s="5"/>
@@ -9041,7 +9095,7 @@
       <c r="N122" s="5"/>
       <c r="P122" s="2"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B123" s="5"/>
       <c r="D123" s="2"/>
       <c r="F123" s="5"/>
@@ -9051,7 +9105,7 @@
       <c r="N123" s="5"/>
       <c r="P123" s="2"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B124" s="5"/>
       <c r="D124" s="2"/>
       <c r="F124" s="5"/>
@@ -9061,7 +9115,7 @@
       <c r="N124" s="5"/>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B125" s="5"/>
       <c r="D125" s="2"/>
       <c r="F125" s="5"/>
@@ -9071,7 +9125,7 @@
       <c r="N125" s="5"/>
       <c r="P125" s="2"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B126" s="5"/>
       <c r="D126" s="2"/>
       <c r="F126" s="5"/>
@@ -9081,7 +9135,7 @@
       <c r="N126" s="5"/>
       <c r="P126" s="2"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B127" s="5"/>
       <c r="D127" s="2"/>
       <c r="F127" s="5"/>
@@ -9091,7 +9145,7 @@
       <c r="N127" s="5"/>
       <c r="P127" s="2"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B128" s="5"/>
       <c r="D128" s="2"/>
       <c r="F128" s="5"/>
@@ -9101,7 +9155,7 @@
       <c r="N128" s="5"/>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B129" s="5"/>
       <c r="D129" s="2"/>
       <c r="F129" s="5"/>
@@ -9111,7 +9165,7 @@
       <c r="N129" s="5"/>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B130" s="5"/>
       <c r="D130" s="2"/>
       <c r="F130" s="5"/>
@@ -9121,7 +9175,7 @@
       <c r="N130" s="5"/>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B131" s="5"/>
       <c r="D131" s="2"/>
       <c r="F131" s="5"/>
@@ -9131,7 +9185,7 @@
       <c r="N131" s="5"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B132" s="5"/>
       <c r="D132" s="2"/>
       <c r="F132" s="5"/>
@@ -9141,7 +9195,7 @@
       <c r="N132" s="5"/>
       <c r="P132" s="2"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B133" s="5"/>
       <c r="D133" s="2"/>
       <c r="F133" s="5"/>
@@ -9151,7 +9205,7 @@
       <c r="N133" s="5"/>
       <c r="P133" s="2"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B134" s="5"/>
       <c r="D134" s="2"/>
       <c r="F134" s="5"/>
@@ -9161,7 +9215,7 @@
       <c r="N134" s="5"/>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B135" s="5"/>
       <c r="D135" s="2"/>
       <c r="F135" s="5"/>
@@ -9171,7 +9225,7 @@
       <c r="N135" s="5"/>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B136" s="5"/>
       <c r="D136" s="2"/>
       <c r="F136" s="5"/>
@@ -9181,7 +9235,7 @@
       <c r="N136" s="5"/>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B137" s="5"/>
       <c r="D137" s="2"/>
       <c r="F137" s="5"/>
@@ -9191,7 +9245,7 @@
       <c r="N137" s="5"/>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B138" s="5"/>
       <c r="D138" s="2"/>
       <c r="F138" s="5"/>
@@ -9201,7 +9255,7 @@
       <c r="N138" s="5"/>
       <c r="P138" s="2"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B139" s="5"/>
       <c r="D139" s="2"/>
       <c r="F139" s="5"/>
@@ -9211,7 +9265,7 @@
       <c r="N139" s="5"/>
       <c r="P139" s="2"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B140" s="5"/>
       <c r="D140" s="2"/>
       <c r="F140" s="5"/>
@@ -9221,7 +9275,7 @@
       <c r="N140" s="5"/>
       <c r="P140" s="2"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B141" s="5"/>
       <c r="D141" s="2"/>
       <c r="F141" s="5"/>
@@ -9231,7 +9285,7 @@
       <c r="N141" s="5"/>
       <c r="P141" s="2"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B142" s="5"/>
       <c r="D142" s="2"/>
       <c r="F142" s="5"/>
@@ -9241,7 +9295,7 @@
       <c r="N142" s="5"/>
       <c r="P142" s="2"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B143" s="5"/>
       <c r="D143" s="2"/>
       <c r="F143" s="5"/>
@@ -9251,7 +9305,7 @@
       <c r="N143" s="5"/>
       <c r="P143" s="2"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B144" s="5"/>
       <c r="D144" s="2"/>
       <c r="F144" s="5"/>
@@ -9261,7 +9315,7 @@
       <c r="N144" s="5"/>
       <c r="P144" s="2"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B145" s="5"/>
       <c r="D145" s="2"/>
       <c r="F145" s="5"/>
@@ -9271,7 +9325,7 @@
       <c r="N145" s="5"/>
       <c r="P145" s="2"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B146" s="5"/>
       <c r="D146" s="2"/>
       <c r="F146" s="5"/>
@@ -9281,7 +9335,7 @@
       <c r="N146" s="5"/>
       <c r="P146" s="2"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B147" s="5"/>
       <c r="D147" s="2"/>
       <c r="F147" s="5"/>
@@ -9291,7 +9345,7 @@
       <c r="N147" s="5"/>
       <c r="P147" s="2"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B148" s="5"/>
       <c r="D148" s="2"/>
       <c r="F148" s="5"/>
@@ -9301,7 +9355,7 @@
       <c r="N148" s="5"/>
       <c r="P148" s="2"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B149" s="5"/>
       <c r="D149" s="2"/>
       <c r="F149" s="5"/>
@@ -9311,7 +9365,7 @@
       <c r="N149" s="5"/>
       <c r="P149" s="2"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B150" s="5"/>
       <c r="D150" s="2"/>
       <c r="F150" s="5"/>
@@ -9321,7 +9375,7 @@
       <c r="N150" s="5"/>
       <c r="P150" s="2"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B151" s="5"/>
       <c r="D151" s="2"/>
       <c r="F151" s="5"/>
@@ -9331,7 +9385,7 @@
       <c r="N151" s="5"/>
       <c r="P151" s="2"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B152" s="5"/>
       <c r="D152" s="2"/>
       <c r="F152" s="5"/>
@@ -9341,7 +9395,7 @@
       <c r="N152" s="5"/>
       <c r="P152" s="2"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B153" s="5"/>
       <c r="D153" s="2"/>
       <c r="F153" s="5"/>
@@ -9351,7 +9405,7 @@
       <c r="N153" s="5"/>
       <c r="P153" s="2"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B154" s="5"/>
       <c r="D154" s="2"/>
       <c r="F154" s="5"/>
@@ -9361,7 +9415,7 @@
       <c r="N154" s="5"/>
       <c r="P154" s="2"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B155" s="5"/>
       <c r="D155" s="2"/>
       <c r="F155" s="5"/>
@@ -9371,7 +9425,7 @@
       <c r="N155" s="5"/>
       <c r="P155" s="2"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B156" s="5"/>
       <c r="D156" s="2"/>
       <c r="F156" s="5"/>
@@ -9381,7 +9435,7 @@
       <c r="N156" s="5"/>
       <c r="P156" s="2"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B157" s="5"/>
       <c r="D157" s="2"/>
       <c r="F157" s="5"/>
@@ -9391,7 +9445,7 @@
       <c r="N157" s="5"/>
       <c r="P157" s="2"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B158" s="5"/>
       <c r="D158" s="2"/>
       <c r="F158" s="5"/>
@@ -9401,7 +9455,7 @@
       <c r="N158" s="5"/>
       <c r="P158" s="2"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B159" s="5"/>
       <c r="D159" s="2"/>
       <c r="F159" s="5"/>
@@ -9411,7 +9465,7 @@
       <c r="N159" s="5"/>
       <c r="P159" s="2"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B160" s="5"/>
       <c r="D160" s="2"/>
       <c r="F160" s="5"/>
@@ -9421,7 +9475,7 @@
       <c r="N160" s="5"/>
       <c r="P160" s="2"/>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B161" s="5"/>
       <c r="D161" s="2"/>
       <c r="F161" s="5"/>
@@ -9431,7 +9485,7 @@
       <c r="N161" s="5"/>
       <c r="P161" s="2"/>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B162" s="5"/>
       <c r="D162" s="2"/>
       <c r="F162" s="5"/>
@@ -9441,7 +9495,7 @@
       <c r="N162" s="5"/>
       <c r="P162" s="2"/>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B163" s="5"/>
       <c r="D163" s="2"/>
       <c r="F163" s="5"/>
@@ -9451,7 +9505,7 @@
       <c r="N163" s="5"/>
       <c r="P163" s="2"/>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B164" s="5"/>
       <c r="D164" s="2"/>
       <c r="F164" s="5"/>
@@ -9461,7 +9515,7 @@
       <c r="N164" s="5"/>
       <c r="P164" s="2"/>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B165" s="5"/>
       <c r="D165" s="2"/>
       <c r="F165" s="5"/>
@@ -9471,7 +9525,7 @@
       <c r="N165" s="5"/>
       <c r="P165" s="2"/>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B166" s="5"/>
       <c r="D166" s="2"/>
       <c r="F166" s="5"/>
@@ -9481,7 +9535,7 @@
       <c r="N166" s="5"/>
       <c r="P166" s="2"/>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B167" s="5"/>
       <c r="D167" s="2"/>
       <c r="F167" s="5"/>
@@ -9491,7 +9545,7 @@
       <c r="N167" s="5"/>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B168" s="5"/>
       <c r="D168" s="2"/>
       <c r="F168" s="5"/>
@@ -9501,7 +9555,7 @@
       <c r="N168" s="5"/>
       <c r="P168" s="2"/>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B169" s="5"/>
       <c r="D169" s="2"/>
       <c r="F169" s="5"/>
@@ -9511,7 +9565,7 @@
       <c r="N169" s="5"/>
       <c r="P169" s="2"/>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B170" s="5"/>
       <c r="D170" s="2"/>
       <c r="F170" s="5"/>
@@ -9521,7 +9575,7 @@
       <c r="N170" s="5"/>
       <c r="P170" s="2"/>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B171" s="5"/>
       <c r="D171" s="2"/>
       <c r="F171" s="5"/>
@@ -9531,7 +9585,7 @@
       <c r="N171" s="5"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B172" s="5"/>
       <c r="D172" s="2"/>
       <c r="F172" s="5"/>
@@ -9541,7 +9595,7 @@
       <c r="N172" s="5"/>
       <c r="P172" s="2"/>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B173" s="5"/>
       <c r="D173" s="2"/>
       <c r="F173" s="5"/>
@@ -9551,7 +9605,7 @@
       <c r="N173" s="5"/>
       <c r="P173" s="2"/>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B174" s="5"/>
       <c r="D174" s="2"/>
       <c r="F174" s="5"/>
@@ -9561,7 +9615,7 @@
       <c r="N174" s="5"/>
       <c r="P174" s="2"/>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B175" s="5"/>
       <c r="D175" s="2"/>
       <c r="F175" s="5"/>
@@ -9571,7 +9625,7 @@
       <c r="N175" s="5"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B176" s="5"/>
       <c r="D176" s="2"/>
       <c r="F176" s="5"/>
@@ -9581,7 +9635,7 @@
       <c r="N176" s="5"/>
       <c r="P176" s="2"/>
     </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B177" s="5"/>
       <c r="D177" s="2"/>
       <c r="F177" s="5"/>
@@ -9591,7 +9645,7 @@
       <c r="N177" s="5"/>
       <c r="P177" s="2"/>
     </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="178" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B178" s="5"/>
       <c r="D178" s="2"/>
       <c r="F178" s="5"/>
@@ -9601,7 +9655,7 @@
       <c r="N178" s="5"/>
       <c r="P178" s="2"/>
     </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="179" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B179" s="5"/>
       <c r="D179" s="2"/>
       <c r="F179" s="5"/>
@@ -9611,7 +9665,7 @@
       <c r="N179" s="5"/>
       <c r="P179" s="2"/>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B180" s="5"/>
       <c r="D180" s="2"/>
       <c r="F180" s="5"/>
@@ -9621,7 +9675,7 @@
       <c r="N180" s="5"/>
       <c r="P180" s="2"/>
     </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="181" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B181" s="5"/>
       <c r="D181" s="2"/>
       <c r="F181" s="5"/>
@@ -9631,7 +9685,7 @@
       <c r="N181" s="5"/>
       <c r="P181" s="2"/>
     </row>
-    <row r="182" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B182" s="5"/>
       <c r="D182" s="2"/>
       <c r="F182" s="5"/>
@@ -9641,7 +9695,7 @@
       <c r="N182" s="5"/>
       <c r="P182" s="2"/>
     </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B183" s="5"/>
       <c r="D183" s="2"/>
       <c r="F183" s="5"/>
@@ -9651,7 +9705,7 @@
       <c r="N183" s="5"/>
       <c r="P183" s="2"/>
     </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="184" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B184" s="5"/>
       <c r="D184" s="2"/>
       <c r="F184" s="5"/>
@@ -9661,7 +9715,7 @@
       <c r="N184" s="5"/>
       <c r="P184" s="2"/>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B185" s="5"/>
       <c r="D185" s="2"/>
       <c r="F185" s="5"/>
@@ -9671,7 +9725,7 @@
       <c r="N185" s="5"/>
       <c r="P185" s="2"/>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B186" s="5"/>
       <c r="D186" s="2"/>
       <c r="F186" s="5"/>
@@ -9681,7 +9735,7 @@
       <c r="N186" s="5"/>
       <c r="P186" s="2"/>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B187" s="5"/>
       <c r="D187" s="2"/>
       <c r="F187" s="5"/>
@@ -9691,7 +9745,7 @@
       <c r="N187" s="5"/>
       <c r="P187" s="2"/>
     </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="188" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B188" s="5"/>
       <c r="D188" s="2"/>
       <c r="F188" s="5"/>
@@ -9701,7 +9755,7 @@
       <c r="N188" s="5"/>
       <c r="P188" s="2"/>
     </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B189" s="5"/>
       <c r="D189" s="2"/>
       <c r="F189" s="5"/>
@@ -9711,7 +9765,7 @@
       <c r="N189" s="5"/>
       <c r="P189" s="2"/>
     </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B190" s="5"/>
       <c r="D190" s="2"/>
       <c r="F190" s="5"/>
@@ -9721,7 +9775,7 @@
       <c r="N190" s="5"/>
       <c r="P190" s="2"/>
     </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="191" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B191" s="5"/>
       <c r="D191" s="2"/>
       <c r="F191" s="5"/>
@@ -9731,7 +9785,7 @@
       <c r="N191" s="5"/>
       <c r="P191" s="2"/>
     </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="192" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B192" s="5"/>
       <c r="D192" s="2"/>
       <c r="F192" s="5"/>
@@ -9741,7 +9795,7 @@
       <c r="N192" s="5"/>
       <c r="P192" s="2"/>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B193" s="5"/>
       <c r="D193" s="2"/>
       <c r="F193" s="5"/>
@@ -9751,7 +9805,7 @@
       <c r="N193" s="5"/>
       <c r="P193" s="2"/>
     </row>
-    <row r="194" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="194" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B194" s="5"/>
       <c r="D194" s="2"/>
       <c r="F194" s="5"/>
@@ -9761,7 +9815,7 @@
       <c r="N194" s="5"/>
       <c r="P194" s="2"/>
     </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="195" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B195" s="5"/>
       <c r="D195" s="2"/>
       <c r="F195" s="5"/>
@@ -9771,7 +9825,7 @@
       <c r="N195" s="5"/>
       <c r="P195" s="2"/>
     </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="196" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B196" s="5"/>
       <c r="D196" s="2"/>
       <c r="F196" s="5"/>
@@ -9781,7 +9835,7 @@
       <c r="N196" s="5"/>
       <c r="P196" s="2"/>
     </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="197" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B197" s="5"/>
       <c r="D197" s="2"/>
       <c r="F197" s="5"/>
@@ -9791,7 +9845,7 @@
       <c r="N197" s="5"/>
       <c r="P197" s="2"/>
     </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B198" s="5"/>
       <c r="D198" s="2"/>
       <c r="F198" s="5"/>
@@ -9801,7 +9855,7 @@
       <c r="N198" s="5"/>
       <c r="P198" s="2"/>
     </row>
-    <row r="199" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="199" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B199" s="5"/>
       <c r="D199" s="2"/>
       <c r="F199" s="5"/>
@@ -9811,7 +9865,7 @@
       <c r="N199" s="5"/>
       <c r="P199" s="2"/>
     </row>
-    <row r="200" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="200" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B200" s="5"/>
       <c r="D200" s="2"/>
       <c r="F200" s="5"/>
@@ -9821,7 +9875,7 @@
       <c r="N200" s="5"/>
       <c r="P200" s="2"/>
     </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="201" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B201" s="5"/>
       <c r="D201" s="2"/>
       <c r="F201" s="5"/>
@@ -9831,7 +9885,7 @@
       <c r="N201" s="5"/>
       <c r="P201" s="2"/>
     </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B202" s="5"/>
       <c r="D202" s="2"/>
       <c r="F202" s="5"/>
@@ -9841,7 +9895,7 @@
       <c r="N202" s="5"/>
       <c r="P202" s="2"/>
     </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="203" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B203" s="5"/>
       <c r="D203" s="2"/>
       <c r="F203" s="5"/>
@@ -9851,7 +9905,7 @@
       <c r="N203" s="5"/>
       <c r="P203" s="2"/>
     </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B204" s="5"/>
       <c r="D204" s="2"/>
       <c r="F204" s="5"/>
@@ -9861,7 +9915,7 @@
       <c r="N204" s="5"/>
       <c r="P204" s="2"/>
     </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="205" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B205" s="5"/>
       <c r="D205" s="2"/>
       <c r="F205" s="5"/>
@@ -9871,7 +9925,7 @@
       <c r="N205" s="5"/>
       <c r="P205" s="2"/>
     </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="206" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B206" s="5"/>
       <c r="D206" s="2"/>
       <c r="F206" s="5"/>
@@ -9881,7 +9935,7 @@
       <c r="N206" s="5"/>
       <c r="P206" s="2"/>
     </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B207" s="5"/>
       <c r="D207" s="2"/>
       <c r="F207" s="5"/>
@@ -9891,7 +9945,7 @@
       <c r="N207" s="5"/>
       <c r="P207" s="2"/>
     </row>
-    <row r="208" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="208" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B208" s="5"/>
       <c r="D208" s="2"/>
       <c r="F208" s="5"/>
@@ -9901,7 +9955,7 @@
       <c r="N208" s="5"/>
       <c r="P208" s="2"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B209" s="5"/>
       <c r="D209" s="2"/>
       <c r="F209" s="5"/>
@@ -9911,7 +9965,7 @@
       <c r="N209" s="5"/>
       <c r="P209" s="2"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B210" s="5"/>
       <c r="D210" s="2"/>
       <c r="F210" s="5"/>
@@ -9921,7 +9975,7 @@
       <c r="N210" s="5"/>
       <c r="P210" s="2"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B211" s="5"/>
       <c r="D211" s="2"/>
       <c r="F211" s="5"/>
@@ -9931,7 +9985,7 @@
       <c r="N211" s="5"/>
       <c r="P211" s="2"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B212" s="5"/>
       <c r="D212" s="2"/>
       <c r="F212" s="5"/>
@@ -9941,7 +9995,7 @@
       <c r="N212" s="5"/>
       <c r="P212" s="2"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B213" s="5"/>
       <c r="D213" s="2"/>
       <c r="F213" s="5"/>
@@ -9951,7 +10005,7 @@
       <c r="N213" s="5"/>
       <c r="P213" s="2"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B214" s="5"/>
       <c r="D214" s="2"/>
       <c r="F214" s="5"/>
@@ -9961,7 +10015,7 @@
       <c r="N214" s="5"/>
       <c r="P214" s="2"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B215" s="5"/>
       <c r="D215" s="2"/>
       <c r="F215" s="5"/>
@@ -9971,7 +10025,7 @@
       <c r="N215" s="5"/>
       <c r="P215" s="2"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B216" s="5"/>
       <c r="D216" s="2"/>
       <c r="F216" s="5"/>
@@ -9981,7 +10035,7 @@
       <c r="N216" s="5"/>
       <c r="P216" s="2"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B217" s="5"/>
       <c r="D217" s="2"/>
       <c r="F217" s="5"/>
@@ -9991,7 +10045,7 @@
       <c r="N217" s="5"/>
       <c r="P217" s="2"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B218" s="5"/>
       <c r="D218" s="2"/>
       <c r="F218" s="5"/>
@@ -10001,7 +10055,7 @@
       <c r="N218" s="5"/>
       <c r="P218" s="2"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B219" s="5"/>
       <c r="D219" s="2"/>
       <c r="F219" s="5"/>
@@ -10011,7 +10065,7 @@
       <c r="N219" s="5"/>
       <c r="P219" s="2"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B220" s="5"/>
       <c r="D220" s="2"/>
       <c r="F220" s="5"/>
@@ -10021,7 +10075,7 @@
       <c r="N220" s="5"/>
       <c r="P220" s="2"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B221" s="5"/>
       <c r="D221" s="2"/>
       <c r="F221" s="5"/>
@@ -10031,7 +10085,7 @@
       <c r="N221" s="5"/>
       <c r="P221" s="2"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B222" s="5"/>
       <c r="D222" s="2"/>
       <c r="F222" s="5"/>
@@ -10041,7 +10095,7 @@
       <c r="N222" s="5"/>
       <c r="P222" s="2"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B223" s="5"/>
       <c r="D223" s="2"/>
       <c r="F223" s="5"/>
@@ -10051,7 +10105,7 @@
       <c r="N223" s="5"/>
       <c r="P223" s="2"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="7"/>
       <c r="B224" s="8"/>
       <c r="C224" s="7"/>

--- a/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
+++ b/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\japgo\Google 드라이브\업무 문서\스마트 팩토리 멘토링\2021 멘토링\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\md\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D970E42F-40E0-41C7-950C-DEAA295D7D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD03A06-1406-478B-92DD-F3CF8D159FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로토콜 흐름도" sheetId="1" r:id="rId1"/>
@@ -351,16 +351,175 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>337457</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>16575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="직선 화살표 연결선 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286EAF1B-3D02-4742-9FDD-4A3E75E28597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4038600" y="2566355"/>
+          <a:ext cx="2373086" cy="280506"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>673427</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190439</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="직선 화살표 연결선 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1211B049-D7E2-46C2-9BF5-D751A8C04F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4060371" y="3037115"/>
+          <a:ext cx="5386942" cy="636753"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>664029</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>212278</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="직선 화살표 연결선 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B50FA1-1BA9-455D-92AD-C4C44DE4927B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1349829" y="1970314"/>
+          <a:ext cx="2688771" cy="201393"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>343917</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>220056</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>34995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>585966</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>49305</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>81958</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -375,8 +534,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5664062" y="7978601"/>
-          <a:ext cx="3567140" cy="272595"/>
+          <a:off x="5743231" y="12444709"/>
+          <a:ext cx="3616621" cy="264678"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -406,14 +565,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>132908</xdr:rowOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>165561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>660682</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>111137</xdr:rowOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>143790</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -428,8 +587,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5144984" y="29615381"/>
-          <a:ext cx="4160934" cy="199901"/>
+          <a:off x="5214257" y="33693561"/>
+          <a:ext cx="4220311" cy="195943"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -459,14 +618,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>32657</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>39128</xdr:rowOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>71781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>5662</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>14601</xdr:rowOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>47254</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -481,8 +640,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4022766" y="19768001"/>
-          <a:ext cx="5293151" cy="640491"/>
+          <a:off x="4082143" y="24020352"/>
+          <a:ext cx="5372319" cy="628616"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -512,14 +671,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3258</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>22831</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>55484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>645019</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>7600</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>40253</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -534,8 +693,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3993367" y="8668067"/>
-          <a:ext cx="5296888" cy="649788"/>
+          <a:off x="4052744" y="13118341"/>
+          <a:ext cx="5366161" cy="637912"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -565,14 +724,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>664029</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>13453</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>46106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>637033</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>217003</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>31942</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -587,8 +746,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3989120" y="15752217"/>
-          <a:ext cx="5293149" cy="646895"/>
+          <a:off x="4038600" y="20075820"/>
+          <a:ext cx="5372319" cy="638979"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -618,14 +777,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>46110</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>78763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>26897</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>97033</xdr:rowOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>129686</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -640,8 +799,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5777346" y="15119855"/>
-          <a:ext cx="3559806" cy="272596"/>
+          <a:off x="5856515" y="19455334"/>
+          <a:ext cx="3619182" cy="268638"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -671,14 +830,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>35859</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>5</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>660954</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>96425</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>129078</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -693,8 +852,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4025968" y="12857023"/>
-          <a:ext cx="2620150" cy="318093"/>
+          <a:off x="4085345" y="17232087"/>
+          <a:ext cx="2649838" cy="314134"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -724,14 +883,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>26896</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>197224</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>3638</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>179548</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>212201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -746,8 +905,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4061014" y="3783106"/>
-          <a:ext cx="5355565" cy="654677"/>
+          <a:off x="4076382" y="8285306"/>
+          <a:ext cx="5376056" cy="635466"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -777,14 +936,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>17933</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>139148</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>643028</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>13896</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>46549</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -799,8 +958,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4033342" y="2763078"/>
-          <a:ext cx="2632799" cy="312070"/>
+          <a:off x="4067419" y="7356372"/>
+          <a:ext cx="2649838" cy="310177"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -830,14 +989,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>40273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>204103</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -852,8 +1011,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3345180" y="1112520"/>
-          <a:ext cx="1354455" cy="384810"/>
+          <a:off x="3362597" y="5700844"/>
+          <a:ext cx="1367518" cy="381545"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -903,14 +1062,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>78373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>3809</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>5439</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -925,8 +1084,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1348740" y="1371600"/>
-          <a:ext cx="2007869" cy="144780"/>
+          <a:off x="1357449" y="5956659"/>
+          <a:ext cx="2020931" cy="144780"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -956,14 +1115,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>13058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47893</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -978,8 +1137,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1638300" y="1303020"/>
-          <a:ext cx="1409700" cy="259080"/>
+          <a:off x="1647009" y="5891344"/>
+          <a:ext cx="1418408" cy="252549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1027,14 +1186,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>433891</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19450</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>52103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>433890</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>129267</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1049,8 +1208,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3795656" y="1812391"/>
-          <a:ext cx="2017058" cy="558052"/>
+          <a:off x="3808462" y="6365817"/>
+          <a:ext cx="2024742" cy="545246"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1109,14 +1268,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>440167</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>80681</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>113334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>185052</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1131,8 +1290,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5818991" y="2097740"/>
-          <a:ext cx="931432" cy="71718"/>
+          <a:off x="5839481" y="6644763"/>
+          <a:ext cx="936556" cy="71718"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1160,23 +1319,76 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>400276</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>81868</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>439269</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>68512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>148814</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>116308</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121879</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="직선 화살표 연결선 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51B59BD-9275-4DB5-9682-AF328B9D3AAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838583" y="6382226"/>
+          <a:ext cx="3619182" cy="271082"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>618565</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>167122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>439271</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176086</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9">
+        <xdr:cNvPr id="62" name="TextBox 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA460306-2564-44EA-995C-EC3465A1DEE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1184,8 +1396,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15192041" y="1650692"/>
-          <a:ext cx="420891" cy="258557"/>
+          <a:off x="4668051" y="7133979"/>
+          <a:ext cx="1845449" cy="662107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1219,11 +1431,112 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>ACK</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>PI1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>상태에 따라 응답 전송</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>&lt;PI_ONE_STATE=START&gt;     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>또는</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>PI_ONE_STATE=FAIL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1231,76 +1544,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>439269</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>528917</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>185053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>89226</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="직선 화살표 연결선 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51B59BD-9275-4DB5-9682-AF328B9D3AAD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5818093" y="1828800"/>
-          <a:ext cx="3603813" cy="277485"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>618565</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>134469</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>439271</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>143433</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>349622</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>194017</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="TextBox 61">
+        <xdr:cNvPr id="63" name="TextBox 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA460306-2564-44EA-995C-EC3465A1DEE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4190AB0-B240-4724-AE97-D9D82974252B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1308,8 +1568,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4652683" y="2599763"/>
-          <a:ext cx="1837764" cy="681317"/>
+          <a:off x="7278060" y="8022767"/>
+          <a:ext cx="1845448" cy="662107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1362,7 +1622,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>PI1</a:t>
+            <a:t>PI2</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
@@ -1394,7 +1654,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>&lt;PI_ONE_STATE=START&gt;     </a:t>
+            <a:t>&lt;PI_TWO_STATE=START &gt;    </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
@@ -1421,178 +1681,6 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>PI_ONE_STATE=FAIL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>528917</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>349622</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161364</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="TextBox 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4190AB0-B240-4724-AE97-D9D82974252B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7252446" y="3514165"/>
-          <a:ext cx="1837764" cy="681317"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>PI2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-            <a:t>상태에 따라 응답 전송</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>&lt;PI_TWO_STATE=START &gt;    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-            <a:t>또는</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
             <a:t>&lt;PI_TWO_STATE=FAIL&gt;</a:t>
           </a:r>
@@ -1605,14 +1693,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>10242</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>141510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>467442</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161364</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>194017</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1627,8 +1715,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10767889" y="1229445"/>
-          <a:ext cx="457200" cy="4310743"/>
+          <a:off x="10808871" y="5802081"/>
+          <a:ext cx="457200" cy="4189079"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -1663,14 +1751,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>587188</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>145996</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>178649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>652503</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>113339</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>145992</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1685,8 +1773,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11344835" y="3059525"/>
-          <a:ext cx="2754727" cy="639696"/>
+          <a:off x="11385817" y="7580935"/>
+          <a:ext cx="2764972" cy="620486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1759,14 +1847,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>576944</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>110260</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>142913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>2486</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>35139</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1781,8 +1869,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3902035" y="11858915"/>
-          <a:ext cx="1970561" cy="557244"/>
+          <a:off x="3951515" y="16253770"/>
+          <a:ext cx="2000250" cy="545369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1845,14 +1933,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>566058</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>186460</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>1398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>26895</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>33473</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>66126</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1867,8 +1955,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5886203" y="12156787"/>
-          <a:ext cx="790874" cy="68686"/>
+          <a:off x="5965372" y="16547684"/>
+          <a:ext cx="810666" cy="64728"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1896,87 +1984,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>460450</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>161166</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>205671</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="TextBox 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F89E79AD-8D5B-48ED-ACD2-57F542E58A64}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5780595" y="12796511"/>
-          <a:ext cx="633194" cy="266178"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>&lt;ACK&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>7334</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>64863</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>97516</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>20125</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>7</xdr:rowOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>32660</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1991,8 +2008,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10647625" y="14695263"/>
-          <a:ext cx="677809" cy="2816889"/>
+          <a:off x="10805963" y="19038659"/>
+          <a:ext cx="687705" cy="2765430"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2030,14 +2047,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>102978</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>115676</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>148329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>168293</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>121786</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>154439</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2052,8 +2069,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11408287" y="15632767"/>
-          <a:ext cx="2725388" cy="1114474"/>
+          <a:off x="11576521" y="19960329"/>
+          <a:ext cx="2764972" cy="1094681"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2202,14 +2219,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>169811</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>202464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>356508</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>65609</xdr:rowOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>98262</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2224,8 +2241,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4371109" y="14800211"/>
-          <a:ext cx="1970563" cy="560816"/>
+          <a:off x="4430486" y="19143607"/>
+          <a:ext cx="2000251" cy="548941"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2280,14 +2297,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>387387</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>108669</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>141322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>618564</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>210531</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>25470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2302,8 +2319,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3749152" y="7952787"/>
-          <a:ext cx="2248236" cy="550097"/>
+          <a:off x="3761958" y="12333322"/>
+          <a:ext cx="2255920" cy="537291"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2358,14 +2375,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>164625</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>49725</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>82378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>639143</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>86186</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>118839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2380,8 +2397,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6814807" y="8473289"/>
-          <a:ext cx="1804554" cy="701479"/>
+          <a:off x="6913768" y="12927521"/>
+          <a:ext cx="1824346" cy="689604"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2497,14 +2514,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>623454</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>53789</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>86442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>643580</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>85582</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>118235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2519,8 +2536,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10708748" y="7001436"/>
-          <a:ext cx="692479" cy="3169440"/>
+          <a:off x="10747168" y="11407585"/>
+          <a:ext cx="695041" cy="3079793"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2558,14 +2575,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>83941</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>31795</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>64448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>46401</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>49724</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>82377</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2580,8 +2597,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11389250" y="8677031"/>
-          <a:ext cx="3287551" cy="682948"/>
+          <a:off x="11557484" y="13127305"/>
+          <a:ext cx="3337031" cy="671072"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2672,14 +2689,14 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>316674</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>84115</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>116768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>101382</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>988</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>33641</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2708,7 +2725,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15164788" y="5091544"/>
+          <a:off x="15164788" y="9696197"/>
           <a:ext cx="7883680" cy="4271158"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2722,14 +2739,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>7334</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>149961</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>182614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>22687</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>25271</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>57924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2744,8 +2761,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10647625" y="11898616"/>
-          <a:ext cx="680371" cy="1205346"/>
+          <a:off x="10805963" y="16293471"/>
+          <a:ext cx="690267" cy="1181596"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2783,14 +2800,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>85689</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>24450</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>57103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>151004</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>213466</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>28404</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2805,8 +2822,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11390998" y="12216450"/>
-          <a:ext cx="2725388" cy="632361"/>
+          <a:off x="11559232" y="16603389"/>
+          <a:ext cx="2764972" cy="624444"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2902,14 +2919,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>424542</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>30104</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>62757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>235883</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>71022</xdr:rowOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>103675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2924,8 +2941,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7074724" y="15768868"/>
-          <a:ext cx="1806395" cy="262590"/>
+          <a:off x="7173685" y="20092471"/>
+          <a:ext cx="1836084" cy="258633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2994,14 +3011,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>391885</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>104442</xdr:rowOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>137095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>203226</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>108846</xdr:rowOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>141499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3016,8 +3033,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7042067" y="19611642"/>
-          <a:ext cx="1806395" cy="669422"/>
+          <a:off x="7141028" y="23867952"/>
+          <a:ext cx="1836084" cy="657547"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3113,14 +3130,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>139594</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>48093</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>80746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>89248</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>202163</xdr:rowOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>17102</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3135,8 +3152,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11444903" y="19998638"/>
-          <a:ext cx="3274745" cy="1040761"/>
+          <a:off x="11613137" y="24247032"/>
+          <a:ext cx="3324225" cy="1024927"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3211,14 +3228,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>538655</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>157654</xdr:rowOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>190307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>455504</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>203142</xdr:rowOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>18081</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3233,8 +3250,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3954517" y="22859999"/>
-          <a:ext cx="2649539" cy="886315"/>
+          <a:off x="3913226" y="28275450"/>
+          <a:ext cx="2616507" cy="916345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3393,14 +3410,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>2690</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>196354</xdr:rowOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>11293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>638528</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>196738</xdr:rowOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>11677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3415,8 +3432,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6652872" y="24137009"/>
-          <a:ext cx="1300856" cy="665402"/>
+          <a:off x="6751833" y="28314150"/>
+          <a:ext cx="1310752" cy="653527"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3495,14 +3512,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>219725</xdr:rowOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>34664</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>659674</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>19782</xdr:rowOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>52435</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3517,8 +3534,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3972791" y="25047070"/>
-          <a:ext cx="2672047" cy="243403"/>
+          <a:off x="4022271" y="29208378"/>
+          <a:ext cx="2711632" cy="235486"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3548,14 +3565,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19322</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>158530</xdr:rowOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>191183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1027</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>191169</xdr:rowOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>6108</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3570,8 +3587,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3344413" y="25429221"/>
-          <a:ext cx="1311741" cy="475984"/>
+          <a:off x="3393893" y="29582612"/>
+          <a:ext cx="1331534" cy="468067"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3642,14 +3659,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>192741</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>127198</xdr:rowOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>159851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>142395</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>157294</xdr:rowOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>189947</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3664,8 +3681,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11498050" y="24732871"/>
-          <a:ext cx="3274745" cy="916787"/>
+          <a:off x="11666284" y="28898137"/>
+          <a:ext cx="3324225" cy="900953"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3926,14 +3943,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>363038</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>102156</xdr:rowOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>134809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>332830</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>160197</xdr:rowOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>192850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3948,8 +3965,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4353147" y="29362956"/>
-          <a:ext cx="1964847" cy="723059"/>
+          <a:off x="4412524" y="33445095"/>
+          <a:ext cx="1994535" cy="711184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4022,7 +4039,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&lt;CMD=CLASSIFY_LEFT &gt;</a:t>
+            <a:t>&lt;CMD=CLASSIFY_LEFT&gt;</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
@@ -4072,15 +4089,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>87086</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>143794</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>31667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>642657</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>3300</xdr:rowOff>
+      <xdr:colOff>642658</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4095,8 +4112,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4077195" y="30291285"/>
-          <a:ext cx="5210698" cy="524524"/>
+          <a:off x="4038600" y="34946507"/>
+          <a:ext cx="5321338" cy="600793"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4126,14 +4143,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>74669</xdr:rowOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>107322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>112223</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>195940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4148,8 +4165,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8342169" y="30222160"/>
-          <a:ext cx="588817" cy="259227"/>
+          <a:off x="8460922" y="34288465"/>
+          <a:ext cx="1205592" cy="306332"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4185,7 +4202,22 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>&lt;ACK&gt;</a:t>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RECV_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>ACK&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
@@ -4197,14 +4229,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>92801</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>114818</xdr:rowOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>147471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>50075</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>101142</xdr:rowOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>133795</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4219,8 +4251,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11398110" y="29597291"/>
-          <a:ext cx="3282365" cy="651342"/>
+          <a:off x="11566344" y="33675471"/>
+          <a:ext cx="3331845" cy="639467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4299,14 +4331,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>32657</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>90857</xdr:rowOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>123510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>642257</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>129551</xdr:rowOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>162204</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4321,8 +4353,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4022766" y="35336821"/>
-          <a:ext cx="5264727" cy="260366"/>
+          <a:off x="4082143" y="39312081"/>
+          <a:ext cx="5334000" cy="256409"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4352,14 +4384,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>33553</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>181240</xdr:rowOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>213893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>638094</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>81859</xdr:rowOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>114512</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4374,8 +4406,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4023662" y="34540513"/>
-          <a:ext cx="5259668" cy="343964"/>
+          <a:off x="4083039" y="38531607"/>
+          <a:ext cx="5328941" cy="336048"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4405,14 +4437,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>533381</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>50674</xdr:rowOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>83327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>455230</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>43468</xdr:rowOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>76121</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4427,8 +4459,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6518545" y="34188274"/>
-          <a:ext cx="2581921" cy="879485"/>
+          <a:off x="6607610" y="38183327"/>
+          <a:ext cx="2621506" cy="863651"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4520,14 +4552,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>240412</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>176692</xdr:rowOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>209345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>16222</xdr:rowOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>48875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4542,8 +4574,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4274530" y="35587280"/>
-          <a:ext cx="700882" cy="287766"/>
+          <a:off x="4289898" y="39180202"/>
+          <a:ext cx="703443" cy="274959"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4591,14 +4623,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>88366</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>175684</xdr:rowOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>208337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>45304</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>215154</xdr:rowOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>30093</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4613,8 +4645,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11518366" y="35810390"/>
-          <a:ext cx="3318703" cy="935940"/>
+          <a:off x="11561909" y="39396908"/>
+          <a:ext cx="3331509" cy="910328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4678,14 +4710,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>63059</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>33962</xdr:rowOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>66615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>2581</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>175074</xdr:rowOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>207727</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4700,8 +4732,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4053168" y="41043417"/>
-          <a:ext cx="5259668" cy="362784"/>
+          <a:off x="4112545" y="44915758"/>
+          <a:ext cx="5338836" cy="358826"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4731,14 +4763,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>103929</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>151385</xdr:rowOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>184038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>590183</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>794</xdr:rowOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>33447</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4753,8 +4785,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7419129" y="40939167"/>
-          <a:ext cx="1816290" cy="292754"/>
+          <a:off x="7527986" y="44815467"/>
+          <a:ext cx="1836083" cy="284837"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4823,14 +4855,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>279877</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>99301</xdr:rowOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>131954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>395570</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>124259</xdr:rowOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>156912</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4845,8 +4877,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8260095" y="41330428"/>
-          <a:ext cx="2110748" cy="911649"/>
+          <a:off x="8378848" y="45198811"/>
+          <a:ext cx="2140436" cy="895815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4920,14 +4952,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>77479</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>8957</xdr:rowOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>41610</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>36658</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>203540</xdr:rowOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>18479</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4942,8 +4974,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11382788" y="41683430"/>
-          <a:ext cx="3284270" cy="859601"/>
+          <a:off x="11551022" y="45543896"/>
+          <a:ext cx="3333750" cy="847726"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5006,14 +5038,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>213</xdr:row>
-      <xdr:rowOff>18274</xdr:rowOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>50927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>13447</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>159387</xdr:rowOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>192040</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5028,8 +5060,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4110318" y="47755333"/>
-          <a:ext cx="5316070" cy="365230"/>
+          <a:off x="4125686" y="50996070"/>
+          <a:ext cx="5336561" cy="358827"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5059,14 +5091,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>61715</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>127067</xdr:rowOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>159720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>546064</xdr:colOff>
-      <xdr:row>213</xdr:row>
-      <xdr:rowOff>167984</xdr:rowOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>200637</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5081,8 +5113,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7457597" y="47640008"/>
-          <a:ext cx="1829055" cy="265035"/>
+          <a:off x="7485772" y="50887149"/>
+          <a:ext cx="1834178" cy="258631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5151,14 +5183,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>6293</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>60839</xdr:rowOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>93492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>634847</xdr:colOff>
-      <xdr:row>213</xdr:row>
-      <xdr:rowOff>133358</xdr:rowOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>166011</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5173,8 +5205,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9419234" y="47573780"/>
-          <a:ext cx="1300907" cy="296637"/>
+          <a:off x="9455093" y="50820921"/>
+          <a:ext cx="1303468" cy="290233"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5229,14 +5261,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>654424</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>197223</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>12162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>669552</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>136936</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>169589</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5251,8 +5283,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3343836" y="4903694"/>
-          <a:ext cx="1359834" cy="387948"/>
+          <a:off x="3354081" y="9373876"/>
+          <a:ext cx="1364957" cy="375142"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5302,14 +5334,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>633580</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>71717</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>669918</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>98611</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>131264</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5324,8 +5356,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1305933" y="5226423"/>
-          <a:ext cx="2053397" cy="251012"/>
+          <a:off x="1308494" y="9683799"/>
+          <a:ext cx="2061081" cy="244608"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5354,15 +5386,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>367553</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>17931</xdr:rowOff>
+      <xdr:colOff>236925</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>202983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>436133</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>59169</xdr:rowOff>
+      <xdr:colOff>478973</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5377,8 +5409,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1712259" y="5172637"/>
-          <a:ext cx="1413286" cy="265356"/>
+          <a:off x="1586754" y="9564697"/>
+          <a:ext cx="1591876" cy="493703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5414,8 +5446,47 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>&lt;CMD=READY&gt;</a:t>
-          </a:r>
+            <a:t>&lt;CMD=PI_ONE_READY&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;CMD=PI_TWO_READY&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5426,14 +5497,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>663388</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>85583</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>118236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>6163</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>25295</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>57948</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5448,8 +5519,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3323461" y="9617510"/>
-          <a:ext cx="1337829" cy="383058"/>
+          <a:off x="3363045" y="14051950"/>
+          <a:ext cx="1367518" cy="375141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5499,14 +5570,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>76615</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>109268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645938</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>103509</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>136162</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5521,8 +5592,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1274618" y="9830215"/>
-          <a:ext cx="2031393" cy="248567"/>
+          <a:off x="1284514" y="14260697"/>
+          <a:ext cx="2061081" cy="244608"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5552,14 +5623,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>589542</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>44568</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>77221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>233081</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>131265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5574,8 +5645,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1934248" y="9905744"/>
-          <a:ext cx="988245" cy="278162"/>
+          <a:off x="1939371" y="14228650"/>
+          <a:ext cx="993367" cy="271758"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5623,14 +5694,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>7334</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>87209</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>119862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>15127</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>29368</xdr:rowOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>62021</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5645,8 +5716,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3332425" y="16712664"/>
-          <a:ext cx="1337829" cy="385504"/>
+          <a:off x="3381905" y="21020433"/>
+          <a:ext cx="1357622" cy="377588"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5696,14 +5767,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>618564</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>78243</xdr:rowOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>110896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>654902</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>105137</xdr:rowOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>137790</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5718,8 +5789,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1283582" y="16925370"/>
-          <a:ext cx="2031393" cy="248567"/>
+          <a:off x="1293478" y="21229182"/>
+          <a:ext cx="2061081" cy="244608"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5749,14 +5820,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>59167</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>17375</xdr:rowOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>50028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>71716</xdr:rowOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>104369</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5771,8 +5842,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2076226" y="17050316"/>
-          <a:ext cx="1070386" cy="278459"/>
+          <a:off x="2083910" y="21168314"/>
+          <a:ext cx="1072947" cy="272055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5820,14 +5891,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>663388</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>173599</xdr:rowOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>206252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>6163</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>113311</xdr:rowOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>145964</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5842,8 +5913,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3323461" y="21010835"/>
-          <a:ext cx="1337829" cy="383058"/>
+          <a:off x="3363045" y="25243395"/>
+          <a:ext cx="1367518" cy="375140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5893,14 +5964,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>164631</xdr:rowOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>197284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645938</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>189080</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>4018</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5915,8 +5986,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1274618" y="21223540"/>
-          <a:ext cx="2031393" cy="246122"/>
+          <a:off x="1284514" y="25452141"/>
+          <a:ext cx="2061081" cy="242163"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5946,14 +6017,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>600748</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>110844</xdr:rowOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>143497</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>618564</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>197223</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>12161</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5968,8 +6039,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1945454" y="21402020"/>
-          <a:ext cx="1362522" cy="310497"/>
+          <a:off x="1950577" y="25398354"/>
+          <a:ext cx="1367644" cy="304093"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6017,14 +6088,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>48092</xdr:rowOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>80745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>29091</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>3269</xdr:rowOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>35922</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6039,8 +6110,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10649256" y="19111947"/>
-          <a:ext cx="685144" cy="2615249"/>
+          <a:off x="10807594" y="23376174"/>
+          <a:ext cx="695040" cy="2567748"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -6078,14 +6149,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>67648</xdr:rowOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>100301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>20126</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>67647</xdr:rowOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>100300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6100,8 +6171,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10640291" y="24008303"/>
-          <a:ext cx="685144" cy="2438399"/>
+          <a:off x="10798629" y="28185444"/>
+          <a:ext cx="695040" cy="2394856"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -6139,14 +6210,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>7334</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>176035</xdr:rowOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>208688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>15127</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>115748</xdr:rowOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>148401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6161,8 +6232,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3332425" y="35643671"/>
-          <a:ext cx="1337829" cy="383059"/>
+          <a:off x="3381905" y="39614974"/>
+          <a:ext cx="1357622" cy="375141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6212,14 +6283,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>618564</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>167067</xdr:rowOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>199720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>654902</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>193962</xdr:rowOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>8900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6234,8 +6305,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1283582" y="35856376"/>
-          <a:ext cx="2031393" cy="248568"/>
+          <a:off x="1293478" y="39823720"/>
+          <a:ext cx="2061081" cy="244609"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6265,14 +6336,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>352537</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>113281</xdr:rowOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>145934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>421117</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>154520</xdr:rowOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>187173</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6287,8 +6358,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1682573" y="35802590"/>
-          <a:ext cx="1398617" cy="262912"/>
+          <a:off x="1702366" y="39769934"/>
+          <a:ext cx="1418408" cy="258953"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6336,14 +6407,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>663388</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>41617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>6163</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>172794</xdr:rowOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>205447</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6358,8 +6429,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3323461" y="42791800"/>
-          <a:ext cx="1337829" cy="385503"/>
+          <a:off x="3363045" y="46632474"/>
+          <a:ext cx="1367518" cy="381544"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6409,14 +6480,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>2441</xdr:rowOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>35094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645938</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>26891</xdr:rowOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>59544</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6431,8 +6502,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1274618" y="43006950"/>
-          <a:ext cx="2031393" cy="246123"/>
+          <a:off x="1284514" y="46843665"/>
+          <a:ext cx="2061081" cy="242165"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6462,14 +6533,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>343573</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>170328</xdr:rowOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>202981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>412153</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>211566</xdr:rowOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>26504</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6484,8 +6555,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1673609" y="42953164"/>
-          <a:ext cx="1398617" cy="262911"/>
+          <a:off x="1693402" y="46793838"/>
+          <a:ext cx="1418408" cy="258952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6533,14 +6604,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>448</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>174587</xdr:rowOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>207240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>8068</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>118109</xdr:rowOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>150762</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6555,8 +6626,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3334198" y="48371087"/>
-          <a:ext cx="1341120" cy="381672"/>
+          <a:off x="3375019" y="52676383"/>
+          <a:ext cx="1357449" cy="378950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6606,14 +6677,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>163714</xdr:rowOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>196367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645938</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>198228</xdr:rowOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>13166</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6628,8 +6699,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1276350" y="48579289"/>
-          <a:ext cx="2036588" cy="253589"/>
+          <a:off x="1284514" y="52883224"/>
+          <a:ext cx="2061081" cy="252228"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6659,14 +6730,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>343573</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>115643</xdr:rowOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>148296</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>410248</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>158786</xdr:rowOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>191439</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6681,8 +6752,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1677073" y="48531218"/>
-          <a:ext cx="1400175" cy="262218"/>
+          <a:off x="1693402" y="52835153"/>
+          <a:ext cx="1416503" cy="260857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6730,14 +6801,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>213</xdr:row>
-      <xdr:rowOff>71717</xdr:rowOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>104370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>48825</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>170329</xdr:rowOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>202982</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6752,8 +6823,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11519646" y="47808776"/>
-          <a:ext cx="3320944" cy="995082"/>
+          <a:off x="11563189" y="51049513"/>
+          <a:ext cx="3333750" cy="969469"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6833,14 +6904,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>73357</xdr:rowOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>106010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>20127</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>48907</xdr:rowOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>81560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6855,8 +6926,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10640292" y="28890812"/>
-          <a:ext cx="685144" cy="1970604"/>
+          <a:off x="10798630" y="32980867"/>
+          <a:ext cx="695040" cy="1934979"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -6894,14 +6965,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>68458</xdr:rowOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>101111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>20126</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>95353</xdr:rowOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>128006</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6916,8 +6987,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10640291" y="34206058"/>
-          <a:ext cx="685144" cy="3130313"/>
+          <a:off x="10798629" y="38201111"/>
+          <a:ext cx="695040" cy="3074895"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -6955,14 +7026,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>35852</xdr:rowOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>68505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>20126</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>35852</xdr:rowOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>68505</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6977,8 +7048,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10640291" y="40823634"/>
-          <a:ext cx="685144" cy="2438400"/>
+          <a:off x="10798629" y="44699934"/>
+          <a:ext cx="695040" cy="2394857"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -7016,14 +7087,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>8964</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>143434</xdr:rowOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>176087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>29090</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>143434</xdr:rowOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>176087</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7038,8 +7109,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10766611" y="46984022"/>
-          <a:ext cx="692479" cy="2465294"/>
+          <a:off x="10807593" y="50250373"/>
+          <a:ext cx="695040" cy="2394857"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -7077,14 +7148,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>16025</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>85993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>660731</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>63120</xdr:rowOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>95773</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7099,8 +7170,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349775" y="47373540"/>
-          <a:ext cx="1311456" cy="447930"/>
+          <a:off x="3390596" y="51684279"/>
+          <a:ext cx="1319621" cy="445208"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7171,14 +7242,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>394608</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>46537</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>79190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>530679</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>202202</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>17140</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7193,8 +7264,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17063358" y="3965394"/>
-          <a:ext cx="3469821" cy="1026522"/>
+          <a:off x="17267465" y="8570047"/>
+          <a:ext cx="3510643" cy="1026522"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7260,14 +7331,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5959</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>15112</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>47765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>32909</xdr:rowOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>65562</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7282,8 +7353,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1335995" y="26172494"/>
-          <a:ext cx="2654114" cy="239470"/>
+          <a:off x="1355788" y="30310051"/>
+          <a:ext cx="2693698" cy="235511"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7313,14 +7384,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>156735</xdr:rowOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>189388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>25289</xdr:rowOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>57942</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7335,8 +7406,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1834861" y="26092444"/>
-          <a:ext cx="1804555" cy="311900"/>
+          <a:off x="1854654" y="30233959"/>
+          <a:ext cx="1834242" cy="303983"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7385,23 +7456,331 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>555812</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>35858</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>642258</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>97968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>498021</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>186585</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="TextBox 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33067FEB-3C62-458C-9058-1AE3EA836804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6041572" y="17079682"/>
+          <a:ext cx="1205592" cy="306332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RECV_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>ACK&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="TextBox 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89043F9A-F439-4F0D-83E2-9CB442183878}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="1807029"/>
+          <a:ext cx="1796142" cy="293914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&lt;CLIENT_TYPE=WINFORM&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>446313</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>250371</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="TextBox 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31AB91D-618D-4133-8006-B09C326B5930}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5845627" y="2394857"/>
+          <a:ext cx="1828801" cy="293915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&lt;CLIENT_TYPE=INSPECTION&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>511629</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>484094</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>197223</xdr:rowOff>
+      <xdr:colOff>174173</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="타원 10">
+        <xdr:cNvPr id="119" name="TextBox 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3501479-8929-4399-AA77-633D34210179}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15386C22-A231-4D31-BB3B-D2A2712F73C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="2884713"/>
+          <a:ext cx="1687287" cy="293915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&lt;CLIENT_TYPE=CONTROL&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>350273</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>117821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="오른쪽 중괄호 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD68562C-C7D0-495D-8AB1-17EF6B914D20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7409,33 +7788,25 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1228165" y="23119976"/>
-          <a:ext cx="9341223" cy="9574306"/>
+          <a:off x="10798629" y="1262742"/>
+          <a:ext cx="350273" cy="3209365"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="rightBrace">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -7451,23 +7822,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>251012</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>197223</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>566057</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>206830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>555812</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>215152</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>631372</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>174173</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11">
+        <xdr:cNvPr id="134" name="TextBox 133">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF40DC3C-4409-4373-AA56-51BFE3C8A9CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E22C6020-32AD-4054-8430-2FE9E4671EFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7475,8 +7846,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6302188" y="4679576"/>
-          <a:ext cx="2321859" cy="914400"/>
+          <a:off x="11364686" y="2601687"/>
+          <a:ext cx="2764972" cy="620486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7512,11 +7883,18 @@
         <a:p>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>파이마다 상태 다르게 </a:t>
+            <a:t>서버에게 정보를 보내고</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>클라이언트와 서버를 연결한다</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>?</a:t>
+            <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7792,20 +8170,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P224"/>
+  <dimension ref="A2:P249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" topLeftCell="A227" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R243" sqref="R243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -7831,7 +8209,7 @@
       <c r="O4" s="19"/>
       <c r="P4" s="20"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -7849,33 +8227,30 @@
       <c r="O5" s="22"/>
       <c r="P5" s="23"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B6" s="6"/>
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
+      <c r="F6" s="6"/>
       <c r="H6" s="1"/>
       <c r="J6" s="6"/>
       <c r="L6" s="1"/>
       <c r="N6" s="6"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B7" s="5"/>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
       <c r="H7" s="2"/>
       <c r="J7" s="5"/>
       <c r="L7" s="2"/>
       <c r="N7" s="5"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B8" s="5"/>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
@@ -7885,8 +8260,8 @@
       <c r="N8" s="5"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B9" s="5"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
@@ -7896,7 +8271,7 @@
       <c r="N9" s="5"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B10" s="5"/>
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
@@ -7907,7 +8282,7 @@
       <c r="N10" s="5"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
@@ -7918,7 +8293,7 @@
       <c r="N11" s="5"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="D12" s="2"/>
       <c r="E12" s="4"/>
@@ -7929,7 +8304,7 @@
       <c r="N12" s="5"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
@@ -7940,7 +8315,7 @@
       <c r="N13" s="5"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B14" s="5"/>
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
@@ -7951,7 +8326,7 @@
       <c r="N14" s="5"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
       <c r="D15" s="2"/>
       <c r="E15" s="4"/>
@@ -7962,7 +8337,7 @@
       <c r="N15" s="5"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
@@ -7973,7 +8348,7 @@
       <c r="N16" s="5"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
@@ -7984,7 +8359,7 @@
       <c r="N17" s="5"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
       <c r="D18" s="2"/>
       <c r="E18" s="4"/>
@@ -7995,7 +8370,7 @@
       <c r="N18" s="5"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
       <c r="D19" s="2"/>
       <c r="E19" s="4"/>
@@ -8006,7 +8381,7 @@
       <c r="N19" s="5"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
@@ -8017,7 +8392,7 @@
       <c r="N20" s="5"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
       <c r="D21" s="2"/>
       <c r="E21" s="4"/>
@@ -8028,7 +8403,7 @@
       <c r="N21" s="5"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
@@ -8039,7 +8414,7 @@
       <c r="N22" s="5"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
       <c r="D23" s="2"/>
       <c r="E23" s="4"/>
@@ -8050,7 +8425,7 @@
       <c r="N23" s="5"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
       <c r="D24" s="2"/>
       <c r="E24" s="4"/>
@@ -8061,7 +8436,7 @@
       <c r="N24" s="5"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
@@ -8072,7 +8447,7 @@
       <c r="N25" s="5"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
       <c r="D26" s="2"/>
       <c r="E26" s="4"/>
@@ -8083,7 +8458,7 @@
       <c r="N26" s="5"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
       <c r="D27" s="2"/>
       <c r="E27" s="4"/>
@@ -8094,8 +8469,11 @@
       <c r="N27" s="5"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="5"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="13"/>
       <c r="D28" s="2"/>
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
@@ -8105,8 +8483,9 @@
       <c r="N28" s="5"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="5"/>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
       <c r="D29" s="2"/>
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
@@ -8116,8 +8495,9 @@
       <c r="N29" s="5"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
       <c r="D30" s="2"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
@@ -8127,7 +8507,7 @@
       <c r="N30" s="5"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B31" s="5"/>
       <c r="D31" s="2"/>
       <c r="E31" s="4"/>
@@ -8138,7 +8518,7 @@
       <c r="N31" s="5"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B32" s="5"/>
       <c r="D32" s="2"/>
       <c r="E32" s="4"/>
@@ -8149,7 +8529,7 @@
       <c r="N32" s="5"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B33" s="5"/>
       <c r="D33" s="2"/>
       <c r="E33" s="4"/>
@@ -8160,7 +8540,7 @@
       <c r="N33" s="5"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B34" s="5"/>
       <c r="D34" s="2"/>
       <c r="E34" s="4"/>
@@ -8171,7 +8551,7 @@
       <c r="N34" s="5"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B35" s="5"/>
       <c r="D35" s="2"/>
       <c r="E35" s="4"/>
@@ -8182,7 +8562,7 @@
       <c r="N35" s="5"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B36" s="5"/>
       <c r="D36" s="2"/>
       <c r="E36" s="4"/>
@@ -8193,7 +8573,7 @@
       <c r="N36" s="5"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B37" s="5"/>
       <c r="D37" s="2"/>
       <c r="E37" s="4"/>
@@ -8204,7 +8584,7 @@
       <c r="N37" s="5"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B38" s="5"/>
       <c r="D38" s="2"/>
       <c r="E38" s="4"/>
@@ -8215,7 +8595,7 @@
       <c r="N38" s="5"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B39" s="5"/>
       <c r="D39" s="2"/>
       <c r="E39" s="4"/>
@@ -8226,7 +8606,7 @@
       <c r="N39" s="5"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B40" s="5"/>
       <c r="D40" s="2"/>
       <c r="E40" s="4"/>
@@ -8237,7 +8617,7 @@
       <c r="N40" s="5"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B41" s="5"/>
       <c r="D41" s="2"/>
       <c r="E41" s="4"/>
@@ -8248,7 +8628,7 @@
       <c r="N41" s="5"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B42" s="5"/>
       <c r="D42" s="2"/>
       <c r="E42" s="4"/>
@@ -8259,7 +8639,7 @@
       <c r="N42" s="5"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B43" s="5"/>
       <c r="D43" s="2"/>
       <c r="E43" s="4"/>
@@ -8270,7 +8650,7 @@
       <c r="N43" s="5"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B44" s="5"/>
       <c r="D44" s="2"/>
       <c r="E44" s="4"/>
@@ -8281,7 +8661,7 @@
       <c r="N44" s="5"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B45" s="5"/>
       <c r="D45" s="2"/>
       <c r="E45" s="4"/>
@@ -8292,7 +8672,7 @@
       <c r="N45" s="5"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B46" s="5"/>
       <c r="D46" s="2"/>
       <c r="E46" s="4"/>
@@ -8303,7 +8683,7 @@
       <c r="N46" s="5"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B47" s="5"/>
       <c r="D47" s="2"/>
       <c r="E47" s="4"/>
@@ -8314,7 +8694,7 @@
       <c r="N47" s="5"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B48" s="5"/>
       <c r="D48" s="2"/>
       <c r="E48" s="4"/>
@@ -8325,7 +8705,7 @@
       <c r="N48" s="5"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B49" s="5"/>
       <c r="D49" s="2"/>
       <c r="E49" s="4"/>
@@ -8336,7 +8716,7 @@
       <c r="N49" s="5"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B50" s="5"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4"/>
@@ -8347,7 +8727,7 @@
       <c r="N50" s="5"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B51" s="5"/>
       <c r="D51" s="2"/>
       <c r="E51" s="4"/>
@@ -8358,7 +8738,7 @@
       <c r="N51" s="5"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B52" s="5"/>
       <c r="D52" s="2"/>
       <c r="F52" s="5"/>
@@ -8368,7 +8748,7 @@
       <c r="N52" s="5"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B53" s="5"/>
       <c r="D53" s="2"/>
       <c r="F53" s="5"/>
@@ -8378,7 +8758,7 @@
       <c r="N53" s="5"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B54" s="5"/>
       <c r="D54" s="2"/>
       <c r="F54" s="5"/>
@@ -8388,7 +8768,7 @@
       <c r="N54" s="5"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B55" s="5"/>
       <c r="D55" s="2"/>
       <c r="F55" s="5"/>
@@ -8398,7 +8778,7 @@
       <c r="N55" s="5"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B56" s="5"/>
       <c r="D56" s="2"/>
       <c r="F56" s="5"/>
@@ -8408,7 +8788,7 @@
       <c r="N56" s="5"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B57" s="5"/>
       <c r="D57" s="2"/>
       <c r="F57" s="5"/>
@@ -8418,7 +8798,7 @@
       <c r="N57" s="5"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B58" s="5"/>
       <c r="D58" s="2"/>
       <c r="F58" s="5"/>
@@ -8428,7 +8808,7 @@
       <c r="N58" s="5"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B59" s="5"/>
       <c r="D59" s="2"/>
       <c r="F59" s="5"/>
@@ -8438,7 +8818,7 @@
       <c r="N59" s="5"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B60" s="5"/>
       <c r="D60" s="2"/>
       <c r="F60" s="5"/>
@@ -8448,7 +8828,7 @@
       <c r="N60" s="5"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B61" s="5"/>
       <c r="D61" s="2"/>
       <c r="F61" s="5"/>
@@ -8458,7 +8838,7 @@
       <c r="N61" s="5"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B62" s="5"/>
       <c r="D62" s="2"/>
       <c r="F62" s="5"/>
@@ -8468,25 +8848,27 @@
       <c r="N62" s="5"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B63" s="5"/>
       <c r="D63" s="2"/>
       <c r="F63" s="5"/>
       <c r="H63" s="2"/>
       <c r="J63" s="5"/>
       <c r="L63" s="2"/>
+      <c r="N63" s="5"/>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B64" s="5"/>
       <c r="D64" s="2"/>
       <c r="F64" s="5"/>
       <c r="H64" s="2"/>
       <c r="J64" s="5"/>
       <c r="L64" s="2"/>
+      <c r="N64" s="5"/>
       <c r="P64" s="2"/>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B65" s="5"/>
       <c r="D65" s="2"/>
       <c r="F65" s="5"/>
@@ -8496,7 +8878,7 @@
       <c r="N65" s="5"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B66" s="5"/>
       <c r="D66" s="2"/>
       <c r="F66" s="5"/>
@@ -8506,7 +8888,7 @@
       <c r="N66" s="5"/>
       <c r="P66" s="2"/>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B67" s="5"/>
       <c r="D67" s="2"/>
       <c r="F67" s="5"/>
@@ -8516,7 +8898,7 @@
       <c r="N67" s="5"/>
       <c r="P67" s="2"/>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B68" s="5"/>
       <c r="D68" s="2"/>
       <c r="F68" s="5"/>
@@ -8526,7 +8908,7 @@
       <c r="N68" s="5"/>
       <c r="P68" s="2"/>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B69" s="5"/>
       <c r="D69" s="2"/>
       <c r="F69" s="5"/>
@@ -8536,7 +8918,7 @@
       <c r="N69" s="5"/>
       <c r="P69" s="2"/>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B70" s="5"/>
       <c r="D70" s="2"/>
       <c r="F70" s="5"/>
@@ -8546,7 +8928,7 @@
       <c r="N70" s="5"/>
       <c r="P70" s="2"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B71" s="5"/>
       <c r="D71" s="2"/>
       <c r="F71" s="5"/>
@@ -8556,7 +8938,7 @@
       <c r="N71" s="5"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B72" s="5"/>
       <c r="D72" s="2"/>
       <c r="F72" s="5"/>
@@ -8566,7 +8948,7 @@
       <c r="N72" s="5"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B73" s="5"/>
       <c r="D73" s="2"/>
       <c r="F73" s="5"/>
@@ -8576,7 +8958,7 @@
       <c r="N73" s="5"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B74" s="5"/>
       <c r="D74" s="2"/>
       <c r="F74" s="5"/>
@@ -8586,7 +8968,7 @@
       <c r="N74" s="5"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B75" s="5"/>
       <c r="D75" s="2"/>
       <c r="F75" s="5"/>
@@ -8596,7 +8978,7 @@
       <c r="N75" s="5"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B76" s="5"/>
       <c r="D76" s="2"/>
       <c r="F76" s="5"/>
@@ -8606,7 +8988,7 @@
       <c r="N76" s="5"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B77" s="5"/>
       <c r="D77" s="2"/>
       <c r="F77" s="5"/>
@@ -8616,7 +8998,7 @@
       <c r="N77" s="5"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B78" s="5"/>
       <c r="D78" s="2"/>
       <c r="F78" s="5"/>
@@ -8626,7 +9008,7 @@
       <c r="N78" s="5"/>
       <c r="P78" s="2"/>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B79" s="5"/>
       <c r="D79" s="2"/>
       <c r="F79" s="5"/>
@@ -8636,7 +9018,7 @@
       <c r="N79" s="5"/>
       <c r="P79" s="2"/>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B80" s="5"/>
       <c r="D80" s="2"/>
       <c r="F80" s="5"/>
@@ -8646,7 +9028,7 @@
       <c r="N80" s="5"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B81" s="5"/>
       <c r="D81" s="2"/>
       <c r="F81" s="5"/>
@@ -8656,7 +9038,7 @@
       <c r="N81" s="5"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B82" s="5"/>
       <c r="D82" s="2"/>
       <c r="F82" s="5"/>
@@ -8666,7 +9048,7 @@
       <c r="N82" s="5"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B83" s="5"/>
       <c r="D83" s="2"/>
       <c r="F83" s="5"/>
@@ -8676,7 +9058,7 @@
       <c r="N83" s="5"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B84" s="5"/>
       <c r="D84" s="2"/>
       <c r="F84" s="5"/>
@@ -8686,7 +9068,7 @@
       <c r="N84" s="5"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B85" s="5"/>
       <c r="D85" s="2"/>
       <c r="F85" s="5"/>
@@ -8696,7 +9078,7 @@
       <c r="N85" s="5"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B86" s="5"/>
       <c r="D86" s="2"/>
       <c r="F86" s="5"/>
@@ -8706,7 +9088,7 @@
       <c r="N86" s="5"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B87" s="5"/>
       <c r="D87" s="2"/>
       <c r="F87" s="5"/>
@@ -8716,7 +9098,7 @@
       <c r="N87" s="5"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B88" s="5"/>
       <c r="D88" s="2"/>
       <c r="F88" s="5"/>
@@ -8726,7 +9108,7 @@
       <c r="N88" s="5"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B89" s="5"/>
       <c r="D89" s="2"/>
       <c r="F89" s="5"/>
@@ -8736,7 +9118,7 @@
       <c r="N89" s="5"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B90" s="5"/>
       <c r="D90" s="2"/>
       <c r="F90" s="5"/>
@@ -8746,7 +9128,7 @@
       <c r="N90" s="5"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B91" s="5"/>
       <c r="D91" s="2"/>
       <c r="F91" s="5"/>
@@ -8756,7 +9138,7 @@
       <c r="N91" s="5"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B92" s="5"/>
       <c r="D92" s="2"/>
       <c r="F92" s="5"/>
@@ -8766,7 +9148,7 @@
       <c r="N92" s="5"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B93" s="5"/>
       <c r="D93" s="2"/>
       <c r="F93" s="5"/>
@@ -8776,7 +9158,7 @@
       <c r="N93" s="5"/>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B94" s="5"/>
       <c r="D94" s="2"/>
       <c r="F94" s="5"/>
@@ -8786,7 +9168,7 @@
       <c r="N94" s="5"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B95" s="5"/>
       <c r="D95" s="2"/>
       <c r="F95" s="5"/>
@@ -8796,7 +9178,7 @@
       <c r="N95" s="5"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B96" s="5"/>
       <c r="D96" s="2"/>
       <c r="F96" s="5"/>
@@ -8806,7 +9188,7 @@
       <c r="N96" s="5"/>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="4"/>
@@ -8824,7 +9206,7 @@
       <c r="O97" s="4"/>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="4"/>
@@ -8840,7 +9222,7 @@
       <c r="O98" s="10"/>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B99" s="5"/>
       <c r="D99" s="2"/>
       <c r="F99" s="5"/>
@@ -8852,7 +9234,7 @@
       <c r="N99" s="5"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B100" s="5"/>
       <c r="D100" s="2"/>
       <c r="F100" s="5"/>
@@ -8864,7 +9246,7 @@
       <c r="N100" s="5"/>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B101" s="5"/>
       <c r="D101" s="2"/>
       <c r="F101" s="5"/>
@@ -8876,7 +9258,7 @@
       <c r="N101" s="5"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B102" s="5"/>
       <c r="D102" s="2"/>
       <c r="F102" s="5"/>
@@ -8888,7 +9270,7 @@
       <c r="N102" s="5"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B103" s="5"/>
       <c r="D103" s="2"/>
       <c r="F103" s="5"/>
@@ -8900,7 +9282,7 @@
       <c r="N103" s="5"/>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B104" s="5"/>
       <c r="D104" s="2"/>
       <c r="F104" s="5"/>
@@ -8912,7 +9294,7 @@
       <c r="N104" s="5"/>
       <c r="P104" s="2"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B105" s="5"/>
       <c r="D105" s="2"/>
       <c r="F105" s="5"/>
@@ -8924,7 +9306,7 @@
       <c r="N105" s="5"/>
       <c r="P105" s="2"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B106" s="5"/>
       <c r="D106" s="2"/>
       <c r="F106" s="5"/>
@@ -8935,7 +9317,7 @@
       <c r="N106" s="5"/>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B107" s="5"/>
       <c r="D107" s="2"/>
       <c r="F107" s="5"/>
@@ -8945,7 +9327,7 @@
       <c r="N107" s="5"/>
       <c r="P107" s="2"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B108" s="5"/>
       <c r="D108" s="2"/>
       <c r="F108" s="5"/>
@@ -8955,7 +9337,7 @@
       <c r="N108" s="5"/>
       <c r="P108" s="2"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B109" s="5"/>
       <c r="D109" s="2"/>
       <c r="F109" s="5"/>
@@ -8965,7 +9347,7 @@
       <c r="N109" s="5"/>
       <c r="P109" s="2"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B110" s="5"/>
       <c r="D110" s="2"/>
       <c r="F110" s="5"/>
@@ -8975,7 +9357,7 @@
       <c r="N110" s="5"/>
       <c r="P110" s="2"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B111" s="5"/>
       <c r="D111" s="2"/>
       <c r="F111" s="5"/>
@@ -8985,7 +9367,7 @@
       <c r="N111" s="5"/>
       <c r="P111" s="2"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B112" s="5"/>
       <c r="D112" s="2"/>
       <c r="F112" s="5"/>
@@ -8995,7 +9377,7 @@
       <c r="N112" s="5"/>
       <c r="P112" s="2"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B113" s="5"/>
       <c r="D113" s="2"/>
       <c r="F113" s="5"/>
@@ -9005,7 +9387,7 @@
       <c r="N113" s="5"/>
       <c r="P113" s="2"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B114" s="5"/>
       <c r="D114" s="2"/>
       <c r="F114" s="5"/>
@@ -9015,7 +9397,7 @@
       <c r="N114" s="5"/>
       <c r="P114" s="2"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B115" s="5"/>
       <c r="D115" s="2"/>
       <c r="F115" s="5"/>
@@ -9025,7 +9407,7 @@
       <c r="N115" s="5"/>
       <c r="P115" s="2"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B116" s="5"/>
       <c r="D116" s="2"/>
       <c r="F116" s="5"/>
@@ -9035,7 +9417,7 @@
       <c r="N116" s="5"/>
       <c r="P116" s="2"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B117" s="5"/>
       <c r="D117" s="2"/>
       <c r="F117" s="5"/>
@@ -9045,7 +9427,7 @@
       <c r="N117" s="5"/>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B118" s="5"/>
       <c r="D118" s="2"/>
       <c r="F118" s="5"/>
@@ -9055,7 +9437,7 @@
       <c r="N118" s="5"/>
       <c r="P118" s="2"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B119" s="5"/>
       <c r="D119" s="2"/>
       <c r="F119" s="5"/>
@@ -9065,7 +9447,7 @@
       <c r="N119" s="5"/>
       <c r="P119" s="2"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B120" s="5"/>
       <c r="D120" s="2"/>
       <c r="F120" s="5"/>
@@ -9075,7 +9457,7 @@
       <c r="N120" s="5"/>
       <c r="P120" s="2"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B121" s="5"/>
       <c r="D121" s="2"/>
       <c r="F121" s="5"/>
@@ -9085,7 +9467,7 @@
       <c r="N121" s="5"/>
       <c r="P121" s="2"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B122" s="5"/>
       <c r="D122" s="2"/>
       <c r="F122" s="5"/>
@@ -9095,7 +9477,7 @@
       <c r="N122" s="5"/>
       <c r="P122" s="2"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B123" s="5"/>
       <c r="D123" s="2"/>
       <c r="F123" s="5"/>
@@ -9105,7 +9487,7 @@
       <c r="N123" s="5"/>
       <c r="P123" s="2"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B124" s="5"/>
       <c r="D124" s="2"/>
       <c r="F124" s="5"/>
@@ -9115,7 +9497,7 @@
       <c r="N124" s="5"/>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B125" s="5"/>
       <c r="D125" s="2"/>
       <c r="F125" s="5"/>
@@ -9125,7 +9507,7 @@
       <c r="N125" s="5"/>
       <c r="P125" s="2"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B126" s="5"/>
       <c r="D126" s="2"/>
       <c r="F126" s="5"/>
@@ -9135,7 +9517,7 @@
       <c r="N126" s="5"/>
       <c r="P126" s="2"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B127" s="5"/>
       <c r="D127" s="2"/>
       <c r="F127" s="5"/>
@@ -9145,7 +9527,7 @@
       <c r="N127" s="5"/>
       <c r="P127" s="2"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B128" s="5"/>
       <c r="D128" s="2"/>
       <c r="F128" s="5"/>
@@ -9155,7 +9537,7 @@
       <c r="N128" s="5"/>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B129" s="5"/>
       <c r="D129" s="2"/>
       <c r="F129" s="5"/>
@@ -9165,7 +9547,7 @@
       <c r="N129" s="5"/>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B130" s="5"/>
       <c r="D130" s="2"/>
       <c r="F130" s="5"/>
@@ -9175,7 +9557,7 @@
       <c r="N130" s="5"/>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B131" s="5"/>
       <c r="D131" s="2"/>
       <c r="F131" s="5"/>
@@ -9185,7 +9567,7 @@
       <c r="N131" s="5"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B132" s="5"/>
       <c r="D132" s="2"/>
       <c r="F132" s="5"/>
@@ -9195,7 +9577,7 @@
       <c r="N132" s="5"/>
       <c r="P132" s="2"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B133" s="5"/>
       <c r="D133" s="2"/>
       <c r="F133" s="5"/>
@@ -9205,7 +9587,7 @@
       <c r="N133" s="5"/>
       <c r="P133" s="2"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B134" s="5"/>
       <c r="D134" s="2"/>
       <c r="F134" s="5"/>
@@ -9215,7 +9597,7 @@
       <c r="N134" s="5"/>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B135" s="5"/>
       <c r="D135" s="2"/>
       <c r="F135" s="5"/>
@@ -9225,7 +9607,7 @@
       <c r="N135" s="5"/>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B136" s="5"/>
       <c r="D136" s="2"/>
       <c r="F136" s="5"/>
@@ -9235,7 +9617,7 @@
       <c r="N136" s="5"/>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B137" s="5"/>
       <c r="D137" s="2"/>
       <c r="F137" s="5"/>
@@ -9245,7 +9627,7 @@
       <c r="N137" s="5"/>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B138" s="5"/>
       <c r="D138" s="2"/>
       <c r="F138" s="5"/>
@@ -9255,7 +9637,7 @@
       <c r="N138" s="5"/>
       <c r="P138" s="2"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B139" s="5"/>
       <c r="D139" s="2"/>
       <c r="F139" s="5"/>
@@ -9265,7 +9647,7 @@
       <c r="N139" s="5"/>
       <c r="P139" s="2"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B140" s="5"/>
       <c r="D140" s="2"/>
       <c r="F140" s="5"/>
@@ -9275,7 +9657,7 @@
       <c r="N140" s="5"/>
       <c r="P140" s="2"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B141" s="5"/>
       <c r="D141" s="2"/>
       <c r="F141" s="5"/>
@@ -9285,7 +9667,7 @@
       <c r="N141" s="5"/>
       <c r="P141" s="2"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B142" s="5"/>
       <c r="D142" s="2"/>
       <c r="F142" s="5"/>
@@ -9295,7 +9677,7 @@
       <c r="N142" s="5"/>
       <c r="P142" s="2"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B143" s="5"/>
       <c r="D143" s="2"/>
       <c r="F143" s="5"/>
@@ -9305,7 +9687,7 @@
       <c r="N143" s="5"/>
       <c r="P143" s="2"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B144" s="5"/>
       <c r="D144" s="2"/>
       <c r="F144" s="5"/>
@@ -9315,7 +9697,7 @@
       <c r="N144" s="5"/>
       <c r="P144" s="2"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B145" s="5"/>
       <c r="D145" s="2"/>
       <c r="F145" s="5"/>
@@ -9325,7 +9707,7 @@
       <c r="N145" s="5"/>
       <c r="P145" s="2"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B146" s="5"/>
       <c r="D146" s="2"/>
       <c r="F146" s="5"/>
@@ -9335,7 +9717,7 @@
       <c r="N146" s="5"/>
       <c r="P146" s="2"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B147" s="5"/>
       <c r="D147" s="2"/>
       <c r="F147" s="5"/>
@@ -9345,7 +9727,7 @@
       <c r="N147" s="5"/>
       <c r="P147" s="2"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B148" s="5"/>
       <c r="D148" s="2"/>
       <c r="F148" s="5"/>
@@ -9355,7 +9737,7 @@
       <c r="N148" s="5"/>
       <c r="P148" s="2"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B149" s="5"/>
       <c r="D149" s="2"/>
       <c r="F149" s="5"/>
@@ -9365,7 +9747,7 @@
       <c r="N149" s="5"/>
       <c r="P149" s="2"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B150" s="5"/>
       <c r="D150" s="2"/>
       <c r="F150" s="5"/>
@@ -9375,7 +9757,7 @@
       <c r="N150" s="5"/>
       <c r="P150" s="2"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B151" s="5"/>
       <c r="D151" s="2"/>
       <c r="F151" s="5"/>
@@ -9385,7 +9767,7 @@
       <c r="N151" s="5"/>
       <c r="P151" s="2"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B152" s="5"/>
       <c r="D152" s="2"/>
       <c r="F152" s="5"/>
@@ -9395,7 +9777,7 @@
       <c r="N152" s="5"/>
       <c r="P152" s="2"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B153" s="5"/>
       <c r="D153" s="2"/>
       <c r="F153" s="5"/>
@@ -9405,7 +9787,7 @@
       <c r="N153" s="5"/>
       <c r="P153" s="2"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B154" s="5"/>
       <c r="D154" s="2"/>
       <c r="F154" s="5"/>
@@ -9415,7 +9797,7 @@
       <c r="N154" s="5"/>
       <c r="P154" s="2"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B155" s="5"/>
       <c r="D155" s="2"/>
       <c r="F155" s="5"/>
@@ -9425,7 +9807,7 @@
       <c r="N155" s="5"/>
       <c r="P155" s="2"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B156" s="5"/>
       <c r="D156" s="2"/>
       <c r="F156" s="5"/>
@@ -9435,7 +9817,7 @@
       <c r="N156" s="5"/>
       <c r="P156" s="2"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B157" s="5"/>
       <c r="D157" s="2"/>
       <c r="F157" s="5"/>
@@ -9445,7 +9827,7 @@
       <c r="N157" s="5"/>
       <c r="P157" s="2"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B158" s="5"/>
       <c r="D158" s="2"/>
       <c r="F158" s="5"/>
@@ -9455,7 +9837,7 @@
       <c r="N158" s="5"/>
       <c r="P158" s="2"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B159" s="5"/>
       <c r="D159" s="2"/>
       <c r="F159" s="5"/>
@@ -9465,7 +9847,7 @@
       <c r="N159" s="5"/>
       <c r="P159" s="2"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B160" s="5"/>
       <c r="D160" s="2"/>
       <c r="F160" s="5"/>
@@ -9475,7 +9857,7 @@
       <c r="N160" s="5"/>
       <c r="P160" s="2"/>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B161" s="5"/>
       <c r="D161" s="2"/>
       <c r="F161" s="5"/>
@@ -9485,7 +9867,7 @@
       <c r="N161" s="5"/>
       <c r="P161" s="2"/>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B162" s="5"/>
       <c r="D162" s="2"/>
       <c r="F162" s="5"/>
@@ -9495,7 +9877,7 @@
       <c r="N162" s="5"/>
       <c r="P162" s="2"/>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B163" s="5"/>
       <c r="D163" s="2"/>
       <c r="F163" s="5"/>
@@ -9505,7 +9887,7 @@
       <c r="N163" s="5"/>
       <c r="P163" s="2"/>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B164" s="5"/>
       <c r="D164" s="2"/>
       <c r="F164" s="5"/>
@@ -9515,7 +9897,7 @@
       <c r="N164" s="5"/>
       <c r="P164" s="2"/>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B165" s="5"/>
       <c r="D165" s="2"/>
       <c r="F165" s="5"/>
@@ -9525,7 +9907,7 @@
       <c r="N165" s="5"/>
       <c r="P165" s="2"/>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B166" s="5"/>
       <c r="D166" s="2"/>
       <c r="F166" s="5"/>
@@ -9535,7 +9917,7 @@
       <c r="N166" s="5"/>
       <c r="P166" s="2"/>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B167" s="5"/>
       <c r="D167" s="2"/>
       <c r="F167" s="5"/>
@@ -9545,7 +9927,7 @@
       <c r="N167" s="5"/>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B168" s="5"/>
       <c r="D168" s="2"/>
       <c r="F168" s="5"/>
@@ -9555,7 +9937,7 @@
       <c r="N168" s="5"/>
       <c r="P168" s="2"/>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B169" s="5"/>
       <c r="D169" s="2"/>
       <c r="F169" s="5"/>
@@ -9565,7 +9947,7 @@
       <c r="N169" s="5"/>
       <c r="P169" s="2"/>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B170" s="5"/>
       <c r="D170" s="2"/>
       <c r="F170" s="5"/>
@@ -9575,7 +9957,7 @@
       <c r="N170" s="5"/>
       <c r="P170" s="2"/>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B171" s="5"/>
       <c r="D171" s="2"/>
       <c r="F171" s="5"/>
@@ -9585,7 +9967,7 @@
       <c r="N171" s="5"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B172" s="5"/>
       <c r="D172" s="2"/>
       <c r="F172" s="5"/>
@@ -9595,7 +9977,7 @@
       <c r="N172" s="5"/>
       <c r="P172" s="2"/>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B173" s="5"/>
       <c r="D173" s="2"/>
       <c r="F173" s="5"/>
@@ -9605,7 +9987,7 @@
       <c r="N173" s="5"/>
       <c r="P173" s="2"/>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B174" s="5"/>
       <c r="D174" s="2"/>
       <c r="F174" s="5"/>
@@ -9615,7 +9997,7 @@
       <c r="N174" s="5"/>
       <c r="P174" s="2"/>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B175" s="5"/>
       <c r="D175" s="2"/>
       <c r="F175" s="5"/>
@@ -9625,7 +10007,7 @@
       <c r="N175" s="5"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B176" s="5"/>
       <c r="D176" s="2"/>
       <c r="F176" s="5"/>
@@ -9635,7 +10017,7 @@
       <c r="N176" s="5"/>
       <c r="P176" s="2"/>
     </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B177" s="5"/>
       <c r="D177" s="2"/>
       <c r="F177" s="5"/>
@@ -9645,7 +10027,7 @@
       <c r="N177" s="5"/>
       <c r="P177" s="2"/>
     </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B178" s="5"/>
       <c r="D178" s="2"/>
       <c r="F178" s="5"/>
@@ -9655,7 +10037,7 @@
       <c r="N178" s="5"/>
       <c r="P178" s="2"/>
     </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B179" s="5"/>
       <c r="D179" s="2"/>
       <c r="F179" s="5"/>
@@ -9665,7 +10047,7 @@
       <c r="N179" s="5"/>
       <c r="P179" s="2"/>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B180" s="5"/>
       <c r="D180" s="2"/>
       <c r="F180" s="5"/>
@@ -9675,7 +10057,7 @@
       <c r="N180" s="5"/>
       <c r="P180" s="2"/>
     </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B181" s="5"/>
       <c r="D181" s="2"/>
       <c r="F181" s="5"/>
@@ -9685,7 +10067,7 @@
       <c r="N181" s="5"/>
       <c r="P181" s="2"/>
     </row>
-    <row r="182" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B182" s="5"/>
       <c r="D182" s="2"/>
       <c r="F182" s="5"/>
@@ -9695,7 +10077,7 @@
       <c r="N182" s="5"/>
       <c r="P182" s="2"/>
     </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B183" s="5"/>
       <c r="D183" s="2"/>
       <c r="F183" s="5"/>
@@ -9705,7 +10087,7 @@
       <c r="N183" s="5"/>
       <c r="P183" s="2"/>
     </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B184" s="5"/>
       <c r="D184" s="2"/>
       <c r="F184" s="5"/>
@@ -9715,7 +10097,7 @@
       <c r="N184" s="5"/>
       <c r="P184" s="2"/>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B185" s="5"/>
       <c r="D185" s="2"/>
       <c r="F185" s="5"/>
@@ -9725,7 +10107,7 @@
       <c r="N185" s="5"/>
       <c r="P185" s="2"/>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B186" s="5"/>
       <c r="D186" s="2"/>
       <c r="F186" s="5"/>
@@ -9735,7 +10117,7 @@
       <c r="N186" s="5"/>
       <c r="P186" s="2"/>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B187" s="5"/>
       <c r="D187" s="2"/>
       <c r="F187" s="5"/>
@@ -9745,7 +10127,7 @@
       <c r="N187" s="5"/>
       <c r="P187" s="2"/>
     </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B188" s="5"/>
       <c r="D188" s="2"/>
       <c r="F188" s="5"/>
@@ -9755,7 +10137,7 @@
       <c r="N188" s="5"/>
       <c r="P188" s="2"/>
     </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B189" s="5"/>
       <c r="D189" s="2"/>
       <c r="F189" s="5"/>
@@ -9765,7 +10147,7 @@
       <c r="N189" s="5"/>
       <c r="P189" s="2"/>
     </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B190" s="5"/>
       <c r="D190" s="2"/>
       <c r="F190" s="5"/>
@@ -9775,7 +10157,7 @@
       <c r="N190" s="5"/>
       <c r="P190" s="2"/>
     </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B191" s="5"/>
       <c r="D191" s="2"/>
       <c r="F191" s="5"/>
@@ -9785,7 +10167,7 @@
       <c r="N191" s="5"/>
       <c r="P191" s="2"/>
     </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B192" s="5"/>
       <c r="D192" s="2"/>
       <c r="F192" s="5"/>
@@ -9795,7 +10177,7 @@
       <c r="N192" s="5"/>
       <c r="P192" s="2"/>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B193" s="5"/>
       <c r="D193" s="2"/>
       <c r="F193" s="5"/>
@@ -9805,7 +10187,7 @@
       <c r="N193" s="5"/>
       <c r="P193" s="2"/>
     </row>
-    <row r="194" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B194" s="5"/>
       <c r="D194" s="2"/>
       <c r="F194" s="5"/>
@@ -9815,7 +10197,7 @@
       <c r="N194" s="5"/>
       <c r="P194" s="2"/>
     </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B195" s="5"/>
       <c r="D195" s="2"/>
       <c r="F195" s="5"/>
@@ -9825,7 +10207,7 @@
       <c r="N195" s="5"/>
       <c r="P195" s="2"/>
     </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B196" s="5"/>
       <c r="D196" s="2"/>
       <c r="F196" s="5"/>
@@ -9835,7 +10217,7 @@
       <c r="N196" s="5"/>
       <c r="P196" s="2"/>
     </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B197" s="5"/>
       <c r="D197" s="2"/>
       <c r="F197" s="5"/>
@@ -9845,7 +10227,7 @@
       <c r="N197" s="5"/>
       <c r="P197" s="2"/>
     </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B198" s="5"/>
       <c r="D198" s="2"/>
       <c r="F198" s="5"/>
@@ -9855,7 +10237,7 @@
       <c r="N198" s="5"/>
       <c r="P198" s="2"/>
     </row>
-    <row r="199" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B199" s="5"/>
       <c r="D199" s="2"/>
       <c r="F199" s="5"/>
@@ -9865,7 +10247,7 @@
       <c r="N199" s="5"/>
       <c r="P199" s="2"/>
     </row>
-    <row r="200" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B200" s="5"/>
       <c r="D200" s="2"/>
       <c r="F200" s="5"/>
@@ -9875,7 +10257,7 @@
       <c r="N200" s="5"/>
       <c r="P200" s="2"/>
     </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B201" s="5"/>
       <c r="D201" s="2"/>
       <c r="F201" s="5"/>
@@ -9885,7 +10267,7 @@
       <c r="N201" s="5"/>
       <c r="P201" s="2"/>
     </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B202" s="5"/>
       <c r="D202" s="2"/>
       <c r="F202" s="5"/>
@@ -9895,7 +10277,7 @@
       <c r="N202" s="5"/>
       <c r="P202" s="2"/>
     </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B203" s="5"/>
       <c r="D203" s="2"/>
       <c r="F203" s="5"/>
@@ -9905,7 +10287,7 @@
       <c r="N203" s="5"/>
       <c r="P203" s="2"/>
     </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B204" s="5"/>
       <c r="D204" s="2"/>
       <c r="F204" s="5"/>
@@ -9915,7 +10297,7 @@
       <c r="N204" s="5"/>
       <c r="P204" s="2"/>
     </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B205" s="5"/>
       <c r="D205" s="2"/>
       <c r="F205" s="5"/>
@@ -9925,7 +10307,7 @@
       <c r="N205" s="5"/>
       <c r="P205" s="2"/>
     </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B206" s="5"/>
       <c r="D206" s="2"/>
       <c r="F206" s="5"/>
@@ -9935,7 +10317,7 @@
       <c r="N206" s="5"/>
       <c r="P206" s="2"/>
     </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B207" s="5"/>
       <c r="D207" s="2"/>
       <c r="F207" s="5"/>
@@ -9945,7 +10327,7 @@
       <c r="N207" s="5"/>
       <c r="P207" s="2"/>
     </row>
-    <row r="208" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B208" s="5"/>
       <c r="D208" s="2"/>
       <c r="F208" s="5"/>
@@ -9955,7 +10337,7 @@
       <c r="N208" s="5"/>
       <c r="P208" s="2"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B209" s="5"/>
       <c r="D209" s="2"/>
       <c r="F209" s="5"/>
@@ -9965,7 +10347,7 @@
       <c r="N209" s="5"/>
       <c r="P209" s="2"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B210" s="5"/>
       <c r="D210" s="2"/>
       <c r="F210" s="5"/>
@@ -9975,7 +10357,7 @@
       <c r="N210" s="5"/>
       <c r="P210" s="2"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B211" s="5"/>
       <c r="D211" s="2"/>
       <c r="F211" s="5"/>
@@ -9985,7 +10367,7 @@
       <c r="N211" s="5"/>
       <c r="P211" s="2"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B212" s="5"/>
       <c r="D212" s="2"/>
       <c r="F212" s="5"/>
@@ -9995,7 +10377,7 @@
       <c r="N212" s="5"/>
       <c r="P212" s="2"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B213" s="5"/>
       <c r="D213" s="2"/>
       <c r="F213" s="5"/>
@@ -10005,7 +10387,7 @@
       <c r="N213" s="5"/>
       <c r="P213" s="2"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B214" s="5"/>
       <c r="D214" s="2"/>
       <c r="F214" s="5"/>
@@ -10015,7 +10397,7 @@
       <c r="N214" s="5"/>
       <c r="P214" s="2"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B215" s="5"/>
       <c r="D215" s="2"/>
       <c r="F215" s="5"/>
@@ -10025,7 +10407,7 @@
       <c r="N215" s="5"/>
       <c r="P215" s="2"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B216" s="5"/>
       <c r="D216" s="2"/>
       <c r="F216" s="5"/>
@@ -10035,7 +10417,7 @@
       <c r="N216" s="5"/>
       <c r="P216" s="2"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B217" s="5"/>
       <c r="D217" s="2"/>
       <c r="F217" s="5"/>
@@ -10045,7 +10427,7 @@
       <c r="N217" s="5"/>
       <c r="P217" s="2"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B218" s="5"/>
       <c r="D218" s="2"/>
       <c r="F218" s="5"/>
@@ -10055,7 +10437,7 @@
       <c r="N218" s="5"/>
       <c r="P218" s="2"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B219" s="5"/>
       <c r="D219" s="2"/>
       <c r="F219" s="5"/>
@@ -10065,7 +10447,7 @@
       <c r="N219" s="5"/>
       <c r="P219" s="2"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B220" s="5"/>
       <c r="D220" s="2"/>
       <c r="F220" s="5"/>
@@ -10075,7 +10457,7 @@
       <c r="N220" s="5"/>
       <c r="P220" s="2"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B221" s="5"/>
       <c r="D221" s="2"/>
       <c r="F221" s="5"/>
@@ -10085,7 +10467,7 @@
       <c r="N221" s="5"/>
       <c r="P221" s="2"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B222" s="5"/>
       <c r="D222" s="2"/>
       <c r="F222" s="5"/>
@@ -10095,7 +10477,7 @@
       <c r="N222" s="5"/>
       <c r="P222" s="2"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B223" s="5"/>
       <c r="D223" s="2"/>
       <c r="F223" s="5"/>
@@ -10105,27 +10487,292 @@
       <c r="N223" s="5"/>
       <c r="P223" s="2"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A224" s="7"/>
-      <c r="B224" s="8"/>
-      <c r="C224" s="7"/>
-      <c r="D224" s="9"/>
-      <c r="E224" s="7"/>
-      <c r="F224" s="8"/>
-      <c r="G224" s="7"/>
-      <c r="H224" s="9"/>
-      <c r="I224" s="7"/>
-      <c r="J224" s="8"/>
-      <c r="K224" s="7"/>
-      <c r="L224" s="9"/>
-      <c r="M224" s="7"/>
-      <c r="N224" s="8"/>
-      <c r="O224" s="7"/>
-      <c r="P224" s="9"/>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A224" s="4"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="4"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="4"/>
+      <c r="J224" s="5"/>
+      <c r="K224" s="4"/>
+      <c r="L224" s="2"/>
+      <c r="M224" s="4"/>
+      <c r="N224" s="5"/>
+      <c r="O224" s="4"/>
+      <c r="P224" s="2"/>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A225" s="4"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="4"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="4"/>
+      <c r="J225" s="5"/>
+      <c r="L225" s="2"/>
+      <c r="M225" s="4"/>
+      <c r="N225" s="5"/>
+      <c r="O225" s="4"/>
+      <c r="P225" s="2"/>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B226" s="5"/>
+      <c r="D226" s="2"/>
+      <c r="F226" s="5"/>
+      <c r="H226" s="2"/>
+      <c r="J226" s="5"/>
+      <c r="L226" s="2"/>
+      <c r="N226" s="5"/>
+      <c r="P226" s="2"/>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B227" s="5"/>
+      <c r="D227" s="2"/>
+      <c r="F227" s="5"/>
+      <c r="H227" s="2"/>
+      <c r="J227" s="5"/>
+      <c r="L227" s="2"/>
+      <c r="N227" s="5"/>
+      <c r="P227" s="2"/>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B228" s="5"/>
+      <c r="D228" s="2"/>
+      <c r="F228" s="5"/>
+      <c r="H228" s="2"/>
+      <c r="J228" s="5"/>
+      <c r="L228" s="2"/>
+      <c r="N228" s="5"/>
+      <c r="P228" s="2"/>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B229" s="5"/>
+      <c r="D229" s="2"/>
+      <c r="F229" s="5"/>
+      <c r="H229" s="2"/>
+      <c r="J229" s="5"/>
+      <c r="L229" s="2"/>
+      <c r="N229" s="5"/>
+      <c r="P229" s="2"/>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B230" s="5"/>
+      <c r="D230" s="2"/>
+      <c r="F230" s="5"/>
+      <c r="H230" s="2"/>
+      <c r="J230" s="5"/>
+      <c r="L230" s="2"/>
+      <c r="N230" s="5"/>
+      <c r="P230" s="2"/>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B231" s="5"/>
+      <c r="D231" s="2"/>
+      <c r="F231" s="5"/>
+      <c r="H231" s="2"/>
+      <c r="J231" s="5"/>
+      <c r="L231" s="2"/>
+      <c r="N231" s="5"/>
+      <c r="P231" s="2"/>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B232" s="5"/>
+      <c r="D232" s="2"/>
+      <c r="F232" s="5"/>
+      <c r="H232" s="2"/>
+      <c r="J232" s="5"/>
+      <c r="L232" s="2"/>
+      <c r="N232" s="5"/>
+      <c r="P232" s="2"/>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B233" s="5"/>
+      <c r="D233" s="2"/>
+      <c r="F233" s="5"/>
+      <c r="H233" s="2"/>
+      <c r="J233" s="5"/>
+      <c r="L233" s="2"/>
+      <c r="N233" s="5"/>
+      <c r="P233" s="2"/>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B234" s="5"/>
+      <c r="D234" s="2"/>
+      <c r="F234" s="5"/>
+      <c r="H234" s="2"/>
+      <c r="J234" s="5"/>
+      <c r="L234" s="2"/>
+      <c r="N234" s="5"/>
+      <c r="P234" s="2"/>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B235" s="5"/>
+      <c r="D235" s="2"/>
+      <c r="F235" s="5"/>
+      <c r="H235" s="2"/>
+      <c r="J235" s="5"/>
+      <c r="L235" s="2"/>
+      <c r="N235" s="5"/>
+      <c r="P235" s="2"/>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B236" s="5"/>
+      <c r="D236" s="2"/>
+      <c r="F236" s="5"/>
+      <c r="H236" s="2"/>
+      <c r="J236" s="5"/>
+      <c r="L236" s="2"/>
+      <c r="N236" s="5"/>
+      <c r="P236" s="2"/>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B237" s="5"/>
+      <c r="D237" s="2"/>
+      <c r="F237" s="5"/>
+      <c r="H237" s="2"/>
+      <c r="J237" s="5"/>
+      <c r="L237" s="2"/>
+      <c r="N237" s="5"/>
+      <c r="P237" s="2"/>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B238" s="5"/>
+      <c r="D238" s="2"/>
+      <c r="F238" s="5"/>
+      <c r="H238" s="2"/>
+      <c r="J238" s="5"/>
+      <c r="L238" s="2"/>
+      <c r="N238" s="5"/>
+      <c r="P238" s="2"/>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B239" s="5"/>
+      <c r="D239" s="2"/>
+      <c r="F239" s="5"/>
+      <c r="H239" s="2"/>
+      <c r="J239" s="5"/>
+      <c r="L239" s="2"/>
+      <c r="N239" s="5"/>
+      <c r="P239" s="2"/>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B240" s="5"/>
+      <c r="D240" s="2"/>
+      <c r="F240" s="5"/>
+      <c r="H240" s="2"/>
+      <c r="J240" s="5"/>
+      <c r="L240" s="2"/>
+      <c r="N240" s="5"/>
+      <c r="P240" s="2"/>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B241" s="5"/>
+      <c r="D241" s="2"/>
+      <c r="F241" s="5"/>
+      <c r="H241" s="2"/>
+      <c r="J241" s="5"/>
+      <c r="L241" s="2"/>
+      <c r="N241" s="5"/>
+      <c r="P241" s="2"/>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B242" s="5"/>
+      <c r="D242" s="2"/>
+      <c r="F242" s="5"/>
+      <c r="H242" s="2"/>
+      <c r="J242" s="5"/>
+      <c r="L242" s="2"/>
+      <c r="N242" s="5"/>
+      <c r="P242" s="2"/>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B243" s="5"/>
+      <c r="D243" s="2"/>
+      <c r="F243" s="5"/>
+      <c r="H243" s="2"/>
+      <c r="J243" s="5"/>
+      <c r="L243" s="2"/>
+      <c r="N243" s="5"/>
+      <c r="P243" s="2"/>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B244" s="5"/>
+      <c r="D244" s="2"/>
+      <c r="F244" s="5"/>
+      <c r="H244" s="2"/>
+      <c r="J244" s="5"/>
+      <c r="L244" s="2"/>
+      <c r="N244" s="5"/>
+      <c r="P244" s="2"/>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B245" s="5"/>
+      <c r="D245" s="2"/>
+      <c r="F245" s="5"/>
+      <c r="H245" s="2"/>
+      <c r="J245" s="5"/>
+      <c r="L245" s="2"/>
+      <c r="N245" s="5"/>
+      <c r="P245" s="2"/>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B246" s="5"/>
+      <c r="D246" s="2"/>
+      <c r="F246" s="5"/>
+      <c r="H246" s="2"/>
+      <c r="J246" s="5"/>
+      <c r="L246" s="2"/>
+      <c r="N246" s="5"/>
+      <c r="P246" s="2"/>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B247" s="5"/>
+      <c r="D247" s="2"/>
+      <c r="F247" s="5"/>
+      <c r="H247" s="2"/>
+      <c r="J247" s="5"/>
+      <c r="L247" s="2"/>
+      <c r="N247" s="5"/>
+      <c r="P247" s="2"/>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B248" s="5"/>
+      <c r="D248" s="2"/>
+      <c r="F248" s="5"/>
+      <c r="H248" s="2"/>
+      <c r="J248" s="5"/>
+      <c r="L248" s="2"/>
+      <c r="N248" s="5"/>
+      <c r="P248" s="2"/>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A249" s="7"/>
+      <c r="B249" s="8"/>
+      <c r="C249" s="7"/>
+      <c r="D249" s="9"/>
+      <c r="E249" s="7"/>
+      <c r="F249" s="8"/>
+      <c r="G249" s="7"/>
+      <c r="H249" s="9"/>
+      <c r="I249" s="7"/>
+      <c r="J249" s="8"/>
+      <c r="K249" s="7"/>
+      <c r="L249" s="9"/>
+      <c r="M249" s="7"/>
+      <c r="N249" s="8"/>
+      <c r="O249" s="7"/>
+      <c r="P249" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="A28:B30"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="E4:H5"/>
     <mergeCell ref="I4:L5"/>

--- a/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
+++ b/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\md\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\japgo\Google 드라이브\업무 문서\스마트 팩토리 멘토링\2021 멘토링\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD03A06-1406-478B-92DD-F3CF8D159FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB955DDB-40A8-4D80-B518-69E1DECE2FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로토콜 흐름도" sheetId="1" r:id="rId1"/>
@@ -1375,13 +1375,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>618565</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>167122</xdr:rowOff>
+      <xdr:rowOff>167121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>439271</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>176086</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1396,8 +1396,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4668051" y="7133979"/>
-          <a:ext cx="1845449" cy="662107"/>
+          <a:off x="4733365" y="6872721"/>
+          <a:ext cx="1878106" cy="756803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4089,15 +4089,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>31667</xdr:rowOff>
+      <xdr:colOff>133936</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>63173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>642658</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>75554</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4112,8 +4112,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4038600" y="34946507"/>
-          <a:ext cx="5321338" cy="600793"/>
+          <a:off x="4266321" y="34697538"/>
+          <a:ext cx="5451464" cy="583794"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4141,16 +4141,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>107322</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>42497</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>138827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>195940</xdr:rowOff>
+      <xdr:colOff>584060</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>14965</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4165,8 +4165,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8460922" y="34288465"/>
-          <a:ext cx="1205592" cy="306332"/>
+          <a:off x="8995997" y="34560712"/>
+          <a:ext cx="1230294" cy="301099"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4709,342 +4709,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>63059</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>66615</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>2581</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>207727</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="직선 화살표 연결선 130">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F35799C-F5F7-4937-8959-C48F93034384}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4112545" y="44915758"/>
-          <a:ext cx="5338836" cy="358826"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>103929</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>184038</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590183</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>33447</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="TextBox 131">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11AA207B-891F-4679-98B0-1A3A536DB0DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7527986" y="44815467"/>
-          <a:ext cx="1836083" cy="284837"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
-            <a:t>&lt;LINE_STATE</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
-            <a:t>=WORKING&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>279877</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>131954</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>395570</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>156912</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="직사각형 136">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0EC5F4-C8B6-4ABB-9028-D14E3F70F398}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8378848" y="45198811"/>
-          <a:ext cx="2140436" cy="895815"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>서버로 부터 받은 정보를 가지고</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>기계 동작 하여 제품 분류 진행</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>77479</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>41610</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>36658</xdr:colOff>
-      <xdr:row>213</xdr:row>
-      <xdr:rowOff>18479</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="TextBox 137">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E899FC3-2BBB-4030-AE5F-F668A6732B38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11551022" y="45543896"/>
-          <a:ext cx="3333750" cy="847726"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>LINE_STATE=WORKING </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>받으면</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>윈폼 화면에서 기계 동작 분류 그림 표시 한다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>50927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>13447</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>192040</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5091,13 +4763,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>61715</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>159720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>546064</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>200637</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5183,13 +4855,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>6293</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>93492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>634847</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>166011</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6405,212 +6077,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>663388</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>41617</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>6163</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>205447</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="172" name="직사각형 171">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04ED1BC9-2E39-4EA6-BFF7-BB5837838C6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3363045" y="46632474"/>
-          <a:ext cx="1367518" cy="381544"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>윈폼에 정보 전송</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>35094</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>645938</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>59544</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="173" name="직선 화살표 연결선 172">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBBC37D4-77B2-4F1D-92CB-08D3D120D2B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1284514" y="46843665"/>
-          <a:ext cx="2061081" cy="242165"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>343573</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>202981</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>412153</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>26504</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="174" name="TextBox 173">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72E050F-E883-46EC-A227-070BB303CE70}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1693402" y="46793838"/>
-          <a:ext cx="1418408" cy="258952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>&lt;CMD=CLASSIFY&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>448</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>207240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>8068</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>150762</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6677,13 +6152,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>196367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645938</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>13166</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6730,13 +6205,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>343573</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>148296</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>410248</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>191439</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6801,13 +6276,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>104370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>48825</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>202982</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7025,75 +6500,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>68505</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>20126</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>68505</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="182" name="오른쪽 중괄호 181">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15E8CE5-59B1-4EF0-B87B-7F23F5C89A20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10798629" y="44699934"/>
-          <a:ext cx="695040" cy="2394857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 8333"/>
-            <a:gd name="adj2" fmla="val 53448"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
       <xdr:colOff>8964</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>176087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>29090</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>176087</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7148,13 +6562,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>16025</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>85993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>660731</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>95773</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7390,8 +6804,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>57942</xdr:rowOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7406,8 +6820,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1854654" y="30233959"/>
-          <a:ext cx="1834242" cy="303983"/>
+          <a:off x="1876425" y="29107288"/>
+          <a:ext cx="1866900" cy="1029812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7449,6 +6863,71 @@
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
             <a:t>에 제품 정보 전송</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;QRCODE=1234567890|QUALITY=FAIL|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이미지 데이터</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7899,6 +7378,181 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10055</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>17848</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="직사각형 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C90E508-69D3-4809-901B-5D419F89CA94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8925455" y="33109399"/>
+          <a:ext cx="1379393" cy="809126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>서보 모터 동작</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19580</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>143374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>27373</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="직사각형 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2209482B-B790-41D5-9D2F-38D67D1D2D50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8934980" y="35138224"/>
+          <a:ext cx="1379393" cy="761501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>마지막 적외선 센서</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>제품 감지</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8170,20 +7824,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P249"/>
+  <dimension ref="A2:P213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R243" sqref="R243"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -8209,7 +7863,7 @@
       <c r="O4" s="19"/>
       <c r="P4" s="20"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -8227,7 +7881,7 @@
       <c r="O5" s="22"/>
       <c r="P5" s="23"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
@@ -8238,7 +7892,7 @@
       <c r="N6" s="6"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
@@ -8249,7 +7903,7 @@
       <c r="N7" s="5"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
@@ -8260,7 +7914,7 @@
       <c r="N8" s="5"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
@@ -8271,7 +7925,7 @@
       <c r="N9" s="5"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
@@ -8282,7 +7936,7 @@
       <c r="N10" s="5"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
@@ -8293,7 +7947,7 @@
       <c r="N11" s="5"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="D12" s="2"/>
       <c r="E12" s="4"/>
@@ -8304,7 +7958,7 @@
       <c r="N12" s="5"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
@@ -8315,7 +7969,7 @@
       <c r="N13" s="5"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
@@ -8326,7 +7980,7 @@
       <c r="N14" s="5"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="D15" s="2"/>
       <c r="E15" s="4"/>
@@ -8337,7 +7991,7 @@
       <c r="N15" s="5"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
@@ -8348,7 +8002,7 @@
       <c r="N16" s="5"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
@@ -8359,7 +8013,7 @@
       <c r="N17" s="5"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="D18" s="2"/>
       <c r="E18" s="4"/>
@@ -8370,7 +8024,7 @@
       <c r="N18" s="5"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="D19" s="2"/>
       <c r="E19" s="4"/>
@@ -8381,7 +8035,7 @@
       <c r="N19" s="5"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
@@ -8392,7 +8046,7 @@
       <c r="N20" s="5"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="D21" s="2"/>
       <c r="E21" s="4"/>
@@ -8403,7 +8057,7 @@
       <c r="N21" s="5"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
@@ -8414,7 +8068,7 @@
       <c r="N22" s="5"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="D23" s="2"/>
       <c r="E23" s="4"/>
@@ -8425,7 +8079,7 @@
       <c r="N23" s="5"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="D24" s="2"/>
       <c r="E24" s="4"/>
@@ -8436,7 +8090,7 @@
       <c r="N24" s="5"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
@@ -8447,7 +8101,7 @@
       <c r="N25" s="5"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="D26" s="2"/>
       <c r="E26" s="4"/>
@@ -8458,7 +8112,7 @@
       <c r="N26" s="5"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="D27" s="2"/>
       <c r="E27" s="4"/>
@@ -8469,7 +8123,7 @@
       <c r="N27" s="5"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>4</v>
       </c>
@@ -8483,7 +8137,7 @@
       <c r="N28" s="5"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="D29" s="2"/>
@@ -8495,7 +8149,7 @@
       <c r="N29" s="5"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="D30" s="2"/>
@@ -8507,7 +8161,7 @@
       <c r="N30" s="5"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="D31" s="2"/>
       <c r="E31" s="4"/>
@@ -8518,7 +8172,7 @@
       <c r="N31" s="5"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="D32" s="2"/>
       <c r="E32" s="4"/>
@@ -8529,7 +8183,7 @@
       <c r="N32" s="5"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="D33" s="2"/>
       <c r="E33" s="4"/>
@@ -8540,7 +8194,7 @@
       <c r="N33" s="5"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
       <c r="D34" s="2"/>
       <c r="E34" s="4"/>
@@ -8551,7 +8205,7 @@
       <c r="N34" s="5"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
       <c r="D35" s="2"/>
       <c r="E35" s="4"/>
@@ -8562,7 +8216,7 @@
       <c r="N35" s="5"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
       <c r="D36" s="2"/>
       <c r="E36" s="4"/>
@@ -8573,7 +8227,7 @@
       <c r="N36" s="5"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
       <c r="D37" s="2"/>
       <c r="E37" s="4"/>
@@ -8584,7 +8238,7 @@
       <c r="N37" s="5"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="5"/>
       <c r="D38" s="2"/>
       <c r="E38" s="4"/>
@@ -8595,7 +8249,7 @@
       <c r="N38" s="5"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
       <c r="D39" s="2"/>
       <c r="E39" s="4"/>
@@ -8606,7 +8260,7 @@
       <c r="N39" s="5"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="5"/>
       <c r="D40" s="2"/>
       <c r="E40" s="4"/>
@@ -8617,7 +8271,7 @@
       <c r="N40" s="5"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="5"/>
       <c r="D41" s="2"/>
       <c r="E41" s="4"/>
@@ -8628,7 +8282,7 @@
       <c r="N41" s="5"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
       <c r="D42" s="2"/>
       <c r="E42" s="4"/>
@@ -8639,7 +8293,7 @@
       <c r="N42" s="5"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
       <c r="D43" s="2"/>
       <c r="E43" s="4"/>
@@ -8650,7 +8304,7 @@
       <c r="N43" s="5"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
       <c r="D44" s="2"/>
       <c r="E44" s="4"/>
@@ -8661,7 +8315,7 @@
       <c r="N44" s="5"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
       <c r="D45" s="2"/>
       <c r="E45" s="4"/>
@@ -8672,7 +8326,7 @@
       <c r="N45" s="5"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B46" s="5"/>
       <c r="D46" s="2"/>
       <c r="E46" s="4"/>
@@ -8683,7 +8337,7 @@
       <c r="N46" s="5"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" s="5"/>
       <c r="D47" s="2"/>
       <c r="E47" s="4"/>
@@ -8694,7 +8348,7 @@
       <c r="N47" s="5"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
       <c r="D48" s="2"/>
       <c r="E48" s="4"/>
@@ -8705,7 +8359,7 @@
       <c r="N48" s="5"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" s="5"/>
       <c r="D49" s="2"/>
       <c r="E49" s="4"/>
@@ -8716,7 +8370,7 @@
       <c r="N49" s="5"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="5"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4"/>
@@ -8727,7 +8381,7 @@
       <c r="N50" s="5"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="5"/>
       <c r="D51" s="2"/>
       <c r="E51" s="4"/>
@@ -8738,7 +8392,7 @@
       <c r="N51" s="5"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="5"/>
       <c r="D52" s="2"/>
       <c r="F52" s="5"/>
@@ -8748,7 +8402,7 @@
       <c r="N52" s="5"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="D53" s="2"/>
       <c r="F53" s="5"/>
@@ -8758,7 +8412,7 @@
       <c r="N53" s="5"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="5"/>
       <c r="D54" s="2"/>
       <c r="F54" s="5"/>
@@ -8768,7 +8422,7 @@
       <c r="N54" s="5"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="5"/>
       <c r="D55" s="2"/>
       <c r="F55" s="5"/>
@@ -8778,7 +8432,7 @@
       <c r="N55" s="5"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
       <c r="D56" s="2"/>
       <c r="F56" s="5"/>
@@ -8788,7 +8442,7 @@
       <c r="N56" s="5"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
       <c r="D57" s="2"/>
       <c r="F57" s="5"/>
@@ -8798,7 +8452,7 @@
       <c r="N57" s="5"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="5"/>
       <c r="D58" s="2"/>
       <c r="F58" s="5"/>
@@ -8808,7 +8462,7 @@
       <c r="N58" s="5"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B59" s="5"/>
       <c r="D59" s="2"/>
       <c r="F59" s="5"/>
@@ -8818,7 +8472,7 @@
       <c r="N59" s="5"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B60" s="5"/>
       <c r="D60" s="2"/>
       <c r="F60" s="5"/>
@@ -8828,7 +8482,7 @@
       <c r="N60" s="5"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B61" s="5"/>
       <c r="D61" s="2"/>
       <c r="F61" s="5"/>
@@ -8838,7 +8492,7 @@
       <c r="N61" s="5"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" s="5"/>
       <c r="D62" s="2"/>
       <c r="F62" s="5"/>
@@ -8848,7 +8502,7 @@
       <c r="N62" s="5"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" s="5"/>
       <c r="D63" s="2"/>
       <c r="F63" s="5"/>
@@ -8858,7 +8512,7 @@
       <c r="N63" s="5"/>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" s="5"/>
       <c r="D64" s="2"/>
       <c r="F64" s="5"/>
@@ -8868,7 +8522,7 @@
       <c r="N64" s="5"/>
       <c r="P64" s="2"/>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B65" s="5"/>
       <c r="D65" s="2"/>
       <c r="F65" s="5"/>
@@ -8878,7 +8532,7 @@
       <c r="N65" s="5"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B66" s="5"/>
       <c r="D66" s="2"/>
       <c r="F66" s="5"/>
@@ -8888,7 +8542,7 @@
       <c r="N66" s="5"/>
       <c r="P66" s="2"/>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B67" s="5"/>
       <c r="D67" s="2"/>
       <c r="F67" s="5"/>
@@ -8898,7 +8552,7 @@
       <c r="N67" s="5"/>
       <c r="P67" s="2"/>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B68" s="5"/>
       <c r="D68" s="2"/>
       <c r="F68" s="5"/>
@@ -8908,7 +8562,7 @@
       <c r="N68" s="5"/>
       <c r="P68" s="2"/>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
       <c r="D69" s="2"/>
       <c r="F69" s="5"/>
@@ -8918,7 +8572,7 @@
       <c r="N69" s="5"/>
       <c r="P69" s="2"/>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B70" s="5"/>
       <c r="D70" s="2"/>
       <c r="F70" s="5"/>
@@ -8928,7 +8582,7 @@
       <c r="N70" s="5"/>
       <c r="P70" s="2"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B71" s="5"/>
       <c r="D71" s="2"/>
       <c r="F71" s="5"/>
@@ -8938,7 +8592,7 @@
       <c r="N71" s="5"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B72" s="5"/>
       <c r="D72" s="2"/>
       <c r="F72" s="5"/>
@@ -8948,7 +8602,7 @@
       <c r="N72" s="5"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B73" s="5"/>
       <c r="D73" s="2"/>
       <c r="F73" s="5"/>
@@ -8958,7 +8612,7 @@
       <c r="N73" s="5"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B74" s="5"/>
       <c r="D74" s="2"/>
       <c r="F74" s="5"/>
@@ -8968,7 +8622,7 @@
       <c r="N74" s="5"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B75" s="5"/>
       <c r="D75" s="2"/>
       <c r="F75" s="5"/>
@@ -8978,7 +8632,7 @@
       <c r="N75" s="5"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B76" s="5"/>
       <c r="D76" s="2"/>
       <c r="F76" s="5"/>
@@ -8988,7 +8642,7 @@
       <c r="N76" s="5"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B77" s="5"/>
       <c r="D77" s="2"/>
       <c r="F77" s="5"/>
@@ -8998,7 +8652,7 @@
       <c r="N77" s="5"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" s="5"/>
       <c r="D78" s="2"/>
       <c r="F78" s="5"/>
@@ -9008,7 +8662,7 @@
       <c r="N78" s="5"/>
       <c r="P78" s="2"/>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B79" s="5"/>
       <c r="D79" s="2"/>
       <c r="F79" s="5"/>
@@ -9018,7 +8672,7 @@
       <c r="N79" s="5"/>
       <c r="P79" s="2"/>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" s="5"/>
       <c r="D80" s="2"/>
       <c r="F80" s="5"/>
@@ -9028,7 +8682,7 @@
       <c r="N80" s="5"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
       <c r="D81" s="2"/>
       <c r="F81" s="5"/>
@@ -9038,7 +8692,7 @@
       <c r="N81" s="5"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="D82" s="2"/>
       <c r="F82" s="5"/>
@@ -9048,7 +8702,7 @@
       <c r="N82" s="5"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B83" s="5"/>
       <c r="D83" s="2"/>
       <c r="F83" s="5"/>
@@ -9058,7 +8712,7 @@
       <c r="N83" s="5"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B84" s="5"/>
       <c r="D84" s="2"/>
       <c r="F84" s="5"/>
@@ -9068,7 +8722,7 @@
       <c r="N84" s="5"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
       <c r="D85" s="2"/>
       <c r="F85" s="5"/>
@@ -9078,7 +8732,7 @@
       <c r="N85" s="5"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B86" s="5"/>
       <c r="D86" s="2"/>
       <c r="F86" s="5"/>
@@ -9088,7 +8742,7 @@
       <c r="N86" s="5"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B87" s="5"/>
       <c r="D87" s="2"/>
       <c r="F87" s="5"/>
@@ -9098,7 +8752,7 @@
       <c r="N87" s="5"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B88" s="5"/>
       <c r="D88" s="2"/>
       <c r="F88" s="5"/>
@@ -9108,7 +8762,7 @@
       <c r="N88" s="5"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B89" s="5"/>
       <c r="D89" s="2"/>
       <c r="F89" s="5"/>
@@ -9118,7 +8772,7 @@
       <c r="N89" s="5"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
       <c r="D90" s="2"/>
       <c r="F90" s="5"/>
@@ -9128,7 +8782,7 @@
       <c r="N90" s="5"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B91" s="5"/>
       <c r="D91" s="2"/>
       <c r="F91" s="5"/>
@@ -9138,7 +8792,7 @@
       <c r="N91" s="5"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B92" s="5"/>
       <c r="D92" s="2"/>
       <c r="F92" s="5"/>
@@ -9148,7 +8802,7 @@
       <c r="N92" s="5"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
       <c r="D93" s="2"/>
       <c r="F93" s="5"/>
@@ -9158,7 +8812,7 @@
       <c r="N93" s="5"/>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B94" s="5"/>
       <c r="D94" s="2"/>
       <c r="F94" s="5"/>
@@ -9168,7 +8822,7 @@
       <c r="N94" s="5"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
       <c r="D95" s="2"/>
       <c r="F95" s="5"/>
@@ -9178,7 +8832,7 @@
       <c r="N95" s="5"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B96" s="5"/>
       <c r="D96" s="2"/>
       <c r="F96" s="5"/>
@@ -9188,7 +8842,7 @@
       <c r="N96" s="5"/>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="4"/>
@@ -9206,7 +8860,7 @@
       <c r="O97" s="4"/>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="4"/>
@@ -9222,7 +8876,7 @@
       <c r="O98" s="10"/>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
       <c r="D99" s="2"/>
       <c r="F99" s="5"/>
@@ -9234,7 +8888,7 @@
       <c r="N99" s="5"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
       <c r="D100" s="2"/>
       <c r="F100" s="5"/>
@@ -9246,7 +8900,7 @@
       <c r="N100" s="5"/>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
       <c r="D101" s="2"/>
       <c r="F101" s="5"/>
@@ -9258,7 +8912,7 @@
       <c r="N101" s="5"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
       <c r="D102" s="2"/>
       <c r="F102" s="5"/>
@@ -9270,7 +8924,7 @@
       <c r="N102" s="5"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
       <c r="D103" s="2"/>
       <c r="F103" s="5"/>
@@ -9282,7 +8936,7 @@
       <c r="N103" s="5"/>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B104" s="5"/>
       <c r="D104" s="2"/>
       <c r="F104" s="5"/>
@@ -9294,7 +8948,7 @@
       <c r="N104" s="5"/>
       <c r="P104" s="2"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B105" s="5"/>
       <c r="D105" s="2"/>
       <c r="F105" s="5"/>
@@ -9306,7 +8960,7 @@
       <c r="N105" s="5"/>
       <c r="P105" s="2"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B106" s="5"/>
       <c r="D106" s="2"/>
       <c r="F106" s="5"/>
@@ -9317,7 +8971,7 @@
       <c r="N106" s="5"/>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B107" s="5"/>
       <c r="D107" s="2"/>
       <c r="F107" s="5"/>
@@ -9327,7 +8981,7 @@
       <c r="N107" s="5"/>
       <c r="P107" s="2"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B108" s="5"/>
       <c r="D108" s="2"/>
       <c r="F108" s="5"/>
@@ -9337,7 +8991,7 @@
       <c r="N108" s="5"/>
       <c r="P108" s="2"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
       <c r="D109" s="2"/>
       <c r="F109" s="5"/>
@@ -9347,7 +9001,7 @@
       <c r="N109" s="5"/>
       <c r="P109" s="2"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B110" s="5"/>
       <c r="D110" s="2"/>
       <c r="F110" s="5"/>
@@ -9357,7 +9011,7 @@
       <c r="N110" s="5"/>
       <c r="P110" s="2"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B111" s="5"/>
       <c r="D111" s="2"/>
       <c r="F111" s="5"/>
@@ -9367,7 +9021,7 @@
       <c r="N111" s="5"/>
       <c r="P111" s="2"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B112" s="5"/>
       <c r="D112" s="2"/>
       <c r="F112" s="5"/>
@@ -9377,7 +9031,7 @@
       <c r="N112" s="5"/>
       <c r="P112" s="2"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B113" s="5"/>
       <c r="D113" s="2"/>
       <c r="F113" s="5"/>
@@ -9387,7 +9041,7 @@
       <c r="N113" s="5"/>
       <c r="P113" s="2"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B114" s="5"/>
       <c r="D114" s="2"/>
       <c r="F114" s="5"/>
@@ -9397,7 +9051,7 @@
       <c r="N114" s="5"/>
       <c r="P114" s="2"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B115" s="5"/>
       <c r="D115" s="2"/>
       <c r="F115" s="5"/>
@@ -9407,7 +9061,7 @@
       <c r="N115" s="5"/>
       <c r="P115" s="2"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B116" s="5"/>
       <c r="D116" s="2"/>
       <c r="F116" s="5"/>
@@ -9417,7 +9071,7 @@
       <c r="N116" s="5"/>
       <c r="P116" s="2"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B117" s="5"/>
       <c r="D117" s="2"/>
       <c r="F117" s="5"/>
@@ -9427,7 +9081,7 @@
       <c r="N117" s="5"/>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B118" s="5"/>
       <c r="D118" s="2"/>
       <c r="F118" s="5"/>
@@ -9437,7 +9091,7 @@
       <c r="N118" s="5"/>
       <c r="P118" s="2"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B119" s="5"/>
       <c r="D119" s="2"/>
       <c r="F119" s="5"/>
@@ -9447,7 +9101,7 @@
       <c r="N119" s="5"/>
       <c r="P119" s="2"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B120" s="5"/>
       <c r="D120" s="2"/>
       <c r="F120" s="5"/>
@@ -9457,7 +9111,7 @@
       <c r="N120" s="5"/>
       <c r="P120" s="2"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B121" s="5"/>
       <c r="D121" s="2"/>
       <c r="F121" s="5"/>
@@ -9467,7 +9121,7 @@
       <c r="N121" s="5"/>
       <c r="P121" s="2"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
       <c r="D122" s="2"/>
       <c r="F122" s="5"/>
@@ -9477,7 +9131,7 @@
       <c r="N122" s="5"/>
       <c r="P122" s="2"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B123" s="5"/>
       <c r="D123" s="2"/>
       <c r="F123" s="5"/>
@@ -9487,7 +9141,7 @@
       <c r="N123" s="5"/>
       <c r="P123" s="2"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B124" s="5"/>
       <c r="D124" s="2"/>
       <c r="F124" s="5"/>
@@ -9497,7 +9151,7 @@
       <c r="N124" s="5"/>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B125" s="5"/>
       <c r="D125" s="2"/>
       <c r="F125" s="5"/>
@@ -9507,7 +9161,7 @@
       <c r="N125" s="5"/>
       <c r="P125" s="2"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B126" s="5"/>
       <c r="D126" s="2"/>
       <c r="F126" s="5"/>
@@ -9517,7 +9171,7 @@
       <c r="N126" s="5"/>
       <c r="P126" s="2"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B127" s="5"/>
       <c r="D127" s="2"/>
       <c r="F127" s="5"/>
@@ -9527,7 +9181,7 @@
       <c r="N127" s="5"/>
       <c r="P127" s="2"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B128" s="5"/>
       <c r="D128" s="2"/>
       <c r="F128" s="5"/>
@@ -9537,7 +9191,7 @@
       <c r="N128" s="5"/>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B129" s="5"/>
       <c r="D129" s="2"/>
       <c r="F129" s="5"/>
@@ -9547,7 +9201,7 @@
       <c r="N129" s="5"/>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B130" s="5"/>
       <c r="D130" s="2"/>
       <c r="F130" s="5"/>
@@ -9557,7 +9211,7 @@
       <c r="N130" s="5"/>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B131" s="5"/>
       <c r="D131" s="2"/>
       <c r="F131" s="5"/>
@@ -9567,7 +9221,7 @@
       <c r="N131" s="5"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B132" s="5"/>
       <c r="D132" s="2"/>
       <c r="F132" s="5"/>
@@ -9577,7 +9231,7 @@
       <c r="N132" s="5"/>
       <c r="P132" s="2"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B133" s="5"/>
       <c r="D133" s="2"/>
       <c r="F133" s="5"/>
@@ -9587,7 +9241,7 @@
       <c r="N133" s="5"/>
       <c r="P133" s="2"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B134" s="5"/>
       <c r="D134" s="2"/>
       <c r="F134" s="5"/>
@@ -9597,7 +9251,7 @@
       <c r="N134" s="5"/>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B135" s="5"/>
       <c r="D135" s="2"/>
       <c r="F135" s="5"/>
@@ -9607,7 +9261,7 @@
       <c r="N135" s="5"/>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B136" s="5"/>
       <c r="D136" s="2"/>
       <c r="F136" s="5"/>
@@ -9617,7 +9271,7 @@
       <c r="N136" s="5"/>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B137" s="5"/>
       <c r="D137" s="2"/>
       <c r="F137" s="5"/>
@@ -9627,7 +9281,7 @@
       <c r="N137" s="5"/>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B138" s="5"/>
       <c r="D138" s="2"/>
       <c r="F138" s="5"/>
@@ -9637,7 +9291,7 @@
       <c r="N138" s="5"/>
       <c r="P138" s="2"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B139" s="5"/>
       <c r="D139" s="2"/>
       <c r="F139" s="5"/>
@@ -9647,7 +9301,7 @@
       <c r="N139" s="5"/>
       <c r="P139" s="2"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B140" s="5"/>
       <c r="D140" s="2"/>
       <c r="F140" s="5"/>
@@ -9657,7 +9311,7 @@
       <c r="N140" s="5"/>
       <c r="P140" s="2"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B141" s="5"/>
       <c r="D141" s="2"/>
       <c r="F141" s="5"/>
@@ -9667,7 +9321,7 @@
       <c r="N141" s="5"/>
       <c r="P141" s="2"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B142" s="5"/>
       <c r="D142" s="2"/>
       <c r="F142" s="5"/>
@@ -9677,7 +9331,7 @@
       <c r="N142" s="5"/>
       <c r="P142" s="2"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B143" s="5"/>
       <c r="D143" s="2"/>
       <c r="F143" s="5"/>
@@ -9687,7 +9341,7 @@
       <c r="N143" s="5"/>
       <c r="P143" s="2"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B144" s="5"/>
       <c r="D144" s="2"/>
       <c r="F144" s="5"/>
@@ -9697,7 +9351,7 @@
       <c r="N144" s="5"/>
       <c r="P144" s="2"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B145" s="5"/>
       <c r="D145" s="2"/>
       <c r="F145" s="5"/>
@@ -9707,7 +9361,7 @@
       <c r="N145" s="5"/>
       <c r="P145" s="2"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B146" s="5"/>
       <c r="D146" s="2"/>
       <c r="F146" s="5"/>
@@ -9717,7 +9371,7 @@
       <c r="N146" s="5"/>
       <c r="P146" s="2"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B147" s="5"/>
       <c r="D147" s="2"/>
       <c r="F147" s="5"/>
@@ -9727,7 +9381,7 @@
       <c r="N147" s="5"/>
       <c r="P147" s="2"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B148" s="5"/>
       <c r="D148" s="2"/>
       <c r="F148" s="5"/>
@@ -9737,7 +9391,7 @@
       <c r="N148" s="5"/>
       <c r="P148" s="2"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B149" s="5"/>
       <c r="D149" s="2"/>
       <c r="F149" s="5"/>
@@ -9747,7 +9401,7 @@
       <c r="N149" s="5"/>
       <c r="P149" s="2"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B150" s="5"/>
       <c r="D150" s="2"/>
       <c r="F150" s="5"/>
@@ -9757,7 +9411,7 @@
       <c r="N150" s="5"/>
       <c r="P150" s="2"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B151" s="5"/>
       <c r="D151" s="2"/>
       <c r="F151" s="5"/>
@@ -9767,7 +9421,7 @@
       <c r="N151" s="5"/>
       <c r="P151" s="2"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B152" s="5"/>
       <c r="D152" s="2"/>
       <c r="F152" s="5"/>
@@ -9777,7 +9431,7 @@
       <c r="N152" s="5"/>
       <c r="P152" s="2"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B153" s="5"/>
       <c r="D153" s="2"/>
       <c r="F153" s="5"/>
@@ -9787,7 +9441,7 @@
       <c r="N153" s="5"/>
       <c r="P153" s="2"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B154" s="5"/>
       <c r="D154" s="2"/>
       <c r="F154" s="5"/>
@@ -9797,7 +9451,7 @@
       <c r="N154" s="5"/>
       <c r="P154" s="2"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B155" s="5"/>
       <c r="D155" s="2"/>
       <c r="F155" s="5"/>
@@ -9807,7 +9461,7 @@
       <c r="N155" s="5"/>
       <c r="P155" s="2"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B156" s="5"/>
       <c r="D156" s="2"/>
       <c r="F156" s="5"/>
@@ -9817,7 +9471,7 @@
       <c r="N156" s="5"/>
       <c r="P156" s="2"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B157" s="5"/>
       <c r="D157" s="2"/>
       <c r="F157" s="5"/>
@@ -9827,7 +9481,7 @@
       <c r="N157" s="5"/>
       <c r="P157" s="2"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B158" s="5"/>
       <c r="D158" s="2"/>
       <c r="F158" s="5"/>
@@ -9837,7 +9491,7 @@
       <c r="N158" s="5"/>
       <c r="P158" s="2"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B159" s="5"/>
       <c r="D159" s="2"/>
       <c r="F159" s="5"/>
@@ -9847,7 +9501,7 @@
       <c r="N159" s="5"/>
       <c r="P159" s="2"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B160" s="5"/>
       <c r="D160" s="2"/>
       <c r="F160" s="5"/>
@@ -9857,7 +9511,7 @@
       <c r="N160" s="5"/>
       <c r="P160" s="2"/>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B161" s="5"/>
       <c r="D161" s="2"/>
       <c r="F161" s="5"/>
@@ -9867,7 +9521,7 @@
       <c r="N161" s="5"/>
       <c r="P161" s="2"/>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B162" s="5"/>
       <c r="D162" s="2"/>
       <c r="F162" s="5"/>
@@ -9877,7 +9531,7 @@
       <c r="N162" s="5"/>
       <c r="P162" s="2"/>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B163" s="5"/>
       <c r="D163" s="2"/>
       <c r="F163" s="5"/>
@@ -9887,7 +9541,7 @@
       <c r="N163" s="5"/>
       <c r="P163" s="2"/>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B164" s="5"/>
       <c r="D164" s="2"/>
       <c r="F164" s="5"/>
@@ -9897,7 +9551,7 @@
       <c r="N164" s="5"/>
       <c r="P164" s="2"/>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B165" s="5"/>
       <c r="D165" s="2"/>
       <c r="F165" s="5"/>
@@ -9907,7 +9561,7 @@
       <c r="N165" s="5"/>
       <c r="P165" s="2"/>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B166" s="5"/>
       <c r="D166" s="2"/>
       <c r="F166" s="5"/>
@@ -9917,7 +9571,7 @@
       <c r="N166" s="5"/>
       <c r="P166" s="2"/>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B167" s="5"/>
       <c r="D167" s="2"/>
       <c r="F167" s="5"/>
@@ -9927,7 +9581,7 @@
       <c r="N167" s="5"/>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B168" s="5"/>
       <c r="D168" s="2"/>
       <c r="F168" s="5"/>
@@ -9937,7 +9591,7 @@
       <c r="N168" s="5"/>
       <c r="P168" s="2"/>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B169" s="5"/>
       <c r="D169" s="2"/>
       <c r="F169" s="5"/>
@@ -9947,7 +9601,7 @@
       <c r="N169" s="5"/>
       <c r="P169" s="2"/>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B170" s="5"/>
       <c r="D170" s="2"/>
       <c r="F170" s="5"/>
@@ -9957,7 +9611,7 @@
       <c r="N170" s="5"/>
       <c r="P170" s="2"/>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B171" s="5"/>
       <c r="D171" s="2"/>
       <c r="F171" s="5"/>
@@ -9967,7 +9621,7 @@
       <c r="N171" s="5"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B172" s="5"/>
       <c r="D172" s="2"/>
       <c r="F172" s="5"/>
@@ -9977,7 +9631,7 @@
       <c r="N172" s="5"/>
       <c r="P172" s="2"/>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B173" s="5"/>
       <c r="D173" s="2"/>
       <c r="F173" s="5"/>
@@ -9987,7 +9641,7 @@
       <c r="N173" s="5"/>
       <c r="P173" s="2"/>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B174" s="5"/>
       <c r="D174" s="2"/>
       <c r="F174" s="5"/>
@@ -9997,7 +9651,7 @@
       <c r="N174" s="5"/>
       <c r="P174" s="2"/>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B175" s="5"/>
       <c r="D175" s="2"/>
       <c r="F175" s="5"/>
@@ -10007,7 +9661,7 @@
       <c r="N175" s="5"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B176" s="5"/>
       <c r="D176" s="2"/>
       <c r="F176" s="5"/>
@@ -10017,7 +9671,7 @@
       <c r="N176" s="5"/>
       <c r="P176" s="2"/>
     </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B177" s="5"/>
       <c r="D177" s="2"/>
       <c r="F177" s="5"/>
@@ -10027,7 +9681,7 @@
       <c r="N177" s="5"/>
       <c r="P177" s="2"/>
     </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="178" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B178" s="5"/>
       <c r="D178" s="2"/>
       <c r="F178" s="5"/>
@@ -10037,7 +9691,7 @@
       <c r="N178" s="5"/>
       <c r="P178" s="2"/>
     </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="179" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B179" s="5"/>
       <c r="D179" s="2"/>
       <c r="F179" s="5"/>
@@ -10047,7 +9701,7 @@
       <c r="N179" s="5"/>
       <c r="P179" s="2"/>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B180" s="5"/>
       <c r="D180" s="2"/>
       <c r="F180" s="5"/>
@@ -10057,7 +9711,7 @@
       <c r="N180" s="5"/>
       <c r="P180" s="2"/>
     </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="181" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B181" s="5"/>
       <c r="D181" s="2"/>
       <c r="F181" s="5"/>
@@ -10067,7 +9721,7 @@
       <c r="N181" s="5"/>
       <c r="P181" s="2"/>
     </row>
-    <row r="182" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B182" s="5"/>
       <c r="D182" s="2"/>
       <c r="F182" s="5"/>
@@ -10077,7 +9731,7 @@
       <c r="N182" s="5"/>
       <c r="P182" s="2"/>
     </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B183" s="5"/>
       <c r="D183" s="2"/>
       <c r="F183" s="5"/>
@@ -10087,7 +9741,7 @@
       <c r="N183" s="5"/>
       <c r="P183" s="2"/>
     </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="184" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B184" s="5"/>
       <c r="D184" s="2"/>
       <c r="F184" s="5"/>
@@ -10097,7 +9751,7 @@
       <c r="N184" s="5"/>
       <c r="P184" s="2"/>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B185" s="5"/>
       <c r="D185" s="2"/>
       <c r="F185" s="5"/>
@@ -10107,7 +9761,7 @@
       <c r="N185" s="5"/>
       <c r="P185" s="2"/>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B186" s="5"/>
       <c r="D186" s="2"/>
       <c r="F186" s="5"/>
@@ -10117,7 +9771,7 @@
       <c r="N186" s="5"/>
       <c r="P186" s="2"/>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B187" s="5"/>
       <c r="D187" s="2"/>
       <c r="F187" s="5"/>
@@ -10127,7 +9781,7 @@
       <c r="N187" s="5"/>
       <c r="P187" s="2"/>
     </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="188" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B188" s="5"/>
       <c r="D188" s="2"/>
       <c r="F188" s="5"/>
@@ -10137,7 +9791,7 @@
       <c r="N188" s="5"/>
       <c r="P188" s="2"/>
     </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B189" s="5"/>
       <c r="D189" s="2"/>
       <c r="F189" s="5"/>
@@ -10147,7 +9801,7 @@
       <c r="N189" s="5"/>
       <c r="P189" s="2"/>
     </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B190" s="5"/>
       <c r="D190" s="2"/>
       <c r="F190" s="5"/>
@@ -10157,7 +9811,7 @@
       <c r="N190" s="5"/>
       <c r="P190" s="2"/>
     </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="191" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B191" s="5"/>
       <c r="D191" s="2"/>
       <c r="F191" s="5"/>
@@ -10167,7 +9821,7 @@
       <c r="N191" s="5"/>
       <c r="P191" s="2"/>
     </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="192" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B192" s="5"/>
       <c r="D192" s="2"/>
       <c r="F192" s="5"/>
@@ -10177,7 +9831,7 @@
       <c r="N192" s="5"/>
       <c r="P192" s="2"/>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B193" s="5"/>
       <c r="D193" s="2"/>
       <c r="F193" s="5"/>
@@ -10187,7 +9841,7 @@
       <c r="N193" s="5"/>
       <c r="P193" s="2"/>
     </row>
-    <row r="194" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="194" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B194" s="5"/>
       <c r="D194" s="2"/>
       <c r="F194" s="5"/>
@@ -10197,7 +9851,7 @@
       <c r="N194" s="5"/>
       <c r="P194" s="2"/>
     </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="195" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B195" s="5"/>
       <c r="D195" s="2"/>
       <c r="F195" s="5"/>
@@ -10207,7 +9861,7 @@
       <c r="N195" s="5"/>
       <c r="P195" s="2"/>
     </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="196" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B196" s="5"/>
       <c r="D196" s="2"/>
       <c r="F196" s="5"/>
@@ -10217,7 +9871,7 @@
       <c r="N196" s="5"/>
       <c r="P196" s="2"/>
     </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="197" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B197" s="5"/>
       <c r="D197" s="2"/>
       <c r="F197" s="5"/>
@@ -10227,7 +9881,7 @@
       <c r="N197" s="5"/>
       <c r="P197" s="2"/>
     </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B198" s="5"/>
       <c r="D198" s="2"/>
       <c r="F198" s="5"/>
@@ -10237,7 +9891,7 @@
       <c r="N198" s="5"/>
       <c r="P198" s="2"/>
     </row>
-    <row r="199" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="199" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B199" s="5"/>
       <c r="D199" s="2"/>
       <c r="F199" s="5"/>
@@ -10247,7 +9901,7 @@
       <c r="N199" s="5"/>
       <c r="P199" s="2"/>
     </row>
-    <row r="200" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="200" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B200" s="5"/>
       <c r="D200" s="2"/>
       <c r="F200" s="5"/>
@@ -10257,7 +9911,7 @@
       <c r="N200" s="5"/>
       <c r="P200" s="2"/>
     </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="201" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B201" s="5"/>
       <c r="D201" s="2"/>
       <c r="F201" s="5"/>
@@ -10267,7 +9921,7 @@
       <c r="N201" s="5"/>
       <c r="P201" s="2"/>
     </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B202" s="5"/>
       <c r="D202" s="2"/>
       <c r="F202" s="5"/>
@@ -10277,7 +9931,7 @@
       <c r="N202" s="5"/>
       <c r="P202" s="2"/>
     </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="203" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B203" s="5"/>
       <c r="D203" s="2"/>
       <c r="F203" s="5"/>
@@ -10287,7 +9941,7 @@
       <c r="N203" s="5"/>
       <c r="P203" s="2"/>
     </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B204" s="5"/>
       <c r="D204" s="2"/>
       <c r="F204" s="5"/>
@@ -10297,7 +9951,7 @@
       <c r="N204" s="5"/>
       <c r="P204" s="2"/>
     </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="205" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B205" s="5"/>
       <c r="D205" s="2"/>
       <c r="F205" s="5"/>
@@ -10307,7 +9961,7 @@
       <c r="N205" s="5"/>
       <c r="P205" s="2"/>
     </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="206" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B206" s="5"/>
       <c r="D206" s="2"/>
       <c r="F206" s="5"/>
@@ -10317,7 +9971,7 @@
       <c r="N206" s="5"/>
       <c r="P206" s="2"/>
     </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B207" s="5"/>
       <c r="D207" s="2"/>
       <c r="F207" s="5"/>
@@ -10327,7 +9981,7 @@
       <c r="N207" s="5"/>
       <c r="P207" s="2"/>
     </row>
-    <row r="208" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="208" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B208" s="5"/>
       <c r="D208" s="2"/>
       <c r="F208" s="5"/>
@@ -10337,7 +9991,7 @@
       <c r="N208" s="5"/>
       <c r="P208" s="2"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B209" s="5"/>
       <c r="D209" s="2"/>
       <c r="F209" s="5"/>
@@ -10347,7 +10001,7 @@
       <c r="N209" s="5"/>
       <c r="P209" s="2"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B210" s="5"/>
       <c r="D210" s="2"/>
       <c r="F210" s="5"/>
@@ -10357,7 +10011,7 @@
       <c r="N210" s="5"/>
       <c r="P210" s="2"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B211" s="5"/>
       <c r="D211" s="2"/>
       <c r="F211" s="5"/>
@@ -10367,7 +10021,7 @@
       <c r="N211" s="5"/>
       <c r="P211" s="2"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B212" s="5"/>
       <c r="D212" s="2"/>
       <c r="F212" s="5"/>
@@ -10377,398 +10031,23 @@
       <c r="N212" s="5"/>
       <c r="P212" s="2"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B213" s="5"/>
-      <c r="D213" s="2"/>
-      <c r="F213" s="5"/>
-      <c r="H213" s="2"/>
-      <c r="J213" s="5"/>
-      <c r="L213" s="2"/>
-      <c r="N213" s="5"/>
-      <c r="P213" s="2"/>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B214" s="5"/>
-      <c r="D214" s="2"/>
-      <c r="F214" s="5"/>
-      <c r="H214" s="2"/>
-      <c r="J214" s="5"/>
-      <c r="L214" s="2"/>
-      <c r="N214" s="5"/>
-      <c r="P214" s="2"/>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B215" s="5"/>
-      <c r="D215" s="2"/>
-      <c r="F215" s="5"/>
-      <c r="H215" s="2"/>
-      <c r="J215" s="5"/>
-      <c r="L215" s="2"/>
-      <c r="N215" s="5"/>
-      <c r="P215" s="2"/>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B216" s="5"/>
-      <c r="D216" s="2"/>
-      <c r="F216" s="5"/>
-      <c r="H216" s="2"/>
-      <c r="J216" s="5"/>
-      <c r="L216" s="2"/>
-      <c r="N216" s="5"/>
-      <c r="P216" s="2"/>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B217" s="5"/>
-      <c r="D217" s="2"/>
-      <c r="F217" s="5"/>
-      <c r="H217" s="2"/>
-      <c r="J217" s="5"/>
-      <c r="L217" s="2"/>
-      <c r="N217" s="5"/>
-      <c r="P217" s="2"/>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B218" s="5"/>
-      <c r="D218" s="2"/>
-      <c r="F218" s="5"/>
-      <c r="H218" s="2"/>
-      <c r="J218" s="5"/>
-      <c r="L218" s="2"/>
-      <c r="N218" s="5"/>
-      <c r="P218" s="2"/>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B219" s="5"/>
-      <c r="D219" s="2"/>
-      <c r="F219" s="5"/>
-      <c r="H219" s="2"/>
-      <c r="J219" s="5"/>
-      <c r="L219" s="2"/>
-      <c r="N219" s="5"/>
-      <c r="P219" s="2"/>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B220" s="5"/>
-      <c r="D220" s="2"/>
-      <c r="F220" s="5"/>
-      <c r="H220" s="2"/>
-      <c r="J220" s="5"/>
-      <c r="L220" s="2"/>
-      <c r="N220" s="5"/>
-      <c r="P220" s="2"/>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B221" s="5"/>
-      <c r="D221" s="2"/>
-      <c r="F221" s="5"/>
-      <c r="H221" s="2"/>
-      <c r="J221" s="5"/>
-      <c r="L221" s="2"/>
-      <c r="N221" s="5"/>
-      <c r="P221" s="2"/>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B222" s="5"/>
-      <c r="D222" s="2"/>
-      <c r="F222" s="5"/>
-      <c r="H222" s="2"/>
-      <c r="J222" s="5"/>
-      <c r="L222" s="2"/>
-      <c r="N222" s="5"/>
-      <c r="P222" s="2"/>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B223" s="5"/>
-      <c r="D223" s="2"/>
-      <c r="F223" s="5"/>
-      <c r="H223" s="2"/>
-      <c r="J223" s="5"/>
-      <c r="L223" s="2"/>
-      <c r="N223" s="5"/>
-      <c r="P223" s="2"/>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A224" s="4"/>
-      <c r="B224" s="5"/>
-      <c r="C224" s="4"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="4"/>
-      <c r="F224" s="5"/>
-      <c r="G224" s="4"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="4"/>
-      <c r="J224" s="5"/>
-      <c r="K224" s="4"/>
-      <c r="L224" s="2"/>
-      <c r="M224" s="4"/>
-      <c r="N224" s="5"/>
-      <c r="O224" s="4"/>
-      <c r="P224" s="2"/>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A225" s="4"/>
-      <c r="B225" s="5"/>
-      <c r="C225" s="4"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="4"/>
-      <c r="F225" s="5"/>
-      <c r="G225" s="4"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="4"/>
-      <c r="J225" s="5"/>
-      <c r="L225" s="2"/>
-      <c r="M225" s="4"/>
-      <c r="N225" s="5"/>
-      <c r="O225" s="4"/>
-      <c r="P225" s="2"/>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B226" s="5"/>
-      <c r="D226" s="2"/>
-      <c r="F226" s="5"/>
-      <c r="H226" s="2"/>
-      <c r="J226" s="5"/>
-      <c r="L226" s="2"/>
-      <c r="N226" s="5"/>
-      <c r="P226" s="2"/>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B227" s="5"/>
-      <c r="D227" s="2"/>
-      <c r="F227" s="5"/>
-      <c r="H227" s="2"/>
-      <c r="J227" s="5"/>
-      <c r="L227" s="2"/>
-      <c r="N227" s="5"/>
-      <c r="P227" s="2"/>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B228" s="5"/>
-      <c r="D228" s="2"/>
-      <c r="F228" s="5"/>
-      <c r="H228" s="2"/>
-      <c r="J228" s="5"/>
-      <c r="L228" s="2"/>
-      <c r="N228" s="5"/>
-      <c r="P228" s="2"/>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B229" s="5"/>
-      <c r="D229" s="2"/>
-      <c r="F229" s="5"/>
-      <c r="H229" s="2"/>
-      <c r="J229" s="5"/>
-      <c r="L229" s="2"/>
-      <c r="N229" s="5"/>
-      <c r="P229" s="2"/>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B230" s="5"/>
-      <c r="D230" s="2"/>
-      <c r="F230" s="5"/>
-      <c r="H230" s="2"/>
-      <c r="J230" s="5"/>
-      <c r="L230" s="2"/>
-      <c r="N230" s="5"/>
-      <c r="P230" s="2"/>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B231" s="5"/>
-      <c r="D231" s="2"/>
-      <c r="F231" s="5"/>
-      <c r="H231" s="2"/>
-      <c r="J231" s="5"/>
-      <c r="L231" s="2"/>
-      <c r="N231" s="5"/>
-      <c r="P231" s="2"/>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B232" s="5"/>
-      <c r="D232" s="2"/>
-      <c r="F232" s="5"/>
-      <c r="H232" s="2"/>
-      <c r="J232" s="5"/>
-      <c r="L232" s="2"/>
-      <c r="N232" s="5"/>
-      <c r="P232" s="2"/>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B233" s="5"/>
-      <c r="D233" s="2"/>
-      <c r="F233" s="5"/>
-      <c r="H233" s="2"/>
-      <c r="J233" s="5"/>
-      <c r="L233" s="2"/>
-      <c r="N233" s="5"/>
-      <c r="P233" s="2"/>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B234" s="5"/>
-      <c r="D234" s="2"/>
-      <c r="F234" s="5"/>
-      <c r="H234" s="2"/>
-      <c r="J234" s="5"/>
-      <c r="L234" s="2"/>
-      <c r="N234" s="5"/>
-      <c r="P234" s="2"/>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B235" s="5"/>
-      <c r="D235" s="2"/>
-      <c r="F235" s="5"/>
-      <c r="H235" s="2"/>
-      <c r="J235" s="5"/>
-      <c r="L235" s="2"/>
-      <c r="N235" s="5"/>
-      <c r="P235" s="2"/>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B236" s="5"/>
-      <c r="D236" s="2"/>
-      <c r="F236" s="5"/>
-      <c r="H236" s="2"/>
-      <c r="J236" s="5"/>
-      <c r="L236" s="2"/>
-      <c r="N236" s="5"/>
-      <c r="P236" s="2"/>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B237" s="5"/>
-      <c r="D237" s="2"/>
-      <c r="F237" s="5"/>
-      <c r="H237" s="2"/>
-      <c r="J237" s="5"/>
-      <c r="L237" s="2"/>
-      <c r="N237" s="5"/>
-      <c r="P237" s="2"/>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B238" s="5"/>
-      <c r="D238" s="2"/>
-      <c r="F238" s="5"/>
-      <c r="H238" s="2"/>
-      <c r="J238" s="5"/>
-      <c r="L238" s="2"/>
-      <c r="N238" s="5"/>
-      <c r="P238" s="2"/>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B239" s="5"/>
-      <c r="D239" s="2"/>
-      <c r="F239" s="5"/>
-      <c r="H239" s="2"/>
-      <c r="J239" s="5"/>
-      <c r="L239" s="2"/>
-      <c r="N239" s="5"/>
-      <c r="P239" s="2"/>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B240" s="5"/>
-      <c r="D240" s="2"/>
-      <c r="F240" s="5"/>
-      <c r="H240" s="2"/>
-      <c r="J240" s="5"/>
-      <c r="L240" s="2"/>
-      <c r="N240" s="5"/>
-      <c r="P240" s="2"/>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B241" s="5"/>
-      <c r="D241" s="2"/>
-      <c r="F241" s="5"/>
-      <c r="H241" s="2"/>
-      <c r="J241" s="5"/>
-      <c r="L241" s="2"/>
-      <c r="N241" s="5"/>
-      <c r="P241" s="2"/>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B242" s="5"/>
-      <c r="D242" s="2"/>
-      <c r="F242" s="5"/>
-      <c r="H242" s="2"/>
-      <c r="J242" s="5"/>
-      <c r="L242" s="2"/>
-      <c r="N242" s="5"/>
-      <c r="P242" s="2"/>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B243" s="5"/>
-      <c r="D243" s="2"/>
-      <c r="F243" s="5"/>
-      <c r="H243" s="2"/>
-      <c r="J243" s="5"/>
-      <c r="L243" s="2"/>
-      <c r="N243" s="5"/>
-      <c r="P243" s="2"/>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B244" s="5"/>
-      <c r="D244" s="2"/>
-      <c r="F244" s="5"/>
-      <c r="H244" s="2"/>
-      <c r="J244" s="5"/>
-      <c r="L244" s="2"/>
-      <c r="N244" s="5"/>
-      <c r="P244" s="2"/>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B245" s="5"/>
-      <c r="D245" s="2"/>
-      <c r="F245" s="5"/>
-      <c r="H245" s="2"/>
-      <c r="J245" s="5"/>
-      <c r="L245" s="2"/>
-      <c r="N245" s="5"/>
-      <c r="P245" s="2"/>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B246" s="5"/>
-      <c r="D246" s="2"/>
-      <c r="F246" s="5"/>
-      <c r="H246" s="2"/>
-      <c r="J246" s="5"/>
-      <c r="L246" s="2"/>
-      <c r="N246" s="5"/>
-      <c r="P246" s="2"/>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B247" s="5"/>
-      <c r="D247" s="2"/>
-      <c r="F247" s="5"/>
-      <c r="H247" s="2"/>
-      <c r="J247" s="5"/>
-      <c r="L247" s="2"/>
-      <c r="N247" s="5"/>
-      <c r="P247" s="2"/>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B248" s="5"/>
-      <c r="D248" s="2"/>
-      <c r="F248" s="5"/>
-      <c r="H248" s="2"/>
-      <c r="J248" s="5"/>
-      <c r="L248" s="2"/>
-      <c r="N248" s="5"/>
-      <c r="P248" s="2"/>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A249" s="7"/>
-      <c r="B249" s="8"/>
-      <c r="C249" s="7"/>
-      <c r="D249" s="9"/>
-      <c r="E249" s="7"/>
-      <c r="F249" s="8"/>
-      <c r="G249" s="7"/>
-      <c r="H249" s="9"/>
-      <c r="I249" s="7"/>
-      <c r="J249" s="8"/>
-      <c r="K249" s="7"/>
-      <c r="L249" s="9"/>
-      <c r="M249" s="7"/>
-      <c r="N249" s="8"/>
-      <c r="O249" s="7"/>
-      <c r="P249" s="9"/>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A213" s="7"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="9"/>
+      <c r="E213" s="7"/>
+      <c r="F213" s="8"/>
+      <c r="G213" s="7"/>
+      <c r="H213" s="9"/>
+      <c r="I213" s="7"/>
+      <c r="J213" s="8"/>
+      <c r="K213" s="7"/>
+      <c r="L213" s="9"/>
+      <c r="M213" s="7"/>
+      <c r="N213" s="8"/>
+      <c r="O213" s="7"/>
+      <c r="P213" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
+++ b/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\japgo\Google 드라이브\업무 문서\스마트 팩토리 멘토링\2021 멘토링\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\md\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB955DDB-40A8-4D80-B518-69E1DECE2FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E701AAE-AC0F-4FF7-868B-CE66518D278B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로토콜 흐름도" sheetId="1" r:id="rId1"/>
@@ -5175,8 +5175,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>6163</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>57948</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5191,8 +5191,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3363045" y="14051950"/>
-          <a:ext cx="1367518" cy="375141"/>
+          <a:off x="3345628" y="14260956"/>
+          <a:ext cx="1354455" cy="750444"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5223,6 +5223,33 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;SENSOR_STATE=ON&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>수신 시</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -7553,6 +7580,212 @@
             </a:rPr>
             <a:t>제품 감지</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>467788</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="오른쪽 중괄호 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4E78B6-7DD8-4461-B8D0-ED2418AB80FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3169920" y="12077700"/>
+          <a:ext cx="650668" cy="1929618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 53448"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>196165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="TextBox 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B50A2F42-DC02-441D-B976-120CD42DFEEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="426720" y="12792025"/>
+          <a:ext cx="2659380" cy="642035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>서버에서 센서 상태 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OFF </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>수신 시 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>적외선 센서 상태 요청 메시지 재발송</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7826,18 +8059,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -7863,7 +8096,7 @@
       <c r="O4" s="19"/>
       <c r="P4" s="20"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -7881,7 +8114,7 @@
       <c r="O5" s="22"/>
       <c r="P5" s="23"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
@@ -7892,7 +8125,7 @@
       <c r="N6" s="6"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B7" s="5"/>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
@@ -7903,7 +8136,7 @@
       <c r="N7" s="5"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B8" s="5"/>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
@@ -7914,7 +8147,7 @@
       <c r="N8" s="5"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
@@ -7925,7 +8158,7 @@
       <c r="N9" s="5"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B10" s="5"/>
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
@@ -7936,7 +8169,7 @@
       <c r="N10" s="5"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
@@ -7947,7 +8180,7 @@
       <c r="N11" s="5"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="D12" s="2"/>
       <c r="E12" s="4"/>
@@ -7958,7 +8191,7 @@
       <c r="N12" s="5"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
@@ -7969,7 +8202,7 @@
       <c r="N13" s="5"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B14" s="5"/>
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
@@ -7980,7 +8213,7 @@
       <c r="N14" s="5"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
       <c r="D15" s="2"/>
       <c r="E15" s="4"/>
@@ -7991,7 +8224,7 @@
       <c r="N15" s="5"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
@@ -8002,7 +8235,7 @@
       <c r="N16" s="5"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
@@ -8013,7 +8246,7 @@
       <c r="N17" s="5"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
       <c r="D18" s="2"/>
       <c r="E18" s="4"/>
@@ -8024,7 +8257,7 @@
       <c r="N18" s="5"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
       <c r="D19" s="2"/>
       <c r="E19" s="4"/>
@@ -8035,7 +8268,7 @@
       <c r="N19" s="5"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
@@ -8046,7 +8279,7 @@
       <c r="N20" s="5"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
       <c r="D21" s="2"/>
       <c r="E21" s="4"/>
@@ -8057,7 +8290,7 @@
       <c r="N21" s="5"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
@@ -8068,7 +8301,7 @@
       <c r="N22" s="5"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
       <c r="D23" s="2"/>
       <c r="E23" s="4"/>
@@ -8079,7 +8312,7 @@
       <c r="N23" s="5"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
       <c r="D24" s="2"/>
       <c r="E24" s="4"/>
@@ -8090,7 +8323,7 @@
       <c r="N24" s="5"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
@@ -8101,7 +8334,7 @@
       <c r="N25" s="5"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
       <c r="D26" s="2"/>
       <c r="E26" s="4"/>
@@ -8112,7 +8345,7 @@
       <c r="N26" s="5"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
       <c r="D27" s="2"/>
       <c r="E27" s="4"/>
@@ -8123,7 +8356,7 @@
       <c r="N27" s="5"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
         <v>4</v>
       </c>
@@ -8137,7 +8370,7 @@
       <c r="N28" s="5"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="D29" s="2"/>
@@ -8149,7 +8382,7 @@
       <c r="N29" s="5"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="D30" s="2"/>
@@ -8161,7 +8394,7 @@
       <c r="N30" s="5"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B31" s="5"/>
       <c r="D31" s="2"/>
       <c r="E31" s="4"/>
@@ -8172,7 +8405,7 @@
       <c r="N31" s="5"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B32" s="5"/>
       <c r="D32" s="2"/>
       <c r="E32" s="4"/>
@@ -8183,7 +8416,7 @@
       <c r="N32" s="5"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B33" s="5"/>
       <c r="D33" s="2"/>
       <c r="E33" s="4"/>
@@ -8194,7 +8427,7 @@
       <c r="N33" s="5"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B34" s="5"/>
       <c r="D34" s="2"/>
       <c r="E34" s="4"/>
@@ -8205,7 +8438,7 @@
       <c r="N34" s="5"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B35" s="5"/>
       <c r="D35" s="2"/>
       <c r="E35" s="4"/>
@@ -8216,7 +8449,7 @@
       <c r="N35" s="5"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B36" s="5"/>
       <c r="D36" s="2"/>
       <c r="E36" s="4"/>
@@ -8227,7 +8460,7 @@
       <c r="N36" s="5"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B37" s="5"/>
       <c r="D37" s="2"/>
       <c r="E37" s="4"/>
@@ -8238,7 +8471,7 @@
       <c r="N37" s="5"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B38" s="5"/>
       <c r="D38" s="2"/>
       <c r="E38" s="4"/>
@@ -8249,7 +8482,7 @@
       <c r="N38" s="5"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B39" s="5"/>
       <c r="D39" s="2"/>
       <c r="E39" s="4"/>
@@ -8260,7 +8493,7 @@
       <c r="N39" s="5"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B40" s="5"/>
       <c r="D40" s="2"/>
       <c r="E40" s="4"/>
@@ -8271,7 +8504,7 @@
       <c r="N40" s="5"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B41" s="5"/>
       <c r="D41" s="2"/>
       <c r="E41" s="4"/>
@@ -8282,7 +8515,7 @@
       <c r="N41" s="5"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B42" s="5"/>
       <c r="D42" s="2"/>
       <c r="E42" s="4"/>
@@ -8293,7 +8526,7 @@
       <c r="N42" s="5"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B43" s="5"/>
       <c r="D43" s="2"/>
       <c r="E43" s="4"/>
@@ -8304,7 +8537,7 @@
       <c r="N43" s="5"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B44" s="5"/>
       <c r="D44" s="2"/>
       <c r="E44" s="4"/>
@@ -8315,7 +8548,7 @@
       <c r="N44" s="5"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B45" s="5"/>
       <c r="D45" s="2"/>
       <c r="E45" s="4"/>
@@ -8326,7 +8559,7 @@
       <c r="N45" s="5"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B46" s="5"/>
       <c r="D46" s="2"/>
       <c r="E46" s="4"/>
@@ -8337,7 +8570,7 @@
       <c r="N46" s="5"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B47" s="5"/>
       <c r="D47" s="2"/>
       <c r="E47" s="4"/>
@@ -8348,7 +8581,7 @@
       <c r="N47" s="5"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B48" s="5"/>
       <c r="D48" s="2"/>
       <c r="E48" s="4"/>
@@ -8359,7 +8592,7 @@
       <c r="N48" s="5"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B49" s="5"/>
       <c r="D49" s="2"/>
       <c r="E49" s="4"/>
@@ -8370,7 +8603,7 @@
       <c r="N49" s="5"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B50" s="5"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4"/>
@@ -8381,7 +8614,7 @@
       <c r="N50" s="5"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B51" s="5"/>
       <c r="D51" s="2"/>
       <c r="E51" s="4"/>
@@ -8392,7 +8625,7 @@
       <c r="N51" s="5"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B52" s="5"/>
       <c r="D52" s="2"/>
       <c r="F52" s="5"/>
@@ -8402,7 +8635,7 @@
       <c r="N52" s="5"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B53" s="5"/>
       <c r="D53" s="2"/>
       <c r="F53" s="5"/>
@@ -8412,7 +8645,7 @@
       <c r="N53" s="5"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B54" s="5"/>
       <c r="D54" s="2"/>
       <c r="F54" s="5"/>
@@ -8422,7 +8655,7 @@
       <c r="N54" s="5"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B55" s="5"/>
       <c r="D55" s="2"/>
       <c r="F55" s="5"/>
@@ -8432,7 +8665,7 @@
       <c r="N55" s="5"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B56" s="5"/>
       <c r="D56" s="2"/>
       <c r="F56" s="5"/>
@@ -8442,7 +8675,7 @@
       <c r="N56" s="5"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B57" s="5"/>
       <c r="D57" s="2"/>
       <c r="F57" s="5"/>
@@ -8452,7 +8685,7 @@
       <c r="N57" s="5"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B58" s="5"/>
       <c r="D58" s="2"/>
       <c r="F58" s="5"/>
@@ -8462,7 +8695,7 @@
       <c r="N58" s="5"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B59" s="5"/>
       <c r="D59" s="2"/>
       <c r="F59" s="5"/>
@@ -8472,7 +8705,7 @@
       <c r="N59" s="5"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B60" s="5"/>
       <c r="D60" s="2"/>
       <c r="F60" s="5"/>
@@ -8482,7 +8715,7 @@
       <c r="N60" s="5"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B61" s="5"/>
       <c r="D61" s="2"/>
       <c r="F61" s="5"/>
@@ -8492,7 +8725,7 @@
       <c r="N61" s="5"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B62" s="5"/>
       <c r="D62" s="2"/>
       <c r="F62" s="5"/>
@@ -8502,7 +8735,7 @@
       <c r="N62" s="5"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B63" s="5"/>
       <c r="D63" s="2"/>
       <c r="F63" s="5"/>
@@ -8512,7 +8745,7 @@
       <c r="N63" s="5"/>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B64" s="5"/>
       <c r="D64" s="2"/>
       <c r="F64" s="5"/>
@@ -8522,7 +8755,7 @@
       <c r="N64" s="5"/>
       <c r="P64" s="2"/>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B65" s="5"/>
       <c r="D65" s="2"/>
       <c r="F65" s="5"/>
@@ -8532,7 +8765,7 @@
       <c r="N65" s="5"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B66" s="5"/>
       <c r="D66" s="2"/>
       <c r="F66" s="5"/>
@@ -8542,7 +8775,7 @@
       <c r="N66" s="5"/>
       <c r="P66" s="2"/>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B67" s="5"/>
       <c r="D67" s="2"/>
       <c r="F67" s="5"/>
@@ -8552,7 +8785,7 @@
       <c r="N67" s="5"/>
       <c r="P67" s="2"/>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B68" s="5"/>
       <c r="D68" s="2"/>
       <c r="F68" s="5"/>
@@ -8562,7 +8795,7 @@
       <c r="N68" s="5"/>
       <c r="P68" s="2"/>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B69" s="5"/>
       <c r="D69" s="2"/>
       <c r="F69" s="5"/>
@@ -8572,7 +8805,7 @@
       <c r="N69" s="5"/>
       <c r="P69" s="2"/>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B70" s="5"/>
       <c r="D70" s="2"/>
       <c r="F70" s="5"/>
@@ -8582,7 +8815,7 @@
       <c r="N70" s="5"/>
       <c r="P70" s="2"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B71" s="5"/>
       <c r="D71" s="2"/>
       <c r="F71" s="5"/>
@@ -8592,7 +8825,7 @@
       <c r="N71" s="5"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B72" s="5"/>
       <c r="D72" s="2"/>
       <c r="F72" s="5"/>
@@ -8602,7 +8835,7 @@
       <c r="N72" s="5"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B73" s="5"/>
       <c r="D73" s="2"/>
       <c r="F73" s="5"/>
@@ -8612,7 +8845,7 @@
       <c r="N73" s="5"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B74" s="5"/>
       <c r="D74" s="2"/>
       <c r="F74" s="5"/>
@@ -8622,7 +8855,7 @@
       <c r="N74" s="5"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B75" s="5"/>
       <c r="D75" s="2"/>
       <c r="F75" s="5"/>
@@ -8632,7 +8865,7 @@
       <c r="N75" s="5"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B76" s="5"/>
       <c r="D76" s="2"/>
       <c r="F76" s="5"/>
@@ -8642,7 +8875,7 @@
       <c r="N76" s="5"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B77" s="5"/>
       <c r="D77" s="2"/>
       <c r="F77" s="5"/>
@@ -8652,7 +8885,7 @@
       <c r="N77" s="5"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B78" s="5"/>
       <c r="D78" s="2"/>
       <c r="F78" s="5"/>
@@ -8662,7 +8895,7 @@
       <c r="N78" s="5"/>
       <c r="P78" s="2"/>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B79" s="5"/>
       <c r="D79" s="2"/>
       <c r="F79" s="5"/>
@@ -8672,7 +8905,7 @@
       <c r="N79" s="5"/>
       <c r="P79" s="2"/>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B80" s="5"/>
       <c r="D80" s="2"/>
       <c r="F80" s="5"/>
@@ -8682,7 +8915,7 @@
       <c r="N80" s="5"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B81" s="5"/>
       <c r="D81" s="2"/>
       <c r="F81" s="5"/>
@@ -8692,7 +8925,7 @@
       <c r="N81" s="5"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B82" s="5"/>
       <c r="D82" s="2"/>
       <c r="F82" s="5"/>
@@ -8702,7 +8935,7 @@
       <c r="N82" s="5"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B83" s="5"/>
       <c r="D83" s="2"/>
       <c r="F83" s="5"/>
@@ -8712,7 +8945,7 @@
       <c r="N83" s="5"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B84" s="5"/>
       <c r="D84" s="2"/>
       <c r="F84" s="5"/>
@@ -8722,7 +8955,7 @@
       <c r="N84" s="5"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B85" s="5"/>
       <c r="D85" s="2"/>
       <c r="F85" s="5"/>
@@ -8732,7 +8965,7 @@
       <c r="N85" s="5"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B86" s="5"/>
       <c r="D86" s="2"/>
       <c r="F86" s="5"/>
@@ -8742,7 +8975,7 @@
       <c r="N86" s="5"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B87" s="5"/>
       <c r="D87" s="2"/>
       <c r="F87" s="5"/>
@@ -8752,7 +8985,7 @@
       <c r="N87" s="5"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B88" s="5"/>
       <c r="D88" s="2"/>
       <c r="F88" s="5"/>
@@ -8762,7 +8995,7 @@
       <c r="N88" s="5"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B89" s="5"/>
       <c r="D89" s="2"/>
       <c r="F89" s="5"/>
@@ -8772,7 +9005,7 @@
       <c r="N89" s="5"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B90" s="5"/>
       <c r="D90" s="2"/>
       <c r="F90" s="5"/>
@@ -8782,7 +9015,7 @@
       <c r="N90" s="5"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B91" s="5"/>
       <c r="D91" s="2"/>
       <c r="F91" s="5"/>
@@ -8792,7 +9025,7 @@
       <c r="N91" s="5"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B92" s="5"/>
       <c r="D92" s="2"/>
       <c r="F92" s="5"/>
@@ -8802,7 +9035,7 @@
       <c r="N92" s="5"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B93" s="5"/>
       <c r="D93" s="2"/>
       <c r="F93" s="5"/>
@@ -8812,7 +9045,7 @@
       <c r="N93" s="5"/>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B94" s="5"/>
       <c r="D94" s="2"/>
       <c r="F94" s="5"/>
@@ -8822,7 +9055,7 @@
       <c r="N94" s="5"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B95" s="5"/>
       <c r="D95" s="2"/>
       <c r="F95" s="5"/>
@@ -8832,7 +9065,7 @@
       <c r="N95" s="5"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B96" s="5"/>
       <c r="D96" s="2"/>
       <c r="F96" s="5"/>
@@ -8842,7 +9075,7 @@
       <c r="N96" s="5"/>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="4"/>
@@ -8860,7 +9093,7 @@
       <c r="O97" s="4"/>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="4"/>
@@ -8876,7 +9109,7 @@
       <c r="O98" s="10"/>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B99" s="5"/>
       <c r="D99" s="2"/>
       <c r="F99" s="5"/>
@@ -8888,7 +9121,7 @@
       <c r="N99" s="5"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B100" s="5"/>
       <c r="D100" s="2"/>
       <c r="F100" s="5"/>
@@ -8900,7 +9133,7 @@
       <c r="N100" s="5"/>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B101" s="5"/>
       <c r="D101" s="2"/>
       <c r="F101" s="5"/>
@@ -8912,7 +9145,7 @@
       <c r="N101" s="5"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B102" s="5"/>
       <c r="D102" s="2"/>
       <c r="F102" s="5"/>
@@ -8924,7 +9157,7 @@
       <c r="N102" s="5"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B103" s="5"/>
       <c r="D103" s="2"/>
       <c r="F103" s="5"/>
@@ -8936,7 +9169,7 @@
       <c r="N103" s="5"/>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B104" s="5"/>
       <c r="D104" s="2"/>
       <c r="F104" s="5"/>
@@ -8948,7 +9181,7 @@
       <c r="N104" s="5"/>
       <c r="P104" s="2"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B105" s="5"/>
       <c r="D105" s="2"/>
       <c r="F105" s="5"/>
@@ -8960,7 +9193,7 @@
       <c r="N105" s="5"/>
       <c r="P105" s="2"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B106" s="5"/>
       <c r="D106" s="2"/>
       <c r="F106" s="5"/>
@@ -8971,7 +9204,7 @@
       <c r="N106" s="5"/>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B107" s="5"/>
       <c r="D107" s="2"/>
       <c r="F107" s="5"/>
@@ -8981,7 +9214,7 @@
       <c r="N107" s="5"/>
       <c r="P107" s="2"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B108" s="5"/>
       <c r="D108" s="2"/>
       <c r="F108" s="5"/>
@@ -8991,7 +9224,7 @@
       <c r="N108" s="5"/>
       <c r="P108" s="2"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B109" s="5"/>
       <c r="D109" s="2"/>
       <c r="F109" s="5"/>
@@ -9001,7 +9234,7 @@
       <c r="N109" s="5"/>
       <c r="P109" s="2"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B110" s="5"/>
       <c r="D110" s="2"/>
       <c r="F110" s="5"/>
@@ -9011,7 +9244,7 @@
       <c r="N110" s="5"/>
       <c r="P110" s="2"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B111" s="5"/>
       <c r="D111" s="2"/>
       <c r="F111" s="5"/>
@@ -9021,7 +9254,7 @@
       <c r="N111" s="5"/>
       <c r="P111" s="2"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B112" s="5"/>
       <c r="D112" s="2"/>
       <c r="F112" s="5"/>
@@ -9031,7 +9264,7 @@
       <c r="N112" s="5"/>
       <c r="P112" s="2"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B113" s="5"/>
       <c r="D113" s="2"/>
       <c r="F113" s="5"/>
@@ -9041,7 +9274,7 @@
       <c r="N113" s="5"/>
       <c r="P113" s="2"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B114" s="5"/>
       <c r="D114" s="2"/>
       <c r="F114" s="5"/>
@@ -9051,7 +9284,7 @@
       <c r="N114" s="5"/>
       <c r="P114" s="2"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B115" s="5"/>
       <c r="D115" s="2"/>
       <c r="F115" s="5"/>
@@ -9061,7 +9294,7 @@
       <c r="N115" s="5"/>
       <c r="P115" s="2"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B116" s="5"/>
       <c r="D116" s="2"/>
       <c r="F116" s="5"/>
@@ -9071,7 +9304,7 @@
       <c r="N116" s="5"/>
       <c r="P116" s="2"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B117" s="5"/>
       <c r="D117" s="2"/>
       <c r="F117" s="5"/>
@@ -9081,7 +9314,7 @@
       <c r="N117" s="5"/>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B118" s="5"/>
       <c r="D118" s="2"/>
       <c r="F118" s="5"/>
@@ -9091,7 +9324,7 @@
       <c r="N118" s="5"/>
       <c r="P118" s="2"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B119" s="5"/>
       <c r="D119" s="2"/>
       <c r="F119" s="5"/>
@@ -9101,7 +9334,7 @@
       <c r="N119" s="5"/>
       <c r="P119" s="2"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B120" s="5"/>
       <c r="D120" s="2"/>
       <c r="F120" s="5"/>
@@ -9111,7 +9344,7 @@
       <c r="N120" s="5"/>
       <c r="P120" s="2"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B121" s="5"/>
       <c r="D121" s="2"/>
       <c r="F121" s="5"/>
@@ -9121,7 +9354,7 @@
       <c r="N121" s="5"/>
       <c r="P121" s="2"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B122" s="5"/>
       <c r="D122" s="2"/>
       <c r="F122" s="5"/>
@@ -9131,7 +9364,7 @@
       <c r="N122" s="5"/>
       <c r="P122" s="2"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B123" s="5"/>
       <c r="D123" s="2"/>
       <c r="F123" s="5"/>
@@ -9141,7 +9374,7 @@
       <c r="N123" s="5"/>
       <c r="P123" s="2"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B124" s="5"/>
       <c r="D124" s="2"/>
       <c r="F124" s="5"/>
@@ -9151,7 +9384,7 @@
       <c r="N124" s="5"/>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B125" s="5"/>
       <c r="D125" s="2"/>
       <c r="F125" s="5"/>
@@ -9161,7 +9394,7 @@
       <c r="N125" s="5"/>
       <c r="P125" s="2"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B126" s="5"/>
       <c r="D126" s="2"/>
       <c r="F126" s="5"/>
@@ -9171,7 +9404,7 @@
       <c r="N126" s="5"/>
       <c r="P126" s="2"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B127" s="5"/>
       <c r="D127" s="2"/>
       <c r="F127" s="5"/>
@@ -9181,7 +9414,7 @@
       <c r="N127" s="5"/>
       <c r="P127" s="2"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B128" s="5"/>
       <c r="D128" s="2"/>
       <c r="F128" s="5"/>
@@ -9191,7 +9424,7 @@
       <c r="N128" s="5"/>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B129" s="5"/>
       <c r="D129" s="2"/>
       <c r="F129" s="5"/>
@@ -9201,7 +9434,7 @@
       <c r="N129" s="5"/>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B130" s="5"/>
       <c r="D130" s="2"/>
       <c r="F130" s="5"/>
@@ -9211,7 +9444,7 @@
       <c r="N130" s="5"/>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B131" s="5"/>
       <c r="D131" s="2"/>
       <c r="F131" s="5"/>
@@ -9221,7 +9454,7 @@
       <c r="N131" s="5"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B132" s="5"/>
       <c r="D132" s="2"/>
       <c r="F132" s="5"/>
@@ -9231,7 +9464,7 @@
       <c r="N132" s="5"/>
       <c r="P132" s="2"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B133" s="5"/>
       <c r="D133" s="2"/>
       <c r="F133" s="5"/>
@@ -9241,7 +9474,7 @@
       <c r="N133" s="5"/>
       <c r="P133" s="2"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B134" s="5"/>
       <c r="D134" s="2"/>
       <c r="F134" s="5"/>
@@ -9251,7 +9484,7 @@
       <c r="N134" s="5"/>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B135" s="5"/>
       <c r="D135" s="2"/>
       <c r="F135" s="5"/>
@@ -9261,7 +9494,7 @@
       <c r="N135" s="5"/>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B136" s="5"/>
       <c r="D136" s="2"/>
       <c r="F136" s="5"/>
@@ -9271,7 +9504,7 @@
       <c r="N136" s="5"/>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B137" s="5"/>
       <c r="D137" s="2"/>
       <c r="F137" s="5"/>
@@ -9281,7 +9514,7 @@
       <c r="N137" s="5"/>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B138" s="5"/>
       <c r="D138" s="2"/>
       <c r="F138" s="5"/>
@@ -9291,7 +9524,7 @@
       <c r="N138" s="5"/>
       <c r="P138" s="2"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B139" s="5"/>
       <c r="D139" s="2"/>
       <c r="F139" s="5"/>
@@ -9301,7 +9534,7 @@
       <c r="N139" s="5"/>
       <c r="P139" s="2"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B140" s="5"/>
       <c r="D140" s="2"/>
       <c r="F140" s="5"/>
@@ -9311,7 +9544,7 @@
       <c r="N140" s="5"/>
       <c r="P140" s="2"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B141" s="5"/>
       <c r="D141" s="2"/>
       <c r="F141" s="5"/>
@@ -9321,7 +9554,7 @@
       <c r="N141" s="5"/>
       <c r="P141" s="2"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B142" s="5"/>
       <c r="D142" s="2"/>
       <c r="F142" s="5"/>
@@ -9331,7 +9564,7 @@
       <c r="N142" s="5"/>
       <c r="P142" s="2"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B143" s="5"/>
       <c r="D143" s="2"/>
       <c r="F143" s="5"/>
@@ -9341,7 +9574,7 @@
       <c r="N143" s="5"/>
       <c r="P143" s="2"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B144" s="5"/>
       <c r="D144" s="2"/>
       <c r="F144" s="5"/>
@@ -9351,7 +9584,7 @@
       <c r="N144" s="5"/>
       <c r="P144" s="2"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B145" s="5"/>
       <c r="D145" s="2"/>
       <c r="F145" s="5"/>
@@ -9361,7 +9594,7 @@
       <c r="N145" s="5"/>
       <c r="P145" s="2"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B146" s="5"/>
       <c r="D146" s="2"/>
       <c r="F146" s="5"/>
@@ -9371,7 +9604,7 @@
       <c r="N146" s="5"/>
       <c r="P146" s="2"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B147" s="5"/>
       <c r="D147" s="2"/>
       <c r="F147" s="5"/>
@@ -9381,7 +9614,7 @@
       <c r="N147" s="5"/>
       <c r="P147" s="2"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B148" s="5"/>
       <c r="D148" s="2"/>
       <c r="F148" s="5"/>
@@ -9391,7 +9624,7 @@
       <c r="N148" s="5"/>
       <c r="P148" s="2"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B149" s="5"/>
       <c r="D149" s="2"/>
       <c r="F149" s="5"/>
@@ -9401,7 +9634,7 @@
       <c r="N149" s="5"/>
       <c r="P149" s="2"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B150" s="5"/>
       <c r="D150" s="2"/>
       <c r="F150" s="5"/>
@@ -9411,7 +9644,7 @@
       <c r="N150" s="5"/>
       <c r="P150" s="2"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B151" s="5"/>
       <c r="D151" s="2"/>
       <c r="F151" s="5"/>
@@ -9421,7 +9654,7 @@
       <c r="N151" s="5"/>
       <c r="P151" s="2"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B152" s="5"/>
       <c r="D152" s="2"/>
       <c r="F152" s="5"/>
@@ -9431,7 +9664,7 @@
       <c r="N152" s="5"/>
       <c r="P152" s="2"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B153" s="5"/>
       <c r="D153" s="2"/>
       <c r="F153" s="5"/>
@@ -9441,7 +9674,7 @@
       <c r="N153" s="5"/>
       <c r="P153" s="2"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B154" s="5"/>
       <c r="D154" s="2"/>
       <c r="F154" s="5"/>
@@ -9451,7 +9684,7 @@
       <c r="N154" s="5"/>
       <c r="P154" s="2"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B155" s="5"/>
       <c r="D155" s="2"/>
       <c r="F155" s="5"/>
@@ -9461,7 +9694,7 @@
       <c r="N155" s="5"/>
       <c r="P155" s="2"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B156" s="5"/>
       <c r="D156" s="2"/>
       <c r="F156" s="5"/>
@@ -9471,7 +9704,7 @@
       <c r="N156" s="5"/>
       <c r="P156" s="2"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B157" s="5"/>
       <c r="D157" s="2"/>
       <c r="F157" s="5"/>
@@ -9481,7 +9714,7 @@
       <c r="N157" s="5"/>
       <c r="P157" s="2"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B158" s="5"/>
       <c r="D158" s="2"/>
       <c r="F158" s="5"/>
@@ -9491,7 +9724,7 @@
       <c r="N158" s="5"/>
       <c r="P158" s="2"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B159" s="5"/>
       <c r="D159" s="2"/>
       <c r="F159" s="5"/>
@@ -9501,7 +9734,7 @@
       <c r="N159" s="5"/>
       <c r="P159" s="2"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B160" s="5"/>
       <c r="D160" s="2"/>
       <c r="F160" s="5"/>
@@ -9511,7 +9744,7 @@
       <c r="N160" s="5"/>
       <c r="P160" s="2"/>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B161" s="5"/>
       <c r="D161" s="2"/>
       <c r="F161" s="5"/>
@@ -9521,7 +9754,7 @@
       <c r="N161" s="5"/>
       <c r="P161" s="2"/>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B162" s="5"/>
       <c r="D162" s="2"/>
       <c r="F162" s="5"/>
@@ -9531,7 +9764,7 @@
       <c r="N162" s="5"/>
       <c r="P162" s="2"/>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B163" s="5"/>
       <c r="D163" s="2"/>
       <c r="F163" s="5"/>
@@ -9541,7 +9774,7 @@
       <c r="N163" s="5"/>
       <c r="P163" s="2"/>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B164" s="5"/>
       <c r="D164" s="2"/>
       <c r="F164" s="5"/>
@@ -9551,7 +9784,7 @@
       <c r="N164" s="5"/>
       <c r="P164" s="2"/>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B165" s="5"/>
       <c r="D165" s="2"/>
       <c r="F165" s="5"/>
@@ -9561,7 +9794,7 @@
       <c r="N165" s="5"/>
       <c r="P165" s="2"/>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B166" s="5"/>
       <c r="D166" s="2"/>
       <c r="F166" s="5"/>
@@ -9571,7 +9804,7 @@
       <c r="N166" s="5"/>
       <c r="P166" s="2"/>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B167" s="5"/>
       <c r="D167" s="2"/>
       <c r="F167" s="5"/>
@@ -9581,7 +9814,7 @@
       <c r="N167" s="5"/>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B168" s="5"/>
       <c r="D168" s="2"/>
       <c r="F168" s="5"/>
@@ -9591,7 +9824,7 @@
       <c r="N168" s="5"/>
       <c r="P168" s="2"/>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B169" s="5"/>
       <c r="D169" s="2"/>
       <c r="F169" s="5"/>
@@ -9601,7 +9834,7 @@
       <c r="N169" s="5"/>
       <c r="P169" s="2"/>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B170" s="5"/>
       <c r="D170" s="2"/>
       <c r="F170" s="5"/>
@@ -9611,7 +9844,7 @@
       <c r="N170" s="5"/>
       <c r="P170" s="2"/>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B171" s="5"/>
       <c r="D171" s="2"/>
       <c r="F171" s="5"/>
@@ -9621,7 +9854,7 @@
       <c r="N171" s="5"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B172" s="5"/>
       <c r="D172" s="2"/>
       <c r="F172" s="5"/>
@@ -9631,7 +9864,7 @@
       <c r="N172" s="5"/>
       <c r="P172" s="2"/>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B173" s="5"/>
       <c r="D173" s="2"/>
       <c r="F173" s="5"/>
@@ -9641,7 +9874,7 @@
       <c r="N173" s="5"/>
       <c r="P173" s="2"/>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B174" s="5"/>
       <c r="D174" s="2"/>
       <c r="F174" s="5"/>
@@ -9651,7 +9884,7 @@
       <c r="N174" s="5"/>
       <c r="P174" s="2"/>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B175" s="5"/>
       <c r="D175" s="2"/>
       <c r="F175" s="5"/>
@@ -9661,7 +9894,7 @@
       <c r="N175" s="5"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B176" s="5"/>
       <c r="D176" s="2"/>
       <c r="F176" s="5"/>
@@ -9671,7 +9904,7 @@
       <c r="N176" s="5"/>
       <c r="P176" s="2"/>
     </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B177" s="5"/>
       <c r="D177" s="2"/>
       <c r="F177" s="5"/>
@@ -9681,7 +9914,7 @@
       <c r="N177" s="5"/>
       <c r="P177" s="2"/>
     </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B178" s="5"/>
       <c r="D178" s="2"/>
       <c r="F178" s="5"/>
@@ -9691,7 +9924,7 @@
       <c r="N178" s="5"/>
       <c r="P178" s="2"/>
     </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B179" s="5"/>
       <c r="D179" s="2"/>
       <c r="F179" s="5"/>
@@ -9701,7 +9934,7 @@
       <c r="N179" s="5"/>
       <c r="P179" s="2"/>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B180" s="5"/>
       <c r="D180" s="2"/>
       <c r="F180" s="5"/>
@@ -9711,7 +9944,7 @@
       <c r="N180" s="5"/>
       <c r="P180" s="2"/>
     </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B181" s="5"/>
       <c r="D181" s="2"/>
       <c r="F181" s="5"/>
@@ -9721,7 +9954,7 @@
       <c r="N181" s="5"/>
       <c r="P181" s="2"/>
     </row>
-    <row r="182" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B182" s="5"/>
       <c r="D182" s="2"/>
       <c r="F182" s="5"/>
@@ -9731,7 +9964,7 @@
       <c r="N182" s="5"/>
       <c r="P182" s="2"/>
     </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B183" s="5"/>
       <c r="D183" s="2"/>
       <c r="F183" s="5"/>
@@ -9741,7 +9974,7 @@
       <c r="N183" s="5"/>
       <c r="P183" s="2"/>
     </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B184" s="5"/>
       <c r="D184" s="2"/>
       <c r="F184" s="5"/>
@@ -9751,7 +9984,7 @@
       <c r="N184" s="5"/>
       <c r="P184" s="2"/>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B185" s="5"/>
       <c r="D185" s="2"/>
       <c r="F185" s="5"/>
@@ -9761,7 +9994,7 @@
       <c r="N185" s="5"/>
       <c r="P185" s="2"/>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B186" s="5"/>
       <c r="D186" s="2"/>
       <c r="F186" s="5"/>
@@ -9771,7 +10004,7 @@
       <c r="N186" s="5"/>
       <c r="P186" s="2"/>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B187" s="5"/>
       <c r="D187" s="2"/>
       <c r="F187" s="5"/>
@@ -9781,7 +10014,7 @@
       <c r="N187" s="5"/>
       <c r="P187" s="2"/>
     </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B188" s="5"/>
       <c r="D188" s="2"/>
       <c r="F188" s="5"/>
@@ -9791,7 +10024,7 @@
       <c r="N188" s="5"/>
       <c r="P188" s="2"/>
     </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B189" s="5"/>
       <c r="D189" s="2"/>
       <c r="F189" s="5"/>
@@ -9801,7 +10034,7 @@
       <c r="N189" s="5"/>
       <c r="P189" s="2"/>
     </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B190" s="5"/>
       <c r="D190" s="2"/>
       <c r="F190" s="5"/>
@@ -9811,7 +10044,7 @@
       <c r="N190" s="5"/>
       <c r="P190" s="2"/>
     </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B191" s="5"/>
       <c r="D191" s="2"/>
       <c r="F191" s="5"/>
@@ -9821,7 +10054,7 @@
       <c r="N191" s="5"/>
       <c r="P191" s="2"/>
     </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B192" s="5"/>
       <c r="D192" s="2"/>
       <c r="F192" s="5"/>
@@ -9831,7 +10064,7 @@
       <c r="N192" s="5"/>
       <c r="P192" s="2"/>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B193" s="5"/>
       <c r="D193" s="2"/>
       <c r="F193" s="5"/>
@@ -9841,7 +10074,7 @@
       <c r="N193" s="5"/>
       <c r="P193" s="2"/>
     </row>
-    <row r="194" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B194" s="5"/>
       <c r="D194" s="2"/>
       <c r="F194" s="5"/>
@@ -9851,7 +10084,7 @@
       <c r="N194" s="5"/>
       <c r="P194" s="2"/>
     </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B195" s="5"/>
       <c r="D195" s="2"/>
       <c r="F195" s="5"/>
@@ -9861,7 +10094,7 @@
       <c r="N195" s="5"/>
       <c r="P195" s="2"/>
     </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B196" s="5"/>
       <c r="D196" s="2"/>
       <c r="F196" s="5"/>
@@ -9871,7 +10104,7 @@
       <c r="N196" s="5"/>
       <c r="P196" s="2"/>
     </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B197" s="5"/>
       <c r="D197" s="2"/>
       <c r="F197" s="5"/>
@@ -9881,7 +10114,7 @@
       <c r="N197" s="5"/>
       <c r="P197" s="2"/>
     </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B198" s="5"/>
       <c r="D198" s="2"/>
       <c r="F198" s="5"/>
@@ -9891,7 +10124,7 @@
       <c r="N198" s="5"/>
       <c r="P198" s="2"/>
     </row>
-    <row r="199" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B199" s="5"/>
       <c r="D199" s="2"/>
       <c r="F199" s="5"/>
@@ -9901,7 +10134,7 @@
       <c r="N199" s="5"/>
       <c r="P199" s="2"/>
     </row>
-    <row r="200" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B200" s="5"/>
       <c r="D200" s="2"/>
       <c r="F200" s="5"/>
@@ -9911,7 +10144,7 @@
       <c r="N200" s="5"/>
       <c r="P200" s="2"/>
     </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B201" s="5"/>
       <c r="D201" s="2"/>
       <c r="F201" s="5"/>
@@ -9921,7 +10154,7 @@
       <c r="N201" s="5"/>
       <c r="P201" s="2"/>
     </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B202" s="5"/>
       <c r="D202" s="2"/>
       <c r="F202" s="5"/>
@@ -9931,7 +10164,7 @@
       <c r="N202" s="5"/>
       <c r="P202" s="2"/>
     </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B203" s="5"/>
       <c r="D203" s="2"/>
       <c r="F203" s="5"/>
@@ -9941,7 +10174,7 @@
       <c r="N203" s="5"/>
       <c r="P203" s="2"/>
     </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B204" s="5"/>
       <c r="D204" s="2"/>
       <c r="F204" s="5"/>
@@ -9951,7 +10184,7 @@
       <c r="N204" s="5"/>
       <c r="P204" s="2"/>
     </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B205" s="5"/>
       <c r="D205" s="2"/>
       <c r="F205" s="5"/>
@@ -9961,7 +10194,7 @@
       <c r="N205" s="5"/>
       <c r="P205" s="2"/>
     </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B206" s="5"/>
       <c r="D206" s="2"/>
       <c r="F206" s="5"/>
@@ -9971,7 +10204,7 @@
       <c r="N206" s="5"/>
       <c r="P206" s="2"/>
     </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B207" s="5"/>
       <c r="D207" s="2"/>
       <c r="F207" s="5"/>
@@ -9981,7 +10214,7 @@
       <c r="N207" s="5"/>
       <c r="P207" s="2"/>
     </row>
-    <row r="208" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B208" s="5"/>
       <c r="D208" s="2"/>
       <c r="F208" s="5"/>
@@ -9991,7 +10224,7 @@
       <c r="N208" s="5"/>
       <c r="P208" s="2"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B209" s="5"/>
       <c r="D209" s="2"/>
       <c r="F209" s="5"/>
@@ -10001,7 +10234,7 @@
       <c r="N209" s="5"/>
       <c r="P209" s="2"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B210" s="5"/>
       <c r="D210" s="2"/>
       <c r="F210" s="5"/>
@@ -10011,7 +10244,7 @@
       <c r="N210" s="5"/>
       <c r="P210" s="2"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B211" s="5"/>
       <c r="D211" s="2"/>
       <c r="F211" s="5"/>
@@ -10021,7 +10254,7 @@
       <c r="N211" s="5"/>
       <c r="P211" s="2"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B212" s="5"/>
       <c r="D212" s="2"/>
       <c r="F212" s="5"/>
@@ -10031,7 +10264,7 @@
       <c r="N212" s="5"/>
       <c r="P212" s="2"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A213" s="7"/>
       <c r="B213" s="8"/>
       <c r="C213" s="7"/>

--- a/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
+++ b/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\md\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E701AAE-AC0F-4FF7-868B-CE66518D278B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86E24CA-40C0-4D27-8285-102B9CD3FB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>분류 공정 시나리오</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,6 +351,165 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>645459</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9444</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>94705</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="직선 화살표 연결선 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEA6618-DCC9-41F1-9588-652F9817F527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1317812" y="51824964"/>
+          <a:ext cx="2053397" cy="265035"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>17827</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>218916</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="162" name="직선 화살표 연결선 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96762556-99A6-462B-A81A-1B14C0E86636}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4078941" y="50659552"/>
+          <a:ext cx="5351827" cy="658188"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>430306</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>125084</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="직선 화살표 연결선 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B693C4-909D-4382-A8A7-27200138EE67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5809130" y="49825835"/>
+          <a:ext cx="3603813" cy="277484"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>664029</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -5168,14 +5327,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>663388</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:colOff>510988</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>118236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>6163</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>539563</xdr:colOff>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5191,8 +5350,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3345628" y="14260956"/>
-          <a:ext cx="1354455" cy="750444"/>
+          <a:off x="3254188" y="14520036"/>
+          <a:ext cx="1400175" cy="773304"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7786,6 +7945,678 @@
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>664285</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7060</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>127970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="직사각형 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D0EF58-C8FC-423C-A30E-57D3DE357AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3353697" y="48821788"/>
+          <a:ext cx="1359834" cy="387947"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>윈폼에서 정보 전달 받음</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>2240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5154</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>153424</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="직선 화살표 연결선 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F093797A-2A3C-499B-8627-9017BFB6E169}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1353671" y="49084005"/>
+          <a:ext cx="2013248" cy="151184"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>298525</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>161043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>367105</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>195878</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="TextBox 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82877C64-EBB1-4D60-B07B-092B1F7FDB75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1643231" y="49018690"/>
+          <a:ext cx="1413286" cy="258953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&lt;CMD=STOP&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>286871</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>286871</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>127746</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="TextBox 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC646AD-DEB9-4AD0-AA71-0F0FE3BB7BCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4320989" y="49547929"/>
+          <a:ext cx="2017058" cy="558052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>PI2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t> 명령 전송</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>&lt;CMD=BELT_STOP&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>492659</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>40917</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="TextBox 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63FB412-5FF4-471E-B53E-BC575A974286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7404847" y="50650588"/>
+          <a:ext cx="1828400" cy="265035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>&lt;LINE_STATE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>=STOP&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>149710</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="직사각형 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2CE75F5-6F4C-4764-8E11-05627605D854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3361765" y="51529129"/>
+          <a:ext cx="1352326" cy="391757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>윈폼에 정보 전송</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>322731</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>389406</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>87966</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="TextBox 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C35246E8-985C-4907-891B-8BD3F8090F84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1667437" y="51815999"/>
+          <a:ext cx="1411381" cy="267261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&lt;CMD=EMERGENCY&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>48826</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>147674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="TextBox 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC1B6D80-035B-4F50-BBEF-FAEF6AA3B2AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11519647" y="49556894"/>
+          <a:ext cx="3320944" cy="1465486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>라인 긴급 정지 버튼 클릭 시 윈폼에서 정보를 받아</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t> PI2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>에게 명령 전송 후 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>윈폼 화면에 라인 긴급 정지 그림 표시한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>. </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>29091</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="오른쪽 중괄호 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A251F96F-70D9-4EC9-B5EA-28ECE0403E81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10766612" y="48732141"/>
+          <a:ext cx="692479" cy="3630706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 53448"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8057,10 +8888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P213"/>
+  <dimension ref="A2:P236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W218" sqref="W218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8416,7 +9247,7 @@
       <c r="N32" s="5"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="5"/>
       <c r="D33" s="2"/>
       <c r="E33" s="4"/>
@@ -10255,7 +11086,8 @@
       <c r="P211" s="2"/>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B212" s="5"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="10"/>
       <c r="D212" s="2"/>
       <c r="F212" s="5"/>
       <c r="H212" s="2"/>
@@ -10265,25 +11097,273 @@
       <c r="P212" s="2"/>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A213" s="7"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="7"/>
-      <c r="D213" s="9"/>
-      <c r="E213" s="7"/>
-      <c r="F213" s="8"/>
-      <c r="G213" s="7"/>
-      <c r="H213" s="9"/>
-      <c r="I213" s="7"/>
-      <c r="J213" s="8"/>
-      <c r="K213" s="7"/>
-      <c r="L213" s="9"/>
-      <c r="M213" s="7"/>
-      <c r="N213" s="8"/>
-      <c r="O213" s="7"/>
-      <c r="P213" s="9"/>
+      <c r="A213" s="4"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="4"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="11"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="4"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="4"/>
+      <c r="N213" s="5"/>
+      <c r="O213" s="10"/>
+      <c r="P213" s="2"/>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B214" s="5"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="4"/>
+      <c r="H214" s="2"/>
+      <c r="J214" s="5"/>
+      <c r="K214" s="4"/>
+      <c r="L214" s="2"/>
+      <c r="M214" s="4"/>
+      <c r="N214" s="5"/>
+      <c r="P214" s="2"/>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B215" s="5"/>
+      <c r="D215" s="2"/>
+      <c r="F215" s="5"/>
+      <c r="H215" s="2"/>
+      <c r="J215" s="5"/>
+      <c r="L215" s="2"/>
+      <c r="N215" s="5"/>
+      <c r="P215" s="2"/>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B216" s="5"/>
+      <c r="D216" s="2"/>
+      <c r="F216" s="5"/>
+      <c r="H216" s="2"/>
+      <c r="J216" s="5"/>
+      <c r="L216" s="2"/>
+      <c r="N216" s="5"/>
+      <c r="P216" s="2"/>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B217" s="5"/>
+      <c r="D217" s="2"/>
+      <c r="F217" s="5"/>
+      <c r="H217" s="2"/>
+      <c r="J217" s="5"/>
+      <c r="L217" s="2"/>
+      <c r="N217" s="5"/>
+      <c r="P217" s="2"/>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B218" s="5"/>
+      <c r="D218" s="2"/>
+      <c r="F218" s="5"/>
+      <c r="H218" s="2"/>
+      <c r="J218" s="5"/>
+      <c r="L218" s="2"/>
+      <c r="N218" s="5"/>
+      <c r="P218" s="2"/>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A219" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219" s="13"/>
+      <c r="D219" s="2"/>
+      <c r="F219" s="5"/>
+      <c r="H219" s="2"/>
+      <c r="J219" s="5"/>
+      <c r="L219" s="2"/>
+      <c r="N219" s="5"/>
+      <c r="P219" s="2"/>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A220" s="14"/>
+      <c r="B220" s="15"/>
+      <c r="D220" s="2"/>
+      <c r="F220" s="5"/>
+      <c r="H220" s="2"/>
+      <c r="J220" s="5"/>
+      <c r="L220" s="2"/>
+      <c r="N220" s="5"/>
+      <c r="P220" s="2"/>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A221" s="16"/>
+      <c r="B221" s="17"/>
+      <c r="D221" s="2"/>
+      <c r="F221" s="5"/>
+      <c r="H221" s="2"/>
+      <c r="J221" s="5"/>
+      <c r="L221" s="2"/>
+      <c r="N221" s="5"/>
+      <c r="P221" s="2"/>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B222" s="5"/>
+      <c r="D222" s="2"/>
+      <c r="F222" s="5"/>
+      <c r="H222" s="2"/>
+      <c r="J222" s="5"/>
+      <c r="L222" s="2"/>
+      <c r="N222" s="5"/>
+      <c r="P222" s="2"/>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B223" s="5"/>
+      <c r="D223" s="2"/>
+      <c r="F223" s="5"/>
+      <c r="H223" s="2"/>
+      <c r="J223" s="5"/>
+      <c r="L223" s="2"/>
+      <c r="N223" s="5"/>
+      <c r="P223" s="2"/>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B224" s="5"/>
+      <c r="D224" s="2"/>
+      <c r="F224" s="5"/>
+      <c r="H224" s="2"/>
+      <c r="J224" s="5"/>
+      <c r="L224" s="2"/>
+      <c r="N224" s="5"/>
+      <c r="P224" s="2"/>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B225" s="5"/>
+      <c r="D225" s="2"/>
+      <c r="F225" s="5"/>
+      <c r="H225" s="2"/>
+      <c r="J225" s="5"/>
+      <c r="L225" s="2"/>
+      <c r="N225" s="5"/>
+      <c r="P225" s="2"/>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B226" s="5"/>
+      <c r="D226" s="2"/>
+      <c r="F226" s="5"/>
+      <c r="H226" s="2"/>
+      <c r="J226" s="5"/>
+      <c r="L226" s="2"/>
+      <c r="N226" s="5"/>
+      <c r="P226" s="2"/>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B227" s="5"/>
+      <c r="D227" s="2"/>
+      <c r="F227" s="5"/>
+      <c r="H227" s="2"/>
+      <c r="J227" s="5"/>
+      <c r="L227" s="2"/>
+      <c r="N227" s="5"/>
+      <c r="P227" s="2"/>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B228" s="5"/>
+      <c r="D228" s="2"/>
+      <c r="F228" s="5"/>
+      <c r="H228" s="2"/>
+      <c r="J228" s="5"/>
+      <c r="L228" s="2"/>
+      <c r="N228" s="5"/>
+      <c r="P228" s="2"/>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B229" s="5"/>
+      <c r="D229" s="2"/>
+      <c r="F229" s="5"/>
+      <c r="H229" s="2"/>
+      <c r="J229" s="5"/>
+      <c r="L229" s="2"/>
+      <c r="N229" s="5"/>
+      <c r="P229" s="2"/>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B230" s="5"/>
+      <c r="D230" s="2"/>
+      <c r="F230" s="5"/>
+      <c r="H230" s="2"/>
+      <c r="J230" s="5"/>
+      <c r="L230" s="2"/>
+      <c r="N230" s="5"/>
+      <c r="P230" s="2"/>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B231" s="5"/>
+      <c r="D231" s="2"/>
+      <c r="F231" s="5"/>
+      <c r="H231" s="2"/>
+      <c r="J231" s="5"/>
+      <c r="L231" s="2"/>
+      <c r="N231" s="5"/>
+      <c r="P231" s="2"/>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B232" s="5"/>
+      <c r="D232" s="2"/>
+      <c r="F232" s="5"/>
+      <c r="H232" s="2"/>
+      <c r="J232" s="5"/>
+      <c r="L232" s="2"/>
+      <c r="N232" s="5"/>
+      <c r="P232" s="2"/>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B233" s="5"/>
+      <c r="D233" s="2"/>
+      <c r="F233" s="5"/>
+      <c r="H233" s="2"/>
+      <c r="J233" s="5"/>
+      <c r="L233" s="2"/>
+      <c r="N233" s="5"/>
+      <c r="P233" s="2"/>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B234" s="5"/>
+      <c r="D234" s="2"/>
+      <c r="F234" s="5"/>
+      <c r="H234" s="2"/>
+      <c r="J234" s="5"/>
+      <c r="L234" s="2"/>
+      <c r="N234" s="5"/>
+      <c r="P234" s="2"/>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B235" s="5"/>
+      <c r="D235" s="2"/>
+      <c r="F235" s="5"/>
+      <c r="H235" s="2"/>
+      <c r="J235" s="5"/>
+      <c r="L235" s="2"/>
+      <c r="N235" s="5"/>
+      <c r="P235" s="2"/>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A236" s="7"/>
+      <c r="B236" s="8"/>
+      <c r="C236" s="7"/>
+      <c r="D236" s="9"/>
+      <c r="E236" s="7"/>
+      <c r="F236" s="8"/>
+      <c r="G236" s="7"/>
+      <c r="H236" s="9"/>
+      <c r="I236" s="7"/>
+      <c r="J236" s="8"/>
+      <c r="K236" s="7"/>
+      <c r="L236" s="9"/>
+      <c r="M236" s="7"/>
+      <c r="N236" s="8"/>
+      <c r="O236" s="7"/>
+      <c r="P236" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A219:B221"/>
     <mergeCell ref="A28:B30"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="E4:H5"/>

--- a/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
+++ b/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\md\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86E24CA-40C0-4D27-8285-102B9CD3FB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFDC553-9611-4626-8815-8130E5AA3653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8324,15 +8324,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>206188</xdr:rowOff>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>16585</xdr:colOff>
       <xdr:row>231</xdr:row>
-      <xdr:rowOff>149710</xdr:rowOff>
+      <xdr:rowOff>194534</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8347,7 +8347,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3361765" y="51529129"/>
+          <a:off x="3370730" y="51573953"/>
           <a:ext cx="1352326" cy="391757"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11363,12 +11363,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M4:P5"/>
     <mergeCell ref="A219:B221"/>
     <mergeCell ref="A28:B30"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="E4:H5"/>
     <mergeCell ref="I4:L5"/>
-    <mergeCell ref="M4:P5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
+++ b/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\md\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\code\GitHub\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFDC553-9611-4626-8815-8130E5AA3653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="프로토콜 흐름도" sheetId="1" r:id="rId1"/>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -288,6 +287,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -309,25 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -367,7 +366,7 @@
         <xdr:cNvPr id="165" name="직선 화살표 연결선 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEA6618-DCC9-41F1-9588-652F9817F527}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AEA6618-DCC9-41F1-9588-652F9817F527}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -420,7 +419,7 @@
         <xdr:cNvPr id="162" name="직선 화살표 연결선 161">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96762556-99A6-462B-A81A-1B14C0E86636}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{96762556-99A6-462B-A81A-1B14C0E86636}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -473,7 +472,7 @@
         <xdr:cNvPr id="146" name="직선 화살표 연결선 145">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B693C4-909D-4382-A8A7-27200138EE67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11B693C4-909D-4382-A8A7-27200138EE67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -526,7 +525,7 @@
         <xdr:cNvPr id="129" name="직선 화살표 연결선 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286EAF1B-3D02-4742-9FDD-4A3E75E28597}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{286EAF1B-3D02-4742-9FDD-4A3E75E28597}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -579,7 +578,7 @@
         <xdr:cNvPr id="122" name="직선 화살표 연결선 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1211B049-D7E2-46C2-9BF5-D751A8C04F36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1211B049-D7E2-46C2-9BF5-D751A8C04F36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -632,7 +631,7 @@
         <xdr:cNvPr id="120" name="직선 화살표 연결선 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B50FA1-1BA9-455D-92AD-C4C44DE4927B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0B50FA1-1BA9-455D-92AD-C4C44DE4927B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -685,7 +684,7 @@
         <xdr:cNvPr id="97" name="직선 화살표 연결선 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36167BB-F67F-40DB-9770-311D81C7A5E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B36167BB-F67F-40DB-9770-311D81C7A5E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -738,7 +737,7 @@
         <xdr:cNvPr id="118" name="직선 화살표 연결선 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B45172-C670-4F27-9F7D-B9ABAFC31AA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70B45172-C670-4F27-9F7D-B9ABAFC31AA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -791,7 +790,7 @@
         <xdr:cNvPr id="108" name="직선 화살표 연결선 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BB8F03-B552-425A-B3B2-8480F578B59A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0BB8F03-B552-425A-B3B2-8480F578B59A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -844,7 +843,7 @@
         <xdr:cNvPr id="96" name="직선 화살표 연결선 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196A9B3A-F23E-48A6-8A90-F20F4210BF2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{196A9B3A-F23E-48A6-8A90-F20F4210BF2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -897,7 +896,7 @@
         <xdr:cNvPr id="92" name="직선 화살표 연결선 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A5F879-82B1-4A61-871C-96D179847C6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2A5F879-82B1-4A61-871C-96D179847C6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,7 +949,7 @@
         <xdr:cNvPr id="90" name="직선 화살표 연결선 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CFF935-EF21-4B23-A6F5-92B3520AD14B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45CFF935-EF21-4B23-A6F5-92B3520AD14B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1003,7 +1002,7 @@
         <xdr:cNvPr id="81" name="직선 화살표 연결선 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFFBA338-15B7-4AED-B96F-ED52CA419C88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AFFBA338-15B7-4AED-B96F-ED52CA419C88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1056,7 +1055,7 @@
         <xdr:cNvPr id="69" name="직선 화살표 연결선 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18D831D-4B5C-4983-AAA1-FBDF12F20089}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D18D831D-4B5C-4983-AAA1-FBDF12F20089}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1109,7 +1108,7 @@
         <xdr:cNvPr id="64" name="직선 화살표 연결선 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F5FB03-EC2E-4F07-8AEF-F216DDC5E1D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87F5FB03-EC2E-4F07-8AEF-F216DDC5E1D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1162,7 +1161,7 @@
         <xdr:cNvPr id="4" name="직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,7 +1234,7 @@
         <xdr:cNvPr id="7" name="직선 화살표 연결선 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1287,7 @@
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,7 +1358,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1440,7 @@
         <xdr:cNvPr id="9" name="직선 화살표 연결선 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1494,7 +1493,7 @@
         <xdr:cNvPr id="60" name="직선 화살표 연결선 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51B59BD-9275-4DB5-9682-AF328B9D3AAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E51B59BD-9275-4DB5-9682-AF328B9D3AAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1546,7 @@
         <xdr:cNvPr id="62" name="TextBox 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA460306-2564-44EA-995C-EC3465A1DEE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA460306-2564-44EA-995C-EC3465A1DEE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +1718,7 @@
         <xdr:cNvPr id="63" name="TextBox 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4190AB0-B240-4724-AE97-D9D82974252B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4190AB0-B240-4724-AE97-D9D82974252B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1866,7 +1865,7 @@
         <xdr:cNvPr id="73" name="오른쪽 중괄호 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE037442-2773-41C2-8A5C-272D77D11B83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE037442-2773-41C2-8A5C-272D77D11B83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1924,7 +1923,7 @@
         <xdr:cNvPr id="74" name="TextBox 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C9E285B-24D1-4FC6-A3EF-077D224D6F29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C9E285B-24D1-4FC6-A3EF-077D224D6F29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2020,7 +2019,7 @@
         <xdr:cNvPr id="75" name="TextBox 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184ACB6F-F14E-4B57-91D2-BF07F39113A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{184ACB6F-F14E-4B57-91D2-BF07F39113A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2106,7 +2105,7 @@
         <xdr:cNvPr id="77" name="직선 화살표 연결선 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE90A3B7-C9D8-43A7-8A13-7F87E157A04C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE90A3B7-C9D8-43A7-8A13-7F87E157A04C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2159,7 +2158,7 @@
         <xdr:cNvPr id="84" name="오른쪽 중괄호 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD221B66-CB0E-4BC0-B4F8-A67B43E8A2BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD221B66-CB0E-4BC0-B4F8-A67B43E8A2BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2219,7 @@
         <xdr:cNvPr id="85" name="TextBox 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82ED3D4F-D588-4F76-BB1E-ED1A5CFAEB33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82ED3D4F-D588-4F76-BB1E-ED1A5CFAEB33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,7 +2391,7 @@
         <xdr:cNvPr id="89" name="TextBox 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D95ABD-0100-4D16-B62B-660EC423F5F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8D95ABD-0100-4D16-B62B-660EC423F5F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2469,7 @@
         <xdr:cNvPr id="94" name="TextBox 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8D882AF-2EF0-4C58-BFF2-C92CF2C22A3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8D882AF-2EF0-4C58-BFF2-C92CF2C22A3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,7 +2547,7 @@
         <xdr:cNvPr id="95" name="TextBox 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3609EB97-1BF6-489D-81E9-6CF91A32C243}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3609EB97-1BF6-489D-81E9-6CF91A32C243}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2687,7 +2686,7 @@
         <xdr:cNvPr id="98" name="오른쪽 중괄호 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F678227-78CB-44B1-8B92-034B939C7E2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F678227-78CB-44B1-8B92-034B939C7E2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2748,7 +2747,7 @@
         <xdr:cNvPr id="99" name="TextBox 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{355AA1B4-A6F4-4AA8-BFE8-9A7B8E6A56E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{355AA1B4-A6F4-4AA8-BFE8-9A7B8E6A56E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2861,7 @@
         <xdr:cNvPr id="101" name="그림 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628FAC16-3F02-41F8-8D70-5E83719138B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{628FAC16-3F02-41F8-8D70-5E83719138B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2912,7 +2911,7 @@
         <xdr:cNvPr id="102" name="오른쪽 중괄호 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8499F95D-E19E-414C-A0A7-39EE787A9D68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8499F95D-E19E-414C-A0A7-39EE787A9D68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2973,7 +2972,7 @@
         <xdr:cNvPr id="103" name="TextBox 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C5520F-09CC-478D-BB08-AF1C1CAABEA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0C5520F-09CC-478D-BB08-AF1C1CAABEA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3092,7 +3091,7 @@
         <xdr:cNvPr id="105" name="TextBox 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BEA2385-C314-4350-9203-B2BB8A30876C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BEA2385-C314-4350-9203-B2BB8A30876C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3184,7 +3183,7 @@
         <xdr:cNvPr id="106" name="TextBox 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466773AA-2FF0-4131-BE9A-218CFB091BF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{466773AA-2FF0-4131-BE9A-218CFB091BF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3303,7 +3302,7 @@
         <xdr:cNvPr id="109" name="TextBox 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF964F8B-1E9A-4639-A6B5-BAF0CD16E769}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF964F8B-1E9A-4639-A6B5-BAF0CD16E769}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3401,7 +3400,7 @@
         <xdr:cNvPr id="110" name="TextBox 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A909DB6E-F4FF-4C30-A81D-5417D259EBA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A909DB6E-F4FF-4C30-A81D-5417D259EBA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3583,7 +3582,7 @@
         <xdr:cNvPr id="111" name="직사각형 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E121371D-1632-4687-9834-883428F40DD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E121371D-1632-4687-9834-883428F40DD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3685,7 +3684,7 @@
         <xdr:cNvPr id="112" name="직선 화살표 연결선 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041EFB2E-ACEE-44DA-9706-1F6DDF3F7C15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{041EFB2E-ACEE-44DA-9706-1F6DDF3F7C15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3738,7 +3737,7 @@
         <xdr:cNvPr id="115" name="직사각형 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E901CB-17BB-4930-B252-337D85FAE6B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82E901CB-17BB-4930-B252-337D85FAE6B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3832,7 +3831,7 @@
         <xdr:cNvPr id="116" name="TextBox 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BE5480-4ED2-4476-9985-536A4E14FFA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3BE5480-4ED2-4476-9985-536A4E14FFA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4116,7 +4115,7 @@
         <xdr:cNvPr id="117" name="TextBox 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EB0747F-83E6-47AC-94B4-CC4778241751}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6EB0747F-83E6-47AC-94B4-CC4778241751}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4263,7 +4262,7 @@
         <xdr:cNvPr id="121" name="직선 화살표 연결선 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA88AA1-4592-491C-91BE-742A1D890A61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BA88AA1-4592-491C-91BE-742A1D890A61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4316,7 +4315,7 @@
         <xdr:cNvPr id="123" name="TextBox 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13CD938B-C0AC-4A8C-A303-8695F3F1757E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13CD938B-C0AC-4A8C-A303-8695F3F1757E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4402,7 +4401,7 @@
         <xdr:cNvPr id="124" name="TextBox 123">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43FFDE42-A443-405A-81F0-D9FC343C1C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43FFDE42-A443-405A-81F0-D9FC343C1C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4504,7 +4503,7 @@
         <xdr:cNvPr id="125" name="직선 화살표 연결선 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5587E5FA-82FB-48C4-9CD6-BB778A9D74ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5587E5FA-82FB-48C4-9CD6-BB778A9D74ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4557,7 +4556,7 @@
         <xdr:cNvPr id="126" name="직선 화살표 연결선 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2AF834-6F70-4FA7-84DA-2B09C9FB5481}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F2AF834-6F70-4FA7-84DA-2B09C9FB5481}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4610,7 +4609,7 @@
         <xdr:cNvPr id="127" name="TextBox 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B3D4E4-F2DB-4EFC-9052-00C582D7AEB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5B3D4E4-F2DB-4EFC-9052-00C582D7AEB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4725,7 +4724,7 @@
         <xdr:cNvPr id="128" name="TextBox 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C507EA-C450-4EED-A7A9-E75DF90F0B67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5C507EA-C450-4EED-A7A9-E75DF90F0B67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4796,7 +4795,7 @@
         <xdr:cNvPr id="130" name="TextBox 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30150DC-AA1B-4593-9DAF-48595311CED7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A30150DC-AA1B-4593-9DAF-48595311CED7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4883,7 +4882,7 @@
         <xdr:cNvPr id="139" name="직선 화살표 연결선 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0283E9D-0208-475C-87A9-B968907DBC01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0283E9D-0208-475C-87A9-B968907DBC01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4936,7 +4935,7 @@
         <xdr:cNvPr id="140" name="TextBox 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8BFC95F-9B48-47BE-B94F-6FCFB6821B5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8BFC95F-9B48-47BE-B94F-6FCFB6821B5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5028,7 +5027,7 @@
         <xdr:cNvPr id="141" name="직사각형 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3649E29-AEA4-48CF-9B94-7D47D198D202}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3649E29-AEA4-48CF-9B94-7D47D198D202}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5106,7 +5105,7 @@
         <xdr:cNvPr id="142" name="직사각형 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AAD1F8B-4C31-4B72-9B21-8F91F5B74928}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AAD1F8B-4C31-4B72-9B21-8F91F5B74928}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5179,7 +5178,7 @@
         <xdr:cNvPr id="143" name="직선 화살표 연결선 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF2B349-3A01-4499-9732-57F5AE774970}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DF2B349-3A01-4499-9732-57F5AE774970}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5232,7 +5231,7 @@
         <xdr:cNvPr id="144" name="TextBox 143">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C388698-5D97-416C-87E6-D5166D977CDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C388698-5D97-416C-87E6-D5166D977CDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5342,7 +5341,7 @@
         <xdr:cNvPr id="147" name="직사각형 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F540AB0-B404-4D15-89FE-416BFA388E6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F540AB0-B404-4D15-89FE-416BFA388E6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5442,7 +5441,7 @@
         <xdr:cNvPr id="148" name="직선 화살표 연결선 147">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A5EF32-2468-4A1B-AD2E-474D0FCC44C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0A5EF32-2468-4A1B-AD2E-474D0FCC44C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5495,7 +5494,7 @@
         <xdr:cNvPr id="149" name="TextBox 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C7E490-D82B-47F6-A4D2-157FD26C0139}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5C7E490-D82B-47F6-A4D2-157FD26C0139}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5566,7 +5565,7 @@
         <xdr:cNvPr id="150" name="직사각형 149">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDAFE3B-904A-466F-9FB9-305801D19587}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BDAFE3B-904A-466F-9FB9-305801D19587}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5639,7 +5638,7 @@
         <xdr:cNvPr id="151" name="직선 화살표 연결선 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB66502-8ABF-4FC0-A517-A7A02E0353AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFB66502-8ABF-4FC0-A517-A7A02E0353AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5692,7 +5691,7 @@
         <xdr:cNvPr id="152" name="TextBox 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E9DFA1-16D2-454A-95BE-2638670E9798}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95E9DFA1-16D2-454A-95BE-2638670E9798}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5763,7 +5762,7 @@
         <xdr:cNvPr id="154" name="직사각형 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC95D4CA-B0BF-4D03-A185-A0FF0C013189}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC95D4CA-B0BF-4D03-A185-A0FF0C013189}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5836,7 +5835,7 @@
         <xdr:cNvPr id="155" name="직선 화살표 연결선 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5078DDE6-9426-4658-820C-8C248E7855BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5078DDE6-9426-4658-820C-8C248E7855BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5889,7 +5888,7 @@
         <xdr:cNvPr id="156" name="TextBox 155">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E810770-920E-436C-9848-04DCFE148C27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E810770-920E-436C-9848-04DCFE148C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5960,7 +5959,7 @@
         <xdr:cNvPr id="157" name="오른쪽 중괄호 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC99A12-F996-4EC9-AEBF-1C8195EB1D9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FC99A12-F996-4EC9-AEBF-1C8195EB1D9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6021,7 +6020,7 @@
         <xdr:cNvPr id="158" name="오른쪽 중괄호 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C20B904-5801-4748-A1F6-23E636CCE1D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C20B904-5801-4748-A1F6-23E636CCE1D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6082,7 +6081,7 @@
         <xdr:cNvPr id="159" name="직사각형 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81AA736B-0D4C-4FBB-9DB8-CC818901F6CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81AA736B-0D4C-4FBB-9DB8-CC818901F6CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6155,7 +6154,7 @@
         <xdr:cNvPr id="160" name="직선 화살표 연결선 159">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979994BF-7401-4324-A9EF-7F488532C536}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{979994BF-7401-4324-A9EF-7F488532C536}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6208,7 +6207,7 @@
         <xdr:cNvPr id="161" name="TextBox 160">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F59CFB87-D2F2-4634-8292-C2C04ADACB54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F59CFB87-D2F2-4634-8292-C2C04ADACB54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6279,7 +6278,7 @@
         <xdr:cNvPr id="175" name="직사각형 174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{167A1C09-0BCB-444E-A10E-F6730FDE4CAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{167A1C09-0BCB-444E-A10E-F6730FDE4CAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6352,7 +6351,7 @@
         <xdr:cNvPr id="176" name="직선 화살표 연결선 175">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB13D5EE-4C10-458C-80ED-C963F038AA99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB13D5EE-4C10-458C-80ED-C963F038AA99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6405,7 +6404,7 @@
         <xdr:cNvPr id="177" name="TextBox 176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCEEB63-670E-4231-A700-CF2FF8F45A94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CCEEB63-670E-4231-A700-CF2FF8F45A94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6476,7 +6475,7 @@
         <xdr:cNvPr id="178" name="TextBox 177">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5781EA9F-56DF-49AA-A88A-460B3D8FAF9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5781EA9F-56DF-49AA-A88A-460B3D8FAF9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6579,7 +6578,7 @@
         <xdr:cNvPr id="179" name="오른쪽 중괄호 178">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B72812A-83F3-4079-9AC1-B5BF2947D96C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B72812A-83F3-4079-9AC1-B5BF2947D96C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6640,7 +6639,7 @@
         <xdr:cNvPr id="180" name="오른쪽 중괄호 179">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4902DA84-8FD2-451D-9FB3-AC2C46BB9466}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4902DA84-8FD2-451D-9FB3-AC2C46BB9466}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6701,7 +6700,7 @@
         <xdr:cNvPr id="183" name="오른쪽 중괄호 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B7E641-99C5-436E-BB4E-EF29B0F04073}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12B7E641-99C5-436E-BB4E-EF29B0F04073}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6762,7 +6761,7 @@
         <xdr:cNvPr id="184" name="직사각형 183">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06DBBDC0-8CE3-4933-AE2C-2F88DC17C130}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06DBBDC0-8CE3-4933-AE2C-2F88DC17C130}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6856,7 +6855,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07530164-77F5-4F51-930A-49F7DA75AF0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07530164-77F5-4F51-930A-49F7DA75AF0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6945,7 +6944,7 @@
         <xdr:cNvPr id="104" name="직선 화살표 연결선 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5690645-8C9D-4C39-A4B5-E9433F91819B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5690645-8C9D-4C39-A4B5-E9433F91819B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6998,7 +6997,7 @@
         <xdr:cNvPr id="114" name="TextBox 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3631E9B2-7391-47CF-9A34-6688F97636EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3631E9B2-7391-47CF-9A34-6688F97636EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7137,7 +7136,7 @@
         <xdr:cNvPr id="100" name="TextBox 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33067FEB-3C62-458C-9058-1AE3EA836804}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33067FEB-3C62-458C-9058-1AE3EA836804}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7223,7 +7222,7 @@
         <xdr:cNvPr id="107" name="TextBox 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89043F9A-F439-4F0D-83E2-9CB442183878}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89043F9A-F439-4F0D-83E2-9CB442183878}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7297,7 +7296,7 @@
         <xdr:cNvPr id="113" name="TextBox 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31AB91D-618D-4133-8006-B09C326B5930}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B31AB91D-618D-4133-8006-B09C326B5930}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7371,7 +7370,7 @@
         <xdr:cNvPr id="119" name="TextBox 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15386C22-A231-4D31-BB3B-D2A2712F73C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15386C22-A231-4D31-BB3B-D2A2712F73C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7445,7 +7444,7 @@
         <xdr:cNvPr id="133" name="오른쪽 중괄호 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD68562C-C7D0-495D-8AB1-17EF6B914D20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD68562C-C7D0-495D-8AB1-17EF6B914D20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7503,7 +7502,7 @@
         <xdr:cNvPr id="134" name="TextBox 133">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E22C6020-32AD-4054-8430-2FE9E4671EFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E22C6020-32AD-4054-8430-2FE9E4671EFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7587,7 +7586,7 @@
         <xdr:cNvPr id="135" name="직사각형 134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C90E508-69D3-4809-901B-5D419F89CA94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C90E508-69D3-4809-901B-5D419F89CA94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7673,7 +7672,7 @@
         <xdr:cNvPr id="136" name="직사각형 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2209482B-B790-41D5-9D2F-38D67D1D2D50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2209482B-B790-41D5-9D2F-38D67D1D2D50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7762,7 +7761,7 @@
         <xdr:cNvPr id="93" name="오른쪽 중괄호 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4E78B6-7DD8-4461-B8D0-ED2418AB80FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D4E78B6-7DD8-4461-B8D0-ED2418AB80FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7823,7 +7822,7 @@
         <xdr:cNvPr id="131" name="TextBox 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B50A2F42-DC02-441D-B976-120CD42DFEEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B50A2F42-DC02-441D-B976-120CD42DFEEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7968,7 +7967,7 @@
         <xdr:cNvPr id="132" name="직사각형 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D0EF58-C8FC-423C-A30E-57D3DE357AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86D0EF58-C8FC-423C-A30E-57D3DE357AFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8041,7 +8040,7 @@
         <xdr:cNvPr id="137" name="직선 화살표 연결선 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F093797A-2A3C-499B-8627-9017BFB6E169}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F093797A-2A3C-499B-8627-9017BFB6E169}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8094,7 +8093,7 @@
         <xdr:cNvPr id="138" name="TextBox 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82877C64-EBB1-4D60-B07B-092B1F7FDB75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82877C64-EBB1-4D60-B07B-092B1F7FDB75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8165,7 +8164,7 @@
         <xdr:cNvPr id="145" name="TextBox 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC646AD-DEB9-4AD0-AA71-0F0FE3BB7BCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CC646AD-DEB9-4AD0-AA71-0F0FE3BB7BCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8247,7 +8246,7 @@
         <xdr:cNvPr id="153" name="TextBox 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63FB412-5FF4-471E-B53E-BC575A974286}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C63FB412-5FF4-471E-B53E-BC575A974286}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8339,7 +8338,7 @@
         <xdr:cNvPr id="163" name="직사각형 162">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2CE75F5-6F4C-4764-8E11-05627605D854}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2CE75F5-6F4C-4764-8E11-05627605D854}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8412,7 +8411,7 @@
         <xdr:cNvPr id="164" name="TextBox 163">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C35246E8-985C-4907-891B-8BD3F8090F84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C35246E8-985C-4907-891B-8BD3F8090F84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8483,7 +8482,7 @@
         <xdr:cNvPr id="166" name="TextBox 165">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC1B6D80-035B-4F50-BBEF-FAEF6AA3B2AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC1B6D80-035B-4F50-BBEF-FAEF6AA3B2AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8579,7 +8578,7 @@
         <xdr:cNvPr id="167" name="오른쪽 중괄호 166">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A251F96F-70D9-4EC9-B5EA-28ECE0403E81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A251F96F-70D9-4EC9-B5EA-28ECE0403E81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8887,65 +8886,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W218" sqref="W218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="24" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="24" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="24" t="s">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="20"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
@@ -8956,7 +8955,7 @@
       <c r="N6" s="6"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
@@ -8967,7 +8966,7 @@
       <c r="N7" s="5"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
@@ -8978,7 +8977,7 @@
       <c r="N8" s="5"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
@@ -8989,7 +8988,7 @@
       <c r="N9" s="5"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
@@ -9000,7 +8999,7 @@
       <c r="N10" s="5"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
@@ -9011,7 +9010,7 @@
       <c r="N11" s="5"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="D12" s="2"/>
       <c r="E12" s="4"/>
@@ -9022,7 +9021,7 @@
       <c r="N12" s="5"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
@@ -9033,7 +9032,7 @@
       <c r="N13" s="5"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
@@ -9044,7 +9043,7 @@
       <c r="N14" s="5"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="D15" s="2"/>
       <c r="E15" s="4"/>
@@ -9055,7 +9054,7 @@
       <c r="N15" s="5"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
@@ -9066,7 +9065,7 @@
       <c r="N16" s="5"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
@@ -9077,7 +9076,7 @@
       <c r="N17" s="5"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="D18" s="2"/>
       <c r="E18" s="4"/>
@@ -9088,7 +9087,7 @@
       <c r="N18" s="5"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="D19" s="2"/>
       <c r="E19" s="4"/>
@@ -9099,7 +9098,7 @@
       <c r="N19" s="5"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
@@ -9110,7 +9109,7 @@
       <c r="N20" s="5"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="D21" s="2"/>
       <c r="E21" s="4"/>
@@ -9121,7 +9120,7 @@
       <c r="N21" s="5"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
@@ -9132,7 +9131,7 @@
       <c r="N22" s="5"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="D23" s="2"/>
       <c r="E23" s="4"/>
@@ -9143,7 +9142,7 @@
       <c r="N23" s="5"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="D24" s="2"/>
       <c r="E24" s="4"/>
@@ -9154,7 +9153,7 @@
       <c r="N24" s="5"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
@@ -9165,7 +9164,7 @@
       <c r="N25" s="5"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="D26" s="2"/>
       <c r="E26" s="4"/>
@@ -9176,7 +9175,7 @@
       <c r="N26" s="5"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="D27" s="2"/>
       <c r="E27" s="4"/>
@@ -9187,11 +9186,11 @@
       <c r="N27" s="5"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="19"/>
       <c r="D28" s="2"/>
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
@@ -9201,9 +9200,9 @@
       <c r="N28" s="5"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
       <c r="D29" s="2"/>
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
@@ -9213,9 +9212,9 @@
       <c r="N29" s="5"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
       <c r="D30" s="2"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
@@ -9225,7 +9224,7 @@
       <c r="N30" s="5"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="D31" s="2"/>
       <c r="E31" s="4"/>
@@ -9236,7 +9235,7 @@
       <c r="N31" s="5"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="D32" s="2"/>
       <c r="E32" s="4"/>
@@ -9247,7 +9246,7 @@
       <c r="N32" s="5"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="2:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:16" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="D33" s="2"/>
       <c r="E33" s="4"/>
@@ -9258,7 +9257,7 @@
       <c r="N33" s="5"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
       <c r="D34" s="2"/>
       <c r="E34" s="4"/>
@@ -9269,7 +9268,7 @@
       <c r="N34" s="5"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
       <c r="D35" s="2"/>
       <c r="E35" s="4"/>
@@ -9280,7 +9279,7 @@
       <c r="N35" s="5"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
       <c r="D36" s="2"/>
       <c r="E36" s="4"/>
@@ -9291,7 +9290,7 @@
       <c r="N36" s="5"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
       <c r="D37" s="2"/>
       <c r="E37" s="4"/>
@@ -9302,7 +9301,7 @@
       <c r="N37" s="5"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="5"/>
       <c r="D38" s="2"/>
       <c r="E38" s="4"/>
@@ -9313,7 +9312,7 @@
       <c r="N38" s="5"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
       <c r="D39" s="2"/>
       <c r="E39" s="4"/>
@@ -9324,7 +9323,7 @@
       <c r="N39" s="5"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="5"/>
       <c r="D40" s="2"/>
       <c r="E40" s="4"/>
@@ -9335,7 +9334,7 @@
       <c r="N40" s="5"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="5"/>
       <c r="D41" s="2"/>
       <c r="E41" s="4"/>
@@ -9346,7 +9345,7 @@
       <c r="N41" s="5"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
       <c r="D42" s="2"/>
       <c r="E42" s="4"/>
@@ -9357,7 +9356,7 @@
       <c r="N42" s="5"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
       <c r="D43" s="2"/>
       <c r="E43" s="4"/>
@@ -9368,7 +9367,7 @@
       <c r="N43" s="5"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
       <c r="D44" s="2"/>
       <c r="E44" s="4"/>
@@ -9379,7 +9378,7 @@
       <c r="N44" s="5"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
       <c r="D45" s="2"/>
       <c r="E45" s="4"/>
@@ -9390,7 +9389,7 @@
       <c r="N45" s="5"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B46" s="5"/>
       <c r="D46" s="2"/>
       <c r="E46" s="4"/>
@@ -9401,7 +9400,7 @@
       <c r="N46" s="5"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" s="5"/>
       <c r="D47" s="2"/>
       <c r="E47" s="4"/>
@@ -9412,7 +9411,7 @@
       <c r="N47" s="5"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
       <c r="D48" s="2"/>
       <c r="E48" s="4"/>
@@ -9423,7 +9422,7 @@
       <c r="N48" s="5"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" s="5"/>
       <c r="D49" s="2"/>
       <c r="E49" s="4"/>
@@ -9434,7 +9433,7 @@
       <c r="N49" s="5"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="5"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4"/>
@@ -9445,7 +9444,7 @@
       <c r="N50" s="5"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="5"/>
       <c r="D51" s="2"/>
       <c r="E51" s="4"/>
@@ -9456,7 +9455,7 @@
       <c r="N51" s="5"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="5"/>
       <c r="D52" s="2"/>
       <c r="F52" s="5"/>
@@ -9466,7 +9465,7 @@
       <c r="N52" s="5"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="D53" s="2"/>
       <c r="F53" s="5"/>
@@ -9476,7 +9475,7 @@
       <c r="N53" s="5"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="5"/>
       <c r="D54" s="2"/>
       <c r="F54" s="5"/>
@@ -9486,7 +9485,7 @@
       <c r="N54" s="5"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="5"/>
       <c r="D55" s="2"/>
       <c r="F55" s="5"/>
@@ -9496,7 +9495,7 @@
       <c r="N55" s="5"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
       <c r="D56" s="2"/>
       <c r="F56" s="5"/>
@@ -9506,7 +9505,7 @@
       <c r="N56" s="5"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
       <c r="D57" s="2"/>
       <c r="F57" s="5"/>
@@ -9516,7 +9515,7 @@
       <c r="N57" s="5"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="5"/>
       <c r="D58" s="2"/>
       <c r="F58" s="5"/>
@@ -9526,7 +9525,7 @@
       <c r="N58" s="5"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B59" s="5"/>
       <c r="D59" s="2"/>
       <c r="F59" s="5"/>
@@ -9536,7 +9535,7 @@
       <c r="N59" s="5"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B60" s="5"/>
       <c r="D60" s="2"/>
       <c r="F60" s="5"/>
@@ -9546,7 +9545,7 @@
       <c r="N60" s="5"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B61" s="5"/>
       <c r="D61" s="2"/>
       <c r="F61" s="5"/>
@@ -9556,7 +9555,7 @@
       <c r="N61" s="5"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" s="5"/>
       <c r="D62" s="2"/>
       <c r="F62" s="5"/>
@@ -9566,7 +9565,7 @@
       <c r="N62" s="5"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" s="5"/>
       <c r="D63" s="2"/>
       <c r="F63" s="5"/>
@@ -9576,7 +9575,7 @@
       <c r="N63" s="5"/>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" s="5"/>
       <c r="D64" s="2"/>
       <c r="F64" s="5"/>
@@ -9586,7 +9585,7 @@
       <c r="N64" s="5"/>
       <c r="P64" s="2"/>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B65" s="5"/>
       <c r="D65" s="2"/>
       <c r="F65" s="5"/>
@@ -9596,7 +9595,7 @@
       <c r="N65" s="5"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B66" s="5"/>
       <c r="D66" s="2"/>
       <c r="F66" s="5"/>
@@ -9606,7 +9605,7 @@
       <c r="N66" s="5"/>
       <c r="P66" s="2"/>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B67" s="5"/>
       <c r="D67" s="2"/>
       <c r="F67" s="5"/>
@@ -9616,7 +9615,7 @@
       <c r="N67" s="5"/>
       <c r="P67" s="2"/>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B68" s="5"/>
       <c r="D68" s="2"/>
       <c r="F68" s="5"/>
@@ -9626,7 +9625,7 @@
       <c r="N68" s="5"/>
       <c r="P68" s="2"/>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
       <c r="D69" s="2"/>
       <c r="F69" s="5"/>
@@ -9636,7 +9635,7 @@
       <c r="N69" s="5"/>
       <c r="P69" s="2"/>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B70" s="5"/>
       <c r="D70" s="2"/>
       <c r="F70" s="5"/>
@@ -9646,7 +9645,7 @@
       <c r="N70" s="5"/>
       <c r="P70" s="2"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B71" s="5"/>
       <c r="D71" s="2"/>
       <c r="F71" s="5"/>
@@ -9656,7 +9655,7 @@
       <c r="N71" s="5"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B72" s="5"/>
       <c r="D72" s="2"/>
       <c r="F72" s="5"/>
@@ -9666,7 +9665,7 @@
       <c r="N72" s="5"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B73" s="5"/>
       <c r="D73" s="2"/>
       <c r="F73" s="5"/>
@@ -9676,7 +9675,7 @@
       <c r="N73" s="5"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B74" s="5"/>
       <c r="D74" s="2"/>
       <c r="F74" s="5"/>
@@ -9686,7 +9685,7 @@
       <c r="N74" s="5"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B75" s="5"/>
       <c r="D75" s="2"/>
       <c r="F75" s="5"/>
@@ -9696,7 +9695,7 @@
       <c r="N75" s="5"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B76" s="5"/>
       <c r="D76" s="2"/>
       <c r="F76" s="5"/>
@@ -9706,7 +9705,7 @@
       <c r="N76" s="5"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B77" s="5"/>
       <c r="D77" s="2"/>
       <c r="F77" s="5"/>
@@ -9716,7 +9715,7 @@
       <c r="N77" s="5"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" s="5"/>
       <c r="D78" s="2"/>
       <c r="F78" s="5"/>
@@ -9726,7 +9725,7 @@
       <c r="N78" s="5"/>
       <c r="P78" s="2"/>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B79" s="5"/>
       <c r="D79" s="2"/>
       <c r="F79" s="5"/>
@@ -9736,7 +9735,7 @@
       <c r="N79" s="5"/>
       <c r="P79" s="2"/>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" s="5"/>
       <c r="D80" s="2"/>
       <c r="F80" s="5"/>
@@ -9746,7 +9745,7 @@
       <c r="N80" s="5"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
       <c r="D81" s="2"/>
       <c r="F81" s="5"/>
@@ -9756,7 +9755,7 @@
       <c r="N81" s="5"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="D82" s="2"/>
       <c r="F82" s="5"/>
@@ -9766,7 +9765,7 @@
       <c r="N82" s="5"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B83" s="5"/>
       <c r="D83" s="2"/>
       <c r="F83" s="5"/>
@@ -9776,7 +9775,7 @@
       <c r="N83" s="5"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B84" s="5"/>
       <c r="D84" s="2"/>
       <c r="F84" s="5"/>
@@ -9786,7 +9785,7 @@
       <c r="N84" s="5"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
       <c r="D85" s="2"/>
       <c r="F85" s="5"/>
@@ -9796,7 +9795,7 @@
       <c r="N85" s="5"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B86" s="5"/>
       <c r="D86" s="2"/>
       <c r="F86" s="5"/>
@@ -9806,7 +9805,7 @@
       <c r="N86" s="5"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B87" s="5"/>
       <c r="D87" s="2"/>
       <c r="F87" s="5"/>
@@ -9816,7 +9815,7 @@
       <c r="N87" s="5"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B88" s="5"/>
       <c r="D88" s="2"/>
       <c r="F88" s="5"/>
@@ -9826,7 +9825,7 @@
       <c r="N88" s="5"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B89" s="5"/>
       <c r="D89" s="2"/>
       <c r="F89" s="5"/>
@@ -9836,7 +9835,7 @@
       <c r="N89" s="5"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
       <c r="D90" s="2"/>
       <c r="F90" s="5"/>
@@ -9846,7 +9845,7 @@
       <c r="N90" s="5"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B91" s="5"/>
       <c r="D91" s="2"/>
       <c r="F91" s="5"/>
@@ -9856,7 +9855,7 @@
       <c r="N91" s="5"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B92" s="5"/>
       <c r="D92" s="2"/>
       <c r="F92" s="5"/>
@@ -9866,7 +9865,7 @@
       <c r="N92" s="5"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
       <c r="D93" s="2"/>
       <c r="F93" s="5"/>
@@ -9876,7 +9875,7 @@
       <c r="N93" s="5"/>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B94" s="5"/>
       <c r="D94" s="2"/>
       <c r="F94" s="5"/>
@@ -9886,7 +9885,7 @@
       <c r="N94" s="5"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
       <c r="D95" s="2"/>
       <c r="F95" s="5"/>
@@ -9896,7 +9895,7 @@
       <c r="N95" s="5"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B96" s="5"/>
       <c r="D96" s="2"/>
       <c r="F96" s="5"/>
@@ -9906,7 +9905,7 @@
       <c r="N96" s="5"/>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="4"/>
@@ -9924,7 +9923,7 @@
       <c r="O97" s="4"/>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="4"/>
@@ -9940,7 +9939,7 @@
       <c r="O98" s="10"/>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
       <c r="D99" s="2"/>
       <c r="F99" s="5"/>
@@ -9952,7 +9951,7 @@
       <c r="N99" s="5"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
       <c r="D100" s="2"/>
       <c r="F100" s="5"/>
@@ -9964,7 +9963,7 @@
       <c r="N100" s="5"/>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
       <c r="D101" s="2"/>
       <c r="F101" s="5"/>
@@ -9976,7 +9975,7 @@
       <c r="N101" s="5"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
       <c r="D102" s="2"/>
       <c r="F102" s="5"/>
@@ -9988,7 +9987,7 @@
       <c r="N102" s="5"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
       <c r="D103" s="2"/>
       <c r="F103" s="5"/>
@@ -10000,7 +9999,7 @@
       <c r="N103" s="5"/>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B104" s="5"/>
       <c r="D104" s="2"/>
       <c r="F104" s="5"/>
@@ -10012,7 +10011,7 @@
       <c r="N104" s="5"/>
       <c r="P104" s="2"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B105" s="5"/>
       <c r="D105" s="2"/>
       <c r="F105" s="5"/>
@@ -10024,7 +10023,7 @@
       <c r="N105" s="5"/>
       <c r="P105" s="2"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B106" s="5"/>
       <c r="D106" s="2"/>
       <c r="F106" s="5"/>
@@ -10035,7 +10034,7 @@
       <c r="N106" s="5"/>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B107" s="5"/>
       <c r="D107" s="2"/>
       <c r="F107" s="5"/>
@@ -10045,7 +10044,7 @@
       <c r="N107" s="5"/>
       <c r="P107" s="2"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B108" s="5"/>
       <c r="D108" s="2"/>
       <c r="F108" s="5"/>
@@ -10055,7 +10054,7 @@
       <c r="N108" s="5"/>
       <c r="P108" s="2"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
       <c r="D109" s="2"/>
       <c r="F109" s="5"/>
@@ -10065,7 +10064,7 @@
       <c r="N109" s="5"/>
       <c r="P109" s="2"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B110" s="5"/>
       <c r="D110" s="2"/>
       <c r="F110" s="5"/>
@@ -10075,7 +10074,7 @@
       <c r="N110" s="5"/>
       <c r="P110" s="2"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B111" s="5"/>
       <c r="D111" s="2"/>
       <c r="F111" s="5"/>
@@ -10085,7 +10084,7 @@
       <c r="N111" s="5"/>
       <c r="P111" s="2"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B112" s="5"/>
       <c r="D112" s="2"/>
       <c r="F112" s="5"/>
@@ -10095,7 +10094,7 @@
       <c r="N112" s="5"/>
       <c r="P112" s="2"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B113" s="5"/>
       <c r="D113" s="2"/>
       <c r="F113" s="5"/>
@@ -10105,7 +10104,7 @@
       <c r="N113" s="5"/>
       <c r="P113" s="2"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B114" s="5"/>
       <c r="D114" s="2"/>
       <c r="F114" s="5"/>
@@ -10115,7 +10114,7 @@
       <c r="N114" s="5"/>
       <c r="P114" s="2"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B115" s="5"/>
       <c r="D115" s="2"/>
       <c r="F115" s="5"/>
@@ -10125,7 +10124,7 @@
       <c r="N115" s="5"/>
       <c r="P115" s="2"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B116" s="5"/>
       <c r="D116" s="2"/>
       <c r="F116" s="5"/>
@@ -10135,7 +10134,7 @@
       <c r="N116" s="5"/>
       <c r="P116" s="2"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B117" s="5"/>
       <c r="D117" s="2"/>
       <c r="F117" s="5"/>
@@ -10145,7 +10144,7 @@
       <c r="N117" s="5"/>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B118" s="5"/>
       <c r="D118" s="2"/>
       <c r="F118" s="5"/>
@@ -10155,7 +10154,7 @@
       <c r="N118" s="5"/>
       <c r="P118" s="2"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B119" s="5"/>
       <c r="D119" s="2"/>
       <c r="F119" s="5"/>
@@ -10165,7 +10164,7 @@
       <c r="N119" s="5"/>
       <c r="P119" s="2"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B120" s="5"/>
       <c r="D120" s="2"/>
       <c r="F120" s="5"/>
@@ -10175,7 +10174,7 @@
       <c r="N120" s="5"/>
       <c r="P120" s="2"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B121" s="5"/>
       <c r="D121" s="2"/>
       <c r="F121" s="5"/>
@@ -10185,7 +10184,7 @@
       <c r="N121" s="5"/>
       <c r="P121" s="2"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
       <c r="D122" s="2"/>
       <c r="F122" s="5"/>
@@ -10195,7 +10194,7 @@
       <c r="N122" s="5"/>
       <c r="P122" s="2"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B123" s="5"/>
       <c r="D123" s="2"/>
       <c r="F123" s="5"/>
@@ -10205,7 +10204,7 @@
       <c r="N123" s="5"/>
       <c r="P123" s="2"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B124" s="5"/>
       <c r="D124" s="2"/>
       <c r="F124" s="5"/>
@@ -10215,7 +10214,7 @@
       <c r="N124" s="5"/>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B125" s="5"/>
       <c r="D125" s="2"/>
       <c r="F125" s="5"/>
@@ -10225,7 +10224,7 @@
       <c r="N125" s="5"/>
       <c r="P125" s="2"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B126" s="5"/>
       <c r="D126" s="2"/>
       <c r="F126" s="5"/>
@@ -10235,7 +10234,7 @@
       <c r="N126" s="5"/>
       <c r="P126" s="2"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B127" s="5"/>
       <c r="D127" s="2"/>
       <c r="F127" s="5"/>
@@ -10245,7 +10244,7 @@
       <c r="N127" s="5"/>
       <c r="P127" s="2"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B128" s="5"/>
       <c r="D128" s="2"/>
       <c r="F128" s="5"/>
@@ -10255,7 +10254,7 @@
       <c r="N128" s="5"/>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B129" s="5"/>
       <c r="D129" s="2"/>
       <c r="F129" s="5"/>
@@ -10265,7 +10264,7 @@
       <c r="N129" s="5"/>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B130" s="5"/>
       <c r="D130" s="2"/>
       <c r="F130" s="5"/>
@@ -10275,7 +10274,7 @@
       <c r="N130" s="5"/>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B131" s="5"/>
       <c r="D131" s="2"/>
       <c r="F131" s="5"/>
@@ -10285,7 +10284,7 @@
       <c r="N131" s="5"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B132" s="5"/>
       <c r="D132" s="2"/>
       <c r="F132" s="5"/>
@@ -10295,7 +10294,7 @@
       <c r="N132" s="5"/>
       <c r="P132" s="2"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B133" s="5"/>
       <c r="D133" s="2"/>
       <c r="F133" s="5"/>
@@ -10305,7 +10304,7 @@
       <c r="N133" s="5"/>
       <c r="P133" s="2"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B134" s="5"/>
       <c r="D134" s="2"/>
       <c r="F134" s="5"/>
@@ -10315,7 +10314,7 @@
       <c r="N134" s="5"/>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B135" s="5"/>
       <c r="D135" s="2"/>
       <c r="F135" s="5"/>
@@ -10325,7 +10324,7 @@
       <c r="N135" s="5"/>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B136" s="5"/>
       <c r="D136" s="2"/>
       <c r="F136" s="5"/>
@@ -10335,7 +10334,7 @@
       <c r="N136" s="5"/>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B137" s="5"/>
       <c r="D137" s="2"/>
       <c r="F137" s="5"/>
@@ -10345,7 +10344,7 @@
       <c r="N137" s="5"/>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B138" s="5"/>
       <c r="D138" s="2"/>
       <c r="F138" s="5"/>
@@ -10355,7 +10354,7 @@
       <c r="N138" s="5"/>
       <c r="P138" s="2"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B139" s="5"/>
       <c r="D139" s="2"/>
       <c r="F139" s="5"/>
@@ -10365,7 +10364,7 @@
       <c r="N139" s="5"/>
       <c r="P139" s="2"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B140" s="5"/>
       <c r="D140" s="2"/>
       <c r="F140" s="5"/>
@@ -10375,7 +10374,7 @@
       <c r="N140" s="5"/>
       <c r="P140" s="2"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B141" s="5"/>
       <c r="D141" s="2"/>
       <c r="F141" s="5"/>
@@ -10385,7 +10384,7 @@
       <c r="N141" s="5"/>
       <c r="P141" s="2"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B142" s="5"/>
       <c r="D142" s="2"/>
       <c r="F142" s="5"/>
@@ -10395,7 +10394,7 @@
       <c r="N142" s="5"/>
       <c r="P142" s="2"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B143" s="5"/>
       <c r="D143" s="2"/>
       <c r="F143" s="5"/>
@@ -10405,7 +10404,7 @@
       <c r="N143" s="5"/>
       <c r="P143" s="2"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B144" s="5"/>
       <c r="D144" s="2"/>
       <c r="F144" s="5"/>
@@ -10415,7 +10414,7 @@
       <c r="N144" s="5"/>
       <c r="P144" s="2"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B145" s="5"/>
       <c r="D145" s="2"/>
       <c r="F145" s="5"/>
@@ -10425,7 +10424,7 @@
       <c r="N145" s="5"/>
       <c r="P145" s="2"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B146" s="5"/>
       <c r="D146" s="2"/>
       <c r="F146" s="5"/>
@@ -10435,7 +10434,7 @@
       <c r="N146" s="5"/>
       <c r="P146" s="2"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B147" s="5"/>
       <c r="D147" s="2"/>
       <c r="F147" s="5"/>
@@ -10445,7 +10444,7 @@
       <c r="N147" s="5"/>
       <c r="P147" s="2"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B148" s="5"/>
       <c r="D148" s="2"/>
       <c r="F148" s="5"/>
@@ -10455,7 +10454,7 @@
       <c r="N148" s="5"/>
       <c r="P148" s="2"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B149" s="5"/>
       <c r="D149" s="2"/>
       <c r="F149" s="5"/>
@@ -10465,7 +10464,7 @@
       <c r="N149" s="5"/>
       <c r="P149" s="2"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B150" s="5"/>
       <c r="D150" s="2"/>
       <c r="F150" s="5"/>
@@ -10475,7 +10474,7 @@
       <c r="N150" s="5"/>
       <c r="P150" s="2"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B151" s="5"/>
       <c r="D151" s="2"/>
       <c r="F151" s="5"/>
@@ -10485,7 +10484,7 @@
       <c r="N151" s="5"/>
       <c r="P151" s="2"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B152" s="5"/>
       <c r="D152" s="2"/>
       <c r="F152" s="5"/>
@@ -10495,7 +10494,7 @@
       <c r="N152" s="5"/>
       <c r="P152" s="2"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B153" s="5"/>
       <c r="D153" s="2"/>
       <c r="F153" s="5"/>
@@ -10505,7 +10504,7 @@
       <c r="N153" s="5"/>
       <c r="P153" s="2"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B154" s="5"/>
       <c r="D154" s="2"/>
       <c r="F154" s="5"/>
@@ -10515,7 +10514,7 @@
       <c r="N154" s="5"/>
       <c r="P154" s="2"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B155" s="5"/>
       <c r="D155" s="2"/>
       <c r="F155" s="5"/>
@@ -10525,7 +10524,7 @@
       <c r="N155" s="5"/>
       <c r="P155" s="2"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B156" s="5"/>
       <c r="D156" s="2"/>
       <c r="F156" s="5"/>
@@ -10535,7 +10534,7 @@
       <c r="N156" s="5"/>
       <c r="P156" s="2"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B157" s="5"/>
       <c r="D157" s="2"/>
       <c r="F157" s="5"/>
@@ -10545,7 +10544,7 @@
       <c r="N157" s="5"/>
       <c r="P157" s="2"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B158" s="5"/>
       <c r="D158" s="2"/>
       <c r="F158" s="5"/>
@@ -10555,7 +10554,7 @@
       <c r="N158" s="5"/>
       <c r="P158" s="2"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B159" s="5"/>
       <c r="D159" s="2"/>
       <c r="F159" s="5"/>
@@ -10565,7 +10564,7 @@
       <c r="N159" s="5"/>
       <c r="P159" s="2"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B160" s="5"/>
       <c r="D160" s="2"/>
       <c r="F160" s="5"/>
@@ -10575,7 +10574,7 @@
       <c r="N160" s="5"/>
       <c r="P160" s="2"/>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B161" s="5"/>
       <c r="D161" s="2"/>
       <c r="F161" s="5"/>
@@ -10585,7 +10584,7 @@
       <c r="N161" s="5"/>
       <c r="P161" s="2"/>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B162" s="5"/>
       <c r="D162" s="2"/>
       <c r="F162" s="5"/>
@@ -10595,7 +10594,7 @@
       <c r="N162" s="5"/>
       <c r="P162" s="2"/>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B163" s="5"/>
       <c r="D163" s="2"/>
       <c r="F163" s="5"/>
@@ -10605,7 +10604,7 @@
       <c r="N163" s="5"/>
       <c r="P163" s="2"/>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B164" s="5"/>
       <c r="D164" s="2"/>
       <c r="F164" s="5"/>
@@ -10615,7 +10614,7 @@
       <c r="N164" s="5"/>
       <c r="P164" s="2"/>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B165" s="5"/>
       <c r="D165" s="2"/>
       <c r="F165" s="5"/>
@@ -10625,7 +10624,7 @@
       <c r="N165" s="5"/>
       <c r="P165" s="2"/>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B166" s="5"/>
       <c r="D166" s="2"/>
       <c r="F166" s="5"/>
@@ -10635,7 +10634,7 @@
       <c r="N166" s="5"/>
       <c r="P166" s="2"/>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B167" s="5"/>
       <c r="D167" s="2"/>
       <c r="F167" s="5"/>
@@ -10645,7 +10644,7 @@
       <c r="N167" s="5"/>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B168" s="5"/>
       <c r="D168" s="2"/>
       <c r="F168" s="5"/>
@@ -10655,7 +10654,7 @@
       <c r="N168" s="5"/>
       <c r="P168" s="2"/>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B169" s="5"/>
       <c r="D169" s="2"/>
       <c r="F169" s="5"/>
@@ -10665,7 +10664,7 @@
       <c r="N169" s="5"/>
       <c r="P169" s="2"/>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B170" s="5"/>
       <c r="D170" s="2"/>
       <c r="F170" s="5"/>
@@ -10675,7 +10674,7 @@
       <c r="N170" s="5"/>
       <c r="P170" s="2"/>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B171" s="5"/>
       <c r="D171" s="2"/>
       <c r="F171" s="5"/>
@@ -10685,7 +10684,7 @@
       <c r="N171" s="5"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B172" s="5"/>
       <c r="D172" s="2"/>
       <c r="F172" s="5"/>
@@ -10695,7 +10694,7 @@
       <c r="N172" s="5"/>
       <c r="P172" s="2"/>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B173" s="5"/>
       <c r="D173" s="2"/>
       <c r="F173" s="5"/>
@@ -10705,7 +10704,7 @@
       <c r="N173" s="5"/>
       <c r="P173" s="2"/>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B174" s="5"/>
       <c r="D174" s="2"/>
       <c r="F174" s="5"/>
@@ -10715,7 +10714,7 @@
       <c r="N174" s="5"/>
       <c r="P174" s="2"/>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B175" s="5"/>
       <c r="D175" s="2"/>
       <c r="F175" s="5"/>
@@ -10725,7 +10724,7 @@
       <c r="N175" s="5"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B176" s="5"/>
       <c r="D176" s="2"/>
       <c r="F176" s="5"/>
@@ -10735,7 +10734,7 @@
       <c r="N176" s="5"/>
       <c r="P176" s="2"/>
     </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B177" s="5"/>
       <c r="D177" s="2"/>
       <c r="F177" s="5"/>
@@ -10745,7 +10744,7 @@
       <c r="N177" s="5"/>
       <c r="P177" s="2"/>
     </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="178" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B178" s="5"/>
       <c r="D178" s="2"/>
       <c r="F178" s="5"/>
@@ -10755,7 +10754,7 @@
       <c r="N178" s="5"/>
       <c r="P178" s="2"/>
     </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="179" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B179" s="5"/>
       <c r="D179" s="2"/>
       <c r="F179" s="5"/>
@@ -10765,7 +10764,7 @@
       <c r="N179" s="5"/>
       <c r="P179" s="2"/>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B180" s="5"/>
       <c r="D180" s="2"/>
       <c r="F180" s="5"/>
@@ -10775,7 +10774,7 @@
       <c r="N180" s="5"/>
       <c r="P180" s="2"/>
     </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="181" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B181" s="5"/>
       <c r="D181" s="2"/>
       <c r="F181" s="5"/>
@@ -10785,7 +10784,7 @@
       <c r="N181" s="5"/>
       <c r="P181" s="2"/>
     </row>
-    <row r="182" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B182" s="5"/>
       <c r="D182" s="2"/>
       <c r="F182" s="5"/>
@@ -10795,7 +10794,7 @@
       <c r="N182" s="5"/>
       <c r="P182" s="2"/>
     </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B183" s="5"/>
       <c r="D183" s="2"/>
       <c r="F183" s="5"/>
@@ -10805,7 +10804,7 @@
       <c r="N183" s="5"/>
       <c r="P183" s="2"/>
     </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="184" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B184" s="5"/>
       <c r="D184" s="2"/>
       <c r="F184" s="5"/>
@@ -10815,7 +10814,7 @@
       <c r="N184" s="5"/>
       <c r="P184" s="2"/>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B185" s="5"/>
       <c r="D185" s="2"/>
       <c r="F185" s="5"/>
@@ -10825,7 +10824,7 @@
       <c r="N185" s="5"/>
       <c r="P185" s="2"/>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B186" s="5"/>
       <c r="D186" s="2"/>
       <c r="F186" s="5"/>
@@ -10835,7 +10834,7 @@
       <c r="N186" s="5"/>
       <c r="P186" s="2"/>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B187" s="5"/>
       <c r="D187" s="2"/>
       <c r="F187" s="5"/>
@@ -10845,7 +10844,7 @@
       <c r="N187" s="5"/>
       <c r="P187" s="2"/>
     </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="188" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B188" s="5"/>
       <c r="D188" s="2"/>
       <c r="F188" s="5"/>
@@ -10855,7 +10854,7 @@
       <c r="N188" s="5"/>
       <c r="P188" s="2"/>
     </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B189" s="5"/>
       <c r="D189" s="2"/>
       <c r="F189" s="5"/>
@@ -10865,7 +10864,7 @@
       <c r="N189" s="5"/>
       <c r="P189" s="2"/>
     </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B190" s="5"/>
       <c r="D190" s="2"/>
       <c r="F190" s="5"/>
@@ -10875,7 +10874,7 @@
       <c r="N190" s="5"/>
       <c r="P190" s="2"/>
     </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="191" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B191" s="5"/>
       <c r="D191" s="2"/>
       <c r="F191" s="5"/>
@@ -10885,7 +10884,7 @@
       <c r="N191" s="5"/>
       <c r="P191" s="2"/>
     </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="192" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B192" s="5"/>
       <c r="D192" s="2"/>
       <c r="F192" s="5"/>
@@ -10895,7 +10894,7 @@
       <c r="N192" s="5"/>
       <c r="P192" s="2"/>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B193" s="5"/>
       <c r="D193" s="2"/>
       <c r="F193" s="5"/>
@@ -10905,7 +10904,7 @@
       <c r="N193" s="5"/>
       <c r="P193" s="2"/>
     </row>
-    <row r="194" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="194" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B194" s="5"/>
       <c r="D194" s="2"/>
       <c r="F194" s="5"/>
@@ -10915,7 +10914,7 @@
       <c r="N194" s="5"/>
       <c r="P194" s="2"/>
     </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="195" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B195" s="5"/>
       <c r="D195" s="2"/>
       <c r="F195" s="5"/>
@@ -10925,7 +10924,7 @@
       <c r="N195" s="5"/>
       <c r="P195" s="2"/>
     </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="196" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B196" s="5"/>
       <c r="D196" s="2"/>
       <c r="F196" s="5"/>
@@ -10935,7 +10934,7 @@
       <c r="N196" s="5"/>
       <c r="P196" s="2"/>
     </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="197" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B197" s="5"/>
       <c r="D197" s="2"/>
       <c r="F197" s="5"/>
@@ -10945,7 +10944,7 @@
       <c r="N197" s="5"/>
       <c r="P197" s="2"/>
     </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B198" s="5"/>
       <c r="D198" s="2"/>
       <c r="F198" s="5"/>
@@ -10955,7 +10954,7 @@
       <c r="N198" s="5"/>
       <c r="P198" s="2"/>
     </row>
-    <row r="199" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="199" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B199" s="5"/>
       <c r="D199" s="2"/>
       <c r="F199" s="5"/>
@@ -10965,7 +10964,7 @@
       <c r="N199" s="5"/>
       <c r="P199" s="2"/>
     </row>
-    <row r="200" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="200" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B200" s="5"/>
       <c r="D200" s="2"/>
       <c r="F200" s="5"/>
@@ -10975,7 +10974,7 @@
       <c r="N200" s="5"/>
       <c r="P200" s="2"/>
     </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="201" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B201" s="5"/>
       <c r="D201" s="2"/>
       <c r="F201" s="5"/>
@@ -10985,7 +10984,7 @@
       <c r="N201" s="5"/>
       <c r="P201" s="2"/>
     </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B202" s="5"/>
       <c r="D202" s="2"/>
       <c r="F202" s="5"/>
@@ -10995,7 +10994,7 @@
       <c r="N202" s="5"/>
       <c r="P202" s="2"/>
     </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="203" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B203" s="5"/>
       <c r="D203" s="2"/>
       <c r="F203" s="5"/>
@@ -11005,7 +11004,7 @@
       <c r="N203" s="5"/>
       <c r="P203" s="2"/>
     </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B204" s="5"/>
       <c r="D204" s="2"/>
       <c r="F204" s="5"/>
@@ -11015,7 +11014,7 @@
       <c r="N204" s="5"/>
       <c r="P204" s="2"/>
     </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="205" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B205" s="5"/>
       <c r="D205" s="2"/>
       <c r="F205" s="5"/>
@@ -11025,7 +11024,7 @@
       <c r="N205" s="5"/>
       <c r="P205" s="2"/>
     </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="206" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B206" s="5"/>
       <c r="D206" s="2"/>
       <c r="F206" s="5"/>
@@ -11035,7 +11034,7 @@
       <c r="N206" s="5"/>
       <c r="P206" s="2"/>
     </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B207" s="5"/>
       <c r="D207" s="2"/>
       <c r="F207" s="5"/>
@@ -11045,7 +11044,7 @@
       <c r="N207" s="5"/>
       <c r="P207" s="2"/>
     </row>
-    <row r="208" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="208" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B208" s="5"/>
       <c r="D208" s="2"/>
       <c r="F208" s="5"/>
@@ -11055,7 +11054,7 @@
       <c r="N208" s="5"/>
       <c r="P208" s="2"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B209" s="5"/>
       <c r="D209" s="2"/>
       <c r="F209" s="5"/>
@@ -11065,7 +11064,7 @@
       <c r="N209" s="5"/>
       <c r="P209" s="2"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B210" s="5"/>
       <c r="D210" s="2"/>
       <c r="F210" s="5"/>
@@ -11075,7 +11074,7 @@
       <c r="N210" s="5"/>
       <c r="P210" s="2"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B211" s="5"/>
       <c r="D211" s="2"/>
       <c r="F211" s="5"/>
@@ -11085,7 +11084,7 @@
       <c r="N211" s="5"/>
       <c r="P211" s="2"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B212" s="4"/>
       <c r="C212" s="10"/>
       <c r="D212" s="2"/>
@@ -11096,7 +11095,7 @@
       <c r="N212" s="5"/>
       <c r="P212" s="2"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
       <c r="C213" s="4"/>
@@ -11114,7 +11113,7 @@
       <c r="O213" s="10"/>
       <c r="P213" s="2"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B214" s="5"/>
       <c r="D214" s="2"/>
       <c r="E214" s="4"/>
@@ -11128,7 +11127,7 @@
       <c r="N214" s="5"/>
       <c r="P214" s="2"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B215" s="5"/>
       <c r="D215" s="2"/>
       <c r="F215" s="5"/>
@@ -11138,7 +11137,7 @@
       <c r="N215" s="5"/>
       <c r="P215" s="2"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B216" s="5"/>
       <c r="D216" s="2"/>
       <c r="F216" s="5"/>
@@ -11148,7 +11147,7 @@
       <c r="N216" s="5"/>
       <c r="P216" s="2"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B217" s="5"/>
       <c r="D217" s="2"/>
       <c r="F217" s="5"/>
@@ -11158,7 +11157,7 @@
       <c r="N217" s="5"/>
       <c r="P217" s="2"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B218" s="5"/>
       <c r="D218" s="2"/>
       <c r="F218" s="5"/>
@@ -11168,11 +11167,11 @@
       <c r="N218" s="5"/>
       <c r="P218" s="2"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A219" s="12" t="s">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A219" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B219" s="13"/>
+      <c r="B219" s="19"/>
       <c r="D219" s="2"/>
       <c r="F219" s="5"/>
       <c r="H219" s="2"/>
@@ -11181,9 +11180,9 @@
       <c r="N219" s="5"/>
       <c r="P219" s="2"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A220" s="14"/>
-      <c r="B220" s="15"/>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A220" s="20"/>
+      <c r="B220" s="21"/>
       <c r="D220" s="2"/>
       <c r="F220" s="5"/>
       <c r="H220" s="2"/>
@@ -11192,9 +11191,9 @@
       <c r="N220" s="5"/>
       <c r="P220" s="2"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A221" s="16"/>
-      <c r="B221" s="17"/>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A221" s="22"/>
+      <c r="B221" s="23"/>
       <c r="D221" s="2"/>
       <c r="F221" s="5"/>
       <c r="H221" s="2"/>
@@ -11203,7 +11202,7 @@
       <c r="N221" s="5"/>
       <c r="P221" s="2"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B222" s="5"/>
       <c r="D222" s="2"/>
       <c r="F222" s="5"/>
@@ -11213,7 +11212,7 @@
       <c r="N222" s="5"/>
       <c r="P222" s="2"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B223" s="5"/>
       <c r="D223" s="2"/>
       <c r="F223" s="5"/>
@@ -11223,7 +11222,7 @@
       <c r="N223" s="5"/>
       <c r="P223" s="2"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B224" s="5"/>
       <c r="D224" s="2"/>
       <c r="F224" s="5"/>
@@ -11233,7 +11232,7 @@
       <c r="N224" s="5"/>
       <c r="P224" s="2"/>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B225" s="5"/>
       <c r="D225" s="2"/>
       <c r="F225" s="5"/>
@@ -11243,7 +11242,7 @@
       <c r="N225" s="5"/>
       <c r="P225" s="2"/>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B226" s="5"/>
       <c r="D226" s="2"/>
       <c r="F226" s="5"/>
@@ -11253,7 +11252,7 @@
       <c r="N226" s="5"/>
       <c r="P226" s="2"/>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B227" s="5"/>
       <c r="D227" s="2"/>
       <c r="F227" s="5"/>
@@ -11263,7 +11262,7 @@
       <c r="N227" s="5"/>
       <c r="P227" s="2"/>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B228" s="5"/>
       <c r="D228" s="2"/>
       <c r="F228" s="5"/>
@@ -11273,7 +11272,7 @@
       <c r="N228" s="5"/>
       <c r="P228" s="2"/>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B229" s="5"/>
       <c r="D229" s="2"/>
       <c r="F229" s="5"/>
@@ -11283,7 +11282,7 @@
       <c r="N229" s="5"/>
       <c r="P229" s="2"/>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B230" s="5"/>
       <c r="D230" s="2"/>
       <c r="F230" s="5"/>
@@ -11293,7 +11292,7 @@
       <c r="N230" s="5"/>
       <c r="P230" s="2"/>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B231" s="5"/>
       <c r="D231" s="2"/>
       <c r="F231" s="5"/>
@@ -11303,7 +11302,7 @@
       <c r="N231" s="5"/>
       <c r="P231" s="2"/>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B232" s="5"/>
       <c r="D232" s="2"/>
       <c r="F232" s="5"/>
@@ -11313,7 +11312,7 @@
       <c r="N232" s="5"/>
       <c r="P232" s="2"/>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B233" s="5"/>
       <c r="D233" s="2"/>
       <c r="F233" s="5"/>
@@ -11323,7 +11322,7 @@
       <c r="N233" s="5"/>
       <c r="P233" s="2"/>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B234" s="5"/>
       <c r="D234" s="2"/>
       <c r="F234" s="5"/>
@@ -11333,7 +11332,7 @@
       <c r="N234" s="5"/>
       <c r="P234" s="2"/>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B235" s="5"/>
       <c r="D235" s="2"/>
       <c r="F235" s="5"/>
@@ -11343,7 +11342,7 @@
       <c r="N235" s="5"/>
       <c r="P235" s="2"/>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" s="7"/>
       <c r="B236" s="8"/>
       <c r="C236" s="7"/>

--- a/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
+++ b/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\code\GitHub\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\md\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6A56B7-C707-4D72-B828-6831F4A277A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로토콜 흐름도" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>분류 공정 시나리오</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,11 +51,16 @@
     <t>사용자(클라이언트3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>윈폼에서 긴급 정지 
+ 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,22 +357,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>645459</xdr:colOff>
-      <xdr:row>231</xdr:row>
-      <xdr:rowOff>53788</xdr:rowOff>
+      <xdr:colOff>648019</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>99036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9444</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>94705</xdr:rowOff>
+      <xdr:colOff>12004</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>139953</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="165" name="직선 화살표 연결선 164">
+        <xdr:cNvPr id="181" name="직선 화살표 연결선 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AEA6618-DCC9-41F1-9588-652F9817F527}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1738406F-FC21-41B1-AD16-910E4635FB53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -374,7 +380,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1317812" y="51824964"/>
+          <a:off x="1320372" y="52766683"/>
           <a:ext cx="2053397" cy="265035"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -404,22 +410,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>226</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>143431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>17827</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>218916</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8863</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>26406</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="162" name="직선 화살표 연결선 161">
+        <xdr:cNvPr id="171" name="직선 화살표 연결선 170">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{96762556-99A6-462B-A81A-1B14C0E86636}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA39739-7253-4125-A0C0-4B6DEE1E15B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -427,8 +433,167 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4078941" y="50659552"/>
-          <a:ext cx="5351827" cy="658188"/>
+          <a:off x="4052047" y="51690490"/>
+          <a:ext cx="2680345" cy="331210"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>439270</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>209166</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="169" name="직선 화살표 연결선 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB6F14F2-ECCD-4AFF-A6D0-EEC0B2DBA586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3801035" y="49960306"/>
+          <a:ext cx="2949388" cy="227095"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>645459</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>79787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9444</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>120704</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="직선 화살표 연결선 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEA6618-DCC9-41F1-9588-652F9817F527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1317812" y="56557434"/>
+          <a:ext cx="2053397" cy="265035"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>35858</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>4931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8862</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>218021</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="162" name="직선 화살표 연결선 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96762556-99A6-462B-A81A-1B14C0E86636}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4069976" y="55361990"/>
+          <a:ext cx="5351827" cy="661325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -458,21 +623,21 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>430306</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>71717</xdr:rowOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>97717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>125084</xdr:rowOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>151083</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="146" name="직선 화살표 연결선 145">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11B693C4-909D-4382-A8A7-27200138EE67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B693C4-909D-4382-A8A7-27200138EE67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -480,7 +645,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5809130" y="49825835"/>
+          <a:off x="5809130" y="54558305"/>
           <a:ext cx="3603813" cy="277484"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -525,7 +690,7 @@
         <xdr:cNvPr id="129" name="직선 화살표 연결선 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{286EAF1B-3D02-4742-9FDD-4A3E75E28597}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286EAF1B-3D02-4742-9FDD-4A3E75E28597}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -578,7 +743,7 @@
         <xdr:cNvPr id="122" name="직선 화살표 연결선 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1211B049-D7E2-46C2-9BF5-D751A8C04F36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1211B049-D7E2-46C2-9BF5-D751A8C04F36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -631,7 +796,7 @@
         <xdr:cNvPr id="120" name="직선 화살표 연결선 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0B50FA1-1BA9-455D-92AD-C4C44DE4927B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B50FA1-1BA9-455D-92AD-C4C44DE4927B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -684,7 +849,7 @@
         <xdr:cNvPr id="97" name="직선 화살표 연결선 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B36167BB-F67F-40DB-9770-311D81C7A5E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36167BB-F67F-40DB-9770-311D81C7A5E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -737,7 +902,7 @@
         <xdr:cNvPr id="118" name="직선 화살표 연결선 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70B45172-C670-4F27-9F7D-B9ABAFC31AA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B45172-C670-4F27-9F7D-B9ABAFC31AA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -790,7 +955,7 @@
         <xdr:cNvPr id="108" name="직선 화살표 연결선 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0BB8F03-B552-425A-B3B2-8480F578B59A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BB8F03-B552-425A-B3B2-8480F578B59A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -843,7 +1008,7 @@
         <xdr:cNvPr id="96" name="직선 화살표 연결선 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{196A9B3A-F23E-48A6-8A90-F20F4210BF2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196A9B3A-F23E-48A6-8A90-F20F4210BF2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,7 +1061,7 @@
         <xdr:cNvPr id="92" name="직선 화살표 연결선 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2A5F879-82B1-4A61-871C-96D179847C6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A5F879-82B1-4A61-871C-96D179847C6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -949,7 +1114,7 @@
         <xdr:cNvPr id="90" name="직선 화살표 연결선 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45CFF935-EF21-4B23-A6F5-92B3520AD14B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CFF935-EF21-4B23-A6F5-92B3520AD14B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1002,7 +1167,7 @@
         <xdr:cNvPr id="81" name="직선 화살표 연결선 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AFFBA338-15B7-4AED-B96F-ED52CA419C88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFFBA338-15B7-4AED-B96F-ED52CA419C88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,7 +1220,7 @@
         <xdr:cNvPr id="69" name="직선 화살표 연결선 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D18D831D-4B5C-4983-AAA1-FBDF12F20089}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18D831D-4B5C-4983-AAA1-FBDF12F20089}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1108,7 +1273,7 @@
         <xdr:cNvPr id="64" name="직선 화살표 연결선 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87F5FB03-EC2E-4F07-8AEF-F216DDC5E1D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F5FB03-EC2E-4F07-8AEF-F216DDC5E1D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,7 +1326,7 @@
         <xdr:cNvPr id="4" name="직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1234,7 +1399,7 @@
         <xdr:cNvPr id="7" name="직선 화살표 연결선 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1452,7 @@
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1358,7 +1523,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1440,7 +1605,7 @@
         <xdr:cNvPr id="9" name="직선 화살표 연결선 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1493,7 +1658,7 @@
         <xdr:cNvPr id="60" name="직선 화살표 연결선 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E51B59BD-9275-4DB5-9682-AF328B9D3AAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51B59BD-9275-4DB5-9682-AF328B9D3AAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1711,7 @@
         <xdr:cNvPr id="62" name="TextBox 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA460306-2564-44EA-995C-EC3465A1DEE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA460306-2564-44EA-995C-EC3465A1DEE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1718,7 +1883,7 @@
         <xdr:cNvPr id="63" name="TextBox 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4190AB0-B240-4724-AE97-D9D82974252B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4190AB0-B240-4724-AE97-D9D82974252B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +2030,7 @@
         <xdr:cNvPr id="73" name="오른쪽 중괄호 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE037442-2773-41C2-8A5C-272D77D11B83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE037442-2773-41C2-8A5C-272D77D11B83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +2088,7 @@
         <xdr:cNvPr id="74" name="TextBox 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C9E285B-24D1-4FC6-A3EF-077D224D6F29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C9E285B-24D1-4FC6-A3EF-077D224D6F29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,7 +2184,7 @@
         <xdr:cNvPr id="75" name="TextBox 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{184ACB6F-F14E-4B57-91D2-BF07F39113A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184ACB6F-F14E-4B57-91D2-BF07F39113A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2105,7 +2270,7 @@
         <xdr:cNvPr id="77" name="직선 화살표 연결선 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE90A3B7-C9D8-43A7-8A13-7F87E157A04C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE90A3B7-C9D8-43A7-8A13-7F87E157A04C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2158,7 +2323,7 @@
         <xdr:cNvPr id="84" name="오른쪽 중괄호 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD221B66-CB0E-4BC0-B4F8-A67B43E8A2BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD221B66-CB0E-4BC0-B4F8-A67B43E8A2BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2219,7 +2384,7 @@
         <xdr:cNvPr id="85" name="TextBox 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82ED3D4F-D588-4F76-BB1E-ED1A5CFAEB33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82ED3D4F-D588-4F76-BB1E-ED1A5CFAEB33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2391,7 +2556,7 @@
         <xdr:cNvPr id="89" name="TextBox 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8D95ABD-0100-4D16-B62B-660EC423F5F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D95ABD-0100-4D16-B62B-660EC423F5F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2634,7 @@
         <xdr:cNvPr id="94" name="TextBox 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8D882AF-2EF0-4C58-BFF2-C92CF2C22A3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8D882AF-2EF0-4C58-BFF2-C92CF2C22A3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2547,7 +2712,7 @@
         <xdr:cNvPr id="95" name="TextBox 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3609EB97-1BF6-489D-81E9-6CF91A32C243}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3609EB97-1BF6-489D-81E9-6CF91A32C243}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,7 +2851,7 @@
         <xdr:cNvPr id="98" name="오른쪽 중괄호 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F678227-78CB-44B1-8B92-034B939C7E2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F678227-78CB-44B1-8B92-034B939C7E2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2747,7 +2912,7 @@
         <xdr:cNvPr id="99" name="TextBox 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{355AA1B4-A6F4-4AA8-BFE8-9A7B8E6A56E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{355AA1B4-A6F4-4AA8-BFE8-9A7B8E6A56E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2861,7 +3026,7 @@
         <xdr:cNvPr id="101" name="그림 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{628FAC16-3F02-41F8-8D70-5E83719138B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628FAC16-3F02-41F8-8D70-5E83719138B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2911,7 +3076,7 @@
         <xdr:cNvPr id="102" name="오른쪽 중괄호 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8499F95D-E19E-414C-A0A7-39EE787A9D68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8499F95D-E19E-414C-A0A7-39EE787A9D68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2972,7 +3137,7 @@
         <xdr:cNvPr id="103" name="TextBox 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0C5520F-09CC-478D-BB08-AF1C1CAABEA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C5520F-09CC-478D-BB08-AF1C1CAABEA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3091,7 +3256,7 @@
         <xdr:cNvPr id="105" name="TextBox 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BEA2385-C314-4350-9203-B2BB8A30876C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BEA2385-C314-4350-9203-B2BB8A30876C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3183,7 +3348,7 @@
         <xdr:cNvPr id="106" name="TextBox 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{466773AA-2FF0-4131-BE9A-218CFB091BF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466773AA-2FF0-4131-BE9A-218CFB091BF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3302,7 +3467,7 @@
         <xdr:cNvPr id="109" name="TextBox 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF964F8B-1E9A-4639-A6B5-BAF0CD16E769}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF964F8B-1E9A-4639-A6B5-BAF0CD16E769}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3400,7 +3565,7 @@
         <xdr:cNvPr id="110" name="TextBox 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A909DB6E-F4FF-4C30-A81D-5417D259EBA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A909DB6E-F4FF-4C30-A81D-5417D259EBA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3582,7 +3747,7 @@
         <xdr:cNvPr id="111" name="직사각형 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E121371D-1632-4687-9834-883428F40DD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E121371D-1632-4687-9834-883428F40DD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3684,7 +3849,7 @@
         <xdr:cNvPr id="112" name="직선 화살표 연결선 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{041EFB2E-ACEE-44DA-9706-1F6DDF3F7C15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041EFB2E-ACEE-44DA-9706-1F6DDF3F7C15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3721,23 +3886,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19322</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>191183</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19321</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>60555</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1027</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>6108</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1026</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>93193</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="115" name="직사각형 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82E901CB-17BB-4930-B252-337D85FAE6B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E901CB-17BB-4930-B252-337D85FAE6B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3745,7 +3910,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3393893" y="29582612"/>
+          <a:off x="694235" y="31629126"/>
           <a:ext cx="1331534" cy="468067"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3831,7 +3996,7 @@
         <xdr:cNvPr id="116" name="TextBox 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3BE5480-4ED2-4476-9985-536A4E14FFA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BE5480-4ED2-4476-9985-536A4E14FFA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4115,7 +4280,7 @@
         <xdr:cNvPr id="117" name="TextBox 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6EB0747F-83E6-47AC-94B4-CC4778241751}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EB0747F-83E6-47AC-94B4-CC4778241751}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4262,7 +4427,7 @@
         <xdr:cNvPr id="121" name="직선 화살표 연결선 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BA88AA1-4592-491C-91BE-742A1D890A61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA88AA1-4592-491C-91BE-742A1D890A61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4315,7 +4480,7 @@
         <xdr:cNvPr id="123" name="TextBox 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13CD938B-C0AC-4A8C-A303-8695F3F1757E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13CD938B-C0AC-4A8C-A303-8695F3F1757E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4401,7 +4566,7 @@
         <xdr:cNvPr id="124" name="TextBox 123">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43FFDE42-A443-405A-81F0-D9FC343C1C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43FFDE42-A443-405A-81F0-D9FC343C1C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4503,7 +4668,7 @@
         <xdr:cNvPr id="125" name="직선 화살표 연결선 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5587E5FA-82FB-48C4-9CD6-BB778A9D74ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5587E5FA-82FB-48C4-9CD6-BB778A9D74ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4556,7 +4721,7 @@
         <xdr:cNvPr id="126" name="직선 화살표 연결선 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F2AF834-6F70-4FA7-84DA-2B09C9FB5481}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2AF834-6F70-4FA7-84DA-2B09C9FB5481}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4609,7 +4774,7 @@
         <xdr:cNvPr id="127" name="TextBox 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5B3D4E4-F2DB-4EFC-9052-00C582D7AEB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B3D4E4-F2DB-4EFC-9052-00C582D7AEB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4671,7 +4836,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
-            <a:t>마지막 적외선 센서에 제품 감지 되었을 경우</a:t>
+            <a:t>모터에 명령이 전송되고 일정 시간 후 </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
         </a:p>
@@ -4724,7 +4889,7 @@
         <xdr:cNvPr id="128" name="TextBox 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5C507EA-C450-4EED-A7A9-E75DF90F0B67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C507EA-C450-4EED-A7A9-E75DF90F0B67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4795,7 +4960,7 @@
         <xdr:cNvPr id="130" name="TextBox 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A30150DC-AA1B-4593-9DAF-48595311CED7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30150DC-AA1B-4593-9DAF-48595311CED7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4882,7 +5047,7 @@
         <xdr:cNvPr id="139" name="직선 화살표 연결선 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0283E9D-0208-475C-87A9-B968907DBC01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0283E9D-0208-475C-87A9-B968907DBC01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4935,7 +5100,7 @@
         <xdr:cNvPr id="140" name="TextBox 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8BFC95F-9B48-47BE-B94F-6FCFB6821B5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8BFC95F-9B48-47BE-B94F-6FCFB6821B5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5027,7 +5192,7 @@
         <xdr:cNvPr id="141" name="직사각형 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3649E29-AEA4-48CF-9B94-7D47D198D202}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3649E29-AEA4-48CF-9B94-7D47D198D202}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5105,7 +5270,7 @@
         <xdr:cNvPr id="142" name="직사각형 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AAD1F8B-4C31-4B72-9B21-8F91F5B74928}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AAD1F8B-4C31-4B72-9B21-8F91F5B74928}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5178,7 +5343,7 @@
         <xdr:cNvPr id="143" name="직선 화살표 연결선 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DF2B349-3A01-4499-9732-57F5AE774970}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF2B349-3A01-4499-9732-57F5AE774970}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5231,7 +5396,7 @@
         <xdr:cNvPr id="144" name="TextBox 143">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C388698-5D97-416C-87E6-D5166D977CDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C388698-5D97-416C-87E6-D5166D977CDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5341,7 +5506,7 @@
         <xdr:cNvPr id="147" name="직사각형 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F540AB0-B404-4D15-89FE-416BFA388E6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F540AB0-B404-4D15-89FE-416BFA388E6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5441,7 +5606,7 @@
         <xdr:cNvPr id="148" name="직선 화살표 연결선 147">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0A5EF32-2468-4A1B-AD2E-474D0FCC44C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A5EF32-2468-4A1B-AD2E-474D0FCC44C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5494,7 +5659,7 @@
         <xdr:cNvPr id="149" name="TextBox 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5C7E490-D82B-47F6-A4D2-157FD26C0139}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C7E490-D82B-47F6-A4D2-157FD26C0139}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5565,7 +5730,7 @@
         <xdr:cNvPr id="150" name="직사각형 149">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BDAFE3B-904A-466F-9FB9-305801D19587}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDAFE3B-904A-466F-9FB9-305801D19587}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5638,7 +5803,7 @@
         <xdr:cNvPr id="151" name="직선 화살표 연결선 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFB66502-8ABF-4FC0-A517-A7A02E0353AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB66502-8ABF-4FC0-A517-A7A02E0353AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5691,7 +5856,7 @@
         <xdr:cNvPr id="152" name="TextBox 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95E9DFA1-16D2-454A-95BE-2638670E9798}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E9DFA1-16D2-454A-95BE-2638670E9798}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5762,7 +5927,7 @@
         <xdr:cNvPr id="154" name="직사각형 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC95D4CA-B0BF-4D03-A185-A0FF0C013189}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC95D4CA-B0BF-4D03-A185-A0FF0C013189}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5835,7 +6000,7 @@
         <xdr:cNvPr id="155" name="직선 화살표 연결선 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5078DDE6-9426-4658-820C-8C248E7855BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5078DDE6-9426-4658-820C-8C248E7855BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5888,7 +6053,7 @@
         <xdr:cNvPr id="156" name="TextBox 155">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E810770-920E-436C-9848-04DCFE148C27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E810770-920E-436C-9848-04DCFE148C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5959,7 +6124,7 @@
         <xdr:cNvPr id="157" name="오른쪽 중괄호 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FC99A12-F996-4EC9-AEBF-1C8195EB1D9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC99A12-F996-4EC9-AEBF-1C8195EB1D9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6020,7 +6185,7 @@
         <xdr:cNvPr id="158" name="오른쪽 중괄호 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C20B904-5801-4748-A1F6-23E636CCE1D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C20B904-5801-4748-A1F6-23E636CCE1D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6081,7 +6246,7 @@
         <xdr:cNvPr id="159" name="직사각형 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81AA736B-0D4C-4FBB-9DB8-CC818901F6CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81AA736B-0D4C-4FBB-9DB8-CC818901F6CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6154,7 +6319,7 @@
         <xdr:cNvPr id="160" name="직선 화살표 연결선 159">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{979994BF-7401-4324-A9EF-7F488532C536}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979994BF-7401-4324-A9EF-7F488532C536}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6207,7 +6372,7 @@
         <xdr:cNvPr id="161" name="TextBox 160">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F59CFB87-D2F2-4634-8292-C2C04ADACB54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F59CFB87-D2F2-4634-8292-C2C04ADACB54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6278,7 +6443,7 @@
         <xdr:cNvPr id="175" name="직사각형 174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{167A1C09-0BCB-444E-A10E-F6730FDE4CAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{167A1C09-0BCB-444E-A10E-F6730FDE4CAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6351,7 +6516,7 @@
         <xdr:cNvPr id="176" name="직선 화살표 연결선 175">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB13D5EE-4C10-458C-80ED-C963F038AA99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB13D5EE-4C10-458C-80ED-C963F038AA99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6359,8 +6524,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1284514" y="52883224"/>
-          <a:ext cx="2061081" cy="252228"/>
+          <a:off x="1284514" y="45045510"/>
+          <a:ext cx="2061081" cy="252227"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6404,7 +6569,7 @@
         <xdr:cNvPr id="177" name="TextBox 176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CCEEB63-670E-4231-A700-CF2FF8F45A94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCEEB63-670E-4231-A700-CF2FF8F45A94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6412,7 +6577,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1693402" y="52835153"/>
+          <a:off x="1693402" y="44997439"/>
           <a:ext cx="1416503" cy="260857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6475,7 +6640,7 @@
         <xdr:cNvPr id="178" name="TextBox 177">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5781EA9F-56DF-49AA-A88A-460B3D8FAF9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5781EA9F-56DF-49AA-A88A-460B3D8FAF9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6578,7 +6743,7 @@
         <xdr:cNvPr id="179" name="오른쪽 중괄호 178">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B72812A-83F3-4079-9AC1-B5BF2947D96C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B72812A-83F3-4079-9AC1-B5BF2947D96C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6639,7 +6804,7 @@
         <xdr:cNvPr id="180" name="오른쪽 중괄호 179">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4902DA84-8FD2-451D-9FB3-AC2C46BB9466}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4902DA84-8FD2-451D-9FB3-AC2C46BB9466}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6700,7 +6865,7 @@
         <xdr:cNvPr id="183" name="오른쪽 중괄호 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12B7E641-99C5-436E-BB4E-EF29B0F04073}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B7E641-99C5-436E-BB4E-EF29B0F04073}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6745,23 +6910,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>16025</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>85993</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16027</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>107764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>660731</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>95773</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>660733</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>117544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="184" name="직사각형 183">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06DBBDC0-8CE3-4933-AE2C-2F88DC17C130}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06DBBDC0-8CE3-4933-AE2C-2F88DC17C130}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6769,8 +6934,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3390596" y="51684279"/>
-          <a:ext cx="1319621" cy="445208"/>
+          <a:off x="690941" y="45827764"/>
+          <a:ext cx="1319621" cy="445209"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6855,7 +7020,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07530164-77F5-4F51-930A-49F7DA75AF0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07530164-77F5-4F51-930A-49F7DA75AF0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6944,7 +7109,7 @@
         <xdr:cNvPr id="104" name="직선 화살표 연결선 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5690645-8C9D-4C39-A4B5-E9433F91819B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5690645-8C9D-4C39-A4B5-E9433F91819B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6997,7 +7162,7 @@
         <xdr:cNvPr id="114" name="TextBox 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3631E9B2-7391-47CF-9A34-6688F97636EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3631E9B2-7391-47CF-9A34-6688F97636EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7136,7 +7301,7 @@
         <xdr:cNvPr id="100" name="TextBox 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33067FEB-3C62-458C-9058-1AE3EA836804}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33067FEB-3C62-458C-9058-1AE3EA836804}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7222,7 +7387,7 @@
         <xdr:cNvPr id="107" name="TextBox 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89043F9A-F439-4F0D-83E2-9CB442183878}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89043F9A-F439-4F0D-83E2-9CB442183878}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7296,7 +7461,7 @@
         <xdr:cNvPr id="113" name="TextBox 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B31AB91D-618D-4133-8006-B09C326B5930}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31AB91D-618D-4133-8006-B09C326B5930}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7370,7 +7535,7 @@
         <xdr:cNvPr id="119" name="TextBox 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15386C22-A231-4D31-BB3B-D2A2712F73C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15386C22-A231-4D31-BB3B-D2A2712F73C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7444,7 +7609,7 @@
         <xdr:cNvPr id="133" name="오른쪽 중괄호 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD68562C-C7D0-495D-8AB1-17EF6B914D20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD68562C-C7D0-495D-8AB1-17EF6B914D20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7502,7 +7667,7 @@
         <xdr:cNvPr id="134" name="TextBox 133">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E22C6020-32AD-4054-8430-2FE9E4671EFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E22C6020-32AD-4054-8430-2FE9E4671EFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7586,7 +7751,7 @@
         <xdr:cNvPr id="135" name="직사각형 134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C90E508-69D3-4809-901B-5D419F89CA94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C90E508-69D3-4809-901B-5D419F89CA94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7672,7 +7837,7 @@
         <xdr:cNvPr id="136" name="직사각형 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2209482B-B790-41D5-9D2F-38D67D1D2D50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2209482B-B790-41D5-9D2F-38D67D1D2D50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7761,7 +7926,7 @@
         <xdr:cNvPr id="93" name="오른쪽 중괄호 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D4E78B6-7DD8-4461-B8D0-ED2418AB80FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4E78B6-7DD8-4461-B8D0-ED2418AB80FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7822,7 +7987,7 @@
         <xdr:cNvPr id="131" name="TextBox 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B50A2F42-DC02-441D-B976-120CD42DFEEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B50A2F42-DC02-441D-B976-120CD42DFEEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7967,7 +8132,7 @@
         <xdr:cNvPr id="132" name="직사각형 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86D0EF58-C8FC-423C-A30E-57D3DE357AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D0EF58-C8FC-423C-A30E-57D3DE357AFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8040,7 +8205,7 @@
         <xdr:cNvPr id="137" name="직선 화살표 연결선 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F093797A-2A3C-499B-8627-9017BFB6E169}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F093797A-2A3C-499B-8627-9017BFB6E169}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8093,7 +8258,7 @@
         <xdr:cNvPr id="138" name="TextBox 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82877C64-EBB1-4D60-B07B-092B1F7FDB75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82877C64-EBB1-4D60-B07B-092B1F7FDB75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8150,21 +8315,21 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>286871</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>40790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>286871</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>127746</xdr:rowOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>153745</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="145" name="TextBox 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CC646AD-DEB9-4AD0-AA71-0F0FE3BB7BCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC646AD-DEB9-4AD0-AA71-0F0FE3BB7BCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8172,8 +8337,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4320989" y="49547929"/>
-          <a:ext cx="2017058" cy="558052"/>
+          <a:off x="4320989" y="54277261"/>
+          <a:ext cx="2017058" cy="561190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8232,21 +8397,21 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>226</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>492659</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>40917</xdr:rowOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>63779</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="153" name="TextBox 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C63FB412-5FF4-471E-B53E-BC575A974286}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63FB412-5FF4-471E-B53E-BC575A974286}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8254,7 +8419,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7404847" y="50650588"/>
+          <a:off x="7404847" y="55379920"/>
           <a:ext cx="1828400" cy="265035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8324,21 +8489,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>26894</xdr:rowOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>49756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>16585</xdr:colOff>
-      <xdr:row>231</xdr:row>
-      <xdr:rowOff>194534</xdr:rowOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>220533</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="163" name="직사각형 162">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2CE75F5-6F4C-4764-8E11-05627605D854}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2CE75F5-6F4C-4764-8E11-05627605D854}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8346,8 +8511,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3370730" y="51573953"/>
-          <a:ext cx="1352326" cy="391757"/>
+          <a:off x="3370730" y="56303285"/>
+          <a:ext cx="1352326" cy="394895"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8397,21 +8562,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>322731</xdr:colOff>
-      <xdr:row>231</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>67685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>389406</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>87966</xdr:rowOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>113965</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="164" name="TextBox 163">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C35246E8-985C-4907-891B-8BD3F8090F84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C35246E8-985C-4907-891B-8BD3F8090F84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8419,8 +8584,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1667437" y="51815999"/>
-          <a:ext cx="1411381" cy="267261"/>
+          <a:off x="1667437" y="56545332"/>
+          <a:ext cx="1411381" cy="270398"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8467,22 +8632,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>26894</xdr:rowOff>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>48826</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>147674</xdr:rowOff>
+      <xdr:colOff>138473</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>75957</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="166" name="TextBox 165">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC1B6D80-035B-4F50-BBEF-FAEF6AA3B2AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC1B6D80-035B-4F50-BBEF-FAEF6AA3B2AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8490,7 +8655,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11519647" y="49556894"/>
+          <a:off x="11609294" y="52622824"/>
           <a:ext cx="3320944" cy="1465486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8534,6 +8699,17 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>PI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>에게 캡쳐 정지 명령 전송과</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
             <a:t> PI2</a:t>
           </a:r>
           <a:r>
@@ -8548,7 +8724,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>윈폼 화면에 라인 긴급 정지 그림 표시한다</a:t>
+            <a:t>윈폼 화면에 캡쳐와 라인 긴급 정지 그림 표시한다</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
@@ -8570,15 +8746,15 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>29091</xdr:colOff>
-      <xdr:row>233</xdr:row>
-      <xdr:rowOff>143435</xdr:rowOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="167" name="오른쪽 중괄호 166">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A251F96F-70D9-4EC9-B5EA-28ECE0403E81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A251F96F-70D9-4EC9-B5EA-28ECE0403E81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8587,7 +8763,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10766612" y="48732141"/>
-          <a:ext cx="692479" cy="3630706"/>
+          <a:ext cx="692479" cy="8552330"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -8616,6 +8792,444 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>376517</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>376516</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>59167</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="TextBox 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E098B72-3742-410D-8601-2F5893C1D7DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3065929" y="49700330"/>
+          <a:ext cx="2017058" cy="561190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>PI1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t> 명령 전송</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>&lt;CMD=CAPTURE_STOP&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>627528</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>35860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>62754</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="TextBox 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED91F9EF-28F6-4833-927F-463C13092F2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4661646" y="51134684"/>
+          <a:ext cx="1452284" cy="502023"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>PI1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>상태 응답 전송</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>&lt;PI_ONE_STATE=STOP&gt;     </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>313766</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>484094</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="TextBox 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E18F73C-11C0-40AC-9963-B1F5DF58C1A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1658472" y="52721435"/>
+          <a:ext cx="1515034" cy="251012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&lt;CMD=CHANGE&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>672352</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7619</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>33169</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="직사각형 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BC005A-1AB7-4AB7-A551-3E8F7C3AEDBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3361764" y="52533177"/>
+          <a:ext cx="1352326" cy="391757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>윈폼에 정보 전송</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>16025</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>85993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>23645</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>29515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="직사각형 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6569FC7-1341-4AC6-9986-AABE35BE629D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390596" y="51684279"/>
+          <a:ext cx="1357449" cy="378950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>윈폼에 정보 전송</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8886,21 +9500,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P236"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:P258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W218" sqref="W218"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="24" t="s">
         <v>5</v>
       </c>
@@ -8926,7 +9540,7 @@
       <c r="O4" s="13"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="25"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -8944,7 +9558,7 @@
       <c r="O5" s="16"/>
       <c r="P5" s="17"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
@@ -8955,7 +9569,7 @@
       <c r="N6" s="6"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B7" s="5"/>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
@@ -8966,7 +9580,7 @@
       <c r="N7" s="5"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B8" s="5"/>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
@@ -8977,7 +9591,7 @@
       <c r="N8" s="5"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
@@ -8988,7 +9602,7 @@
       <c r="N9" s="5"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B10" s="5"/>
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
@@ -8999,7 +9613,7 @@
       <c r="N10" s="5"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
@@ -9010,7 +9624,7 @@
       <c r="N11" s="5"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="D12" s="2"/>
       <c r="E12" s="4"/>
@@ -9021,7 +9635,7 @@
       <c r="N12" s="5"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
@@ -9032,7 +9646,7 @@
       <c r="N13" s="5"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B14" s="5"/>
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
@@ -9043,7 +9657,7 @@
       <c r="N14" s="5"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
       <c r="D15" s="2"/>
       <c r="E15" s="4"/>
@@ -9054,7 +9668,7 @@
       <c r="N15" s="5"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
@@ -9065,7 +9679,7 @@
       <c r="N16" s="5"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
@@ -9076,7 +9690,7 @@
       <c r="N17" s="5"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
       <c r="D18" s="2"/>
       <c r="E18" s="4"/>
@@ -9087,7 +9701,7 @@
       <c r="N18" s="5"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
       <c r="D19" s="2"/>
       <c r="E19" s="4"/>
@@ -9098,7 +9712,7 @@
       <c r="N19" s="5"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
@@ -9109,7 +9723,7 @@
       <c r="N20" s="5"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
       <c r="D21" s="2"/>
       <c r="E21" s="4"/>
@@ -9120,7 +9734,7 @@
       <c r="N21" s="5"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
@@ -9131,7 +9745,7 @@
       <c r="N22" s="5"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
       <c r="D23" s="2"/>
       <c r="E23" s="4"/>
@@ -9142,7 +9756,7 @@
       <c r="N23" s="5"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
       <c r="D24" s="2"/>
       <c r="E24" s="4"/>
@@ -9153,7 +9767,7 @@
       <c r="N24" s="5"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
@@ -9164,7 +9778,7 @@
       <c r="N25" s="5"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
       <c r="D26" s="2"/>
       <c r="E26" s="4"/>
@@ -9175,7 +9789,7 @@
       <c r="N26" s="5"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
       <c r="D27" s="2"/>
       <c r="E27" s="4"/>
@@ -9186,7 +9800,7 @@
       <c r="N27" s="5"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A28" s="18" t="s">
         <v>4</v>
       </c>
@@ -9200,7 +9814,7 @@
       <c r="N28" s="5"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A29" s="20"/>
       <c r="B29" s="21"/>
       <c r="D29" s="2"/>
@@ -9212,7 +9826,7 @@
       <c r="N29" s="5"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30" s="22"/>
       <c r="B30" s="23"/>
       <c r="D30" s="2"/>
@@ -9224,7 +9838,7 @@
       <c r="N30" s="5"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B31" s="5"/>
       <c r="D31" s="2"/>
       <c r="E31" s="4"/>
@@ -9235,7 +9849,7 @@
       <c r="N31" s="5"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B32" s="5"/>
       <c r="D32" s="2"/>
       <c r="E32" s="4"/>
@@ -9246,7 +9860,7 @@
       <c r="N32" s="5"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="2:16" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="5"/>
       <c r="D33" s="2"/>
       <c r="E33" s="4"/>
@@ -9257,7 +9871,7 @@
       <c r="N33" s="5"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B34" s="5"/>
       <c r="D34" s="2"/>
       <c r="E34" s="4"/>
@@ -9268,7 +9882,7 @@
       <c r="N34" s="5"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B35" s="5"/>
       <c r="D35" s="2"/>
       <c r="E35" s="4"/>
@@ -9279,7 +9893,7 @@
       <c r="N35" s="5"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B36" s="5"/>
       <c r="D36" s="2"/>
       <c r="E36" s="4"/>
@@ -9290,7 +9904,7 @@
       <c r="N36" s="5"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B37" s="5"/>
       <c r="D37" s="2"/>
       <c r="E37" s="4"/>
@@ -9301,7 +9915,7 @@
       <c r="N37" s="5"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B38" s="5"/>
       <c r="D38" s="2"/>
       <c r="E38" s="4"/>
@@ -9312,7 +9926,7 @@
       <c r="N38" s="5"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B39" s="5"/>
       <c r="D39" s="2"/>
       <c r="E39" s="4"/>
@@ -9323,7 +9937,7 @@
       <c r="N39" s="5"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B40" s="5"/>
       <c r="D40" s="2"/>
       <c r="E40" s="4"/>
@@ -9334,7 +9948,7 @@
       <c r="N40" s="5"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B41" s="5"/>
       <c r="D41" s="2"/>
       <c r="E41" s="4"/>
@@ -9345,7 +9959,7 @@
       <c r="N41" s="5"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B42" s="5"/>
       <c r="D42" s="2"/>
       <c r="E42" s="4"/>
@@ -9356,7 +9970,7 @@
       <c r="N42" s="5"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B43" s="5"/>
       <c r="D43" s="2"/>
       <c r="E43" s="4"/>
@@ -9367,7 +9981,7 @@
       <c r="N43" s="5"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B44" s="5"/>
       <c r="D44" s="2"/>
       <c r="E44" s="4"/>
@@ -9378,7 +9992,7 @@
       <c r="N44" s="5"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B45" s="5"/>
       <c r="D45" s="2"/>
       <c r="E45" s="4"/>
@@ -9389,7 +10003,7 @@
       <c r="N45" s="5"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B46" s="5"/>
       <c r="D46" s="2"/>
       <c r="E46" s="4"/>
@@ -9400,7 +10014,7 @@
       <c r="N46" s="5"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B47" s="5"/>
       <c r="D47" s="2"/>
       <c r="E47" s="4"/>
@@ -9411,7 +10025,7 @@
       <c r="N47" s="5"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B48" s="5"/>
       <c r="D48" s="2"/>
       <c r="E48" s="4"/>
@@ -9422,7 +10036,7 @@
       <c r="N48" s="5"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B49" s="5"/>
       <c r="D49" s="2"/>
       <c r="E49" s="4"/>
@@ -9433,7 +10047,7 @@
       <c r="N49" s="5"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B50" s="5"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4"/>
@@ -9444,7 +10058,7 @@
       <c r="N50" s="5"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B51" s="5"/>
       <c r="D51" s="2"/>
       <c r="E51" s="4"/>
@@ -9455,7 +10069,7 @@
       <c r="N51" s="5"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B52" s="5"/>
       <c r="D52" s="2"/>
       <c r="F52" s="5"/>
@@ -9465,7 +10079,7 @@
       <c r="N52" s="5"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B53" s="5"/>
       <c r="D53" s="2"/>
       <c r="F53" s="5"/>
@@ -9475,7 +10089,7 @@
       <c r="N53" s="5"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B54" s="5"/>
       <c r="D54" s="2"/>
       <c r="F54" s="5"/>
@@ -9485,7 +10099,7 @@
       <c r="N54" s="5"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B55" s="5"/>
       <c r="D55" s="2"/>
       <c r="F55" s="5"/>
@@ -9495,7 +10109,7 @@
       <c r="N55" s="5"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B56" s="5"/>
       <c r="D56" s="2"/>
       <c r="F56" s="5"/>
@@ -9505,7 +10119,7 @@
       <c r="N56" s="5"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B57" s="5"/>
       <c r="D57" s="2"/>
       <c r="F57" s="5"/>
@@ -9515,7 +10129,7 @@
       <c r="N57" s="5"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B58" s="5"/>
       <c r="D58" s="2"/>
       <c r="F58" s="5"/>
@@ -9525,7 +10139,7 @@
       <c r="N58" s="5"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B59" s="5"/>
       <c r="D59" s="2"/>
       <c r="F59" s="5"/>
@@ -9535,7 +10149,7 @@
       <c r="N59" s="5"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B60" s="5"/>
       <c r="D60" s="2"/>
       <c r="F60" s="5"/>
@@ -9545,7 +10159,7 @@
       <c r="N60" s="5"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B61" s="5"/>
       <c r="D61" s="2"/>
       <c r="F61" s="5"/>
@@ -9555,7 +10169,7 @@
       <c r="N61" s="5"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B62" s="5"/>
       <c r="D62" s="2"/>
       <c r="F62" s="5"/>
@@ -9565,7 +10179,7 @@
       <c r="N62" s="5"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B63" s="5"/>
       <c r="D63" s="2"/>
       <c r="F63" s="5"/>
@@ -9575,7 +10189,7 @@
       <c r="N63" s="5"/>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B64" s="5"/>
       <c r="D64" s="2"/>
       <c r="F64" s="5"/>
@@ -9585,7 +10199,7 @@
       <c r="N64" s="5"/>
       <c r="P64" s="2"/>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B65" s="5"/>
       <c r="D65" s="2"/>
       <c r="F65" s="5"/>
@@ -9595,7 +10209,7 @@
       <c r="N65" s="5"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B66" s="5"/>
       <c r="D66" s="2"/>
       <c r="F66" s="5"/>
@@ -9605,7 +10219,7 @@
       <c r="N66" s="5"/>
       <c r="P66" s="2"/>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B67" s="5"/>
       <c r="D67" s="2"/>
       <c r="F67" s="5"/>
@@ -9615,7 +10229,7 @@
       <c r="N67" s="5"/>
       <c r="P67" s="2"/>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B68" s="5"/>
       <c r="D68" s="2"/>
       <c r="F68" s="5"/>
@@ -9625,7 +10239,7 @@
       <c r="N68" s="5"/>
       <c r="P68" s="2"/>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B69" s="5"/>
       <c r="D69" s="2"/>
       <c r="F69" s="5"/>
@@ -9635,7 +10249,7 @@
       <c r="N69" s="5"/>
       <c r="P69" s="2"/>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B70" s="5"/>
       <c r="D70" s="2"/>
       <c r="F70" s="5"/>
@@ -9645,7 +10259,7 @@
       <c r="N70" s="5"/>
       <c r="P70" s="2"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B71" s="5"/>
       <c r="D71" s="2"/>
       <c r="F71" s="5"/>
@@ -9655,7 +10269,7 @@
       <c r="N71" s="5"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B72" s="5"/>
       <c r="D72" s="2"/>
       <c r="F72" s="5"/>
@@ -9665,7 +10279,7 @@
       <c r="N72" s="5"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B73" s="5"/>
       <c r="D73" s="2"/>
       <c r="F73" s="5"/>
@@ -9675,7 +10289,7 @@
       <c r="N73" s="5"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B74" s="5"/>
       <c r="D74" s="2"/>
       <c r="F74" s="5"/>
@@ -9685,7 +10299,7 @@
       <c r="N74" s="5"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B75" s="5"/>
       <c r="D75" s="2"/>
       <c r="F75" s="5"/>
@@ -9695,7 +10309,7 @@
       <c r="N75" s="5"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B76" s="5"/>
       <c r="D76" s="2"/>
       <c r="F76" s="5"/>
@@ -9705,7 +10319,7 @@
       <c r="N76" s="5"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B77" s="5"/>
       <c r="D77" s="2"/>
       <c r="F77" s="5"/>
@@ -9715,7 +10329,7 @@
       <c r="N77" s="5"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B78" s="5"/>
       <c r="D78" s="2"/>
       <c r="F78" s="5"/>
@@ -9725,7 +10339,7 @@
       <c r="N78" s="5"/>
       <c r="P78" s="2"/>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B79" s="5"/>
       <c r="D79" s="2"/>
       <c r="F79" s="5"/>
@@ -9735,7 +10349,7 @@
       <c r="N79" s="5"/>
       <c r="P79" s="2"/>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B80" s="5"/>
       <c r="D80" s="2"/>
       <c r="F80" s="5"/>
@@ -9745,7 +10359,7 @@
       <c r="N80" s="5"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B81" s="5"/>
       <c r="D81" s="2"/>
       <c r="F81" s="5"/>
@@ -9755,7 +10369,7 @@
       <c r="N81" s="5"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B82" s="5"/>
       <c r="D82" s="2"/>
       <c r="F82" s="5"/>
@@ -9765,7 +10379,7 @@
       <c r="N82" s="5"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B83" s="5"/>
       <c r="D83" s="2"/>
       <c r="F83" s="5"/>
@@ -9775,7 +10389,7 @@
       <c r="N83" s="5"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B84" s="5"/>
       <c r="D84" s="2"/>
       <c r="F84" s="5"/>
@@ -9785,7 +10399,7 @@
       <c r="N84" s="5"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B85" s="5"/>
       <c r="D85" s="2"/>
       <c r="F85" s="5"/>
@@ -9795,7 +10409,7 @@
       <c r="N85" s="5"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B86" s="5"/>
       <c r="D86" s="2"/>
       <c r="F86" s="5"/>
@@ -9805,7 +10419,7 @@
       <c r="N86" s="5"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B87" s="5"/>
       <c r="D87" s="2"/>
       <c r="F87" s="5"/>
@@ -9815,7 +10429,7 @@
       <c r="N87" s="5"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B88" s="5"/>
       <c r="D88" s="2"/>
       <c r="F88" s="5"/>
@@ -9825,7 +10439,7 @@
       <c r="N88" s="5"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B89" s="5"/>
       <c r="D89" s="2"/>
       <c r="F89" s="5"/>
@@ -9835,7 +10449,7 @@
       <c r="N89" s="5"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B90" s="5"/>
       <c r="D90" s="2"/>
       <c r="F90" s="5"/>
@@ -9845,7 +10459,7 @@
       <c r="N90" s="5"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B91" s="5"/>
       <c r="D91" s="2"/>
       <c r="F91" s="5"/>
@@ -9855,7 +10469,7 @@
       <c r="N91" s="5"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B92" s="5"/>
       <c r="D92" s="2"/>
       <c r="F92" s="5"/>
@@ -9865,7 +10479,7 @@
       <c r="N92" s="5"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B93" s="5"/>
       <c r="D93" s="2"/>
       <c r="F93" s="5"/>
@@ -9875,7 +10489,7 @@
       <c r="N93" s="5"/>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B94" s="5"/>
       <c r="D94" s="2"/>
       <c r="F94" s="5"/>
@@ -9885,7 +10499,7 @@
       <c r="N94" s="5"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B95" s="5"/>
       <c r="D95" s="2"/>
       <c r="F95" s="5"/>
@@ -9895,7 +10509,7 @@
       <c r="N95" s="5"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B96" s="5"/>
       <c r="D96" s="2"/>
       <c r="F96" s="5"/>
@@ -9905,7 +10519,7 @@
       <c r="N96" s="5"/>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="4"/>
@@ -9923,7 +10537,7 @@
       <c r="O97" s="4"/>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="4"/>
@@ -9939,7 +10553,7 @@
       <c r="O98" s="10"/>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B99" s="5"/>
       <c r="D99" s="2"/>
       <c r="F99" s="5"/>
@@ -9951,7 +10565,7 @@
       <c r="N99" s="5"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B100" s="5"/>
       <c r="D100" s="2"/>
       <c r="F100" s="5"/>
@@ -9963,7 +10577,7 @@
       <c r="N100" s="5"/>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B101" s="5"/>
       <c r="D101" s="2"/>
       <c r="F101" s="5"/>
@@ -9975,7 +10589,7 @@
       <c r="N101" s="5"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B102" s="5"/>
       <c r="D102" s="2"/>
       <c r="F102" s="5"/>
@@ -9987,7 +10601,7 @@
       <c r="N102" s="5"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B103" s="5"/>
       <c r="D103" s="2"/>
       <c r="F103" s="5"/>
@@ -9999,7 +10613,7 @@
       <c r="N103" s="5"/>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B104" s="5"/>
       <c r="D104" s="2"/>
       <c r="F104" s="5"/>
@@ -10011,7 +10625,7 @@
       <c r="N104" s="5"/>
       <c r="P104" s="2"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B105" s="5"/>
       <c r="D105" s="2"/>
       <c r="F105" s="5"/>
@@ -10023,7 +10637,7 @@
       <c r="N105" s="5"/>
       <c r="P105" s="2"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B106" s="5"/>
       <c r="D106" s="2"/>
       <c r="F106" s="5"/>
@@ -10034,7 +10648,7 @@
       <c r="N106" s="5"/>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B107" s="5"/>
       <c r="D107" s="2"/>
       <c r="F107" s="5"/>
@@ -10044,7 +10658,7 @@
       <c r="N107" s="5"/>
       <c r="P107" s="2"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B108" s="5"/>
       <c r="D108" s="2"/>
       <c r="F108" s="5"/>
@@ -10054,7 +10668,7 @@
       <c r="N108" s="5"/>
       <c r="P108" s="2"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B109" s="5"/>
       <c r="D109" s="2"/>
       <c r="F109" s="5"/>
@@ -10064,7 +10678,7 @@
       <c r="N109" s="5"/>
       <c r="P109" s="2"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B110" s="5"/>
       <c r="D110" s="2"/>
       <c r="F110" s="5"/>
@@ -10074,7 +10688,7 @@
       <c r="N110" s="5"/>
       <c r="P110" s="2"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B111" s="5"/>
       <c r="D111" s="2"/>
       <c r="F111" s="5"/>
@@ -10084,7 +10698,7 @@
       <c r="N111" s="5"/>
       <c r="P111" s="2"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B112" s="5"/>
       <c r="D112" s="2"/>
       <c r="F112" s="5"/>
@@ -10094,7 +10708,7 @@
       <c r="N112" s="5"/>
       <c r="P112" s="2"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B113" s="5"/>
       <c r="D113" s="2"/>
       <c r="F113" s="5"/>
@@ -10104,7 +10718,7 @@
       <c r="N113" s="5"/>
       <c r="P113" s="2"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B114" s="5"/>
       <c r="D114" s="2"/>
       <c r="F114" s="5"/>
@@ -10114,7 +10728,7 @@
       <c r="N114" s="5"/>
       <c r="P114" s="2"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B115" s="5"/>
       <c r="D115" s="2"/>
       <c r="F115" s="5"/>
@@ -10124,7 +10738,7 @@
       <c r="N115" s="5"/>
       <c r="P115" s="2"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B116" s="5"/>
       <c r="D116" s="2"/>
       <c r="F116" s="5"/>
@@ -10134,7 +10748,7 @@
       <c r="N116" s="5"/>
       <c r="P116" s="2"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B117" s="5"/>
       <c r="D117" s="2"/>
       <c r="F117" s="5"/>
@@ -10144,7 +10758,7 @@
       <c r="N117" s="5"/>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B118" s="5"/>
       <c r="D118" s="2"/>
       <c r="F118" s="5"/>
@@ -10154,7 +10768,7 @@
       <c r="N118" s="5"/>
       <c r="P118" s="2"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B119" s="5"/>
       <c r="D119" s="2"/>
       <c r="F119" s="5"/>
@@ -10164,7 +10778,7 @@
       <c r="N119" s="5"/>
       <c r="P119" s="2"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B120" s="5"/>
       <c r="D120" s="2"/>
       <c r="F120" s="5"/>
@@ -10174,7 +10788,7 @@
       <c r="N120" s="5"/>
       <c r="P120" s="2"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B121" s="5"/>
       <c r="D121" s="2"/>
       <c r="F121" s="5"/>
@@ -10184,7 +10798,7 @@
       <c r="N121" s="5"/>
       <c r="P121" s="2"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B122" s="5"/>
       <c r="D122" s="2"/>
       <c r="F122" s="5"/>
@@ -10194,7 +10808,7 @@
       <c r="N122" s="5"/>
       <c r="P122" s="2"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B123" s="5"/>
       <c r="D123" s="2"/>
       <c r="F123" s="5"/>
@@ -10204,7 +10818,7 @@
       <c r="N123" s="5"/>
       <c r="P123" s="2"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B124" s="5"/>
       <c r="D124" s="2"/>
       <c r="F124" s="5"/>
@@ -10214,7 +10828,7 @@
       <c r="N124" s="5"/>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B125" s="5"/>
       <c r="D125" s="2"/>
       <c r="F125" s="5"/>
@@ -10224,7 +10838,7 @@
       <c r="N125" s="5"/>
       <c r="P125" s="2"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B126" s="5"/>
       <c r="D126" s="2"/>
       <c r="F126" s="5"/>
@@ -10234,7 +10848,7 @@
       <c r="N126" s="5"/>
       <c r="P126" s="2"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B127" s="5"/>
       <c r="D127" s="2"/>
       <c r="F127" s="5"/>
@@ -10244,7 +10858,7 @@
       <c r="N127" s="5"/>
       <c r="P127" s="2"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B128" s="5"/>
       <c r="D128" s="2"/>
       <c r="F128" s="5"/>
@@ -10254,7 +10868,7 @@
       <c r="N128" s="5"/>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B129" s="5"/>
       <c r="D129" s="2"/>
       <c r="F129" s="5"/>
@@ -10264,7 +10878,7 @@
       <c r="N129" s="5"/>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B130" s="5"/>
       <c r="D130" s="2"/>
       <c r="F130" s="5"/>
@@ -10274,7 +10888,7 @@
       <c r="N130" s="5"/>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B131" s="5"/>
       <c r="D131" s="2"/>
       <c r="F131" s="5"/>
@@ -10284,7 +10898,7 @@
       <c r="N131" s="5"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B132" s="5"/>
       <c r="D132" s="2"/>
       <c r="F132" s="5"/>
@@ -10294,7 +10908,7 @@
       <c r="N132" s="5"/>
       <c r="P132" s="2"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B133" s="5"/>
       <c r="D133" s="2"/>
       <c r="F133" s="5"/>
@@ -10304,7 +10918,7 @@
       <c r="N133" s="5"/>
       <c r="P133" s="2"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B134" s="5"/>
       <c r="D134" s="2"/>
       <c r="F134" s="5"/>
@@ -10314,7 +10928,7 @@
       <c r="N134" s="5"/>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B135" s="5"/>
       <c r="D135" s="2"/>
       <c r="F135" s="5"/>
@@ -10324,7 +10938,7 @@
       <c r="N135" s="5"/>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B136" s="5"/>
       <c r="D136" s="2"/>
       <c r="F136" s="5"/>
@@ -10334,7 +10948,7 @@
       <c r="N136" s="5"/>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B137" s="5"/>
       <c r="D137" s="2"/>
       <c r="F137" s="5"/>
@@ -10344,7 +10958,7 @@
       <c r="N137" s="5"/>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B138" s="5"/>
       <c r="D138" s="2"/>
       <c r="F138" s="5"/>
@@ -10354,7 +10968,7 @@
       <c r="N138" s="5"/>
       <c r="P138" s="2"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B139" s="5"/>
       <c r="D139" s="2"/>
       <c r="F139" s="5"/>
@@ -10364,7 +10978,7 @@
       <c r="N139" s="5"/>
       <c r="P139" s="2"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B140" s="5"/>
       <c r="D140" s="2"/>
       <c r="F140" s="5"/>
@@ -10374,7 +10988,7 @@
       <c r="N140" s="5"/>
       <c r="P140" s="2"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B141" s="5"/>
       <c r="D141" s="2"/>
       <c r="F141" s="5"/>
@@ -10384,7 +10998,7 @@
       <c r="N141" s="5"/>
       <c r="P141" s="2"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B142" s="5"/>
       <c r="D142" s="2"/>
       <c r="F142" s="5"/>
@@ -10394,7 +11008,7 @@
       <c r="N142" s="5"/>
       <c r="P142" s="2"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B143" s="5"/>
       <c r="D143" s="2"/>
       <c r="F143" s="5"/>
@@ -10404,7 +11018,7 @@
       <c r="N143" s="5"/>
       <c r="P143" s="2"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B144" s="5"/>
       <c r="D144" s="2"/>
       <c r="F144" s="5"/>
@@ -10414,7 +11028,7 @@
       <c r="N144" s="5"/>
       <c r="P144" s="2"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B145" s="5"/>
       <c r="D145" s="2"/>
       <c r="F145" s="5"/>
@@ -10424,7 +11038,7 @@
       <c r="N145" s="5"/>
       <c r="P145" s="2"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B146" s="5"/>
       <c r="D146" s="2"/>
       <c r="F146" s="5"/>
@@ -10434,7 +11048,7 @@
       <c r="N146" s="5"/>
       <c r="P146" s="2"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B147" s="5"/>
       <c r="D147" s="2"/>
       <c r="F147" s="5"/>
@@ -10444,7 +11058,7 @@
       <c r="N147" s="5"/>
       <c r="P147" s="2"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B148" s="5"/>
       <c r="D148" s="2"/>
       <c r="F148" s="5"/>
@@ -10454,7 +11068,7 @@
       <c r="N148" s="5"/>
       <c r="P148" s="2"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B149" s="5"/>
       <c r="D149" s="2"/>
       <c r="F149" s="5"/>
@@ -10464,7 +11078,7 @@
       <c r="N149" s="5"/>
       <c r="P149" s="2"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B150" s="5"/>
       <c r="D150" s="2"/>
       <c r="F150" s="5"/>
@@ -10474,7 +11088,7 @@
       <c r="N150" s="5"/>
       <c r="P150" s="2"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B151" s="5"/>
       <c r="D151" s="2"/>
       <c r="F151" s="5"/>
@@ -10484,7 +11098,7 @@
       <c r="N151" s="5"/>
       <c r="P151" s="2"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B152" s="5"/>
       <c r="D152" s="2"/>
       <c r="F152" s="5"/>
@@ -10494,7 +11108,7 @@
       <c r="N152" s="5"/>
       <c r="P152" s="2"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B153" s="5"/>
       <c r="D153" s="2"/>
       <c r="F153" s="5"/>
@@ -10504,7 +11118,7 @@
       <c r="N153" s="5"/>
       <c r="P153" s="2"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B154" s="5"/>
       <c r="D154" s="2"/>
       <c r="F154" s="5"/>
@@ -10514,7 +11128,7 @@
       <c r="N154" s="5"/>
       <c r="P154" s="2"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B155" s="5"/>
       <c r="D155" s="2"/>
       <c r="F155" s="5"/>
@@ -10524,7 +11138,7 @@
       <c r="N155" s="5"/>
       <c r="P155" s="2"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B156" s="5"/>
       <c r="D156" s="2"/>
       <c r="F156" s="5"/>
@@ -10534,7 +11148,7 @@
       <c r="N156" s="5"/>
       <c r="P156" s="2"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B157" s="5"/>
       <c r="D157" s="2"/>
       <c r="F157" s="5"/>
@@ -10544,7 +11158,7 @@
       <c r="N157" s="5"/>
       <c r="P157" s="2"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B158" s="5"/>
       <c r="D158" s="2"/>
       <c r="F158" s="5"/>
@@ -10554,7 +11168,7 @@
       <c r="N158" s="5"/>
       <c r="P158" s="2"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B159" s="5"/>
       <c r="D159" s="2"/>
       <c r="F159" s="5"/>
@@ -10564,7 +11178,7 @@
       <c r="N159" s="5"/>
       <c r="P159" s="2"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B160" s="5"/>
       <c r="D160" s="2"/>
       <c r="F160" s="5"/>
@@ -10574,7 +11188,7 @@
       <c r="N160" s="5"/>
       <c r="P160" s="2"/>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B161" s="5"/>
       <c r="D161" s="2"/>
       <c r="F161" s="5"/>
@@ -10584,7 +11198,7 @@
       <c r="N161" s="5"/>
       <c r="P161" s="2"/>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B162" s="5"/>
       <c r="D162" s="2"/>
       <c r="F162" s="5"/>
@@ -10594,7 +11208,7 @@
       <c r="N162" s="5"/>
       <c r="P162" s="2"/>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B163" s="5"/>
       <c r="D163" s="2"/>
       <c r="F163" s="5"/>
@@ -10604,7 +11218,7 @@
       <c r="N163" s="5"/>
       <c r="P163" s="2"/>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B164" s="5"/>
       <c r="D164" s="2"/>
       <c r="F164" s="5"/>
@@ -10614,7 +11228,7 @@
       <c r="N164" s="5"/>
       <c r="P164" s="2"/>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B165" s="5"/>
       <c r="D165" s="2"/>
       <c r="F165" s="5"/>
@@ -10624,7 +11238,7 @@
       <c r="N165" s="5"/>
       <c r="P165" s="2"/>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B166" s="5"/>
       <c r="D166" s="2"/>
       <c r="F166" s="5"/>
@@ -10634,7 +11248,7 @@
       <c r="N166" s="5"/>
       <c r="P166" s="2"/>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B167" s="5"/>
       <c r="D167" s="2"/>
       <c r="F167" s="5"/>
@@ -10644,7 +11258,7 @@
       <c r="N167" s="5"/>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B168" s="5"/>
       <c r="D168" s="2"/>
       <c r="F168" s="5"/>
@@ -10654,7 +11268,7 @@
       <c r="N168" s="5"/>
       <c r="P168" s="2"/>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B169" s="5"/>
       <c r="D169" s="2"/>
       <c r="F169" s="5"/>
@@ -10664,7 +11278,7 @@
       <c r="N169" s="5"/>
       <c r="P169" s="2"/>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B170" s="5"/>
       <c r="D170" s="2"/>
       <c r="F170" s="5"/>
@@ -10674,7 +11288,7 @@
       <c r="N170" s="5"/>
       <c r="P170" s="2"/>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B171" s="5"/>
       <c r="D171" s="2"/>
       <c r="F171" s="5"/>
@@ -10684,7 +11298,7 @@
       <c r="N171" s="5"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B172" s="5"/>
       <c r="D172" s="2"/>
       <c r="F172" s="5"/>
@@ -10694,7 +11308,7 @@
       <c r="N172" s="5"/>
       <c r="P172" s="2"/>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B173" s="5"/>
       <c r="D173" s="2"/>
       <c r="F173" s="5"/>
@@ -10704,17 +11318,24 @@
       <c r="N173" s="5"/>
       <c r="P173" s="2"/>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B174" s="5"/>
+      <c r="C174" s="4"/>
       <c r="D174" s="2"/>
+      <c r="E174" s="4"/>
       <c r="F174" s="5"/>
+      <c r="G174" s="10"/>
       <c r="H174" s="2"/>
+      <c r="I174" s="4"/>
       <c r="J174" s="5"/>
+      <c r="K174" s="10"/>
       <c r="L174" s="2"/>
+      <c r="M174" s="11"/>
       <c r="N174" s="5"/>
+      <c r="O174" s="4"/>
       <c r="P174" s="2"/>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B175" s="5"/>
       <c r="D175" s="2"/>
       <c r="F175" s="5"/>
@@ -10724,7 +11345,7 @@
       <c r="N175" s="5"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B176" s="5"/>
       <c r="D176" s="2"/>
       <c r="F176" s="5"/>
@@ -10734,7 +11355,7 @@
       <c r="N176" s="5"/>
       <c r="P176" s="2"/>
     </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B177" s="5"/>
       <c r="D177" s="2"/>
       <c r="F177" s="5"/>
@@ -10744,7 +11365,7 @@
       <c r="N177" s="5"/>
       <c r="P177" s="2"/>
     </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B178" s="5"/>
       <c r="D178" s="2"/>
       <c r="F178" s="5"/>
@@ -10754,7 +11375,7 @@
       <c r="N178" s="5"/>
       <c r="P178" s="2"/>
     </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B179" s="5"/>
       <c r="D179" s="2"/>
       <c r="F179" s="5"/>
@@ -10764,7 +11385,7 @@
       <c r="N179" s="5"/>
       <c r="P179" s="2"/>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B180" s="5"/>
       <c r="D180" s="2"/>
       <c r="F180" s="5"/>
@@ -10774,7 +11395,7 @@
       <c r="N180" s="5"/>
       <c r="P180" s="2"/>
     </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B181" s="5"/>
       <c r="D181" s="2"/>
       <c r="F181" s="5"/>
@@ -10784,7 +11405,7 @@
       <c r="N181" s="5"/>
       <c r="P181" s="2"/>
     </row>
-    <row r="182" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B182" s="5"/>
       <c r="D182" s="2"/>
       <c r="F182" s="5"/>
@@ -10794,7 +11415,7 @@
       <c r="N182" s="5"/>
       <c r="P182" s="2"/>
     </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B183" s="5"/>
       <c r="D183" s="2"/>
       <c r="F183" s="5"/>
@@ -10804,7 +11425,7 @@
       <c r="N183" s="5"/>
       <c r="P183" s="2"/>
     </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B184" s="5"/>
       <c r="D184" s="2"/>
       <c r="F184" s="5"/>
@@ -10814,7 +11435,7 @@
       <c r="N184" s="5"/>
       <c r="P184" s="2"/>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B185" s="5"/>
       <c r="D185" s="2"/>
       <c r="F185" s="5"/>
@@ -10824,7 +11445,7 @@
       <c r="N185" s="5"/>
       <c r="P185" s="2"/>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B186" s="5"/>
       <c r="D186" s="2"/>
       <c r="F186" s="5"/>
@@ -10834,7 +11455,7 @@
       <c r="N186" s="5"/>
       <c r="P186" s="2"/>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B187" s="5"/>
       <c r="D187" s="2"/>
       <c r="F187" s="5"/>
@@ -10844,7 +11465,7 @@
       <c r="N187" s="5"/>
       <c r="P187" s="2"/>
     </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B188" s="5"/>
       <c r="D188" s="2"/>
       <c r="F188" s="5"/>
@@ -10854,7 +11475,7 @@
       <c r="N188" s="5"/>
       <c r="P188" s="2"/>
     </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B189" s="5"/>
       <c r="D189" s="2"/>
       <c r="F189" s="5"/>
@@ -10864,7 +11485,7 @@
       <c r="N189" s="5"/>
       <c r="P189" s="2"/>
     </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B190" s="5"/>
       <c r="D190" s="2"/>
       <c r="F190" s="5"/>
@@ -10874,7 +11495,7 @@
       <c r="N190" s="5"/>
       <c r="P190" s="2"/>
     </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B191" s="5"/>
       <c r="D191" s="2"/>
       <c r="F191" s="5"/>
@@ -10884,7 +11505,7 @@
       <c r="N191" s="5"/>
       <c r="P191" s="2"/>
     </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B192" s="5"/>
       <c r="D192" s="2"/>
       <c r="F192" s="5"/>
@@ -10894,7 +11515,7 @@
       <c r="N192" s="5"/>
       <c r="P192" s="2"/>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B193" s="5"/>
       <c r="D193" s="2"/>
       <c r="F193" s="5"/>
@@ -10904,7 +11525,7 @@
       <c r="N193" s="5"/>
       <c r="P193" s="2"/>
     </row>
-    <row r="194" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B194" s="5"/>
       <c r="D194" s="2"/>
       <c r="F194" s="5"/>
@@ -10914,8 +11535,9 @@
       <c r="N194" s="5"/>
       <c r="P194" s="2"/>
     </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B195" s="5"/>
+      <c r="C195" s="10"/>
       <c r="D195" s="2"/>
       <c r="F195" s="5"/>
       <c r="H195" s="2"/>
@@ -10924,8 +11546,9 @@
       <c r="N195" s="5"/>
       <c r="P195" s="2"/>
     </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B196" s="5"/>
+      <c r="C196" s="10"/>
       <c r="D196" s="2"/>
       <c r="F196" s="5"/>
       <c r="H196" s="2"/>
@@ -10934,8 +11557,9 @@
       <c r="N196" s="5"/>
       <c r="P196" s="2"/>
     </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B197" s="5"/>
+      <c r="C197" s="10"/>
       <c r="D197" s="2"/>
       <c r="F197" s="5"/>
       <c r="H197" s="2"/>
@@ -10944,8 +11568,9 @@
       <c r="N197" s="5"/>
       <c r="P197" s="2"/>
     </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B198" s="5"/>
+      <c r="C198" s="10"/>
       <c r="D198" s="2"/>
       <c r="F198" s="5"/>
       <c r="H198" s="2"/>
@@ -10954,8 +11579,9 @@
       <c r="N198" s="5"/>
       <c r="P198" s="2"/>
     </row>
-    <row r="199" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B199" s="5"/>
+      <c r="C199" s="10"/>
       <c r="D199" s="2"/>
       <c r="F199" s="5"/>
       <c r="H199" s="2"/>
@@ -10964,7 +11590,7 @@
       <c r="N199" s="5"/>
       <c r="P199" s="2"/>
     </row>
-    <row r="200" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B200" s="5"/>
       <c r="D200" s="2"/>
       <c r="F200" s="5"/>
@@ -10974,7 +11600,7 @@
       <c r="N200" s="5"/>
       <c r="P200" s="2"/>
     </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B201" s="5"/>
       <c r="D201" s="2"/>
       <c r="F201" s="5"/>
@@ -10984,7 +11610,7 @@
       <c r="N201" s="5"/>
       <c r="P201" s="2"/>
     </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B202" s="5"/>
       <c r="D202" s="2"/>
       <c r="F202" s="5"/>
@@ -10994,7 +11620,7 @@
       <c r="N202" s="5"/>
       <c r="P202" s="2"/>
     </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B203" s="5"/>
       <c r="D203" s="2"/>
       <c r="F203" s="5"/>
@@ -11004,7 +11630,7 @@
       <c r="N203" s="5"/>
       <c r="P203" s="2"/>
     </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B204" s="5"/>
       <c r="D204" s="2"/>
       <c r="F204" s="5"/>
@@ -11014,7 +11640,7 @@
       <c r="N204" s="5"/>
       <c r="P204" s="2"/>
     </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B205" s="5"/>
       <c r="D205" s="2"/>
       <c r="F205" s="5"/>
@@ -11024,7 +11650,7 @@
       <c r="N205" s="5"/>
       <c r="P205" s="2"/>
     </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B206" s="5"/>
       <c r="D206" s="2"/>
       <c r="F206" s="5"/>
@@ -11034,7 +11660,7 @@
       <c r="N206" s="5"/>
       <c r="P206" s="2"/>
     </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B207" s="5"/>
       <c r="D207" s="2"/>
       <c r="F207" s="5"/>
@@ -11044,7 +11670,7 @@
       <c r="N207" s="5"/>
       <c r="P207" s="2"/>
     </row>
-    <row r="208" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B208" s="5"/>
       <c r="D208" s="2"/>
       <c r="F208" s="5"/>
@@ -11054,7 +11680,7 @@
       <c r="N208" s="5"/>
       <c r="P208" s="2"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B209" s="5"/>
       <c r="D209" s="2"/>
       <c r="F209" s="5"/>
@@ -11064,7 +11690,7 @@
       <c r="N209" s="5"/>
       <c r="P209" s="2"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B210" s="5"/>
       <c r="D210" s="2"/>
       <c r="F210" s="5"/>
@@ -11074,7 +11700,7 @@
       <c r="N210" s="5"/>
       <c r="P210" s="2"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B211" s="5"/>
       <c r="D211" s="2"/>
       <c r="F211" s="5"/>
@@ -11084,7 +11710,7 @@
       <c r="N211" s="5"/>
       <c r="P211" s="2"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B212" s="4"/>
       <c r="C212" s="10"/>
       <c r="D212" s="2"/>
@@ -11095,7 +11721,7 @@
       <c r="N212" s="5"/>
       <c r="P212" s="2"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
       <c r="C213" s="4"/>
@@ -11111,9 +11737,8 @@
       <c r="M213" s="4"/>
       <c r="N213" s="5"/>
       <c r="O213" s="10"/>
-      <c r="P213" s="2"/>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B214" s="5"/>
       <c r="D214" s="2"/>
       <c r="E214" s="4"/>
@@ -11127,7 +11752,7 @@
       <c r="N214" s="5"/>
       <c r="P214" s="2"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B215" s="5"/>
       <c r="D215" s="2"/>
       <c r="F215" s="5"/>
@@ -11137,7 +11762,7 @@
       <c r="N215" s="5"/>
       <c r="P215" s="2"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B216" s="5"/>
       <c r="D216" s="2"/>
       <c r="F216" s="5"/>
@@ -11147,7 +11772,7 @@
       <c r="N216" s="5"/>
       <c r="P216" s="2"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B217" s="5"/>
       <c r="D217" s="2"/>
       <c r="F217" s="5"/>
@@ -11157,7 +11782,7 @@
       <c r="N217" s="5"/>
       <c r="P217" s="2"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B218" s="5"/>
       <c r="D218" s="2"/>
       <c r="F218" s="5"/>
@@ -11167,9 +11792,9 @@
       <c r="N218" s="5"/>
       <c r="P218" s="2"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A219" s="18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B219" s="19"/>
       <c r="D219" s="2"/>
@@ -11180,7 +11805,7 @@
       <c r="N219" s="5"/>
       <c r="P219" s="2"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A220" s="20"/>
       <c r="B220" s="21"/>
       <c r="D220" s="2"/>
@@ -11191,7 +11816,7 @@
       <c r="N220" s="5"/>
       <c r="P220" s="2"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A221" s="22"/>
       <c r="B221" s="23"/>
       <c r="D221" s="2"/>
@@ -11202,7 +11827,7 @@
       <c r="N221" s="5"/>
       <c r="P221" s="2"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B222" s="5"/>
       <c r="D222" s="2"/>
       <c r="F222" s="5"/>
@@ -11212,7 +11837,7 @@
       <c r="N222" s="5"/>
       <c r="P222" s="2"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B223" s="5"/>
       <c r="D223" s="2"/>
       <c r="F223" s="5"/>
@@ -11222,7 +11847,7 @@
       <c r="N223" s="5"/>
       <c r="P223" s="2"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B224" s="5"/>
       <c r="D224" s="2"/>
       <c r="F224" s="5"/>
@@ -11232,7 +11857,7 @@
       <c r="N224" s="5"/>
       <c r="P224" s="2"/>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B225" s="5"/>
       <c r="D225" s="2"/>
       <c r="F225" s="5"/>
@@ -11242,7 +11867,7 @@
       <c r="N225" s="5"/>
       <c r="P225" s="2"/>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B226" s="5"/>
       <c r="D226" s="2"/>
       <c r="F226" s="5"/>
@@ -11252,7 +11877,7 @@
       <c r="N226" s="5"/>
       <c r="P226" s="2"/>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B227" s="5"/>
       <c r="D227" s="2"/>
       <c r="F227" s="5"/>
@@ -11262,7 +11887,7 @@
       <c r="N227" s="5"/>
       <c r="P227" s="2"/>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B228" s="5"/>
       <c r="D228" s="2"/>
       <c r="F228" s="5"/>
@@ -11272,7 +11897,7 @@
       <c r="N228" s="5"/>
       <c r="P228" s="2"/>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B229" s="5"/>
       <c r="D229" s="2"/>
       <c r="F229" s="5"/>
@@ -11282,7 +11907,7 @@
       <c r="N229" s="5"/>
       <c r="P229" s="2"/>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B230" s="5"/>
       <c r="D230" s="2"/>
       <c r="F230" s="5"/>
@@ -11292,7 +11917,7 @@
       <c r="N230" s="5"/>
       <c r="P230" s="2"/>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B231" s="5"/>
       <c r="D231" s="2"/>
       <c r="F231" s="5"/>
@@ -11302,7 +11927,7 @@
       <c r="N231" s="5"/>
       <c r="P231" s="2"/>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B232" s="5"/>
       <c r="D232" s="2"/>
       <c r="F232" s="5"/>
@@ -11312,7 +11937,7 @@
       <c r="N232" s="5"/>
       <c r="P232" s="2"/>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B233" s="5"/>
       <c r="D233" s="2"/>
       <c r="F233" s="5"/>
@@ -11322,7 +11947,7 @@
       <c r="N233" s="5"/>
       <c r="P233" s="2"/>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B234" s="5"/>
       <c r="D234" s="2"/>
       <c r="F234" s="5"/>
@@ -11332,7 +11957,7 @@
       <c r="N234" s="5"/>
       <c r="P234" s="2"/>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B235" s="5"/>
       <c r="D235" s="2"/>
       <c r="F235" s="5"/>
@@ -11342,23 +11967,253 @@
       <c r="N235" s="5"/>
       <c r="P235" s="2"/>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A236" s="7"/>
-      <c r="B236" s="8"/>
-      <c r="C236" s="7"/>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A236" s="4"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="4"/>
       <c r="D236" s="9"/>
-      <c r="E236" s="7"/>
+      <c r="E236" s="4"/>
       <c r="F236" s="8"/>
       <c r="G236" s="7"/>
-      <c r="H236" s="9"/>
-      <c r="I236" s="7"/>
-      <c r="J236" s="8"/>
-      <c r="K236" s="7"/>
-      <c r="L236" s="9"/>
-      <c r="M236" s="7"/>
-      <c r="N236" s="8"/>
-      <c r="O236" s="7"/>
-      <c r="P236" s="9"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="11"/>
+      <c r="J236" s="5"/>
+      <c r="K236" s="4"/>
+      <c r="L236" s="2"/>
+      <c r="M236" s="11"/>
+      <c r="N236" s="5"/>
+      <c r="O236" s="4"/>
+      <c r="P236" s="2"/>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A237" s="4"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="4"/>
+      <c r="E237" s="11"/>
+      <c r="F237" s="6"/>
+      <c r="H237" s="2"/>
+      <c r="J237" s="5"/>
+      <c r="L237" s="2"/>
+      <c r="N237" s="5"/>
+      <c r="P237" s="2"/>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B238" s="5"/>
+      <c r="D238" s="2"/>
+      <c r="F238" s="5"/>
+      <c r="H238" s="2"/>
+      <c r="J238" s="5"/>
+      <c r="L238" s="2"/>
+      <c r="N238" s="5"/>
+      <c r="P238" s="2"/>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B239" s="5"/>
+      <c r="D239" s="2"/>
+      <c r="F239" s="5"/>
+      <c r="H239" s="2"/>
+      <c r="J239" s="5"/>
+      <c r="L239" s="2"/>
+      <c r="N239" s="5"/>
+      <c r="P239" s="2"/>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B240" s="5"/>
+      <c r="D240" s="2"/>
+      <c r="F240" s="5"/>
+      <c r="H240" s="2"/>
+      <c r="J240" s="5"/>
+      <c r="L240" s="2"/>
+      <c r="N240" s="5"/>
+      <c r="P240" s="2"/>
+    </row>
+    <row r="241" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B241" s="5"/>
+      <c r="D241" s="2"/>
+      <c r="F241" s="5"/>
+      <c r="H241" s="2"/>
+      <c r="J241" s="5"/>
+      <c r="L241" s="2"/>
+      <c r="N241" s="5"/>
+      <c r="P241" s="2"/>
+    </row>
+    <row r="242" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B242" s="5"/>
+      <c r="D242" s="2"/>
+      <c r="F242" s="5"/>
+      <c r="H242" s="2"/>
+      <c r="J242" s="5"/>
+      <c r="L242" s="2"/>
+      <c r="N242" s="5"/>
+      <c r="P242" s="2"/>
+    </row>
+    <row r="243" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B243" s="5"/>
+      <c r="D243" s="2"/>
+      <c r="F243" s="5"/>
+      <c r="H243" s="2"/>
+      <c r="J243" s="5"/>
+      <c r="L243" s="2"/>
+      <c r="N243" s="5"/>
+      <c r="P243" s="2"/>
+    </row>
+    <row r="244" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B244" s="5"/>
+      <c r="D244" s="2"/>
+      <c r="F244" s="5"/>
+      <c r="H244" s="2"/>
+      <c r="J244" s="5"/>
+      <c r="L244" s="2"/>
+      <c r="N244" s="5"/>
+      <c r="P244" s="2"/>
+    </row>
+    <row r="245" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B245" s="5"/>
+      <c r="D245" s="2"/>
+      <c r="F245" s="5"/>
+      <c r="H245" s="2"/>
+      <c r="J245" s="5"/>
+      <c r="L245" s="2"/>
+      <c r="N245" s="5"/>
+      <c r="P245" s="2"/>
+    </row>
+    <row r="246" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B246" s="5"/>
+      <c r="D246" s="2"/>
+      <c r="F246" s="5"/>
+      <c r="H246" s="2"/>
+      <c r="J246" s="5"/>
+      <c r="L246" s="2"/>
+      <c r="N246" s="5"/>
+      <c r="P246" s="2"/>
+    </row>
+    <row r="247" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B247" s="5"/>
+      <c r="D247" s="2"/>
+      <c r="F247" s="5"/>
+      <c r="H247" s="2"/>
+      <c r="J247" s="5"/>
+      <c r="L247" s="2"/>
+      <c r="N247" s="5"/>
+      <c r="P247" s="2"/>
+    </row>
+    <row r="248" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B248" s="5"/>
+      <c r="D248" s="2"/>
+      <c r="F248" s="5"/>
+      <c r="H248" s="2"/>
+      <c r="J248" s="5"/>
+      <c r="L248" s="2"/>
+      <c r="N248" s="5"/>
+      <c r="P248" s="2"/>
+    </row>
+    <row r="249" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B249" s="5"/>
+      <c r="D249" s="2"/>
+      <c r="F249" s="5"/>
+      <c r="H249" s="2"/>
+      <c r="J249" s="5"/>
+      <c r="L249" s="2"/>
+      <c r="N249" s="5"/>
+      <c r="P249" s="2"/>
+    </row>
+    <row r="250" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B250" s="5"/>
+      <c r="D250" s="2"/>
+      <c r="F250" s="5"/>
+      <c r="H250" s="2"/>
+      <c r="J250" s="5"/>
+      <c r="L250" s="2"/>
+      <c r="N250" s="5"/>
+      <c r="P250" s="2"/>
+    </row>
+    <row r="251" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B251" s="5"/>
+      <c r="D251" s="2"/>
+      <c r="F251" s="5"/>
+      <c r="H251" s="2"/>
+      <c r="J251" s="5"/>
+      <c r="L251" s="2"/>
+      <c r="N251" s="5"/>
+      <c r="P251" s="2"/>
+    </row>
+    <row r="252" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B252" s="5"/>
+      <c r="D252" s="2"/>
+      <c r="F252" s="5"/>
+      <c r="H252" s="2"/>
+      <c r="J252" s="5"/>
+      <c r="L252" s="2"/>
+      <c r="N252" s="5"/>
+      <c r="P252" s="2"/>
+    </row>
+    <row r="253" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B253" s="5"/>
+      <c r="D253" s="2"/>
+      <c r="F253" s="5"/>
+      <c r="H253" s="2"/>
+      <c r="J253" s="5"/>
+      <c r="L253" s="2"/>
+      <c r="N253" s="5"/>
+      <c r="P253" s="2"/>
+    </row>
+    <row r="254" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B254" s="5"/>
+      <c r="D254" s="2"/>
+      <c r="F254" s="5"/>
+      <c r="H254" s="2"/>
+      <c r="J254" s="5"/>
+      <c r="L254" s="2"/>
+      <c r="N254" s="5"/>
+      <c r="P254" s="2"/>
+    </row>
+    <row r="255" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B255" s="5"/>
+      <c r="D255" s="2"/>
+      <c r="F255" s="5"/>
+      <c r="H255" s="2"/>
+      <c r="J255" s="5"/>
+      <c r="L255" s="2"/>
+      <c r="N255" s="5"/>
+      <c r="P255" s="2"/>
+    </row>
+    <row r="256" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B256" s="5"/>
+      <c r="D256" s="2"/>
+      <c r="F256" s="5"/>
+      <c r="H256" s="2"/>
+      <c r="J256" s="5"/>
+      <c r="L256" s="2"/>
+      <c r="N256" s="5"/>
+      <c r="P256" s="2"/>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B257" s="5"/>
+      <c r="D257" s="2"/>
+      <c r="F257" s="5"/>
+      <c r="H257" s="2"/>
+      <c r="J257" s="5"/>
+      <c r="L257" s="2"/>
+      <c r="N257" s="5"/>
+      <c r="P257" s="2"/>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A258" s="7"/>
+      <c r="B258" s="8"/>
+      <c r="C258" s="7"/>
+      <c r="D258" s="9"/>
+      <c r="E258" s="7"/>
+      <c r="F258" s="8"/>
+      <c r="G258" s="7"/>
+      <c r="H258" s="9"/>
+      <c r="I258" s="7"/>
+      <c r="J258" s="8"/>
+      <c r="K258" s="7"/>
+      <c r="L258" s="9"/>
+      <c r="M258" s="7"/>
+      <c r="N258" s="8"/>
+      <c r="O258" s="7"/>
+      <c r="P258" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
+++ b/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\md\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6A56B7-C707-4D72-B828-6831F4A277A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6DB07A-8E98-435E-B9A8-A3B22F4C39DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로토콜 흐름도" sheetId="1" r:id="rId1"/>
@@ -356,6 +356,59 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>151184</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="185" name="직선 화살표 연결선 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4279F3BB-B595-4F0A-BBCB-5FC96308FA79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1333500" y="44985214"/>
+          <a:ext cx="2653393" cy="232827"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>648019</xdr:colOff>
       <xdr:row>235</xdr:row>
@@ -6429,14 +6482,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>448</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>207240</xdr:rowOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>43951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>8068</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>150762</xdr:rowOff>
+      <xdr:colOff>15688</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>193757</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6451,8 +6504,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3375019" y="52676383"/>
-          <a:ext cx="1357449" cy="378950"/>
+          <a:off x="3334198" y="44239951"/>
+          <a:ext cx="1348740" cy="367520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6502,14 +6555,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>196367</xdr:rowOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>42603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>645938</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>13166</xdr:rowOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>71400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6524,8 +6577,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1284514" y="45045510"/>
-          <a:ext cx="2061081" cy="252227"/>
+          <a:off x="1276350" y="44456317"/>
+          <a:ext cx="2036588" cy="246512"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6555,14 +6608,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>343573</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>148296</xdr:rowOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>206531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>410248</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>191439</xdr:rowOff>
+      <xdr:colOff>402628</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>16719</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6577,8 +6630,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1693402" y="44997439"/>
-          <a:ext cx="1416503" cy="260857"/>
+          <a:off x="1677073" y="44402531"/>
+          <a:ext cx="1392555" cy="245617"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6625,15 +6678,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>89646</xdr:colOff>
+      <xdr:colOff>93456</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>104370</xdr:rowOff>
+      <xdr:rowOff>102464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>48825</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>202982</xdr:rowOff>
+      <xdr:colOff>50730</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6648,8 +6701,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11563189" y="51049513"/>
-          <a:ext cx="3333750" cy="969469"/>
+          <a:off x="11428206" y="43209893"/>
+          <a:ext cx="3291024" cy="1122177"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6850,15 +6903,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>8964</xdr:colOff>
+      <xdr:colOff>10869</xdr:colOff>
       <xdr:row>194</xdr:row>
-      <xdr:rowOff>176087</xdr:rowOff>
+      <xdr:rowOff>172277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>29090</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>176087</xdr:rowOff>
+      <xdr:colOff>27185</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6873,8 +6926,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10807593" y="50250373"/>
-          <a:ext cx="695040" cy="2394857"/>
+          <a:off x="10678869" y="42408848"/>
+          <a:ext cx="683066" cy="2113723"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -9230,6 +9283,350 @@
             </a:rPr>
             <a:t>윈폼에 정보 전송</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>311060</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>387260</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>170908</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="TextBox 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF46768A-3714-4920-85AD-F9C18CD57335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1644560" y="44985215"/>
+          <a:ext cx="1409700" cy="252550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>&lt;CMD=RESET&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>421078</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>31649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>665032</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>82422</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="186" name="직선 화살표 연결선 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA550AFC-B67E-45D9-AF9E-84E8D682F1AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5755078" y="45316220"/>
+          <a:ext cx="3577704" cy="268488"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27070</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>14504</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="TextBox 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83C4FC6-8D2C-4C5A-9FAD-AD3E7E179BA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3796393" y="45202928"/>
+          <a:ext cx="2231427" cy="531576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>적외선 센서 상태 요청</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>&lt;CMD=REQUEST_SENSOR_STATE&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>170905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>29923</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>49247</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="오른쪽 중괄호 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96EE347A-0E28-48E9-BBAB-EF3AAC0D74C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10681607" y="44802334"/>
+          <a:ext cx="683066" cy="966913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 53448"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>60144</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>215810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="TextBox 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101EBED5-7AA2-45E8-A832-7E3A8170D6AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11426190" y="45107679"/>
+          <a:ext cx="3302454" cy="392702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>PI2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>에게 센서 상태 요청을 재전송한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9503,8 +9900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G148" sqref="G148"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q170" sqref="Q170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
+++ b/doc/01. 프로젝트 설계/06. 통신 프로토콜/Server 프로토콜_분류공정.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\md\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ANU-SmartFactory2021\doc\01. 프로젝트 설계\06. 통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6A56B7-C707-4D72-B828-6831F4A277A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED53D03-B8E0-4389-8895-6C9C27D1D82C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9503,7 +9503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
